--- a/GATEWAY/A1#111INFORDATADHS/INFORDATA_DIGITAL_HEALTH_SOLUTIONS/Astrolabio/11.252.694/report_checklist.xlsx
+++ b/GATEWAY/A1#111INFORDATADHS/INFORDATA_DIGITAL_HEALTH_SOLUTIONS/Astrolabio/11.252.694/report_checklist.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="708">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -22,13 +22,13 @@
     <t>IDENTIFICATIVI SOFTWARE</t>
   </si>
   <si>
-    <t>subject_application_id: AstroL@bI/O</t>
-  </si>
-  <si>
-    <t>subject_application_vendor: Infordata Digital Health Solutions</t>
-  </si>
-  <si>
-    <t>subject_application_version: 11.252.694</t>
+    <t>subject_application_id:AstroL@bI/O</t>
+  </si>
+  <si>
+    <t>subject_application_vendor:Infordata Digital Health Solutions</t>
+  </si>
+  <si>
+    <t>subject_application_version:11.252.694</t>
   </si>
   <si>
     <t>ID</t>
@@ -132,6 +132,10 @@
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -179,6 +183,10 @@
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -217,6 +225,10 @@
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -255,6 +267,10 @@
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -293,6 +309,10 @@
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 5" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 5" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 5" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 5" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -323,6 +343,8 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -341,6 +363,8 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -359,6 +383,8 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -377,6 +403,8 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -398,6 +426,8 @@
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -416,6 +446,8 @@
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -434,6 +466,8 @@
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -452,6 +486,8 @@
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -473,6 +509,8 @@
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -491,6 +529,8 @@
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -508,6 +548,8 @@
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti"casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti"casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti"casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti"casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti"casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti"casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -525,6 +567,8 @@
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -545,6 +589,8 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -562,6 +608,8 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -579,6 +627,8 @@
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -586,6 +636,8 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
@@ -646,6 +698,14 @@
 Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
 Descrizione di Business del caso di test: 
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".Precondizioni:
+Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
+Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".Precondizioni:
+Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
+Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
   </si>
   <si>
@@ -664,7 +724,7 @@
     <t>NO</t>
   </si>
   <si>
-    <t>L'invio dei referti all'FSE avviente tramite la gestione di una coda interattiva richiamabile da apposito menù in varie momenti della giornata ad esempio a seguito di una sessione di validazioe e firma. Nella gestione documentale integrata nell'applicatico è stato aggiunto un campo a valorizzare lo stato del documento rispetto all'invio FSE TfseStato=(fseNessuno,fseDaInviare,fseInviato,fseDaSostituire,fseCancellato,fseValidato);. La coda viene popolata da tutti i documenti in stato FSEDaInviare e FSEDaSostituire ecc. Premesso che il CDA viene creato al momento stesso della generazione del PDF per evitare che i dati del CDA non siano uguali a quelli del PDF, qualora l'errore si verifichasse nella trasmissione lo stato rimane in fseDaInviare ed il messaggio di errore contenuto nella risposta visualizzato all'operatore che sta facendo l'invio. In tal caso è necessario correggere l'errore, creare un documento aggiorntao contenente il nuovo CDA e rinviare. Solo in caso di esito positivo lo stato passa ad FSEInviato. I documenti in stato FSEDaInviare vengono riproposti automaticamente ad ogni nuovo invio batch in modo che non vengano bypassati. Non è possibile rinviare un documento errato senza che non se ne abbia contezza,corretto e ricreato, anche perchè si otterrebbe di nuovo lo stesso messaggio di errore. In caso di errore livello applicatico BUG, tipo errore di creazione del JWT ovviamente va fatta una segnalazione al nostro HelpDesk, ma questa eventualità è quasi impossibile una volta testato l'applicativo.</t>
+    <t>L'invio dei referti all'FSE avviente tramite la gestione di una coda interattiva richiamabile da apposito menù in varie momenti della giornata ad esempio a seguito di una sessione di validazione e firma. Nella gestione documentale integrata nell'applicatico è stato aggiunto un campo a valorizzare lo stato del documento rispetto all'invio FSE TfseStato=(fseNessuno,fseDaInviare,fseInviato,fseDaSostituire,fseCancellato,fseValidato);. La coda viene popolata da tutti i documenti in stato FSEDaInviare e FSEDaSostituire ecc. Premesso che il CDA viene creato al momento stesso della generazione del PDF per evitare che i dati del CDA non siano uguali a quelli del PDF, qualora l'errore si verificasse nella trasmissione lo stato rimane in fseDaInviare ed il messaggio di errore contenuto nella risposta visualizzato all'operatore che sta facendo l'invio. In tal caso è necessario correggere l'errore, creare un documento aggiorntao contenente il nuovo CDA e rinviare. Solo in caso di esito positivo lo stato passa ad FSEInviato. I documenti in stato FSEDaInviare vengono riproposti automaticamente ad ogni nuovo invio batch in modo che non vengano bypassati. Non è possibile rinviare un documento errato senza che non se ne abbia contezza,corretto e ricreato, anche perchè si otterrebbe di nuovo lo stesso messaggio di errore. In caso di errore livello applicatico BUG, tipo errore di creazione del JWT ovviamente va fatta una segnalazione al nostro HelpDesk, ma questa eventualità è quasi impossibile una volta testato l'applicativo.</t>
   </si>
   <si>
     <t>KO</t>
@@ -692,9 +752,6 @@
   </si>
   <si>
     <t>Campo token JWT non valido.","detail":"Il campo purpose_of_use non è valorizzato","status":403</t>
-  </si>
-  <si>
-    <t>L'invio dei referti all'FSE avviente tramite la gestione di una coda interattiva richiamabile da apposito menù in varie momenti della giornata ad esempio a seguito di una sessione di validazioe e firma. Nella gestione documentale integrata nell'applicatico è stato aggiunto un campo a valorizzare lo stato del documento rispetto all'invio FSE TfseStato=(fseNessuno,fseDaInviare,fseInviato,fseDaSostituire,fseCancellato,fseValidato);. La coda viene popolata da tutti i documenti in stato FSEDaInviare e FSEDaSostituire ecc. Premesso che il CDA viene creato al momento stesso della generazione del PDF per evitare che i dati del CDA non siano uguali a quelli del PDF, qualora l'errore si verificasse nella trasmissione lo stato rimane in fseDaInviare ed il messaggio di errore contenuto nella risposta visualizzato all'operatore che sta facendo l'invio. In tal caso è necessario correggere l'errore, creare un documento aggiornato contenente il nuovo CDA e rinviare. Solo in caso di esito positivo lo stato passa ad FSEInviato. I documenti in stato FSEDaInviare vengono riproposti automaticamente ad ogni nuovo invio batch in modo che non vengano bypassati. Non è possibile rinviare un documento errato senza che non se ne abbia contezza,corretto e ricreato, anche perchè si otterrebbe di nuovo lo stesso messaggio di errore. In caso di errore livello applicatico BUG, tipo errore di creazione del JWT ovviamente va fatta una segnalazione al nostro HelpDesk, ma questa eventualità è quasi impossibile una volta testato l'applicativo.</t>
   </si>
   <si>
     <t>RSA</t>
@@ -768,6 +825,14 @@
 Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
 Descrizione di Business del caso di test: 
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).Precondizioni:
+Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).Precondizioni:
+Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
   </si>
   <si>
@@ -826,6 +891,14 @@
 Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
 Descrizione di Business del caso di test: 
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).Precondizioni:
+Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).Precondizioni:
+Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
   </si>
   <si>
@@ -875,6 +948,8 @@
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
   </si>
   <si>
@@ -918,6 +993,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -946,6 +1023,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -973,6 +1052,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1000,6 +1081,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1027,6 +1110,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1054,6 +1139,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1081,6 +1168,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1108,6 +1197,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1135,6 +1226,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1162,6 +1255,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1189,6 +1284,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1216,6 +1313,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1231,6 +1330,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1246,6 +1347,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1261,6 +1364,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1276,6 +1381,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1291,6 +1398,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1306,6 +1415,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1320,6 +1431,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1334,6 +1447,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1348,6 +1463,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1362,6 +1479,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1376,6 +1495,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1390,6 +1511,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1413,6 +1536,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1439,6 +1564,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1462,6 +1589,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1488,6 +1617,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1514,6 +1645,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1540,6 +1673,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1566,6 +1701,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1592,6 +1729,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1618,6 +1757,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1644,6 +1785,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1669,6 +1812,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1694,6 +1839,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1719,6 +1866,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1744,6 +1893,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1769,6 +1920,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1788,6 +1941,8 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
@@ -1825,6 +1980,10 @@
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1850,6 +2009,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1875,6 +2036,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1888,6 +2051,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1901,6 +2066,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1914,6 +2081,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1927,6 +2096,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1940,6 +2111,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1953,6 +2126,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1966,6 +2141,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1978,6 +2155,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -1990,6 +2169,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2002,6 +2183,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2014,6 +2197,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2026,6 +2211,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2038,6 +2225,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2050,6 +2239,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2062,6 +2253,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2074,6 +2267,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2086,6 +2281,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2098,6 +2295,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2110,6 +2309,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2122,6 +2323,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2134,6 +2337,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2146,6 +2351,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2158,6 +2365,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2169,6 +2378,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2180,6 +2391,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2191,6 +2404,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2202,6 +2417,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2213,6 +2430,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2224,6 +2443,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2235,6 +2456,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2246,6 +2469,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2257,6 +2482,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2268,6 +2495,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2279,6 +2508,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2290,6 +2521,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2301,6 +2534,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2312,6 +2547,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2323,6 +2560,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2334,6 +2573,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2344,6 +2585,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2354,6 +2597,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2364,6 +2609,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2374,6 +2621,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2384,6 +2633,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2394,6 +2645,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2404,6 +2657,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2414,6 +2669,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2424,6 +2681,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2434,6 +2693,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2444,6 +2705,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2454,6 +2717,8 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2461,6 +2726,8 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
@@ -2477,6 +2744,10 @@
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2499,6 +2770,10 @@
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2521,6 +2796,10 @@
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2541,6 +2820,10 @@
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2559,6 +2842,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2580,6 +2865,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2601,6 +2888,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2622,6 +2911,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2643,6 +2934,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2661,6 +2954,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2682,6 +2977,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2703,6 +3000,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2724,6 +3023,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2742,6 +3043,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2763,6 +3066,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2784,6 +3089,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2805,6 +3112,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2826,6 +3135,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2847,6 +3158,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2867,6 +3180,8 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2887,6 +3202,8 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2907,6 +3224,8 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2924,6 +3243,8 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2944,6 +3265,8 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2952,6 +3275,8 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2960,6 +3285,8 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2968,6 +3295,8 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2976,6 +3305,8 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2984,6 +3315,8 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -2992,6 +3325,8 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3000,6 +3335,8 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3008,6 +3345,8 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3016,6 +3355,8 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3024,6 +3365,8 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3032,6 +3375,8 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3039,6 +3384,8 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3046,6 +3393,8 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3053,6 +3402,8 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3060,6 +3411,8 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3067,6 +3420,8 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3074,6 +3429,10 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3081,6 +3440,10 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3097,6 +3460,8 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3105,6 +3470,7 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3113,6 +3479,7 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3120,6 +3487,7 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
@@ -3130,6 +3498,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3148,6 +3518,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3158,6 +3530,7 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
@@ -3168,6 +3541,8 @@
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3175,6 +3550,8 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
@@ -3260,6 +3637,7 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3267,6 +3645,7 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3274,6 +3653,7 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3281,6 +3661,7 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3288,6 +3669,7 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3295,6 +3677,7 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3302,6 +3685,7 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -3309,6 +3693,7 @@
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -4068,10 +4453,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="63.75"/>
+    <col customWidth="1" min="3" max="3" width="25.25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51.0" customHeight="1">
+    <row r="1" ht="27.0" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4096,7 +4481,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" ht="51.0" customHeight="1">
+    <row r="2" ht="27.0" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4125,7 +4510,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" ht="51.0" customHeight="1">
+    <row r="3" ht="27.0" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -4154,7 +4539,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" ht="51.0" customHeight="1">
+    <row r="4" ht="27.0" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="8" t="s">
@@ -4181,7 +4566,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" ht="51.0" customHeight="1">
+    <row r="5" ht="27.0" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="8" t="s">
@@ -4208,7 +4593,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" ht="51.0" customHeight="1">
+    <row r="6" ht="27.0" customHeight="1">
       <c r="A6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="1"/>
@@ -4232,7 +4617,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" ht="51.0" customHeight="1">
+    <row r="7" ht="27.0" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -4257,7 +4642,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" ht="51.0" customHeight="1">
+    <row r="8" ht="27.0" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4282,7 +4667,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" ht="51.0" customHeight="1">
+    <row r="9" ht="27.0" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
@@ -4353,7 +4738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="51.0" customHeight="1">
+    <row r="10" ht="27.0" customHeight="1">
       <c r="A10" s="17">
         <v>1.0</v>
       </c>
@@ -4402,7 +4787,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" ht="51.0" customHeight="1">
+    <row r="11" ht="27.0" customHeight="1">
       <c r="A11" s="17">
         <v>2.0</v>
       </c>
@@ -4451,7 +4836,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" ht="51.0" customHeight="1">
+    <row r="12" ht="27.0" customHeight="1">
       <c r="A12" s="17">
         <v>3.0</v>
       </c>
@@ -4500,7 +4885,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" ht="51.0" customHeight="1">
+    <row r="13" ht="27.0" customHeight="1">
       <c r="A13" s="17">
         <v>4.0</v>
       </c>
@@ -4549,7 +4934,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" ht="51.0" customHeight="1">
+    <row r="14" ht="27.0" customHeight="1">
       <c r="A14" s="17">
         <v>5.0</v>
       </c>
@@ -4598,7 +4983,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" ht="51.0" customHeight="1">
+    <row r="15" ht="27.0" customHeight="1">
       <c r="A15" s="17">
         <v>6.0</v>
       </c>
@@ -4635,7 +5020,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" ht="51.0" customHeight="1">
+    <row r="16" ht="27.0" customHeight="1">
       <c r="A16" s="17">
         <v>7.0</v>
       </c>
@@ -4672,7 +5057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" ht="51.0" customHeight="1">
+    <row r="17" ht="27.0" customHeight="1">
       <c r="A17" s="17">
         <v>8.0</v>
       </c>
@@ -4709,7 +5094,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" ht="51.0" customHeight="1">
+    <row r="18" ht="27.0" customHeight="1">
       <c r="A18" s="17">
         <v>9.0</v>
       </c>
@@ -4746,7 +5131,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" ht="51.0" customHeight="1">
+    <row r="19" ht="27.0" customHeight="1">
       <c r="A19" s="17">
         <v>16.0</v>
       </c>
@@ -4783,7 +5168,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" ht="51.0" customHeight="1">
+    <row r="20" ht="27.0" customHeight="1">
       <c r="A20" s="17">
         <v>17.0</v>
       </c>
@@ -4820,7 +5205,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" ht="51.0" customHeight="1">
+    <row r="21" ht="27.0" customHeight="1">
       <c r="A21" s="17">
         <v>18.0</v>
       </c>
@@ -4857,7 +5242,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" ht="51.0" customHeight="1">
+    <row r="22" ht="27.0" customHeight="1">
       <c r="A22" s="17">
         <v>19.0</v>
       </c>
@@ -4894,7 +5279,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" ht="51.0" customHeight="1">
+    <row r="23" ht="27.0" customHeight="1">
       <c r="A23" s="17">
         <v>20.0</v>
       </c>
@@ -4931,7 +5316,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" ht="51.0" customHeight="1">
+    <row r="24" ht="27.0" customHeight="1">
       <c r="A24" s="17">
         <v>21.0</v>
       </c>
@@ -4968,7 +5353,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="51.0" customHeight="1">
+    <row r="25" ht="27.0" customHeight="1">
       <c r="A25" s="17">
         <v>22.0</v>
       </c>
@@ -5005,7 +5390,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" ht="51.0" customHeight="1">
+    <row r="26" ht="27.0" customHeight="1">
       <c r="A26" s="17">
         <v>23.0</v>
       </c>
@@ -5042,7 +5427,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" ht="51.0" customHeight="1">
+    <row r="27" ht="27.0" customHeight="1">
       <c r="A27" s="17">
         <v>24.0</v>
       </c>
@@ -5079,7 +5464,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" ht="51.0" customHeight="1">
+    <row r="28" ht="27.0" customHeight="1">
       <c r="A28" s="17">
         <v>25.0</v>
       </c>
@@ -5116,7 +5501,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" ht="51.0" customHeight="1">
+    <row r="29" ht="27.0" customHeight="1">
       <c r="A29" s="17">
         <v>26.0</v>
       </c>
@@ -5153,7 +5538,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" ht="51.0" customHeight="1">
+    <row r="30" ht="27.0" customHeight="1">
       <c r="A30" s="17">
         <v>27.0</v>
       </c>
@@ -5190,7 +5575,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" ht="51.0" customHeight="1">
+    <row r="31" ht="27.0" customHeight="1">
       <c r="A31" s="17">
         <v>28.0</v>
       </c>
@@ -5251,7 +5636,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" ht="51.0" customHeight="1">
+    <row r="32" ht="27.0" customHeight="1">
       <c r="A32" s="17">
         <v>29.0</v>
       </c>
@@ -5288,7 +5673,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" ht="51.0" customHeight="1">
+    <row r="33" ht="27.0" customHeight="1">
       <c r="A33" s="17">
         <v>30.0</v>
       </c>
@@ -5325,7 +5710,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" ht="51.0" customHeight="1">
+    <row r="34" ht="27.0" customHeight="1">
       <c r="A34" s="17">
         <v>31.0</v>
       </c>
@@ -5377,7 +5762,7 @@
         <v>36</v>
       </c>
       <c r="S34" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T34" s="23"/>
       <c r="U34" s="23"/>
@@ -5386,7 +5771,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" ht="51.0" customHeight="1">
+    <row r="35" ht="27.0" customHeight="1">
       <c r="A35" s="17">
         <v>32.0</v>
       </c>
@@ -5394,10 +5779,10 @@
         <v>29</v>
       </c>
       <c r="C35" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="E35" s="27" t="s">
         <v>96</v>
@@ -5406,10 +5791,10 @@
         <v>45625.0</v>
       </c>
       <c r="G35" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>116</v>
       </c>
       <c r="I35" s="22" t="s">
         <v>99</v>
@@ -5426,7 +5811,7 @@
         <v>36</v>
       </c>
       <c r="O35" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P35" s="22" t="s">
         <v>36</v>
@@ -5447,7 +5832,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" ht="51.0" customHeight="1">
+    <row r="36" ht="27.0" customHeight="1">
       <c r="A36" s="17">
         <v>33.0</v>
       </c>
@@ -5458,7 +5843,7 @@
         <v>68</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E36" s="27" t="s">
         <v>96</v>
@@ -5484,7 +5869,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" ht="51.0" customHeight="1">
+    <row r="37" ht="27.0" customHeight="1">
       <c r="A37" s="17">
         <v>34.0</v>
       </c>
@@ -5495,7 +5880,7 @@
         <v>77</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E37" s="27" t="s">
         <v>96</v>
@@ -5521,7 +5906,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" ht="51.0" customHeight="1">
+    <row r="38" ht="27.0" customHeight="1">
       <c r="A38" s="17">
         <v>35.0</v>
       </c>
@@ -5532,7 +5917,7 @@
         <v>86</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E38" s="27" t="s">
         <v>96</v>
@@ -5558,7 +5943,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" ht="51.0" customHeight="1">
+    <row r="39" ht="27.0" customHeight="1">
       <c r="A39" s="17">
         <v>36.0</v>
       </c>
@@ -5569,19 +5954,19 @@
         <v>30</v>
       </c>
       <c r="D39" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>122</v>
       </c>
       <c r="F39" s="20">
         <v>45507.0</v>
       </c>
       <c r="G39" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>124</v>
       </c>
       <c r="I39" s="22" t="s">
         <v>99</v>
@@ -5598,7 +5983,7 @@
         <v>36</v>
       </c>
       <c r="O39" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P39" s="22" t="s">
         <v>36</v>
@@ -5619,7 +6004,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" ht="51.0" customHeight="1">
+    <row r="40" ht="27.0" customHeight="1">
       <c r="A40" s="17">
         <v>37.0</v>
       </c>
@@ -5630,10 +6015,10 @@
         <v>59</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="23"/>
@@ -5656,7 +6041,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" ht="51.0" customHeight="1">
+    <row r="41" ht="27.0" customHeight="1">
       <c r="A41" s="17">
         <v>38.0</v>
       </c>
@@ -5667,10 +6052,10 @@
         <v>105</v>
       </c>
       <c r="D41" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>128</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="23"/>
@@ -5693,7 +6078,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" ht="51.0" customHeight="1">
+    <row r="42" ht="27.0" customHeight="1">
       <c r="A42" s="17">
         <v>39.0</v>
       </c>
@@ -5704,19 +6089,19 @@
         <v>107</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F42" s="20">
         <v>45562.0</v>
       </c>
       <c r="G42" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>131</v>
       </c>
       <c r="I42" s="22" t="s">
         <v>99</v>
@@ -5733,7 +6118,7 @@
         <v>36</v>
       </c>
       <c r="O42" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P42" s="22" t="s">
         <v>36</v>
@@ -5745,7 +6130,7 @@
         <v>36</v>
       </c>
       <c r="S42" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T42" s="23"/>
       <c r="U42" s="23"/>
@@ -5754,7 +6139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" ht="51.0" customHeight="1">
+    <row r="43" ht="27.0" customHeight="1">
       <c r="A43" s="17">
         <v>40.0</v>
       </c>
@@ -5762,22 +6147,22 @@
         <v>29</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F43" s="20">
         <v>45625.0</v>
       </c>
       <c r="G43" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" s="22" t="s">
         <v>134</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>135</v>
       </c>
       <c r="I43" s="22" t="s">
         <v>99</v>
@@ -5794,7 +6179,7 @@
         <v>36</v>
       </c>
       <c r="O43" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P43" s="22" t="s">
         <v>36</v>
@@ -5815,7 +6200,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" ht="51.0" customHeight="1">
+    <row r="44" ht="27.0" customHeight="1">
       <c r="A44" s="17">
         <v>41.0</v>
       </c>
@@ -5826,10 +6211,10 @@
         <v>68</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="23"/>
@@ -5852,7 +6237,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" ht="51.0" customHeight="1">
+    <row r="45" ht="27.0" customHeight="1">
       <c r="A45" s="17">
         <v>42.0</v>
       </c>
@@ -5863,10 +6248,10 @@
         <v>77</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="23"/>
@@ -5889,7 +6274,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" ht="51.0" customHeight="1">
+    <row r="46" ht="27.0" customHeight="1">
       <c r="A46" s="17">
         <v>43.0</v>
       </c>
@@ -5900,10 +6285,10 @@
         <v>86</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="23"/>
@@ -5926,7 +6311,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" ht="51.0" customHeight="1">
+    <row r="47" ht="27.0" customHeight="1">
       <c r="A47" s="17">
         <v>44.0</v>
       </c>
@@ -5937,10 +6322,10 @@
         <v>30</v>
       </c>
       <c r="D47" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="19" t="s">
         <v>140</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="23"/>
@@ -5958,7 +6343,7 @@
         <v>36</v>
       </c>
       <c r="O47" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P47" s="22" t="s">
         <v>36</v>
@@ -5970,16 +6355,18 @@
         <v>36</v>
       </c>
       <c r="S47" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
+      <c r="U47" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="V47" s="24"/>
       <c r="W47" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" ht="51.0" customHeight="1">
+    <row r="48" ht="27.0" customHeight="1">
       <c r="A48" s="17">
         <v>45.0</v>
       </c>
@@ -5990,10 +6377,10 @@
         <v>59</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="23"/>
@@ -6010,13 +6397,15 @@
       <c r="R48" s="23"/>
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
+      <c r="U48" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="V48" s="24"/>
       <c r="W48" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" ht="51.0" customHeight="1">
+    <row r="49" ht="27.0" customHeight="1">
       <c r="A49" s="17">
         <v>46.0</v>
       </c>
@@ -6027,10 +6416,10 @@
         <v>105</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="23"/>
@@ -6047,13 +6436,15 @@
       <c r="R49" s="23"/>
       <c r="S49" s="23"/>
       <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
+      <c r="U49" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="V49" s="24"/>
       <c r="W49" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="50" ht="51.0" customHeight="1">
+    <row r="50" ht="27.0" customHeight="1">
       <c r="A50" s="17">
         <v>47.0</v>
       </c>
@@ -6064,10 +6455,10 @@
         <v>107</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="23"/>
@@ -6085,7 +6476,7 @@
         <v>36</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P50" s="22" t="s">
         <v>36</v>
@@ -6097,16 +6488,18 @@
         <v>36</v>
       </c>
       <c r="S50" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
+      <c r="U50" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="V50" s="24"/>
       <c r="W50" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="51" ht="51.0" customHeight="1">
+    <row r="51" ht="27.0" customHeight="1">
       <c r="A51" s="17">
         <v>48.0</v>
       </c>
@@ -6114,13 +6507,13 @@
         <v>29</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="23"/>
@@ -6138,7 +6531,7 @@
         <v>36</v>
       </c>
       <c r="O51" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P51" s="22" t="s">
         <v>36</v>
@@ -6150,16 +6543,18 @@
         <v>36</v>
       </c>
       <c r="S51" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
+      <c r="U51" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="V51" s="24"/>
       <c r="W51" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" ht="51.0" customHeight="1">
+    <row r="52" ht="27.0" customHeight="1">
       <c r="A52" s="17">
         <v>49.0</v>
       </c>
@@ -6170,10 +6565,10 @@
         <v>68</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="23"/>
@@ -6190,13 +6585,15 @@
       <c r="R52" s="23"/>
       <c r="S52" s="23"/>
       <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
+      <c r="U52" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="V52" s="24"/>
       <c r="W52" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" ht="51.0" customHeight="1">
+    <row r="53" ht="27.0" customHeight="1">
       <c r="A53" s="17">
         <v>50.0</v>
       </c>
@@ -6207,10 +6604,10 @@
         <v>77</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="23"/>
@@ -6227,13 +6624,15 @@
       <c r="R53" s="23"/>
       <c r="S53" s="23"/>
       <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
+      <c r="U53" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="V53" s="24"/>
       <c r="W53" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" ht="51.0" customHeight="1">
+    <row r="54" ht="27.0" customHeight="1">
       <c r="A54" s="17">
         <v>51.0</v>
       </c>
@@ -6244,10 +6643,10 @@
         <v>86</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="23"/>
@@ -6264,13 +6663,15 @@
       <c r="R54" s="23"/>
       <c r="S54" s="23"/>
       <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
+      <c r="U54" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="V54" s="24"/>
       <c r="W54" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" ht="51.0" customHeight="1">
+    <row r="55" ht="27.0" customHeight="1">
       <c r="A55" s="17">
         <v>52.0</v>
       </c>
@@ -6281,22 +6682,22 @@
         <v>30</v>
       </c>
       <c r="D55" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" s="19" t="s">
         <v>151</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>152</v>
       </c>
       <c r="F55" s="20">
         <v>45504.0</v>
       </c>
       <c r="G55" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="H55" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="H55" s="22" t="s">
+      <c r="I55" s="22" t="s">
         <v>154</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>155</v>
       </c>
       <c r="J55" s="22" t="s">
         <v>36</v>
@@ -6310,7 +6711,7 @@
         <v>36</v>
       </c>
       <c r="O55" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P55" s="22" t="s">
         <v>36</v>
@@ -6331,7 +6732,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" ht="51.0" customHeight="1">
+    <row r="56" ht="27.0" customHeight="1">
       <c r="A56" s="17">
         <v>53.0</v>
       </c>
@@ -6342,22 +6743,22 @@
         <v>30</v>
       </c>
       <c r="D56" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>158</v>
       </c>
       <c r="F56" s="20">
         <v>45505.0</v>
       </c>
       <c r="G56" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H56" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="H56" s="22" t="s">
+      <c r="I56" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="I56" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="J56" s="22" t="s">
         <v>36</v>
@@ -6371,7 +6772,7 @@
         <v>36</v>
       </c>
       <c r="O56" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P56" s="22" t="s">
         <v>36</v>
@@ -6392,7 +6793,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" ht="51.0" customHeight="1">
+    <row r="57" ht="27.0" customHeight="1">
       <c r="A57" s="17">
         <v>54.0</v>
       </c>
@@ -6403,22 +6804,22 @@
         <v>30</v>
       </c>
       <c r="D57" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="F57" s="20">
         <v>45505.0</v>
       </c>
       <c r="G57" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H57" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="H57" s="22" t="s">
+      <c r="I57" s="22" t="s">
         <v>166</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>167</v>
       </c>
       <c r="J57" s="22" t="s">
         <v>36</v>
@@ -6432,7 +6833,7 @@
         <v>36</v>
       </c>
       <c r="O57" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P57" s="22" t="s">
         <v>36</v>
@@ -6453,7 +6854,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" ht="51.0" customHeight="1">
+    <row r="58" ht="27.0" customHeight="1">
       <c r="A58" s="17">
         <v>55.0</v>
       </c>
@@ -6464,22 +6865,22 @@
         <v>30</v>
       </c>
       <c r="D58" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>169</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>170</v>
       </c>
       <c r="F58" s="20">
         <v>45566.0</v>
       </c>
       <c r="G58" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="H58" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="H58" s="22" t="s">
+      <c r="I58" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="I58" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="J58" s="22" t="s">
         <v>36</v>
@@ -6493,7 +6894,7 @@
         <v>36</v>
       </c>
       <c r="O58" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P58" s="22" t="s">
         <v>36</v>
@@ -6514,7 +6915,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" ht="51.0" customHeight="1">
+    <row r="59" ht="27.0" customHeight="1">
       <c r="A59" s="17">
         <v>56.0</v>
       </c>
@@ -6525,22 +6926,22 @@
         <v>30</v>
       </c>
       <c r="D59" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="19" t="s">
         <v>175</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>176</v>
       </c>
       <c r="F59" s="20">
         <v>45566.0</v>
       </c>
       <c r="G59" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H59" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H59" s="22" t="s">
+      <c r="I59" s="22" t="s">
         <v>178</v>
-      </c>
-      <c r="I59" s="22" t="s">
-        <v>179</v>
       </c>
       <c r="J59" s="22" t="s">
         <v>36</v>
@@ -6554,7 +6955,7 @@
         <v>36</v>
       </c>
       <c r="O59" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P59" s="22" t="s">
         <v>36</v>
@@ -6575,7 +6976,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" ht="51.0" customHeight="1">
+    <row r="60" ht="27.0" customHeight="1">
       <c r="A60" s="17">
         <v>57.0</v>
       </c>
@@ -6586,22 +6987,22 @@
         <v>30</v>
       </c>
       <c r="D60" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="F60" s="20">
         <v>45505.0</v>
       </c>
       <c r="G60" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="H60" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="H60" s="22" t="s">
+      <c r="I60" s="22" t="s">
         <v>184</v>
-      </c>
-      <c r="I60" s="22" t="s">
-        <v>185</v>
       </c>
       <c r="J60" s="22" t="s">
         <v>36</v>
@@ -6615,7 +7016,7 @@
         <v>36</v>
       </c>
       <c r="O60" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P60" s="22" t="s">
         <v>36</v>
@@ -6636,7 +7037,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" ht="51.0" customHeight="1">
+    <row r="61" ht="27.0" customHeight="1">
       <c r="A61" s="17">
         <v>58.0</v>
       </c>
@@ -6647,22 +7048,22 @@
         <v>30</v>
       </c>
       <c r="D61" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" s="19" t="s">
         <v>187</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>188</v>
       </c>
       <c r="F61" s="20">
         <v>45505.0</v>
       </c>
       <c r="G61" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="H61" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="H61" s="22" t="s">
+      <c r="I61" s="22" t="s">
         <v>190</v>
-      </c>
-      <c r="I61" s="22" t="s">
-        <v>191</v>
       </c>
       <c r="J61" s="22" t="s">
         <v>36</v>
@@ -6676,7 +7077,7 @@
         <v>36</v>
       </c>
       <c r="O61" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P61" s="22" t="s">
         <v>36</v>
@@ -6697,7 +7098,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" ht="51.0" customHeight="1">
+    <row r="62" ht="27.0" customHeight="1">
       <c r="A62" s="17">
         <v>59.0</v>
       </c>
@@ -6708,22 +7109,22 @@
         <v>30</v>
       </c>
       <c r="D62" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" s="19" t="s">
         <v>193</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>194</v>
       </c>
       <c r="F62" s="20">
         <v>45505.0</v>
       </c>
       <c r="G62" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="H62" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="H62" s="22" t="s">
+      <c r="I62" s="22" t="s">
         <v>196</v>
-      </c>
-      <c r="I62" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="J62" s="22" t="s">
         <v>36</v>
@@ -6737,7 +7138,7 @@
         <v>36</v>
       </c>
       <c r="O62" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P62" s="22" t="s">
         <v>36</v>
@@ -6758,7 +7159,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" ht="51.0" customHeight="1">
+    <row r="63" ht="27.0" customHeight="1">
       <c r="A63" s="17">
         <v>60.0</v>
       </c>
@@ -6769,22 +7170,22 @@
         <v>30</v>
       </c>
       <c r="D63" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E63" s="19" t="s">
         <v>199</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>200</v>
       </c>
       <c r="F63" s="20">
         <v>45506.0</v>
       </c>
       <c r="G63" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="H63" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="H63" s="22" t="s">
+      <c r="I63" s="22" t="s">
         <v>202</v>
-      </c>
-      <c r="I63" s="22" t="s">
-        <v>203</v>
       </c>
       <c r="J63" s="22" t="s">
         <v>36</v>
@@ -6798,7 +7199,7 @@
         <v>36</v>
       </c>
       <c r="O63" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P63" s="22" t="s">
         <v>36</v>
@@ -6819,7 +7220,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" ht="51.0" customHeight="1">
+    <row r="64" ht="27.0" customHeight="1">
       <c r="A64" s="17">
         <v>61.0</v>
       </c>
@@ -6830,22 +7231,22 @@
         <v>30</v>
       </c>
       <c r="D64" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E64" s="19" t="s">
         <v>205</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>206</v>
       </c>
       <c r="F64" s="20">
         <v>45506.0</v>
       </c>
       <c r="G64" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="H64" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="H64" s="22" t="s">
+      <c r="I64" s="22" t="s">
         <v>208</v>
-      </c>
-      <c r="I64" s="22" t="s">
-        <v>209</v>
       </c>
       <c r="J64" s="22" t="s">
         <v>36</v>
@@ -6859,7 +7260,7 @@
         <v>36</v>
       </c>
       <c r="O64" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P64" s="22" t="s">
         <v>36</v>
@@ -6880,7 +7281,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" ht="51.0" customHeight="1">
+    <row r="65" ht="27.0" customHeight="1">
       <c r="A65" s="17">
         <v>62.0</v>
       </c>
@@ -6891,22 +7292,22 @@
         <v>30</v>
       </c>
       <c r="D65" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" s="19" t="s">
         <v>211</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>212</v>
       </c>
       <c r="F65" s="20">
         <v>45506.0</v>
       </c>
       <c r="G65" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="H65" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H65" s="22" t="s">
+      <c r="I65" s="22" t="s">
         <v>214</v>
-      </c>
-      <c r="I65" s="22" t="s">
-        <v>215</v>
       </c>
       <c r="J65" s="22" t="s">
         <v>36</v>
@@ -6920,7 +7321,7 @@
         <v>36</v>
       </c>
       <c r="O65" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P65" s="22" t="s">
         <v>36</v>
@@ -6941,7 +7342,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" ht="51.0" customHeight="1">
+    <row r="66" ht="27.0" customHeight="1">
       <c r="A66" s="17">
         <v>63.0</v>
       </c>
@@ -6952,10 +7353,10 @@
         <v>59</v>
       </c>
       <c r="D66" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E66" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="F66" s="26"/>
       <c r="G66" s="23"/>
@@ -6978,7 +7379,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" ht="51.0" customHeight="1">
+    <row r="67" ht="27.0" customHeight="1">
       <c r="A67" s="17">
         <v>64.0</v>
       </c>
@@ -6989,10 +7390,10 @@
         <v>59</v>
       </c>
       <c r="D67" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E67" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>220</v>
       </c>
       <c r="F67" s="26"/>
       <c r="G67" s="23"/>
@@ -7015,7 +7416,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" ht="51.0" customHeight="1">
+    <row r="68" ht="27.0" customHeight="1">
       <c r="A68" s="17">
         <v>65.0</v>
       </c>
@@ -7026,10 +7427,10 @@
         <v>59</v>
       </c>
       <c r="D68" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E68" s="19" t="s">
         <v>221</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>222</v>
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="23"/>
@@ -7052,7 +7453,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" ht="51.0" customHeight="1">
+    <row r="69" ht="27.0" customHeight="1">
       <c r="A69" s="17">
         <v>66.0</v>
       </c>
@@ -7063,10 +7464,10 @@
         <v>59</v>
       </c>
       <c r="D69" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E69" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>224</v>
       </c>
       <c r="F69" s="26"/>
       <c r="G69" s="23"/>
@@ -7089,7 +7490,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" ht="51.0" customHeight="1">
+    <row r="70" ht="27.0" customHeight="1">
       <c r="A70" s="17">
         <v>67.0</v>
       </c>
@@ -7100,10 +7501,10 @@
         <v>59</v>
       </c>
       <c r="D70" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E70" s="19" t="s">
         <v>225</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>226</v>
       </c>
       <c r="F70" s="26"/>
       <c r="G70" s="23"/>
@@ -7126,7 +7527,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" ht="51.0" customHeight="1">
+    <row r="71" ht="27.0" customHeight="1">
       <c r="A71" s="17">
         <v>68.0</v>
       </c>
@@ -7137,10 +7538,10 @@
         <v>59</v>
       </c>
       <c r="D71" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E71" s="19" t="s">
         <v>227</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>228</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="23"/>
@@ -7163,7 +7564,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" ht="51.0" customHeight="1">
+    <row r="72" ht="27.0" customHeight="1">
       <c r="A72" s="17">
         <v>69.0</v>
       </c>
@@ -7174,10 +7575,10 @@
         <v>59</v>
       </c>
       <c r="D72" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="F72" s="26"/>
       <c r="G72" s="23"/>
@@ -7200,7 +7601,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" ht="51.0" customHeight="1">
+    <row r="73" ht="27.0" customHeight="1">
       <c r="A73" s="17">
         <v>70.0</v>
       </c>
@@ -7211,10 +7612,10 @@
         <v>59</v>
       </c>
       <c r="D73" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E73" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>232</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="23"/>
@@ -7237,7 +7638,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" ht="51.0" customHeight="1">
+    <row r="74" ht="27.0" customHeight="1">
       <c r="A74" s="17">
         <v>71.0</v>
       </c>
@@ -7248,10 +7649,10 @@
         <v>59</v>
       </c>
       <c r="D74" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>233</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>234</v>
       </c>
       <c r="F74" s="26"/>
       <c r="G74" s="23"/>
@@ -7274,7 +7675,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" ht="51.0" customHeight="1">
+    <row r="75" ht="27.0" customHeight="1">
       <c r="A75" s="17">
         <v>72.0</v>
       </c>
@@ -7285,10 +7686,10 @@
         <v>59</v>
       </c>
       <c r="D75" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>235</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>236</v>
       </c>
       <c r="F75" s="26"/>
       <c r="G75" s="23"/>
@@ -7311,7 +7712,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" ht="51.0" customHeight="1">
+    <row r="76" ht="27.0" customHeight="1">
       <c r="A76" s="17">
         <v>73.0</v>
       </c>
@@ -7322,10 +7723,10 @@
         <v>59</v>
       </c>
       <c r="D76" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="E76" s="19" t="s">
         <v>237</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>238</v>
       </c>
       <c r="F76" s="26"/>
       <c r="G76" s="23"/>
@@ -7348,7 +7749,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77" ht="51.0" customHeight="1">
+    <row r="77" ht="27.0" customHeight="1">
       <c r="A77" s="17">
         <v>74.0</v>
       </c>
@@ -7359,10 +7760,10 @@
         <v>59</v>
       </c>
       <c r="D77" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E77" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="E77" s="19" t="s">
-        <v>240</v>
       </c>
       <c r="F77" s="26"/>
       <c r="G77" s="23"/>
@@ -7385,7 +7786,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" ht="51.0" customHeight="1">
+    <row r="78" ht="27.0" customHeight="1">
       <c r="A78" s="17">
         <v>75.0</v>
       </c>
@@ -7396,13 +7797,13 @@
         <v>107</v>
       </c>
       <c r="D78" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E78" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="F78" s="22" t="s">
         <v>242</v>
-      </c>
-      <c r="F78" s="20">
-        <v>45559.0</v>
       </c>
       <c r="G78" s="22" t="s">
         <v>243</v>
@@ -7411,7 +7812,7 @@
         <v>244</v>
       </c>
       <c r="I78" s="22" t="s">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="J78" s="22" t="s">
         <v>36</v>
@@ -7425,7 +7826,7 @@
         <v>36</v>
       </c>
       <c r="O78" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P78" s="22" t="s">
         <v>36</v>
@@ -7437,7 +7838,7 @@
         <v>36</v>
       </c>
       <c r="S78" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T78" s="23"/>
       <c r="U78" s="23"/>
@@ -7446,7 +7847,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" ht="51.0" customHeight="1">
+    <row r="79" ht="27.0" customHeight="1">
       <c r="A79" s="17">
         <v>76.0</v>
       </c>
@@ -7457,13 +7858,13 @@
         <v>107</v>
       </c>
       <c r="D79" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="E79" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="F79" s="22" t="s">
         <v>247</v>
-      </c>
-      <c r="F79" s="20">
-        <v>45559.0</v>
       </c>
       <c r="G79" s="22" t="s">
         <v>248</v>
@@ -7472,7 +7873,7 @@
         <v>249</v>
       </c>
       <c r="I79" s="22" t="s">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="J79" s="22" t="s">
         <v>36</v>
@@ -7486,7 +7887,7 @@
         <v>36</v>
       </c>
       <c r="O79" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P79" s="22" t="s">
         <v>36</v>
@@ -7498,7 +7899,7 @@
         <v>36</v>
       </c>
       <c r="S79" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T79" s="23"/>
       <c r="U79" s="23"/>
@@ -7507,7 +7908,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" ht="51.0" customHeight="1">
+    <row r="80" ht="27.0" customHeight="1">
       <c r="A80" s="17">
         <v>77.0</v>
       </c>
@@ -7518,13 +7919,13 @@
         <v>107</v>
       </c>
       <c r="D80" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E80" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="F80" s="22" t="s">
         <v>253</v>
-      </c>
-      <c r="F80" s="20">
-        <v>45559.0</v>
       </c>
       <c r="G80" s="22" t="s">
         <v>254</v>
@@ -7533,7 +7934,7 @@
         <v>255</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="J80" s="22" t="s">
         <v>36</v>
@@ -7547,7 +7948,7 @@
         <v>36</v>
       </c>
       <c r="O80" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P80" s="22" t="s">
         <v>36</v>
@@ -7559,7 +7960,7 @@
         <v>36</v>
       </c>
       <c r="S80" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T80" s="23"/>
       <c r="U80" s="23"/>
@@ -7568,7 +7969,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" ht="51.0" customHeight="1">
+    <row r="81" ht="27.0" customHeight="1">
       <c r="A81" s="17">
         <v>78.0</v>
       </c>
@@ -7579,13 +7980,13 @@
         <v>107</v>
       </c>
       <c r="D81" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="E81" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="F81" s="22" t="s">
         <v>258</v>
-      </c>
-      <c r="F81" s="20">
-        <v>45566.0</v>
       </c>
       <c r="G81" s="22" t="s">
         <v>259</v>
@@ -7594,7 +7995,7 @@
         <v>260</v>
       </c>
       <c r="I81" s="22" t="s">
-        <v>261</v>
+        <v>36</v>
       </c>
       <c r="J81" s="22" t="s">
         <v>36</v>
@@ -7608,7 +8009,7 @@
         <v>36</v>
       </c>
       <c r="O81" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P81" s="22" t="s">
         <v>36</v>
@@ -7620,7 +8021,7 @@
         <v>36</v>
       </c>
       <c r="S81" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T81" s="23"/>
       <c r="U81" s="23"/>
@@ -7629,7 +8030,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" ht="51.0" customHeight="1">
+    <row r="82" ht="27.0" customHeight="1">
       <c r="A82" s="17">
         <v>79.0</v>
       </c>
@@ -7640,13 +8041,13 @@
         <v>107</v>
       </c>
       <c r="D82" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="E82" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="F82" s="22" t="s">
         <v>264</v>
-      </c>
-      <c r="F82" s="20">
-        <v>45566.0</v>
       </c>
       <c r="G82" s="22" t="s">
         <v>265</v>
@@ -7655,7 +8056,7 @@
         <v>266</v>
       </c>
       <c r="I82" s="22" t="s">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="J82" s="22" t="s">
         <v>36</v>
@@ -7669,7 +8070,7 @@
         <v>36</v>
       </c>
       <c r="O82" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P82" s="22" t="s">
         <v>36</v>
@@ -7681,7 +8082,7 @@
         <v>36</v>
       </c>
       <c r="S82" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T82" s="23"/>
       <c r="U82" s="23"/>
@@ -7690,7 +8091,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" ht="51.0" customHeight="1">
+    <row r="83" ht="27.0" customHeight="1">
       <c r="A83" s="17">
         <v>80.0</v>
       </c>
@@ -7701,13 +8102,13 @@
         <v>107</v>
       </c>
       <c r="D83" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="E83" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="F83" s="22" t="s">
         <v>270</v>
-      </c>
-      <c r="F83" s="20">
-        <v>45560.0</v>
       </c>
       <c r="G83" s="22" t="s">
         <v>271</v>
@@ -7716,7 +8117,7 @@
         <v>272</v>
       </c>
       <c r="I83" s="22" t="s">
-        <v>273</v>
+        <v>36</v>
       </c>
       <c r="J83" s="22" t="s">
         <v>36</v>
@@ -7730,7 +8131,7 @@
         <v>36</v>
       </c>
       <c r="O83" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P83" s="22" t="s">
         <v>36</v>
@@ -7742,7 +8143,7 @@
         <v>36</v>
       </c>
       <c r="S83" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T83" s="23"/>
       <c r="U83" s="23"/>
@@ -7751,7 +8152,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" ht="51.0" customHeight="1">
+    <row r="84" ht="27.0" customHeight="1">
       <c r="A84" s="17">
         <v>81.0</v>
       </c>
@@ -7762,13 +8163,13 @@
         <v>107</v>
       </c>
       <c r="D84" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="E84" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="F84" s="22" t="s">
         <v>276</v>
-      </c>
-      <c r="F84" s="20">
-        <v>45561.0</v>
       </c>
       <c r="G84" s="22" t="s">
         <v>277</v>
@@ -7777,7 +8178,7 @@
         <v>278</v>
       </c>
       <c r="I84" s="22" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
       <c r="J84" s="22" t="s">
         <v>36</v>
@@ -7791,7 +8192,7 @@
         <v>36</v>
       </c>
       <c r="O84" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P84" s="22" t="s">
         <v>36</v>
@@ -7803,7 +8204,7 @@
         <v>36</v>
       </c>
       <c r="S84" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T84" s="23"/>
       <c r="U84" s="23"/>
@@ -7812,7 +8213,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="85" ht="51.0" customHeight="1">
+    <row r="85" ht="27.0" customHeight="1">
       <c r="A85" s="17">
         <v>82.0</v>
       </c>
@@ -7823,13 +8224,13 @@
         <v>107</v>
       </c>
       <c r="D85" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E85" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="F85" s="22" t="s">
         <v>282</v>
-      </c>
-      <c r="F85" s="20">
-        <v>45561.0</v>
       </c>
       <c r="G85" s="22" t="s">
         <v>283</v>
@@ -7838,7 +8239,7 @@
         <v>284</v>
       </c>
       <c r="I85" s="22" t="s">
-        <v>285</v>
+        <v>36</v>
       </c>
       <c r="J85" s="22" t="s">
         <v>36</v>
@@ -7852,7 +8253,7 @@
         <v>36</v>
       </c>
       <c r="O85" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P85" s="22" t="s">
         <v>36</v>
@@ -7864,7 +8265,7 @@
         <v>36</v>
       </c>
       <c r="S85" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T85" s="23"/>
       <c r="U85" s="23"/>
@@ -7873,7 +8274,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" ht="51.0" customHeight="1">
+    <row r="86" ht="27.0" customHeight="1">
       <c r="A86" s="17">
         <v>83.0</v>
       </c>
@@ -7884,13 +8285,13 @@
         <v>107</v>
       </c>
       <c r="D86" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E86" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="F86" s="22" t="s">
         <v>288</v>
-      </c>
-      <c r="F86" s="20">
-        <v>45561.0</v>
       </c>
       <c r="G86" s="22" t="s">
         <v>289</v>
@@ -7899,7 +8300,7 @@
         <v>290</v>
       </c>
       <c r="I86" s="22" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="J86" s="22" t="s">
         <v>36</v>
@@ -7913,7 +8314,7 @@
         <v>36</v>
       </c>
       <c r="O86" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P86" s="22" t="s">
         <v>36</v>
@@ -7925,7 +8326,7 @@
         <v>36</v>
       </c>
       <c r="S86" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T86" s="23"/>
       <c r="U86" s="23"/>
@@ -7934,7 +8335,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="87" ht="51.0" customHeight="1">
+    <row r="87" ht="27.0" customHeight="1">
       <c r="A87" s="17">
         <v>84.0</v>
       </c>
@@ -7945,13 +8346,13 @@
         <v>107</v>
       </c>
       <c r="D87" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E87" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="F87" s="22" t="s">
         <v>294</v>
-      </c>
-      <c r="F87" s="20">
-        <v>45561.0</v>
       </c>
       <c r="G87" s="22" t="s">
         <v>295</v>
@@ -7960,7 +8361,7 @@
         <v>296</v>
       </c>
       <c r="I87" s="22" t="s">
-        <v>297</v>
+        <v>36</v>
       </c>
       <c r="J87" s="22" t="s">
         <v>36</v>
@@ -7974,7 +8375,7 @@
         <v>36</v>
       </c>
       <c r="O87" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P87" s="22" t="s">
         <v>36</v>
@@ -7986,7 +8387,7 @@
         <v>36</v>
       </c>
       <c r="S87" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T87" s="23"/>
       <c r="U87" s="23"/>
@@ -7995,7 +8396,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" ht="51.0" customHeight="1">
+    <row r="88" ht="27.0" customHeight="1">
       <c r="A88" s="17">
         <v>85.0</v>
       </c>
@@ -8006,13 +8407,13 @@
         <v>107</v>
       </c>
       <c r="D88" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E88" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="F88" s="22" t="s">
         <v>300</v>
-      </c>
-      <c r="F88" s="20">
-        <v>45561.0</v>
       </c>
       <c r="G88" s="22" t="s">
         <v>301</v>
@@ -8021,7 +8422,7 @@
         <v>302</v>
       </c>
       <c r="I88" s="22" t="s">
-        <v>303</v>
+        <v>36</v>
       </c>
       <c r="J88" s="22" t="s">
         <v>36</v>
@@ -8035,7 +8436,7 @@
         <v>36</v>
       </c>
       <c r="O88" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P88" s="22" t="s">
         <v>36</v>
@@ -8047,7 +8448,7 @@
         <v>36</v>
       </c>
       <c r="S88" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T88" s="23"/>
       <c r="U88" s="23"/>
@@ -8056,7 +8457,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" ht="51.0" customHeight="1">
+    <row r="89" ht="27.0" customHeight="1">
       <c r="A89" s="17">
         <v>86.0</v>
       </c>
@@ -8067,13 +8468,13 @@
         <v>107</v>
       </c>
       <c r="D89" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E89" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="F89" s="22" t="s">
         <v>306</v>
-      </c>
-      <c r="F89" s="20">
-        <v>45561.0</v>
       </c>
       <c r="G89" s="22" t="s">
         <v>307</v>
@@ -8082,7 +8483,7 @@
         <v>308</v>
       </c>
       <c r="I89" s="22" t="s">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="J89" s="22" t="s">
         <v>36</v>
@@ -8096,7 +8497,7 @@
         <v>36</v>
       </c>
       <c r="O89" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P89" s="22" t="s">
         <v>36</v>
@@ -8108,7 +8509,7 @@
         <v>36</v>
       </c>
       <c r="S89" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T89" s="23"/>
       <c r="U89" s="23"/>
@@ -8117,7 +8518,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="90" ht="51.0" customHeight="1">
+    <row r="90" ht="27.0" customHeight="1">
       <c r="A90" s="17">
         <v>87.0</v>
       </c>
@@ -8128,13 +8529,13 @@
         <v>107</v>
       </c>
       <c r="D90" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="E90" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="F90" s="22" t="s">
         <v>312</v>
-      </c>
-      <c r="F90" s="20">
-        <v>45561.0</v>
       </c>
       <c r="G90" s="22" t="s">
         <v>313</v>
@@ -8143,7 +8544,7 @@
         <v>314</v>
       </c>
       <c r="I90" s="22" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="J90" s="22" t="s">
         <v>36</v>
@@ -8157,7 +8558,7 @@
         <v>36</v>
       </c>
       <c r="O90" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P90" s="22" t="s">
         <v>36</v>
@@ -8169,7 +8570,7 @@
         <v>36</v>
       </c>
       <c r="S90" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T90" s="23"/>
       <c r="U90" s="23"/>
@@ -8178,7 +8579,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" ht="51.0" customHeight="1">
+    <row r="91" ht="27.0" customHeight="1">
       <c r="A91" s="17">
         <v>88.0</v>
       </c>
@@ -8189,13 +8590,13 @@
         <v>107</v>
       </c>
       <c r="D91" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="E91" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="F91" s="22" t="s">
         <v>318</v>
-      </c>
-      <c r="F91" s="20">
-        <v>45562.0</v>
       </c>
       <c r="G91" s="22" t="s">
         <v>319</v>
@@ -8204,7 +8605,7 @@
         <v>320</v>
       </c>
       <c r="I91" s="22" t="s">
-        <v>321</v>
+        <v>36</v>
       </c>
       <c r="J91" s="22" t="s">
         <v>36</v>
@@ -8218,7 +8619,7 @@
         <v>36</v>
       </c>
       <c r="O91" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P91" s="22" t="s">
         <v>36</v>
@@ -8230,7 +8631,7 @@
         <v>36</v>
       </c>
       <c r="S91" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T91" s="23"/>
       <c r="U91" s="23"/>
@@ -8239,7 +8640,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="92" ht="51.0" customHeight="1">
+    <row r="92" ht="27.0" customHeight="1">
       <c r="A92" s="17">
         <v>89.0</v>
       </c>
@@ -8250,13 +8651,13 @@
         <v>107</v>
       </c>
       <c r="D92" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E92" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="F92" s="22" t="s">
         <v>324</v>
-      </c>
-      <c r="F92" s="20">
-        <v>45562.0</v>
       </c>
       <c r="G92" s="22" t="s">
         <v>325</v>
@@ -8265,7 +8666,7 @@
         <v>326</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>327</v>
+        <v>36</v>
       </c>
       <c r="J92" s="22" t="s">
         <v>36</v>
@@ -8279,7 +8680,7 @@
         <v>36</v>
       </c>
       <c r="O92" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P92" s="22" t="s">
         <v>36</v>
@@ -8291,7 +8692,7 @@
         <v>36</v>
       </c>
       <c r="S92" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T92" s="23"/>
       <c r="U92" s="23"/>
@@ -8300,7 +8701,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" ht="51.0" customHeight="1">
+    <row r="93" ht="27.0" customHeight="1">
       <c r="A93" s="17">
         <v>90.0</v>
       </c>
@@ -8311,13 +8712,13 @@
         <v>107</v>
       </c>
       <c r="D93" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="E93" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="F93" s="22" t="s">
         <v>330</v>
-      </c>
-      <c r="F93" s="20">
-        <v>45562.0</v>
       </c>
       <c r="G93" s="22" t="s">
         <v>331</v>
@@ -8326,7 +8727,7 @@
         <v>332</v>
       </c>
       <c r="I93" s="22" t="s">
-        <v>333</v>
+        <v>36</v>
       </c>
       <c r="J93" s="22" t="s">
         <v>36</v>
@@ -8340,7 +8741,7 @@
         <v>36</v>
       </c>
       <c r="O93" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P93" s="22" t="s">
         <v>36</v>
@@ -8352,7 +8753,7 @@
         <v>36</v>
       </c>
       <c r="S93" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T93" s="23"/>
       <c r="U93" s="23"/>
@@ -8361,7 +8762,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="94" ht="51.0" customHeight="1">
+    <row r="94" ht="27.0" customHeight="1">
       <c r="A94" s="17">
         <v>91.0</v>
       </c>
@@ -8372,13 +8773,13 @@
         <v>107</v>
       </c>
       <c r="D94" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E94" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="F94" s="22" t="s">
         <v>336</v>
-      </c>
-      <c r="F94" s="20">
-        <v>45562.0</v>
       </c>
       <c r="G94" s="22" t="s">
         <v>337</v>
@@ -8387,7 +8788,7 @@
         <v>338</v>
       </c>
       <c r="I94" s="22" t="s">
-        <v>339</v>
+        <v>36</v>
       </c>
       <c r="J94" s="22" t="s">
         <v>36</v>
@@ -8401,7 +8802,7 @@
         <v>36</v>
       </c>
       <c r="O94" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P94" s="22" t="s">
         <v>36</v>
@@ -8413,7 +8814,7 @@
         <v>36</v>
       </c>
       <c r="S94" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T94" s="23"/>
       <c r="U94" s="23"/>
@@ -8422,7 +8823,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" ht="51.0" customHeight="1">
+    <row r="95" ht="27.0" customHeight="1">
       <c r="A95" s="17">
         <v>92.0</v>
       </c>
@@ -8433,13 +8834,13 @@
         <v>107</v>
       </c>
       <c r="D95" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="E95" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="E95" s="28" t="s">
+      <c r="F95" s="22" t="s">
         <v>342</v>
-      </c>
-      <c r="F95" s="20">
-        <v>45562.0</v>
       </c>
       <c r="G95" s="22" t="s">
         <v>343</v>
@@ -8448,7 +8849,7 @@
         <v>344</v>
       </c>
       <c r="I95" s="22" t="s">
-        <v>345</v>
+        <v>36</v>
       </c>
       <c r="J95" s="22" t="s">
         <v>36</v>
@@ -8462,7 +8863,7 @@
         <v>36</v>
       </c>
       <c r="O95" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P95" s="22" t="s">
         <v>36</v>
@@ -8474,7 +8875,7 @@
         <v>36</v>
       </c>
       <c r="S95" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T95" s="23"/>
       <c r="U95" s="23"/>
@@ -8483,7 +8884,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" ht="51.0" customHeight="1">
+    <row r="96" ht="27.0" customHeight="1">
       <c r="A96" s="17">
         <v>93.0</v>
       </c>
@@ -8494,13 +8895,13 @@
         <v>107</v>
       </c>
       <c r="D96" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E96" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="F96" s="22" t="s">
         <v>348</v>
-      </c>
-      <c r="F96" s="20">
-        <v>45562.0</v>
       </c>
       <c r="G96" s="22" t="s">
         <v>349</v>
@@ -8509,7 +8910,7 @@
         <v>350</v>
       </c>
       <c r="I96" s="22" t="s">
-        <v>351</v>
+        <v>36</v>
       </c>
       <c r="J96" s="22" t="s">
         <v>36</v>
@@ -8523,7 +8924,7 @@
         <v>36</v>
       </c>
       <c r="O96" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P96" s="22" t="s">
         <v>36</v>
@@ -8535,7 +8936,7 @@
         <v>36</v>
       </c>
       <c r="S96" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T96" s="23"/>
       <c r="U96" s="23"/>
@@ -8544,7 +8945,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" ht="51.0" customHeight="1">
+    <row r="97" ht="27.0" customHeight="1">
       <c r="A97" s="17">
         <v>94.0</v>
       </c>
@@ -8555,10 +8956,10 @@
         <v>68</v>
       </c>
       <c r="D97" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="E97" s="19" t="s">
         <v>353</v>
-      </c>
-      <c r="E97" s="19" t="s">
-        <v>354</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="23"/>
@@ -8581,7 +8982,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" ht="51.0" customHeight="1">
+    <row r="98" ht="27.0" customHeight="1">
       <c r="A98" s="17">
         <v>95.0</v>
       </c>
@@ -8592,10 +8993,10 @@
         <v>68</v>
       </c>
       <c r="D98" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E98" s="19" t="s">
         <v>355</v>
-      </c>
-      <c r="E98" s="19" t="s">
-        <v>356</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="23"/>
@@ -8618,7 +9019,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" ht="51.0" customHeight="1">
+    <row r="99" ht="27.0" customHeight="1">
       <c r="A99" s="17">
         <v>96.0</v>
       </c>
@@ -8629,10 +9030,10 @@
         <v>68</v>
       </c>
       <c r="D99" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="E99" s="19" t="s">
         <v>357</v>
-      </c>
-      <c r="E99" s="19" t="s">
-        <v>358</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="23"/>
@@ -8655,7 +9056,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" ht="51.0" customHeight="1">
+    <row r="100" ht="27.0" customHeight="1">
       <c r="A100" s="17">
         <v>97.0</v>
       </c>
@@ -8666,10 +9067,10 @@
         <v>68</v>
       </c>
       <c r="D100" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="E100" s="19" t="s">
         <v>359</v>
-      </c>
-      <c r="E100" s="19" t="s">
-        <v>360</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="23"/>
@@ -8692,7 +9093,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" ht="51.0" customHeight="1">
+    <row r="101" ht="27.0" customHeight="1">
       <c r="A101" s="17">
         <v>98.0</v>
       </c>
@@ -8703,10 +9104,10 @@
         <v>68</v>
       </c>
       <c r="D101" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="E101" s="19" t="s">
         <v>361</v>
-      </c>
-      <c r="E101" s="19" t="s">
-        <v>362</v>
       </c>
       <c r="F101" s="26"/>
       <c r="G101" s="23"/>
@@ -8729,7 +9130,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" ht="51.0" customHeight="1">
+    <row r="102" ht="27.0" customHeight="1">
       <c r="A102" s="17">
         <v>99.0</v>
       </c>
@@ -8740,10 +9141,10 @@
         <v>68</v>
       </c>
       <c r="D102" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="E102" s="19" t="s">
         <v>363</v>
-      </c>
-      <c r="E102" s="19" t="s">
-        <v>364</v>
       </c>
       <c r="F102" s="26"/>
       <c r="G102" s="23"/>
@@ -8766,7 +9167,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="103" ht="51.0" customHeight="1">
+    <row r="103" ht="27.0" customHeight="1">
       <c r="A103" s="17">
         <v>100.0</v>
       </c>
@@ -8777,10 +9178,10 @@
         <v>68</v>
       </c>
       <c r="D103" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="E103" s="19" t="s">
         <v>365</v>
-      </c>
-      <c r="E103" s="19" t="s">
-        <v>366</v>
       </c>
       <c r="F103" s="26"/>
       <c r="G103" s="23"/>
@@ -8803,7 +9204,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" ht="51.0" customHeight="1">
+    <row r="104" ht="27.0" customHeight="1">
       <c r="A104" s="17">
         <v>101.0</v>
       </c>
@@ -8814,10 +9215,10 @@
         <v>68</v>
       </c>
       <c r="D104" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="E104" s="19" t="s">
         <v>367</v>
-      </c>
-      <c r="E104" s="19" t="s">
-        <v>368</v>
       </c>
       <c r="F104" s="26"/>
       <c r="G104" s="23"/>
@@ -8840,7 +9241,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" ht="51.0" customHeight="1">
+    <row r="105" ht="27.0" customHeight="1">
       <c r="A105" s="17">
         <v>102.0</v>
       </c>
@@ -8851,10 +9252,10 @@
         <v>68</v>
       </c>
       <c r="D105" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="E105" s="19" t="s">
         <v>369</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>370</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="23"/>
@@ -8877,7 +9278,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" ht="51.0" customHeight="1">
+    <row r="106" ht="27.0" customHeight="1">
       <c r="A106" s="17">
         <v>103.0</v>
       </c>
@@ -8888,10 +9289,10 @@
         <v>68</v>
       </c>
       <c r="D106" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="E106" s="19" t="s">
         <v>371</v>
-      </c>
-      <c r="E106" s="19" t="s">
-        <v>372</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="23"/>
@@ -8914,7 +9315,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" ht="51.0" customHeight="1">
+    <row r="107" ht="27.0" customHeight="1">
       <c r="A107" s="17">
         <v>104.0</v>
       </c>
@@ -8925,10 +9326,10 @@
         <v>68</v>
       </c>
       <c r="D107" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="E107" s="19" t="s">
         <v>373</v>
-      </c>
-      <c r="E107" s="19" t="s">
-        <v>374</v>
       </c>
       <c r="F107" s="26"/>
       <c r="G107" s="23"/>
@@ -8951,7 +9352,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" ht="51.0" customHeight="1">
+    <row r="108" ht="27.0" customHeight="1">
       <c r="A108" s="17">
         <v>105.0</v>
       </c>
@@ -8962,10 +9363,10 @@
         <v>68</v>
       </c>
       <c r="D108" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="E108" s="19" t="s">
         <v>375</v>
-      </c>
-      <c r="E108" s="19" t="s">
-        <v>376</v>
       </c>
       <c r="F108" s="26"/>
       <c r="G108" s="23"/>
@@ -8988,7 +9389,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="109" ht="51.0" customHeight="1">
+    <row r="109" ht="27.0" customHeight="1">
       <c r="A109" s="17">
         <v>106.0</v>
       </c>
@@ -8999,10 +9400,10 @@
         <v>68</v>
       </c>
       <c r="D109" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="E109" s="19" t="s">
         <v>377</v>
-      </c>
-      <c r="E109" s="19" t="s">
-        <v>378</v>
       </c>
       <c r="F109" s="26"/>
       <c r="G109" s="23"/>
@@ -9025,7 +9426,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="110" ht="51.0" customHeight="1">
+    <row r="110" ht="27.0" customHeight="1">
       <c r="A110" s="17">
         <v>107.0</v>
       </c>
@@ -9036,10 +9437,10 @@
         <v>77</v>
       </c>
       <c r="D110" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E110" s="19" t="s">
         <v>379</v>
-      </c>
-      <c r="E110" s="19" t="s">
-        <v>380</v>
       </c>
       <c r="F110" s="26"/>
       <c r="G110" s="23"/>
@@ -9062,7 +9463,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="111" ht="51.0" customHeight="1">
+    <row r="111" ht="27.0" customHeight="1">
       <c r="A111" s="17">
         <v>108.0</v>
       </c>
@@ -9073,10 +9474,10 @@
         <v>77</v>
       </c>
       <c r="D111" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="E111" s="19" t="s">
         <v>381</v>
-      </c>
-      <c r="E111" s="19" t="s">
-        <v>382</v>
       </c>
       <c r="F111" s="26"/>
       <c r="G111" s="23"/>
@@ -9099,7 +9500,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="112" ht="51.0" customHeight="1">
+    <row r="112" ht="27.0" customHeight="1">
       <c r="A112" s="17">
         <v>109.0</v>
       </c>
@@ -9110,10 +9511,10 @@
         <v>77</v>
       </c>
       <c r="D112" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="E112" s="19" t="s">
         <v>383</v>
-      </c>
-      <c r="E112" s="19" t="s">
-        <v>384</v>
       </c>
       <c r="F112" s="26"/>
       <c r="G112" s="23"/>
@@ -9136,7 +9537,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="113" ht="51.0" customHeight="1">
+    <row r="113" ht="27.0" customHeight="1">
       <c r="A113" s="17">
         <v>110.0</v>
       </c>
@@ -9147,10 +9548,10 @@
         <v>77</v>
       </c>
       <c r="D113" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="E113" s="19" t="s">
         <v>385</v>
-      </c>
-      <c r="E113" s="19" t="s">
-        <v>386</v>
       </c>
       <c r="F113" s="26"/>
       <c r="G113" s="23"/>
@@ -9173,7 +9574,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="114" ht="51.0" customHeight="1">
+    <row r="114" ht="27.0" customHeight="1">
       <c r="A114" s="17">
         <v>111.0</v>
       </c>
@@ -9184,10 +9585,10 @@
         <v>77</v>
       </c>
       <c r="D114" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="E114" s="19" t="s">
         <v>387</v>
-      </c>
-      <c r="E114" s="19" t="s">
-        <v>388</v>
       </c>
       <c r="F114" s="26"/>
       <c r="G114" s="23"/>
@@ -9210,7 +9611,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" ht="51.0" customHeight="1">
+    <row r="115" ht="27.0" customHeight="1">
       <c r="A115" s="17">
         <v>112.0</v>
       </c>
@@ -9221,10 +9622,10 @@
         <v>77</v>
       </c>
       <c r="D115" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="E115" s="19" t="s">
         <v>389</v>
-      </c>
-      <c r="E115" s="19" t="s">
-        <v>390</v>
       </c>
       <c r="F115" s="26"/>
       <c r="G115" s="23"/>
@@ -9247,7 +9648,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="116" ht="51.0" customHeight="1">
+    <row r="116" ht="27.0" customHeight="1">
       <c r="A116" s="17">
         <v>113.0</v>
       </c>
@@ -9258,10 +9659,10 @@
         <v>77</v>
       </c>
       <c r="D116" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="E116" s="19" t="s">
         <v>391</v>
-      </c>
-      <c r="E116" s="19" t="s">
-        <v>392</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="23"/>
@@ -9284,7 +9685,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="117" ht="51.0" customHeight="1">
+    <row r="117" ht="27.0" customHeight="1">
       <c r="A117" s="17">
         <v>114.0</v>
       </c>
@@ -9295,10 +9696,10 @@
         <v>77</v>
       </c>
       <c r="D117" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="E117" s="19" t="s">
         <v>393</v>
-      </c>
-      <c r="E117" s="19" t="s">
-        <v>394</v>
       </c>
       <c r="F117" s="26"/>
       <c r="G117" s="23"/>
@@ -9321,7 +9722,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="118" ht="51.0" customHeight="1">
+    <row r="118" ht="27.0" customHeight="1">
       <c r="A118" s="17">
         <v>115.0</v>
       </c>
@@ -9332,10 +9733,10 @@
         <v>77</v>
       </c>
       <c r="D118" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="E118" s="19" t="s">
         <v>395</v>
-      </c>
-      <c r="E118" s="19" t="s">
-        <v>396</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="23"/>
@@ -9358,7 +9759,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="119" ht="51.0" customHeight="1">
+    <row r="119" ht="27.0" customHeight="1">
       <c r="A119" s="17">
         <v>116.0</v>
       </c>
@@ -9369,10 +9770,10 @@
         <v>77</v>
       </c>
       <c r="D119" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="E119" s="19" t="s">
         <v>397</v>
-      </c>
-      <c r="E119" s="19" t="s">
-        <v>398</v>
       </c>
       <c r="F119" s="26"/>
       <c r="G119" s="23"/>
@@ -9395,7 +9796,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="120" ht="51.0" customHeight="1">
+    <row r="120" ht="27.0" customHeight="1">
       <c r="A120" s="17">
         <v>117.0</v>
       </c>
@@ -9406,10 +9807,10 @@
         <v>77</v>
       </c>
       <c r="D120" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="E120" s="19" t="s">
         <v>399</v>
-      </c>
-      <c r="E120" s="19" t="s">
-        <v>400</v>
       </c>
       <c r="F120" s="26"/>
       <c r="G120" s="23"/>
@@ -9432,7 +9833,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="121" ht="51.0" customHeight="1">
+    <row r="121" ht="27.0" customHeight="1">
       <c r="A121" s="17">
         <v>118.0</v>
       </c>
@@ -9443,10 +9844,10 @@
         <v>77</v>
       </c>
       <c r="D121" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="E121" s="19" t="s">
         <v>401</v>
-      </c>
-      <c r="E121" s="19" t="s">
-        <v>402</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="23"/>
@@ -9469,7 +9870,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="122" ht="51.0" customHeight="1">
+    <row r="122" ht="27.0" customHeight="1">
       <c r="A122" s="17">
         <v>119.0</v>
       </c>
@@ -9480,10 +9881,10 @@
         <v>77</v>
       </c>
       <c r="D122" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="E122" s="19" t="s">
         <v>403</v>
-      </c>
-      <c r="E122" s="19" t="s">
-        <v>404</v>
       </c>
       <c r="F122" s="26"/>
       <c r="G122" s="23"/>
@@ -9506,7 +9907,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="123" ht="51.0" customHeight="1">
+    <row r="123" ht="27.0" customHeight="1">
       <c r="A123" s="17">
         <v>120.0</v>
       </c>
@@ -9517,10 +9918,10 @@
         <v>77</v>
       </c>
       <c r="D123" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="E123" s="19" t="s">
         <v>405</v>
-      </c>
-      <c r="E123" s="19" t="s">
-        <v>406</v>
       </c>
       <c r="F123" s="26"/>
       <c r="G123" s="23"/>
@@ -9543,7 +9944,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="124" ht="51.0" customHeight="1">
+    <row r="124" ht="27.0" customHeight="1">
       <c r="A124" s="17">
         <v>121.0</v>
       </c>
@@ -9554,10 +9955,10 @@
         <v>77</v>
       </c>
       <c r="D124" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="E124" s="19" t="s">
         <v>407</v>
-      </c>
-      <c r="E124" s="19" t="s">
-        <v>408</v>
       </c>
       <c r="F124" s="26"/>
       <c r="G124" s="23"/>
@@ -9580,7 +9981,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="125" ht="51.0" customHeight="1">
+    <row r="125" ht="27.0" customHeight="1">
       <c r="A125" s="17">
         <v>122.0</v>
       </c>
@@ -9591,10 +9992,10 @@
         <v>86</v>
       </c>
       <c r="D125" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="E125" s="19" t="s">
         <v>409</v>
-      </c>
-      <c r="E125" s="19" t="s">
-        <v>410</v>
       </c>
       <c r="F125" s="26"/>
       <c r="G125" s="23"/>
@@ -9617,7 +10018,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="126" ht="51.0" customHeight="1">
+    <row r="126" ht="27.0" customHeight="1">
       <c r="A126" s="17">
         <v>123.0</v>
       </c>
@@ -9628,10 +10029,10 @@
         <v>86</v>
       </c>
       <c r="D126" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="E126" s="19" t="s">
         <v>411</v>
-      </c>
-      <c r="E126" s="19" t="s">
-        <v>412</v>
       </c>
       <c r="F126" s="26"/>
       <c r="G126" s="23"/>
@@ -9654,7 +10055,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="127" ht="51.0" customHeight="1">
+    <row r="127" ht="27.0" customHeight="1">
       <c r="A127" s="17">
         <v>124.0</v>
       </c>
@@ -9665,10 +10066,10 @@
         <v>86</v>
       </c>
       <c r="D127" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="E127" s="19" t="s">
         <v>413</v>
-      </c>
-      <c r="E127" s="19" t="s">
-        <v>414</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="23"/>
@@ -9691,7 +10092,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="128" ht="51.0" customHeight="1">
+    <row r="128" ht="27.0" customHeight="1">
       <c r="A128" s="17">
         <v>125.0</v>
       </c>
@@ -9702,10 +10103,10 @@
         <v>86</v>
       </c>
       <c r="D128" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="E128" s="19" t="s">
         <v>415</v>
-      </c>
-      <c r="E128" s="19" t="s">
-        <v>416</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="23"/>
@@ -9728,7 +10129,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="129" ht="51.0" customHeight="1">
+    <row r="129" ht="27.0" customHeight="1">
       <c r="A129" s="17">
         <v>126.0</v>
       </c>
@@ -9739,10 +10140,10 @@
         <v>86</v>
       </c>
       <c r="D129" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="E129" s="19" t="s">
         <v>417</v>
-      </c>
-      <c r="E129" s="19" t="s">
-        <v>418</v>
       </c>
       <c r="F129" s="26"/>
       <c r="G129" s="23"/>
@@ -9765,7 +10166,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="130" ht="51.0" customHeight="1">
+    <row r="130" ht="27.0" customHeight="1">
       <c r="A130" s="17">
         <v>127.0</v>
       </c>
@@ -9776,10 +10177,10 @@
         <v>86</v>
       </c>
       <c r="D130" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="E130" s="19" t="s">
         <v>419</v>
-      </c>
-      <c r="E130" s="19" t="s">
-        <v>420</v>
       </c>
       <c r="F130" s="26"/>
       <c r="G130" s="23"/>
@@ -9802,7 +10203,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="131" ht="51.0" customHeight="1">
+    <row r="131" ht="27.0" customHeight="1">
       <c r="A131" s="17">
         <v>128.0</v>
       </c>
@@ -9813,10 +10214,10 @@
         <v>86</v>
       </c>
       <c r="D131" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="E131" s="19" t="s">
         <v>421</v>
-      </c>
-      <c r="E131" s="19" t="s">
-        <v>422</v>
       </c>
       <c r="F131" s="26"/>
       <c r="G131" s="23"/>
@@ -9839,7 +10240,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="132" ht="51.0" customHeight="1">
+    <row r="132" ht="27.0" customHeight="1">
       <c r="A132" s="17">
         <v>129.0</v>
       </c>
@@ -9850,10 +10251,10 @@
         <v>86</v>
       </c>
       <c r="D132" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="E132" s="19" t="s">
         <v>423</v>
-      </c>
-      <c r="E132" s="19" t="s">
-        <v>424</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="23"/>
@@ -9876,7 +10277,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="133" ht="51.0" customHeight="1">
+    <row r="133" ht="27.0" customHeight="1">
       <c r="A133" s="17">
         <v>130.0</v>
       </c>
@@ -9887,10 +10288,10 @@
         <v>86</v>
       </c>
       <c r="D133" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="E133" s="19" t="s">
         <v>425</v>
-      </c>
-      <c r="E133" s="19" t="s">
-        <v>426</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="23"/>
@@ -9913,7 +10314,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="134" ht="51.0" customHeight="1">
+    <row r="134" ht="27.0" customHeight="1">
       <c r="A134" s="17">
         <v>131.0</v>
       </c>
@@ -9924,10 +10325,10 @@
         <v>86</v>
       </c>
       <c r="D134" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="E134" s="19" t="s">
         <v>427</v>
-      </c>
-      <c r="E134" s="19" t="s">
-        <v>428</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="23"/>
@@ -9950,7 +10351,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="135" ht="51.0" customHeight="1">
+    <row r="135" ht="27.0" customHeight="1">
       <c r="A135" s="17">
         <v>132.0</v>
       </c>
@@ -9961,10 +10362,10 @@
         <v>86</v>
       </c>
       <c r="D135" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="E135" s="19" t="s">
         <v>429</v>
-      </c>
-      <c r="E135" s="19" t="s">
-        <v>430</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="23"/>
@@ -9987,7 +10388,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="136" ht="51.0" customHeight="1">
+    <row r="136" ht="27.0" customHeight="1">
       <c r="A136" s="17">
         <v>133.0</v>
       </c>
@@ -9998,10 +10399,10 @@
         <v>86</v>
       </c>
       <c r="D136" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="E136" s="19" t="s">
         <v>431</v>
-      </c>
-      <c r="E136" s="19" t="s">
-        <v>432</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="23"/>
@@ -10024,7 +10425,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="137" ht="51.0" customHeight="1">
+    <row r="137" ht="27.0" customHeight="1">
       <c r="A137" s="17">
         <v>134.0</v>
       </c>
@@ -10035,10 +10436,10 @@
         <v>86</v>
       </c>
       <c r="D137" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="E137" s="19" t="s">
         <v>433</v>
-      </c>
-      <c r="E137" s="19" t="s">
-        <v>434</v>
       </c>
       <c r="F137" s="26"/>
       <c r="G137" s="23"/>
@@ -10061,7 +10462,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="138" ht="51.0" customHeight="1">
+    <row r="138" ht="27.0" customHeight="1">
       <c r="A138" s="17">
         <v>135.0</v>
       </c>
@@ -10072,10 +10473,10 @@
         <v>86</v>
       </c>
       <c r="D138" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="E138" s="19" t="s">
         <v>435</v>
-      </c>
-      <c r="E138" s="19" t="s">
-        <v>436</v>
       </c>
       <c r="F138" s="26"/>
       <c r="G138" s="23"/>
@@ -10098,7 +10499,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="139" ht="51.0" customHeight="1">
+    <row r="139" ht="27.0" customHeight="1">
       <c r="A139" s="17">
         <v>136.0</v>
       </c>
@@ -10109,10 +10510,10 @@
         <v>86</v>
       </c>
       <c r="D139" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="E139" s="19" t="s">
         <v>437</v>
-      </c>
-      <c r="E139" s="19" t="s">
-        <v>438</v>
       </c>
       <c r="F139" s="26"/>
       <c r="G139" s="23"/>
@@ -10135,7 +10536,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="140" ht="51.0" customHeight="1">
+    <row r="140" ht="27.0" customHeight="1">
       <c r="A140" s="17">
         <v>137.0</v>
       </c>
@@ -10146,10 +10547,10 @@
         <v>86</v>
       </c>
       <c r="D140" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="E140" s="19" t="s">
         <v>439</v>
-      </c>
-      <c r="E140" s="19" t="s">
-        <v>440</v>
       </c>
       <c r="F140" s="26"/>
       <c r="G140" s="23"/>
@@ -10172,7 +10573,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="141" ht="51.0" customHeight="1">
+    <row r="141" ht="27.0" customHeight="1">
       <c r="A141" s="17">
         <v>138.0</v>
       </c>
@@ -10183,10 +10584,10 @@
         <v>86</v>
       </c>
       <c r="D141" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="E141" s="19" t="s">
         <v>441</v>
-      </c>
-      <c r="E141" s="19" t="s">
-        <v>442</v>
       </c>
       <c r="F141" s="26"/>
       <c r="G141" s="23"/>
@@ -10209,7 +10610,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="142" ht="51.0" customHeight="1">
+    <row r="142" ht="27.0" customHeight="1">
       <c r="A142" s="17">
         <v>139.0</v>
       </c>
@@ -10220,10 +10621,10 @@
         <v>86</v>
       </c>
       <c r="D142" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="E142" s="19" t="s">
         <v>443</v>
-      </c>
-      <c r="E142" s="19" t="s">
-        <v>444</v>
       </c>
       <c r="F142" s="26"/>
       <c r="G142" s="23"/>
@@ -10246,7 +10647,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="143" ht="51.0" customHeight="1">
+    <row r="143" ht="27.0" customHeight="1">
       <c r="A143" s="17">
         <v>140.0</v>
       </c>
@@ -10257,10 +10658,10 @@
         <v>86</v>
       </c>
       <c r="D143" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="E143" s="19" t="s">
         <v>445</v>
-      </c>
-      <c r="E143" s="19" t="s">
-        <v>446</v>
       </c>
       <c r="F143" s="26"/>
       <c r="G143" s="23"/>
@@ -10283,7 +10684,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="144" ht="51.0" customHeight="1">
+    <row r="144" ht="27.0" customHeight="1">
       <c r="A144" s="17">
         <v>141.0</v>
       </c>
@@ -10294,10 +10695,10 @@
         <v>86</v>
       </c>
       <c r="D144" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="E144" s="19" t="s">
         <v>447</v>
-      </c>
-      <c r="E144" s="19" t="s">
-        <v>448</v>
       </c>
       <c r="F144" s="26"/>
       <c r="G144" s="23"/>
@@ -10320,7 +10721,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="145" ht="51.0" customHeight="1">
+    <row r="145" ht="27.0" customHeight="1">
       <c r="A145" s="17">
         <v>142.0</v>
       </c>
@@ -10331,10 +10732,10 @@
         <v>86</v>
       </c>
       <c r="D145" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="E145" s="19" t="s">
         <v>449</v>
-      </c>
-      <c r="E145" s="19" t="s">
-        <v>450</v>
       </c>
       <c r="F145" s="26"/>
       <c r="G145" s="23"/>
@@ -10357,7 +10758,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="146" ht="51.0" customHeight="1">
+    <row r="146" ht="27.0" customHeight="1">
       <c r="A146" s="17">
         <v>143.0</v>
       </c>
@@ -10368,10 +10769,10 @@
         <v>86</v>
       </c>
       <c r="D146" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="E146" s="19" t="s">
         <v>451</v>
-      </c>
-      <c r="E146" s="19" t="s">
-        <v>452</v>
       </c>
       <c r="F146" s="26"/>
       <c r="G146" s="23"/>
@@ -10394,7 +10795,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="147" ht="51.0" customHeight="1">
+    <row r="147" ht="27.0" customHeight="1">
       <c r="A147" s="17">
         <v>144.0</v>
       </c>
@@ -10405,10 +10806,10 @@
         <v>86</v>
       </c>
       <c r="D147" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="E147" s="19" t="s">
         <v>453</v>
-      </c>
-      <c r="E147" s="19" t="s">
-        <v>454</v>
       </c>
       <c r="F147" s="26"/>
       <c r="G147" s="23"/>
@@ -10431,7 +10832,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="148" ht="51.0" customHeight="1">
+    <row r="148" ht="27.0" customHeight="1">
       <c r="A148" s="17">
         <v>145.0</v>
       </c>
@@ -10442,10 +10843,10 @@
         <v>86</v>
       </c>
       <c r="D148" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="E148" s="19" t="s">
         <v>455</v>
-      </c>
-      <c r="E148" s="19" t="s">
-        <v>456</v>
       </c>
       <c r="F148" s="26"/>
       <c r="G148" s="23"/>
@@ -10468,7 +10869,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="149" ht="51.0" customHeight="1">
+    <row r="149" ht="27.0" customHeight="1">
       <c r="A149" s="17">
         <v>146.0</v>
       </c>
@@ -10479,10 +10880,10 @@
         <v>86</v>
       </c>
       <c r="D149" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="E149" s="19" t="s">
         <v>457</v>
-      </c>
-      <c r="E149" s="19" t="s">
-        <v>458</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="23"/>
@@ -10505,7 +10906,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="150" ht="51.0" customHeight="1">
+    <row r="150" ht="27.0" customHeight="1">
       <c r="A150" s="17">
         <v>147.0</v>
       </c>
@@ -10513,25 +10914,25 @@
         <v>29</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D150" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="E150" s="19" t="s">
         <v>459</v>
-      </c>
-      <c r="E150" s="19" t="s">
-        <v>460</v>
       </c>
       <c r="F150" s="20">
         <v>45610.0</v>
       </c>
       <c r="G150" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="H150" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="H150" s="22" t="s">
+      <c r="I150" s="22" t="s">
         <v>462</v>
-      </c>
-      <c r="I150" s="22" t="s">
-        <v>463</v>
       </c>
       <c r="J150" s="22" t="s">
         <v>36</v>
@@ -10554,7 +10955,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="151" ht="51.0" customHeight="1">
+    <row r="151" ht="27.0" customHeight="1">
       <c r="A151" s="17">
         <v>148.0</v>
       </c>
@@ -10562,25 +10963,25 @@
         <v>29</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D151" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="E151" s="19" t="s">
         <v>464</v>
-      </c>
-      <c r="E151" s="19" t="s">
-        <v>465</v>
       </c>
       <c r="F151" s="20">
         <v>45622.0</v>
       </c>
       <c r="G151" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="H151" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="H151" s="22" t="s">
+      <c r="I151" s="22" t="s">
         <v>467</v>
-      </c>
-      <c r="I151" s="22" t="s">
-        <v>468</v>
       </c>
       <c r="J151" s="22" t="s">
         <v>36</v>
@@ -10603,7 +11004,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="152" ht="51.0" customHeight="1">
+    <row r="152" ht="27.0" customHeight="1">
       <c r="A152" s="17">
         <v>149.0</v>
       </c>
@@ -10611,25 +11012,25 @@
         <v>29</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D152" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="E152" s="19" t="s">
         <v>469</v>
-      </c>
-      <c r="E152" s="19" t="s">
-        <v>470</v>
       </c>
       <c r="F152" s="20">
         <v>45622.0</v>
       </c>
       <c r="G152" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H152" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="H152" s="22" t="s">
+      <c r="I152" s="22" t="s">
         <v>472</v>
-      </c>
-      <c r="I152" s="22" t="s">
-        <v>473</v>
       </c>
       <c r="J152" s="22" t="s">
         <v>36</v>
@@ -10652,7 +11053,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="153" ht="51.0" customHeight="1">
+    <row r="153" ht="27.0" customHeight="1">
       <c r="A153" s="17">
         <v>150.0</v>
       </c>
@@ -10660,25 +11061,25 @@
         <v>29</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D153" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="E153" s="19" t="s">
         <v>474</v>
-      </c>
-      <c r="E153" s="19" t="s">
-        <v>475</v>
       </c>
       <c r="F153" s="20">
         <v>45622.0</v>
       </c>
       <c r="G153" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="H153" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="H153" s="22" t="s">
+      <c r="I153" s="22" t="s">
         <v>477</v>
-      </c>
-      <c r="I153" s="22" t="s">
-        <v>478</v>
       </c>
       <c r="J153" s="22" t="s">
         <v>36</v>
@@ -10701,7 +11102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="154" ht="51.0" customHeight="1">
+    <row r="154" ht="27.0" customHeight="1">
       <c r="A154" s="17">
         <v>151.0</v>
       </c>
@@ -10709,25 +11110,25 @@
         <v>29</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D154" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="E154" s="19" t="s">
         <v>479</v>
-      </c>
-      <c r="E154" s="19" t="s">
-        <v>480</v>
       </c>
       <c r="F154" s="20">
         <v>45622.0</v>
       </c>
       <c r="G154" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="H154" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="H154" s="22" t="s">
+      <c r="I154" s="22" t="s">
         <v>482</v>
-      </c>
-      <c r="I154" s="22" t="s">
-        <v>483</v>
       </c>
       <c r="J154" s="22" t="s">
         <v>36</v>
@@ -10741,7 +11142,7 @@
         <v>36</v>
       </c>
       <c r="O154" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P154" s="22" t="s">
         <v>36</v>
@@ -10762,7 +11163,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="155" ht="51.0" customHeight="1">
+    <row r="155" ht="27.0" customHeight="1">
       <c r="A155" s="17">
         <v>152.0</v>
       </c>
@@ -10770,25 +11171,25 @@
         <v>29</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D155" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="E155" s="19" t="s">
         <v>485</v>
-      </c>
-      <c r="E155" s="19" t="s">
-        <v>486</v>
       </c>
       <c r="F155" s="20">
         <v>45623.0</v>
       </c>
       <c r="G155" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="H155" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="H155" s="22" t="s">
+      <c r="I155" s="22" t="s">
         <v>488</v>
-      </c>
-      <c r="I155" s="22" t="s">
-        <v>489</v>
       </c>
       <c r="J155" s="22" t="s">
         <v>36</v>
@@ -10802,7 +11203,7 @@
         <v>36</v>
       </c>
       <c r="O155" s="22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P155" s="22" t="s">
         <v>36</v>
@@ -10823,7 +11224,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="156" ht="51.0" customHeight="1">
+    <row r="156" ht="27.0" customHeight="1">
       <c r="A156" s="17">
         <v>153.0</v>
       </c>
@@ -10831,25 +11232,25 @@
         <v>29</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D156" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="E156" s="19" t="s">
         <v>491</v>
-      </c>
-      <c r="E156" s="19" t="s">
-        <v>492</v>
       </c>
       <c r="F156" s="20">
         <v>45623.0</v>
       </c>
       <c r="G156" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="H156" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="H156" s="22" t="s">
+      <c r="I156" s="22" t="s">
         <v>494</v>
-      </c>
-      <c r="I156" s="22" t="s">
-        <v>495</v>
       </c>
       <c r="J156" s="22" t="s">
         <v>36</v>
@@ -10863,7 +11264,7 @@
         <v>36</v>
       </c>
       <c r="O156" s="22" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P156" s="22" t="s">
         <v>36</v>
@@ -10884,7 +11285,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="157" ht="51.0" customHeight="1">
+    <row r="157" ht="27.0" customHeight="1">
       <c r="A157" s="17">
         <v>154.0</v>
       </c>
@@ -10892,25 +11293,25 @@
         <v>29</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D157" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="E157" s="19" t="s">
         <v>497</v>
-      </c>
-      <c r="E157" s="19" t="s">
-        <v>498</v>
       </c>
       <c r="F157" s="20">
         <v>45623.0</v>
       </c>
       <c r="G157" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="H157" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="H157" s="22" t="s">
+      <c r="I157" s="22" t="s">
         <v>500</v>
-      </c>
-      <c r="I157" s="22" t="s">
-        <v>501</v>
       </c>
       <c r="J157" s="22" t="s">
         <v>36</v>
@@ -10924,7 +11325,7 @@
         <v>36</v>
       </c>
       <c r="O157" s="22" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P157" s="22" t="s">
         <v>36</v>
@@ -10945,7 +11346,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="158" ht="51.0" customHeight="1">
+    <row r="158" ht="27.0" customHeight="1">
       <c r="A158" s="17">
         <v>155.0</v>
       </c>
@@ -10953,25 +11354,25 @@
         <v>29</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D158" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="E158" s="19" t="s">
         <v>503</v>
-      </c>
-      <c r="E158" s="19" t="s">
-        <v>504</v>
       </c>
       <c r="F158" s="20">
         <v>45623.0</v>
       </c>
       <c r="G158" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="H158" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="H158" s="22" t="s">
+      <c r="I158" s="22" t="s">
         <v>506</v>
-      </c>
-      <c r="I158" s="22" t="s">
-        <v>507</v>
       </c>
       <c r="J158" s="22" t="s">
         <v>36</v>
@@ -10985,7 +11386,7 @@
         <v>36</v>
       </c>
       <c r="O158" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P158" s="22" t="s">
         <v>36</v>
@@ -11006,7 +11407,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="159" ht="51.0" customHeight="1">
+    <row r="159" ht="27.0" customHeight="1">
       <c r="A159" s="17">
         <v>156.0</v>
       </c>
@@ -11014,25 +11415,25 @@
         <v>29</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D159" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="E159" s="19" t="s">
         <v>508</v>
-      </c>
-      <c r="E159" s="19" t="s">
-        <v>509</v>
       </c>
       <c r="F159" s="20">
         <v>45623.0</v>
       </c>
       <c r="G159" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="H159" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="H159" s="22" t="s">
+      <c r="I159" s="22" t="s">
         <v>511</v>
-      </c>
-      <c r="I159" s="22" t="s">
-        <v>512</v>
       </c>
       <c r="J159" s="22" t="s">
         <v>36</v>
@@ -11046,7 +11447,7 @@
         <v>36</v>
       </c>
       <c r="O159" s="22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P159" s="22" t="s">
         <v>36</v>
@@ -11067,7 +11468,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="160" ht="51.0" customHeight="1">
+    <row r="160" ht="27.0" customHeight="1">
       <c r="A160" s="17">
         <v>157.0</v>
       </c>
@@ -11075,25 +11476,25 @@
         <v>29</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D160" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="E160" s="19" t="s">
         <v>514</v>
-      </c>
-      <c r="E160" s="19" t="s">
-        <v>515</v>
       </c>
       <c r="F160" s="20">
         <v>45623.0</v>
       </c>
       <c r="G160" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="H160" s="22" t="s">
         <v>516</v>
       </c>
-      <c r="H160" s="22" t="s">
+      <c r="I160" s="22" t="s">
         <v>517</v>
-      </c>
-      <c r="I160" s="22" t="s">
-        <v>518</v>
       </c>
       <c r="J160" s="22" t="s">
         <v>36</v>
@@ -11107,7 +11508,7 @@
         <v>36</v>
       </c>
       <c r="O160" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P160" s="22" t="s">
         <v>36</v>
@@ -11128,7 +11529,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="161" ht="51.0" customHeight="1">
+    <row r="161" ht="27.0" customHeight="1">
       <c r="A161" s="17">
         <v>158.0</v>
       </c>
@@ -11136,25 +11537,25 @@
         <v>29</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D161" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="E161" s="19" t="s">
         <v>520</v>
-      </c>
-      <c r="E161" s="19" t="s">
-        <v>521</v>
       </c>
       <c r="F161" s="20">
         <v>45623.0</v>
       </c>
       <c r="G161" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="H161" s="22" t="s">
         <v>522</v>
       </c>
-      <c r="H161" s="22" t="s">
+      <c r="I161" s="22" t="s">
         <v>523</v>
-      </c>
-      <c r="I161" s="22" t="s">
-        <v>524</v>
       </c>
       <c r="J161" s="22" t="s">
         <v>36</v>
@@ -11168,7 +11569,7 @@
         <v>36</v>
       </c>
       <c r="O161" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P161" s="22" t="s">
         <v>36</v>
@@ -11189,7 +11590,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="162" ht="51.0" customHeight="1">
+    <row r="162" ht="27.0" customHeight="1">
       <c r="A162" s="17">
         <v>159.0</v>
       </c>
@@ -11197,25 +11598,25 @@
         <v>29</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D162" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="E162" s="19" t="s">
         <v>526</v>
-      </c>
-      <c r="E162" s="19" t="s">
-        <v>527</v>
       </c>
       <c r="F162" s="20">
         <v>45624.0</v>
       </c>
       <c r="G162" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="H162" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="H162" s="22" t="s">
+      <c r="I162" s="22" t="s">
         <v>529</v>
-      </c>
-      <c r="I162" s="22" t="s">
-        <v>530</v>
       </c>
       <c r="J162" s="22" t="s">
         <v>36</v>
@@ -11229,7 +11630,7 @@
         <v>36</v>
       </c>
       <c r="O162" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P162" s="22" t="s">
         <v>36</v>
@@ -11250,7 +11651,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="163" ht="51.0" customHeight="1">
+    <row r="163" ht="27.0" customHeight="1">
       <c r="A163" s="17">
         <v>160.0</v>
       </c>
@@ -11258,25 +11659,25 @@
         <v>29</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D163" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E163" s="19" t="s">
         <v>531</v>
-      </c>
-      <c r="E163" s="19" t="s">
-        <v>532</v>
       </c>
       <c r="F163" s="20">
         <v>45624.0</v>
       </c>
       <c r="G163" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="H163" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="H163" s="22" t="s">
+      <c r="I163" s="22" t="s">
         <v>534</v>
-      </c>
-      <c r="I163" s="22" t="s">
-        <v>535</v>
       </c>
       <c r="J163" s="22" t="s">
         <v>36</v>
@@ -11290,7 +11691,7 @@
         <v>36</v>
       </c>
       <c r="O163" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P163" s="22" t="s">
         <v>36</v>
@@ -11311,7 +11712,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="164" ht="51.0" customHeight="1">
+    <row r="164" ht="27.0" customHeight="1">
       <c r="A164" s="17">
         <v>161.0</v>
       </c>
@@ -11319,25 +11720,25 @@
         <v>29</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D164" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="E164" s="19" t="s">
         <v>537</v>
-      </c>
-      <c r="E164" s="19" t="s">
-        <v>538</v>
       </c>
       <c r="F164" s="20">
         <v>45624.0</v>
       </c>
       <c r="G164" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="H164" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="H164" s="22" t="s">
+      <c r="I164" s="22" t="s">
         <v>540</v>
-      </c>
-      <c r="I164" s="22" t="s">
-        <v>541</v>
       </c>
       <c r="J164" s="22" t="s">
         <v>36</v>
@@ -11351,7 +11752,7 @@
         <v>36</v>
       </c>
       <c r="O164" s="22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P164" s="22" t="s">
         <v>36</v>
@@ -11372,7 +11773,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="165" ht="51.0" customHeight="1">
+    <row r="165" ht="27.0" customHeight="1">
       <c r="A165" s="17">
         <v>162.0</v>
       </c>
@@ -11380,25 +11781,25 @@
         <v>29</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D165" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="E165" s="19" t="s">
         <v>543</v>
-      </c>
-      <c r="E165" s="19" t="s">
-        <v>544</v>
       </c>
       <c r="F165" s="20">
         <v>45624.0</v>
       </c>
       <c r="G165" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="H165" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="H165" s="22" t="s">
+      <c r="I165" s="22" t="s">
         <v>546</v>
-      </c>
-      <c r="I165" s="22" t="s">
-        <v>547</v>
       </c>
       <c r="J165" s="22" t="s">
         <v>36</v>
@@ -11412,7 +11813,7 @@
         <v>36</v>
       </c>
       <c r="O165" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P165" s="22" t="s">
         <v>36</v>
@@ -11433,7 +11834,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="166" ht="51.0" customHeight="1">
+    <row r="166" ht="27.0" customHeight="1">
       <c r="A166" s="17">
         <v>163.0</v>
       </c>
@@ -11441,25 +11842,25 @@
         <v>29</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D166" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="E166" s="19" t="s">
         <v>549</v>
-      </c>
-      <c r="E166" s="19" t="s">
-        <v>550</v>
       </c>
       <c r="F166" s="20">
         <v>45624.0</v>
       </c>
       <c r="G166" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="H166" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="H166" s="22" t="s">
+      <c r="I166" s="22" t="s">
         <v>552</v>
-      </c>
-      <c r="I166" s="22" t="s">
-        <v>553</v>
       </c>
       <c r="J166" s="22" t="s">
         <v>36</v>
@@ -11473,7 +11874,7 @@
         <v>36</v>
       </c>
       <c r="O166" s="22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="P166" s="22" t="s">
         <v>36</v>
@@ -11494,7 +11895,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="167" ht="51.0" customHeight="1">
+    <row r="167" ht="27.0" customHeight="1">
       <c r="A167" s="17">
         <v>164.0</v>
       </c>
@@ -11502,25 +11903,25 @@
         <v>29</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D167" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="E167" s="19" t="s">
         <v>555</v>
-      </c>
-      <c r="E167" s="19" t="s">
-        <v>556</v>
       </c>
       <c r="F167" s="20">
         <v>45624.0</v>
       </c>
       <c r="G167" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="H167" s="22" t="s">
         <v>557</v>
       </c>
-      <c r="H167" s="22" t="s">
+      <c r="I167" s="22" t="s">
         <v>558</v>
-      </c>
-      <c r="I167" s="22" t="s">
-        <v>559</v>
       </c>
       <c r="J167" s="22" t="s">
         <v>36</v>
@@ -11534,7 +11935,7 @@
         <v>36</v>
       </c>
       <c r="O167" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P167" s="22" t="s">
         <v>36</v>
@@ -11555,7 +11956,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="168" ht="51.0" customHeight="1">
+    <row r="168" ht="27.0" customHeight="1">
       <c r="A168" s="17">
         <v>165.0</v>
       </c>
@@ -11563,25 +11964,25 @@
         <v>29</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D168" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="E168" s="19" t="s">
         <v>561</v>
-      </c>
-      <c r="E168" s="19" t="s">
-        <v>562</v>
       </c>
       <c r="F168" s="20">
         <v>45624.0</v>
       </c>
       <c r="G168" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="H168" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="H168" s="22" t="s">
+      <c r="I168" s="22" t="s">
         <v>564</v>
-      </c>
-      <c r="I168" s="22" t="s">
-        <v>565</v>
       </c>
       <c r="J168" s="22" t="s">
         <v>36</v>
@@ -11595,7 +11996,7 @@
         <v>36</v>
       </c>
       <c r="O168" s="22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P168" s="22" t="s">
         <v>36</v>
@@ -11616,7 +12017,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="169" ht="51.0" customHeight="1">
+    <row r="169" ht="27.0" customHeight="1">
       <c r="A169" s="17">
         <v>166.0</v>
       </c>
@@ -11624,25 +12025,25 @@
         <v>29</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D169" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="E169" s="19" t="s">
         <v>567</v>
-      </c>
-      <c r="E169" s="19" t="s">
-        <v>568</v>
       </c>
       <c r="F169" s="20">
         <v>45624.0</v>
       </c>
       <c r="G169" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="H169" s="22" t="s">
         <v>569</v>
       </c>
-      <c r="H169" s="22" t="s">
+      <c r="I169" s="22" t="s">
         <v>570</v>
-      </c>
-      <c r="I169" s="22" t="s">
-        <v>571</v>
       </c>
       <c r="J169" s="22" t="s">
         <v>36</v>
@@ -11656,7 +12057,7 @@
         <v>36</v>
       </c>
       <c r="O169" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P169" s="22" t="s">
         <v>36</v>
@@ -11677,7 +12078,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="170" ht="51.0" customHeight="1">
+    <row r="170" ht="27.0" customHeight="1">
       <c r="A170" s="17">
         <v>167.0</v>
       </c>
@@ -11685,25 +12086,25 @@
         <v>29</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D170" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="E170" s="19" t="s">
         <v>573</v>
-      </c>
-      <c r="E170" s="19" t="s">
-        <v>574</v>
       </c>
       <c r="F170" s="20">
         <v>45624.0</v>
       </c>
       <c r="G170" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="H170" s="22" t="s">
         <v>575</v>
       </c>
-      <c r="H170" s="22" t="s">
+      <c r="I170" s="22" t="s">
         <v>576</v>
-      </c>
-      <c r="I170" s="22" t="s">
-        <v>577</v>
       </c>
       <c r="J170" s="22" t="s">
         <v>36</v>
@@ -11717,7 +12118,7 @@
         <v>36</v>
       </c>
       <c r="O170" s="22" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P170" s="22" t="s">
         <v>36</v>
@@ -11738,7 +12139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="171" ht="51.0" customHeight="1">
+    <row r="171" ht="27.0" customHeight="1">
       <c r="A171" s="17">
         <v>168.0</v>
       </c>
@@ -11746,25 +12147,25 @@
         <v>29</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D171" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="E171" s="19" t="s">
         <v>579</v>
-      </c>
-      <c r="E171" s="19" t="s">
-        <v>580</v>
       </c>
       <c r="F171" s="20">
         <v>45624.0</v>
       </c>
       <c r="G171" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="H171" s="22" t="s">
         <v>581</v>
       </c>
-      <c r="H171" s="22" t="s">
+      <c r="I171" s="22" t="s">
         <v>582</v>
-      </c>
-      <c r="I171" s="22" t="s">
-        <v>583</v>
       </c>
       <c r="J171" s="22" t="s">
         <v>36</v>
@@ -11778,7 +12179,7 @@
         <v>36</v>
       </c>
       <c r="O171" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P171" s="22" t="s">
         <v>36</v>
@@ -11799,7 +12200,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="172" ht="51.0" customHeight="1">
+    <row r="172" ht="27.0" customHeight="1">
       <c r="A172" s="17">
         <v>169.0</v>
       </c>
@@ -11807,25 +12208,25 @@
         <v>29</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D172" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="E172" s="19" t="s">
         <v>584</v>
-      </c>
-      <c r="E172" s="19" t="s">
-        <v>585</v>
       </c>
       <c r="F172" s="20">
         <v>45624.0</v>
       </c>
       <c r="G172" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="H172" s="22" t="s">
         <v>586</v>
       </c>
-      <c r="H172" s="22" t="s">
+      <c r="I172" s="22" t="s">
         <v>587</v>
-      </c>
-      <c r="I172" s="22" t="s">
-        <v>588</v>
       </c>
       <c r="J172" s="22" t="s">
         <v>36</v>
@@ -11839,7 +12240,7 @@
         <v>36</v>
       </c>
       <c r="O172" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P172" s="22" t="s">
         <v>36</v>
@@ -11860,7 +12261,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="173" ht="51.0" customHeight="1">
+    <row r="173" ht="27.0" customHeight="1">
       <c r="A173" s="17">
         <v>174.0</v>
       </c>
@@ -11871,10 +12272,10 @@
         <v>105</v>
       </c>
       <c r="D173" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="E173" s="19" t="s">
         <v>590</v>
-      </c>
-      <c r="E173" s="19" t="s">
-        <v>591</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="23"/>
@@ -11897,7 +12298,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="174" ht="51.0" customHeight="1">
+    <row r="174" ht="27.0" customHeight="1">
       <c r="A174" s="17">
         <v>175.0</v>
       </c>
@@ -11908,10 +12309,10 @@
         <v>105</v>
       </c>
       <c r="D174" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="E174" s="19" t="s">
         <v>592</v>
-      </c>
-      <c r="E174" s="19" t="s">
-        <v>593</v>
       </c>
       <c r="F174" s="26"/>
       <c r="G174" s="23"/>
@@ -11934,7 +12335,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="175" ht="51.0" customHeight="1">
+    <row r="175" ht="27.0" customHeight="1">
       <c r="A175" s="17">
         <v>176.0</v>
       </c>
@@ -11945,10 +12346,10 @@
         <v>105</v>
       </c>
       <c r="D175" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="E175" s="19" t="s">
         <v>594</v>
-      </c>
-      <c r="E175" s="19" t="s">
-        <v>595</v>
       </c>
       <c r="F175" s="26"/>
       <c r="G175" s="23"/>
@@ -11971,7 +12372,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="176" ht="51.0" customHeight="1">
+    <row r="176" ht="27.0" customHeight="1">
       <c r="A176" s="17">
         <v>177.0</v>
       </c>
@@ -11982,10 +12383,10 @@
         <v>105</v>
       </c>
       <c r="D176" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="E176" s="19" t="s">
         <v>596</v>
-      </c>
-      <c r="E176" s="19" t="s">
-        <v>597</v>
       </c>
       <c r="F176" s="26"/>
       <c r="G176" s="23"/>
@@ -12008,7 +12409,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="177" ht="51.0" customHeight="1">
+    <row r="177" ht="27.0" customHeight="1">
       <c r="A177" s="17">
         <v>178.0</v>
       </c>
@@ -12019,10 +12420,10 @@
         <v>105</v>
       </c>
       <c r="D177" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="E177" s="19" t="s">
         <v>598</v>
-      </c>
-      <c r="E177" s="19" t="s">
-        <v>599</v>
       </c>
       <c r="F177" s="26"/>
       <c r="G177" s="23"/>
@@ -12045,7 +12446,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="178" ht="51.0" customHeight="1">
+    <row r="178" ht="27.0" customHeight="1">
       <c r="A178" s="17">
         <v>179.0</v>
       </c>
@@ -12056,10 +12457,10 @@
         <v>105</v>
       </c>
       <c r="D178" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="E178" s="19" t="s">
         <v>600</v>
-      </c>
-      <c r="E178" s="19" t="s">
-        <v>601</v>
       </c>
       <c r="F178" s="26"/>
       <c r="G178" s="23"/>
@@ -12082,7 +12483,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="179" ht="51.0" customHeight="1">
+    <row r="179" ht="27.0" customHeight="1">
       <c r="A179" s="17">
         <v>180.0</v>
       </c>
@@ -12093,10 +12494,10 @@
         <v>105</v>
       </c>
       <c r="D179" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="E179" s="19" t="s">
         <v>602</v>
-      </c>
-      <c r="E179" s="19" t="s">
-        <v>603</v>
       </c>
       <c r="F179" s="26"/>
       <c r="G179" s="23"/>
@@ -12119,7 +12520,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="180" ht="51.0" customHeight="1">
+    <row r="180" ht="27.0" customHeight="1">
       <c r="A180" s="17">
         <v>181.0</v>
       </c>
@@ -12130,10 +12531,10 @@
         <v>105</v>
       </c>
       <c r="D180" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="E180" s="19" t="s">
         <v>604</v>
-      </c>
-      <c r="E180" s="19" t="s">
-        <v>605</v>
       </c>
       <c r="F180" s="26"/>
       <c r="G180" s="23"/>
@@ -12156,7 +12557,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="181" ht="51.0" customHeight="1">
+    <row r="181" ht="27.0" customHeight="1">
       <c r="A181" s="17">
         <v>182.0</v>
       </c>
@@ -12167,10 +12568,10 @@
         <v>105</v>
       </c>
       <c r="D181" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="E181" s="19" t="s">
         <v>606</v>
-      </c>
-      <c r="E181" s="19" t="s">
-        <v>607</v>
       </c>
       <c r="F181" s="26"/>
       <c r="G181" s="23"/>
@@ -12193,7 +12594,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="182" ht="51.0" customHeight="1">
+    <row r="182" ht="27.0" customHeight="1">
       <c r="A182" s="17">
         <v>183.0</v>
       </c>
@@ -12204,10 +12605,10 @@
         <v>105</v>
       </c>
       <c r="D182" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="E182" s="19" t="s">
         <v>608</v>
-      </c>
-      <c r="E182" s="19" t="s">
-        <v>609</v>
       </c>
       <c r="F182" s="26"/>
       <c r="G182" s="23"/>
@@ -12230,7 +12631,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="183" ht="51.0" customHeight="1">
+    <row r="183" ht="27.0" customHeight="1">
       <c r="A183" s="17">
         <v>184.0</v>
       </c>
@@ -12241,10 +12642,10 @@
         <v>105</v>
       </c>
       <c r="D183" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="E183" s="19" t="s">
         <v>610</v>
-      </c>
-      <c r="E183" s="19" t="s">
-        <v>611</v>
       </c>
       <c r="F183" s="26"/>
       <c r="G183" s="23"/>
@@ -12267,7 +12668,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="184" ht="51.0" customHeight="1">
+    <row r="184" ht="27.0" customHeight="1">
       <c r="A184" s="17">
         <v>185.0</v>
       </c>
@@ -12278,10 +12679,10 @@
         <v>105</v>
       </c>
       <c r="D184" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="E184" s="19" t="s">
         <v>612</v>
-      </c>
-      <c r="E184" s="19" t="s">
-        <v>613</v>
       </c>
       <c r="F184" s="26"/>
       <c r="G184" s="23"/>
@@ -12304,7 +12705,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="185" ht="51.0" customHeight="1">
+    <row r="185" ht="27.0" customHeight="1">
       <c r="A185" s="17">
         <v>186.0</v>
       </c>
@@ -12315,10 +12716,10 @@
         <v>105</v>
       </c>
       <c r="D185" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="E185" s="19" t="s">
         <v>614</v>
-      </c>
-      <c r="E185" s="19" t="s">
-        <v>615</v>
       </c>
       <c r="F185" s="26"/>
       <c r="G185" s="23"/>
@@ -12341,7 +12742,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="186" ht="51.0" customHeight="1">
+    <row r="186" ht="27.0" customHeight="1">
       <c r="A186" s="17">
         <v>187.0</v>
       </c>
@@ -12352,10 +12753,10 @@
         <v>105</v>
       </c>
       <c r="D186" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="E186" s="19" t="s">
         <v>616</v>
-      </c>
-      <c r="E186" s="19" t="s">
-        <v>617</v>
       </c>
       <c r="F186" s="26"/>
       <c r="G186" s="23"/>
@@ -12378,7 +12779,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="187" ht="51.0" customHeight="1">
+    <row r="187" ht="27.0" customHeight="1">
       <c r="A187" s="17">
         <v>188.0</v>
       </c>
@@ -12389,10 +12790,10 @@
         <v>105</v>
       </c>
       <c r="D187" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="E187" s="19" t="s">
         <v>618</v>
-      </c>
-      <c r="E187" s="19" t="s">
-        <v>619</v>
       </c>
       <c r="F187" s="26"/>
       <c r="G187" s="23"/>
@@ -12415,7 +12816,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="188" ht="51.0" customHeight="1">
+    <row r="188" ht="27.0" customHeight="1">
       <c r="A188" s="17">
         <v>189.0</v>
       </c>
@@ -12426,10 +12827,10 @@
         <v>105</v>
       </c>
       <c r="D188" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="E188" s="19" t="s">
         <v>620</v>
-      </c>
-      <c r="E188" s="19" t="s">
-        <v>621</v>
       </c>
       <c r="F188" s="26"/>
       <c r="G188" s="23"/>
@@ -12452,7 +12853,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="189" ht="51.0" customHeight="1">
+    <row r="189" ht="27.0" customHeight="1">
       <c r="A189" s="17">
         <v>190.0</v>
       </c>
@@ -12463,10 +12864,10 @@
         <v>105</v>
       </c>
       <c r="D189" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="E189" s="19" t="s">
         <v>622</v>
-      </c>
-      <c r="E189" s="19" t="s">
-        <v>623</v>
       </c>
       <c r="F189" s="26"/>
       <c r="G189" s="23"/>
@@ -12489,7 +12890,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="190" ht="51.0" customHeight="1">
+    <row r="190" ht="27.0" customHeight="1">
       <c r="A190" s="17">
         <v>191.0</v>
       </c>
@@ -12500,10 +12901,10 @@
         <v>30</v>
       </c>
       <c r="D190" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="E190" s="19" t="s">
         <v>624</v>
-      </c>
-      <c r="E190" s="19" t="s">
-        <v>625</v>
       </c>
       <c r="F190" s="26"/>
       <c r="G190" s="23"/>
@@ -12526,7 +12927,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="191" ht="51.0" customHeight="1">
+    <row r="191" ht="27.0" customHeight="1">
       <c r="A191" s="17">
         <v>368.0</v>
       </c>
@@ -12537,22 +12938,22 @@
         <v>30</v>
       </c>
       <c r="D191" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="E191" s="19" t="s">
         <v>626</v>
-      </c>
-      <c r="E191" s="19" t="s">
-        <v>627</v>
       </c>
       <c r="F191" s="20">
         <v>45503.0</v>
       </c>
       <c r="G191" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="H191" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="H191" s="22" t="s">
+      <c r="I191" s="22" t="s">
         <v>629</v>
-      </c>
-      <c r="I191" s="22" t="s">
-        <v>630</v>
       </c>
       <c r="J191" s="22" t="s">
         <v>36</v>
@@ -12575,7 +12976,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="192" ht="51.0" customHeight="1">
+    <row r="192" ht="27.0" customHeight="1">
       <c r="A192" s="17">
         <v>369.0</v>
       </c>
@@ -12586,10 +12987,10 @@
         <v>59</v>
       </c>
       <c r="D192" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="E192" s="19" t="s">
         <v>631</v>
-      </c>
-      <c r="E192" s="19" t="s">
-        <v>632</v>
       </c>
       <c r="F192" s="26"/>
       <c r="G192" s="23"/>
@@ -12612,7 +13013,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="193" ht="51.0" customHeight="1">
+    <row r="193" ht="27.0" customHeight="1">
       <c r="A193" s="17">
         <v>371.0</v>
       </c>
@@ -12623,10 +13024,10 @@
         <v>68</v>
       </c>
       <c r="D193" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="E193" s="19" t="s">
         <v>633</v>
-      </c>
-      <c r="E193" s="19" t="s">
-        <v>634</v>
       </c>
       <c r="F193" s="26"/>
       <c r="G193" s="23"/>
@@ -12649,7 +13050,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="194" ht="51.0" customHeight="1">
+    <row r="194" ht="27.0" customHeight="1">
       <c r="A194" s="17">
         <v>372.0</v>
       </c>
@@ -12660,10 +13061,10 @@
         <v>77</v>
       </c>
       <c r="D194" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="E194" s="19" t="s">
         <v>635</v>
-      </c>
-      <c r="E194" s="19" t="s">
-        <v>636</v>
       </c>
       <c r="F194" s="26"/>
       <c r="G194" s="23"/>
@@ -12686,7 +13087,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="195" ht="51.0" customHeight="1">
+    <row r="195" ht="27.0" customHeight="1">
       <c r="A195" s="17">
         <v>373.0</v>
       </c>
@@ -12697,10 +13098,10 @@
         <v>86</v>
       </c>
       <c r="D195" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="E195" s="19" t="s">
         <v>637</v>
-      </c>
-      <c r="E195" s="19" t="s">
-        <v>638</v>
       </c>
       <c r="F195" s="26"/>
       <c r="G195" s="23"/>
@@ -12723,7 +13124,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="196" ht="51.0" customHeight="1">
+    <row r="196" ht="27.0" customHeight="1">
       <c r="A196" s="17">
         <v>374.0</v>
       </c>
@@ -12731,25 +13132,25 @@
         <v>29</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D196" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="E196" s="19" t="s">
         <v>639</v>
-      </c>
-      <c r="E196" s="19" t="s">
-        <v>640</v>
       </c>
       <c r="F196" s="20">
         <v>45609.0</v>
       </c>
       <c r="G196" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="H196" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="H196" s="22" t="s">
+      <c r="I196" s="22" t="s">
         <v>642</v>
-      </c>
-      <c r="I196" s="22" t="s">
-        <v>643</v>
       </c>
       <c r="J196" s="22" t="s">
         <v>36</v>
@@ -12772,7 +13173,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="197" ht="51.0" customHeight="1">
+    <row r="197" ht="27.0" customHeight="1">
       <c r="A197" s="31">
         <v>376.0</v>
       </c>
@@ -12783,10 +13184,10 @@
         <v>30</v>
       </c>
       <c r="D197" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="E197" s="33" t="s">
         <v>644</v>
-      </c>
-      <c r="E197" s="33" t="s">
-        <v>645</v>
       </c>
       <c r="F197" s="34"/>
       <c r="G197" s="35"/>
@@ -12809,7 +13210,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="198" ht="51.0" customHeight="1">
+    <row r="198" ht="27.0" customHeight="1">
       <c r="A198" s="38">
         <v>417.0</v>
       </c>
@@ -12817,13 +13218,13 @@
         <v>29</v>
       </c>
       <c r="C198" s="39" t="s">
+        <v>645</v>
+      </c>
+      <c r="D198" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="D198" s="18" t="s">
+      <c r="E198" s="40" t="s">
         <v>647</v>
-      </c>
-      <c r="E198" s="40" t="s">
-        <v>648</v>
       </c>
       <c r="F198" s="41"/>
       <c r="G198" s="42"/>
@@ -12846,7 +13247,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="199" ht="51.0" customHeight="1">
+    <row r="199" ht="27.0" customHeight="1">
       <c r="A199" s="38">
         <v>418.0</v>
       </c>
@@ -12854,13 +13255,13 @@
         <v>29</v>
       </c>
       <c r="C199" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D199" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="E199" s="19" t="s">
         <v>649</v>
-      </c>
-      <c r="E199" s="19" t="s">
-        <v>650</v>
       </c>
       <c r="F199" s="41"/>
       <c r="G199" s="42"/>
@@ -12883,7 +13284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="200" ht="51.0" customHeight="1">
+    <row r="200" ht="27.0" customHeight="1">
       <c r="A200" s="38">
         <v>419.0</v>
       </c>
@@ -12891,13 +13292,13 @@
         <v>29</v>
       </c>
       <c r="C200" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D200" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="E200" s="19" t="s">
         <v>651</v>
-      </c>
-      <c r="E200" s="19" t="s">
-        <v>652</v>
       </c>
       <c r="F200" s="41"/>
       <c r="G200" s="42"/>
@@ -12920,7 +13321,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="201" ht="51.0" customHeight="1">
+    <row r="201" ht="27.0" customHeight="1">
       <c r="A201" s="38">
         <v>423.0</v>
       </c>
@@ -12928,13 +13329,13 @@
         <v>29</v>
       </c>
       <c r="C201" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D201" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="E201" s="27" t="s">
         <v>653</v>
-      </c>
-      <c r="E201" s="27" t="s">
-        <v>654</v>
       </c>
       <c r="F201" s="41"/>
       <c r="G201" s="42"/>
@@ -12957,7 +13358,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="202" ht="51.0" customHeight="1">
+    <row r="202" ht="27.0" customHeight="1">
       <c r="A202" s="38">
         <v>424.0</v>
       </c>
@@ -12965,13 +13366,13 @@
         <v>29</v>
       </c>
       <c r="C202" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D202" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="E202" s="27" t="s">
         <v>655</v>
-      </c>
-      <c r="E202" s="27" t="s">
-        <v>656</v>
       </c>
       <c r="F202" s="41"/>
       <c r="G202" s="42"/>
@@ -12994,7 +13395,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="203" ht="51.0" customHeight="1">
+    <row r="203" ht="27.0" customHeight="1">
       <c r="A203" s="38">
         <v>425.0</v>
       </c>
@@ -13002,13 +13403,13 @@
         <v>29</v>
       </c>
       <c r="C203" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D203" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="E203" s="19" t="s">
         <v>657</v>
-      </c>
-      <c r="E203" s="19" t="s">
-        <v>658</v>
       </c>
       <c r="F203" s="41"/>
       <c r="G203" s="42"/>
@@ -13031,7 +13432,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="204" ht="51.0" customHeight="1">
+    <row r="204" ht="27.0" customHeight="1">
       <c r="A204" s="38">
         <v>426.0</v>
       </c>
@@ -13039,13 +13440,13 @@
         <v>29</v>
       </c>
       <c r="C204" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D204" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="E204" s="19" t="s">
         <v>659</v>
-      </c>
-      <c r="E204" s="19" t="s">
-        <v>660</v>
       </c>
       <c r="F204" s="41"/>
       <c r="G204" s="42"/>
@@ -13068,7 +13469,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="205" ht="51.0" customHeight="1">
+    <row r="205" ht="27.0" customHeight="1">
       <c r="A205" s="38">
         <v>427.0</v>
       </c>
@@ -13076,13 +13477,13 @@
         <v>29</v>
       </c>
       <c r="C205" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D205" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="E205" s="19" t="s">
         <v>661</v>
-      </c>
-      <c r="E205" s="19" t="s">
-        <v>662</v>
       </c>
       <c r="F205" s="41"/>
       <c r="G205" s="42"/>
@@ -13105,7 +13506,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="206" ht="51.0" customHeight="1">
+    <row r="206" ht="27.0" customHeight="1">
       <c r="A206" s="38">
         <v>428.0</v>
       </c>
@@ -13113,13 +13514,13 @@
         <v>29</v>
       </c>
       <c r="C206" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D206" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="E206" s="19" t="s">
         <v>663</v>
-      </c>
-      <c r="E206" s="19" t="s">
-        <v>664</v>
       </c>
       <c r="F206" s="41"/>
       <c r="G206" s="42"/>
@@ -13142,7 +13543,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="207" ht="51.0" customHeight="1">
+    <row r="207" ht="27.0" customHeight="1">
       <c r="A207" s="38">
         <v>429.0</v>
       </c>
@@ -13150,13 +13551,13 @@
         <v>29</v>
       </c>
       <c r="C207" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D207" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="E207" s="19" t="s">
         <v>665</v>
-      </c>
-      <c r="E207" s="19" t="s">
-        <v>666</v>
       </c>
       <c r="F207" s="41"/>
       <c r="G207" s="42"/>
@@ -13179,7 +13580,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="208" ht="51.0" customHeight="1">
+    <row r="208" ht="27.0" customHeight="1">
       <c r="A208" s="38">
         <v>430.0</v>
       </c>
@@ -13187,13 +13588,13 @@
         <v>29</v>
       </c>
       <c r="C208" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D208" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="E208" s="19" t="s">
         <v>667</v>
-      </c>
-      <c r="E208" s="19" t="s">
-        <v>668</v>
       </c>
       <c r="F208" s="41"/>
       <c r="G208" s="42"/>
@@ -13216,7 +13617,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="209" ht="51.0" customHeight="1">
+    <row r="209" ht="27.0" customHeight="1">
       <c r="A209" s="38">
         <v>431.0</v>
       </c>
@@ -13224,13 +13625,13 @@
         <v>29</v>
       </c>
       <c r="C209" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D209" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="E209" s="19" t="s">
         <v>669</v>
-      </c>
-      <c r="E209" s="19" t="s">
-        <v>670</v>
       </c>
       <c r="F209" s="41"/>
       <c r="G209" s="42"/>
@@ -13253,7 +13654,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="210" ht="51.0" customHeight="1">
+    <row r="210" ht="27.0" customHeight="1">
       <c r="A210" s="38">
         <v>432.0</v>
       </c>
@@ -13261,13 +13662,13 @@
         <v>29</v>
       </c>
       <c r="C210" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D210" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="E210" s="19" t="s">
         <v>671</v>
-      </c>
-      <c r="E210" s="19" t="s">
-        <v>672</v>
       </c>
       <c r="F210" s="41"/>
       <c r="G210" s="42"/>
@@ -13290,7 +13691,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="211" ht="51.0" customHeight="1">
+    <row r="211" ht="27.0" customHeight="1">
       <c r="A211" s="38">
         <v>433.0</v>
       </c>
@@ -13298,13 +13699,13 @@
         <v>29</v>
       </c>
       <c r="C211" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D211" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="E211" s="19" t="s">
         <v>673</v>
-      </c>
-      <c r="E211" s="19" t="s">
-        <v>674</v>
       </c>
       <c r="F211" s="41"/>
       <c r="G211" s="42"/>
@@ -13327,7 +13728,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="212" ht="51.0" customHeight="1">
+    <row r="212" ht="27.0" customHeight="1">
       <c r="A212" s="38">
         <v>434.0</v>
       </c>
@@ -13335,13 +13736,13 @@
         <v>29</v>
       </c>
       <c r="C212" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D212" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="E212" s="19" t="s">
         <v>675</v>
-      </c>
-      <c r="E212" s="19" t="s">
-        <v>676</v>
       </c>
       <c r="F212" s="41"/>
       <c r="G212" s="42"/>
@@ -13364,7 +13765,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="213" ht="51.0" customHeight="1">
+    <row r="213" ht="27.0" customHeight="1">
       <c r="A213" s="38">
         <v>435.0</v>
       </c>
@@ -13372,13 +13773,13 @@
         <v>29</v>
       </c>
       <c r="C213" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D213" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="E213" s="19" t="s">
         <v>677</v>
-      </c>
-      <c r="E213" s="19" t="s">
-        <v>678</v>
       </c>
       <c r="F213" s="41"/>
       <c r="G213" s="42"/>
@@ -13401,7 +13802,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="214" ht="51.0" customHeight="1">
+    <row r="214" ht="27.0" customHeight="1">
       <c r="A214" s="38">
         <v>436.0</v>
       </c>
@@ -13409,13 +13810,13 @@
         <v>29</v>
       </c>
       <c r="C214" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D214" s="18" t="s">
+        <v>678</v>
+      </c>
+      <c r="E214" s="19" t="s">
         <v>679</v>
-      </c>
-      <c r="E214" s="19" t="s">
-        <v>680</v>
       </c>
       <c r="F214" s="41"/>
       <c r="G214" s="42"/>
@@ -13438,7 +13839,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="215" ht="51.0" customHeight="1">
+    <row r="215" ht="27.0" customHeight="1">
       <c r="A215" s="38">
         <v>437.0</v>
       </c>
@@ -13446,13 +13847,13 @@
         <v>29</v>
       </c>
       <c r="C215" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D215" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="E215" s="19" t="s">
         <v>681</v>
-      </c>
-      <c r="E215" s="19" t="s">
-        <v>682</v>
       </c>
       <c r="F215" s="41"/>
       <c r="G215" s="42"/>
@@ -13475,7 +13876,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="216" ht="51.0" customHeight="1">
+    <row r="216" ht="27.0" customHeight="1">
       <c r="A216" s="38">
         <v>438.0</v>
       </c>
@@ -13483,13 +13884,13 @@
         <v>29</v>
       </c>
       <c r="C216" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D216" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="E216" s="19" t="s">
         <v>683</v>
-      </c>
-      <c r="E216" s="19" t="s">
-        <v>684</v>
       </c>
       <c r="F216" s="41"/>
       <c r="G216" s="42"/>
@@ -13512,7 +13913,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="217" ht="51.0" customHeight="1">
+    <row r="217" ht="27.0" customHeight="1">
       <c r="A217" s="38">
         <v>439.0</v>
       </c>
@@ -13520,13 +13921,13 @@
         <v>29</v>
       </c>
       <c r="C217" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D217" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="E217" s="19" t="s">
         <v>685</v>
-      </c>
-      <c r="E217" s="19" t="s">
-        <v>686</v>
       </c>
       <c r="F217" s="41"/>
       <c r="G217" s="42"/>
@@ -13549,7 +13950,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="218" ht="51.0" customHeight="1">
+    <row r="218" ht="27.0" customHeight="1">
       <c r="A218" s="38">
         <v>440.0</v>
       </c>
@@ -13557,13 +13958,13 @@
         <v>29</v>
       </c>
       <c r="C218" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D218" s="18" t="s">
+        <v>686</v>
+      </c>
+      <c r="E218" s="19" t="s">
         <v>687</v>
-      </c>
-      <c r="E218" s="19" t="s">
-        <v>688</v>
       </c>
       <c r="F218" s="41"/>
       <c r="G218" s="42"/>
@@ -13586,7 +13987,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="219" ht="51.0" customHeight="1">
+    <row r="219" ht="27.0" customHeight="1">
       <c r="A219" s="38">
         <v>441.0</v>
       </c>
@@ -13594,13 +13995,13 @@
         <v>29</v>
       </c>
       <c r="C219" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D219" s="18" t="s">
+        <v>688</v>
+      </c>
+      <c r="E219" s="19" t="s">
         <v>689</v>
-      </c>
-      <c r="E219" s="19" t="s">
-        <v>690</v>
       </c>
       <c r="F219" s="41"/>
       <c r="G219" s="42"/>
@@ -13623,7 +14024,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="220" ht="51.0" customHeight="1">
+    <row r="220" ht="27.0" customHeight="1">
       <c r="A220" s="31">
         <v>442.0</v>
       </c>
@@ -13631,13 +14032,13 @@
         <v>29</v>
       </c>
       <c r="C220" s="32" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D220" s="32" t="s">
+        <v>690</v>
+      </c>
+      <c r="E220" s="33" t="s">
         <v>691</v>
-      </c>
-      <c r="E220" s="33" t="s">
-        <v>692</v>
       </c>
       <c r="F220" s="34"/>
       <c r="G220" s="35"/>
@@ -13660,7 +14061,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="221" ht="51.0" customHeight="1">
+    <row r="221" ht="27.0" customHeight="1">
       <c r="A221" s="38">
         <v>443.0</v>
       </c>
@@ -13668,13 +14069,13 @@
         <v>29</v>
       </c>
       <c r="C221" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D221" s="39" t="s">
+        <v>692</v>
+      </c>
+      <c r="E221" s="40" t="s">
         <v>693</v>
-      </c>
-      <c r="E221" s="40" t="s">
-        <v>694</v>
       </c>
       <c r="F221" s="41"/>
       <c r="G221" s="42"/>
@@ -13697,7 +14098,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="222" ht="51.0" customHeight="1">
+    <row r="222" ht="27.0" customHeight="1">
       <c r="A222" s="38">
         <v>444.0</v>
       </c>
@@ -13708,10 +14109,10 @@
         <v>105</v>
       </c>
       <c r="D222" s="39" t="s">
+        <v>694</v>
+      </c>
+      <c r="E222" s="40" t="s">
         <v>695</v>
-      </c>
-      <c r="E222" s="40" t="s">
-        <v>696</v>
       </c>
       <c r="F222" s="41"/>
       <c r="G222" s="42"/>
@@ -13734,7 +14135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="223" ht="51.0" customHeight="1">
+    <row r="223" ht="27.0" customHeight="1">
       <c r="A223" s="38">
         <v>445.0</v>
       </c>
@@ -13745,10 +14146,10 @@
         <v>105</v>
       </c>
       <c r="D223" s="39" t="s">
+        <v>696</v>
+      </c>
+      <c r="E223" s="40" t="s">
         <v>697</v>
-      </c>
-      <c r="E223" s="40" t="s">
-        <v>698</v>
       </c>
       <c r="F223" s="41"/>
       <c r="G223" s="42"/>
@@ -13771,7 +14172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="224" ht="51.0" customHeight="1">
+    <row r="224" ht="27.0" customHeight="1">
       <c r="A224" s="31">
         <v>446.0</v>
       </c>
@@ -13782,22 +14183,22 @@
         <v>107</v>
       </c>
       <c r="D224" s="32" t="s">
+        <v>698</v>
+      </c>
+      <c r="E224" s="33" t="s">
         <v>699</v>
-      </c>
-      <c r="E224" s="33" t="s">
-        <v>700</v>
       </c>
       <c r="F224" s="45">
         <v>45556.0</v>
       </c>
       <c r="G224" s="46" t="s">
+        <v>700</v>
+      </c>
+      <c r="H224" s="46" t="s">
         <v>701</v>
       </c>
-      <c r="H224" s="46" t="s">
+      <c r="I224" s="46" t="s">
         <v>702</v>
-      </c>
-      <c r="I224" s="46" t="s">
-        <v>703</v>
       </c>
       <c r="J224" s="46" t="s">
         <v>36</v>
@@ -13820,7 +14221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="225" ht="51.0" customHeight="1">
+    <row r="225" ht="27.0" customHeight="1">
       <c r="A225" s="38">
         <v>447.0</v>
       </c>
@@ -13831,22 +14232,22 @@
         <v>107</v>
       </c>
       <c r="D225" s="39" t="s">
+        <v>703</v>
+      </c>
+      <c r="E225" s="40" t="s">
         <v>704</v>
-      </c>
-      <c r="E225" s="40" t="s">
-        <v>705</v>
       </c>
       <c r="F225" s="47">
         <v>45558.0</v>
       </c>
       <c r="G225" s="48" t="s">
+        <v>705</v>
+      </c>
+      <c r="H225" s="48" t="s">
         <v>706</v>
       </c>
-      <c r="H225" s="48" t="s">
+      <c r="I225" s="48" t="s">
         <v>707</v>
-      </c>
-      <c r="I225" s="48" t="s">
-        <v>708</v>
       </c>
       <c r="J225" s="48" t="s">
         <v>36</v>
@@ -13869,19 +14270,6 @@
         <v>38</v>
       </c>
     </row>
-    <row r="226" ht="51.0" customHeight="1"/>
-    <row r="227" ht="51.0" customHeight="1"/>
-    <row r="228" ht="51.0" customHeight="1"/>
-    <row r="229" ht="51.0" customHeight="1"/>
-    <row r="230" ht="51.0" customHeight="1"/>
-    <row r="231" ht="51.0" customHeight="1"/>
-    <row r="232" ht="51.0" customHeight="1"/>
-    <row r="233" ht="51.0" customHeight="1"/>
-    <row r="234" ht="51.0" customHeight="1"/>
-    <row r="235" ht="51.0" customHeight="1"/>
-    <row r="236" ht="51.0" customHeight="1"/>
-    <row r="237" ht="51.0" customHeight="1"/>
-    <row r="238" ht="51.0" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>

--- a/GATEWAY/A1#111INFORDATADHS/INFORDATA_DIGITAL_HEALTH_SOLUTIONS/Astrolabio/11.252.694/report_checklist.xlsx
+++ b/GATEWAY/A1#111INFORDATADHS/INFORDATA_DIGITAL_HEALTH_SOLUTIONS/Astrolabio/11.252.694/report_checklist.xlsx
@@ -13,11 +13,16 @@
     <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">Summary!$A$1:$D$11</definedName>
   </definedNames>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="PxI5f0nSoOwfNxVEgqlwtsHPMyNGOTAFyYCRELQ+txM="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="753">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3507,12 +3512,34 @@
     <t>VALIDAZIONE_CDA2_LAB_TRASF_CT1</t>
   </si>
   <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>https://github.com/ministero-salute/it-fse-accreditamento.</t>
+    </r>
+  </si>
+  <si>
+    <t>Altro (Specificare)</t>
+  </si>
+  <si>
+    <t>Il gestionale non prevede questa tipologia di documento</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT0</t>
@@ -3594,12 +3621,28 @@
     <t>VALIDAZIONE_CDA2_LAB_TRASF_CT2</t>
   </si>
   <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>https://github.com/ministero-salute/it-fse-accreditamento.</t>
+    </r>
   </si>
   <si>
     <t>RAP</t>
@@ -3940,7 +3983,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="h.mm.ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3988,6 +4031,18 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
       <sz val="8.0"/>
       <color rgb="FF000000"/>
@@ -4385,90 +4440,90 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="10" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="17" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="18" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -4477,30 +4532,36 @@
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf borderId="20" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -4510,19 +4571,22 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="28" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -4533,35 +4597,38 @@
     <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf borderId="22" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="28" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="30" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="31" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf borderId="31" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="32" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4789,61 +4856,1053 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4857,25 +5916,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="6">
         <v>1.0</v>
       </c>
@@ -4883,7 +5945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="8">
         <v>2.0</v>
       </c>
@@ -4891,7 +5953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="8">
         <v>3.0</v>
       </c>
@@ -4899,7 +5961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="8">
         <v>4.0</v>
       </c>
@@ -4907,7 +5969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="8">
         <v>5.0</v>
       </c>
@@ -4915,7 +5977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>6.0</v>
       </c>
@@ -4923,6 +5985,997 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4936,7 +6989,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
       <c r="A1" s="4"/>
@@ -13385,16 +15441,22 @@
       <c r="D190" s="27" t="s">
         <v>641</v>
       </c>
-      <c r="E190" s="28" t="s">
+      <c r="E190" s="38" t="s">
         <v>642</v>
       </c>
       <c r="F190" s="35"/>
       <c r="G190" s="32"/>
       <c r="H190" s="32"/>
       <c r="I190" s="32"/>
-      <c r="J190" s="32"/>
-      <c r="K190" s="32"/>
-      <c r="L190" s="32"/>
+      <c r="J190" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="K190" s="39" t="s">
+        <v>643</v>
+      </c>
+      <c r="L190" s="39" t="s">
+        <v>644</v>
+      </c>
       <c r="M190" s="32"/>
       <c r="N190" s="32"/>
       <c r="O190" s="32"/>
@@ -13420,22 +15482,22 @@
         <v>48</v>
       </c>
       <c r="D191" s="27" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E191" s="28" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F191" s="29">
         <v>45503.0</v>
       </c>
       <c r="G191" s="31" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H191" s="31" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="I191" s="31" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="J191" s="31" t="s">
         <v>54</v>
@@ -13469,10 +15531,10 @@
         <v>77</v>
       </c>
       <c r="D192" s="27" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E192" s="28" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F192" s="35"/>
       <c r="G192" s="32"/>
@@ -13506,10 +15568,10 @@
         <v>86</v>
       </c>
       <c r="D193" s="27" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E193" s="28" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F193" s="35"/>
       <c r="G193" s="32"/>
@@ -13543,10 +15605,10 @@
         <v>95</v>
       </c>
       <c r="D194" s="27" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E194" s="28" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F194" s="35"/>
       <c r="G194" s="32"/>
@@ -13580,10 +15642,10 @@
         <v>104</v>
       </c>
       <c r="D195" s="27" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E195" s="28" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F195" s="35"/>
       <c r="G195" s="32"/>
@@ -13602,7 +15664,7 @@
       <c r="T195" s="32"/>
       <c r="U195" s="32"/>
       <c r="V195" s="33"/>
-      <c r="W195" s="38" t="s">
+      <c r="W195" s="40" t="s">
         <v>56</v>
       </c>
     </row>
@@ -13617,22 +15679,22 @@
         <v>130</v>
       </c>
       <c r="D196" s="27" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E196" s="28" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F196" s="29">
         <v>45609.0</v>
       </c>
       <c r="G196" s="31" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H196" s="31" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="I196" s="31" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="J196" s="31" t="s">
         <v>54</v>
@@ -13651,1103 +15713,1109 @@
       </c>
       <c r="U196" s="32"/>
       <c r="V196" s="33"/>
-      <c r="W196" s="39" t="s">
+      <c r="W196" s="41" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="197" ht="21.0" customHeight="1">
-      <c r="A197" s="40">
+      <c r="A197" s="42">
         <v>376.0</v>
       </c>
-      <c r="B197" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C197" s="41" t="s">
+      <c r="B197" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C197" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D197" s="41" t="s">
-        <v>661</v>
-      </c>
-      <c r="E197" s="42" t="s">
-        <v>662</v>
-      </c>
-      <c r="F197" s="43"/>
-      <c r="G197" s="44"/>
-      <c r="H197" s="44"/>
-      <c r="I197" s="44"/>
-      <c r="J197" s="44"/>
-      <c r="K197" s="44"/>
-      <c r="L197" s="44"/>
-      <c r="M197" s="44"/>
-      <c r="N197" s="44"/>
-      <c r="O197" s="44"/>
-      <c r="P197" s="44"/>
-      <c r="Q197" s="44"/>
-      <c r="R197" s="44"/>
-      <c r="S197" s="44"/>
-      <c r="T197" s="44"/>
-      <c r="U197" s="44"/>
-      <c r="V197" s="45"/>
-      <c r="W197" s="46" t="s">
+      <c r="D197" s="43" t="s">
+        <v>663</v>
+      </c>
+      <c r="E197" s="44" t="s">
+        <v>664</v>
+      </c>
+      <c r="F197" s="45"/>
+      <c r="G197" s="46"/>
+      <c r="H197" s="46"/>
+      <c r="I197" s="46"/>
+      <c r="J197" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="K197" s="39" t="s">
+        <v>643</v>
+      </c>
+      <c r="L197" s="39" t="s">
+        <v>644</v>
+      </c>
+      <c r="M197" s="46"/>
+      <c r="N197" s="46"/>
+      <c r="O197" s="46"/>
+      <c r="P197" s="46"/>
+      <c r="Q197" s="46"/>
+      <c r="R197" s="46"/>
+      <c r="S197" s="46"/>
+      <c r="T197" s="46"/>
+      <c r="U197" s="46"/>
+      <c r="V197" s="48"/>
+      <c r="W197" s="49" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="198" ht="21.0" customHeight="1">
-      <c r="A198" s="47">
+      <c r="A198" s="50">
         <v>417.0</v>
       </c>
-      <c r="B198" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C198" s="48" t="s">
-        <v>663</v>
+      <c r="B198" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C198" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D198" s="27" t="s">
-        <v>664</v>
-      </c>
-      <c r="E198" s="49" t="s">
-        <v>665</v>
-      </c>
-      <c r="F198" s="50"/>
-      <c r="G198" s="51"/>
-      <c r="H198" s="51"/>
-      <c r="I198" s="51"/>
-      <c r="J198" s="51"/>
-      <c r="K198" s="51"/>
-      <c r="L198" s="51"/>
-      <c r="M198" s="51"/>
-      <c r="N198" s="51"/>
-      <c r="O198" s="51"/>
-      <c r="P198" s="51"/>
-      <c r="Q198" s="51"/>
-      <c r="R198" s="51"/>
-      <c r="S198" s="51"/>
-      <c r="T198" s="51"/>
-      <c r="U198" s="51"/>
-      <c r="V198" s="52"/>
+        <v>666</v>
+      </c>
+      <c r="E198" s="52" t="s">
+        <v>667</v>
+      </c>
+      <c r="F198" s="53"/>
+      <c r="G198" s="54"/>
+      <c r="H198" s="54"/>
+      <c r="I198" s="54"/>
+      <c r="J198" s="54"/>
+      <c r="K198" s="54"/>
+      <c r="L198" s="54"/>
+      <c r="M198" s="54"/>
+      <c r="N198" s="54"/>
+      <c r="O198" s="54"/>
+      <c r="P198" s="54"/>
+      <c r="Q198" s="54"/>
+      <c r="R198" s="54"/>
+      <c r="S198" s="54"/>
+      <c r="T198" s="54"/>
+      <c r="U198" s="54"/>
+      <c r="V198" s="55"/>
       <c r="W198" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="199" ht="21.0" customHeight="1">
-      <c r="A199" s="47">
+      <c r="A199" s="50">
         <v>418.0</v>
       </c>
-      <c r="B199" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C199" s="48" t="s">
-        <v>663</v>
+      <c r="B199" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C199" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D199" s="27" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E199" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="F199" s="50"/>
-      <c r="G199" s="51"/>
-      <c r="H199" s="51"/>
-      <c r="I199" s="51"/>
-      <c r="J199" s="51"/>
-      <c r="K199" s="51"/>
-      <c r="L199" s="51"/>
-      <c r="M199" s="51"/>
-      <c r="N199" s="51"/>
-      <c r="O199" s="51"/>
-      <c r="P199" s="51"/>
-      <c r="Q199" s="51"/>
-      <c r="R199" s="51"/>
-      <c r="S199" s="51"/>
-      <c r="T199" s="51"/>
-      <c r="U199" s="51"/>
-      <c r="V199" s="52"/>
+        <v>669</v>
+      </c>
+      <c r="F199" s="53"/>
+      <c r="G199" s="54"/>
+      <c r="H199" s="54"/>
+      <c r="I199" s="54"/>
+      <c r="J199" s="54"/>
+      <c r="K199" s="54"/>
+      <c r="L199" s="54"/>
+      <c r="M199" s="54"/>
+      <c r="N199" s="54"/>
+      <c r="O199" s="54"/>
+      <c r="P199" s="54"/>
+      <c r="Q199" s="54"/>
+      <c r="R199" s="54"/>
+      <c r="S199" s="54"/>
+      <c r="T199" s="54"/>
+      <c r="U199" s="54"/>
+      <c r="V199" s="55"/>
       <c r="W199" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="200" ht="21.0" customHeight="1">
-      <c r="A200" s="47">
+      <c r="A200" s="50">
         <v>419.0</v>
       </c>
-      <c r="B200" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C200" s="48" t="s">
-        <v>663</v>
+      <c r="B200" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C200" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D200" s="27" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E200" s="28" t="s">
-        <v>669</v>
-      </c>
-      <c r="F200" s="50"/>
-      <c r="G200" s="51"/>
-      <c r="H200" s="51"/>
-      <c r="I200" s="51"/>
-      <c r="J200" s="51"/>
-      <c r="K200" s="51"/>
-      <c r="L200" s="51"/>
-      <c r="M200" s="51"/>
-      <c r="N200" s="51"/>
-      <c r="O200" s="51"/>
-      <c r="P200" s="51"/>
-      <c r="Q200" s="51"/>
-      <c r="R200" s="51"/>
-      <c r="S200" s="51"/>
-      <c r="T200" s="51"/>
-      <c r="U200" s="51"/>
-      <c r="V200" s="52"/>
+        <v>671</v>
+      </c>
+      <c r="F200" s="53"/>
+      <c r="G200" s="54"/>
+      <c r="H200" s="54"/>
+      <c r="I200" s="54"/>
+      <c r="J200" s="54"/>
+      <c r="K200" s="54"/>
+      <c r="L200" s="54"/>
+      <c r="M200" s="54"/>
+      <c r="N200" s="54"/>
+      <c r="O200" s="54"/>
+      <c r="P200" s="54"/>
+      <c r="Q200" s="54"/>
+      <c r="R200" s="54"/>
+      <c r="S200" s="54"/>
+      <c r="T200" s="54"/>
+      <c r="U200" s="54"/>
+      <c r="V200" s="55"/>
       <c r="W200" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="201" ht="21.0" customHeight="1">
-      <c r="A201" s="47">
+      <c r="A201" s="50">
         <v>423.0</v>
       </c>
-      <c r="B201" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C201" s="48" t="s">
-        <v>663</v>
+      <c r="B201" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C201" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D201" s="27" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E201" s="36" t="s">
-        <v>671</v>
-      </c>
-      <c r="F201" s="50"/>
-      <c r="G201" s="51"/>
-      <c r="H201" s="51"/>
-      <c r="I201" s="51"/>
-      <c r="J201" s="51"/>
-      <c r="K201" s="51"/>
-      <c r="L201" s="51"/>
-      <c r="M201" s="51"/>
-      <c r="N201" s="51"/>
-      <c r="O201" s="51"/>
-      <c r="P201" s="51"/>
-      <c r="Q201" s="51"/>
-      <c r="R201" s="51"/>
-      <c r="S201" s="51"/>
-      <c r="T201" s="51"/>
-      <c r="U201" s="51"/>
-      <c r="V201" s="52"/>
+        <v>673</v>
+      </c>
+      <c r="F201" s="53"/>
+      <c r="G201" s="54"/>
+      <c r="H201" s="54"/>
+      <c r="I201" s="54"/>
+      <c r="J201" s="54"/>
+      <c r="K201" s="54"/>
+      <c r="L201" s="54"/>
+      <c r="M201" s="54"/>
+      <c r="N201" s="54"/>
+      <c r="O201" s="54"/>
+      <c r="P201" s="54"/>
+      <c r="Q201" s="54"/>
+      <c r="R201" s="54"/>
+      <c r="S201" s="54"/>
+      <c r="T201" s="54"/>
+      <c r="U201" s="54"/>
+      <c r="V201" s="55"/>
       <c r="W201" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="202" ht="21.0" customHeight="1">
-      <c r="A202" s="47">
+      <c r="A202" s="50">
         <v>424.0</v>
       </c>
-      <c r="B202" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C202" s="48" t="s">
-        <v>663</v>
+      <c r="B202" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C202" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D202" s="27" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E202" s="36" t="s">
-        <v>673</v>
-      </c>
-      <c r="F202" s="50"/>
-      <c r="G202" s="51"/>
-      <c r="H202" s="51"/>
-      <c r="I202" s="51"/>
-      <c r="J202" s="51"/>
-      <c r="K202" s="51"/>
-      <c r="L202" s="51"/>
-      <c r="M202" s="51"/>
-      <c r="N202" s="51"/>
-      <c r="O202" s="51"/>
-      <c r="P202" s="51"/>
-      <c r="Q202" s="51"/>
-      <c r="R202" s="51"/>
-      <c r="S202" s="51"/>
-      <c r="T202" s="51"/>
-      <c r="U202" s="51"/>
-      <c r="V202" s="52"/>
+        <v>675</v>
+      </c>
+      <c r="F202" s="53"/>
+      <c r="G202" s="54"/>
+      <c r="H202" s="54"/>
+      <c r="I202" s="54"/>
+      <c r="J202" s="54"/>
+      <c r="K202" s="54"/>
+      <c r="L202" s="54"/>
+      <c r="M202" s="54"/>
+      <c r="N202" s="54"/>
+      <c r="O202" s="54"/>
+      <c r="P202" s="54"/>
+      <c r="Q202" s="54"/>
+      <c r="R202" s="54"/>
+      <c r="S202" s="54"/>
+      <c r="T202" s="54"/>
+      <c r="U202" s="54"/>
+      <c r="V202" s="55"/>
       <c r="W202" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="203" ht="21.0" customHeight="1">
-      <c r="A203" s="47">
+      <c r="A203" s="50">
         <v>425.0</v>
       </c>
-      <c r="B203" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C203" s="48" t="s">
-        <v>663</v>
+      <c r="B203" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C203" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D203" s="27" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E203" s="28" t="s">
-        <v>675</v>
-      </c>
-      <c r="F203" s="50"/>
-      <c r="G203" s="51"/>
-      <c r="H203" s="51"/>
-      <c r="I203" s="51"/>
-      <c r="J203" s="51"/>
-      <c r="K203" s="51"/>
-      <c r="L203" s="51"/>
-      <c r="M203" s="51"/>
-      <c r="N203" s="51"/>
-      <c r="O203" s="51"/>
-      <c r="P203" s="51"/>
-      <c r="Q203" s="51"/>
-      <c r="R203" s="51"/>
-      <c r="S203" s="51"/>
-      <c r="T203" s="51"/>
-      <c r="U203" s="51"/>
-      <c r="V203" s="52"/>
+        <v>677</v>
+      </c>
+      <c r="F203" s="53"/>
+      <c r="G203" s="54"/>
+      <c r="H203" s="54"/>
+      <c r="I203" s="54"/>
+      <c r="J203" s="54"/>
+      <c r="K203" s="54"/>
+      <c r="L203" s="54"/>
+      <c r="M203" s="54"/>
+      <c r="N203" s="54"/>
+      <c r="O203" s="54"/>
+      <c r="P203" s="54"/>
+      <c r="Q203" s="54"/>
+      <c r="R203" s="54"/>
+      <c r="S203" s="54"/>
+      <c r="T203" s="54"/>
+      <c r="U203" s="54"/>
+      <c r="V203" s="55"/>
       <c r="W203" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="204" ht="21.0" customHeight="1">
-      <c r="A204" s="47">
+      <c r="A204" s="50">
         <v>426.0</v>
       </c>
-      <c r="B204" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C204" s="48" t="s">
-        <v>663</v>
+      <c r="B204" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C204" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D204" s="27" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E204" s="28" t="s">
-        <v>677</v>
-      </c>
-      <c r="F204" s="50"/>
-      <c r="G204" s="51"/>
-      <c r="H204" s="51"/>
-      <c r="I204" s="51"/>
-      <c r="J204" s="51"/>
-      <c r="K204" s="51"/>
-      <c r="L204" s="51"/>
-      <c r="M204" s="51"/>
-      <c r="N204" s="51"/>
-      <c r="O204" s="51"/>
-      <c r="P204" s="51"/>
-      <c r="Q204" s="51"/>
-      <c r="R204" s="51"/>
-      <c r="S204" s="51"/>
-      <c r="T204" s="51"/>
-      <c r="U204" s="51"/>
-      <c r="V204" s="52"/>
+        <v>679</v>
+      </c>
+      <c r="F204" s="53"/>
+      <c r="G204" s="54"/>
+      <c r="H204" s="54"/>
+      <c r="I204" s="54"/>
+      <c r="J204" s="54"/>
+      <c r="K204" s="54"/>
+      <c r="L204" s="54"/>
+      <c r="M204" s="54"/>
+      <c r="N204" s="54"/>
+      <c r="O204" s="54"/>
+      <c r="P204" s="54"/>
+      <c r="Q204" s="54"/>
+      <c r="R204" s="54"/>
+      <c r="S204" s="54"/>
+      <c r="T204" s="54"/>
+      <c r="U204" s="54"/>
+      <c r="V204" s="55"/>
       <c r="W204" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="205" ht="21.0" customHeight="1">
-      <c r="A205" s="47">
+      <c r="A205" s="50">
         <v>427.0</v>
       </c>
-      <c r="B205" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C205" s="48" t="s">
-        <v>663</v>
+      <c r="B205" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C205" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D205" s="27" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E205" s="28" t="s">
-        <v>679</v>
-      </c>
-      <c r="F205" s="50"/>
-      <c r="G205" s="51"/>
-      <c r="H205" s="51"/>
-      <c r="I205" s="51"/>
-      <c r="J205" s="51"/>
-      <c r="K205" s="51"/>
-      <c r="L205" s="51"/>
-      <c r="M205" s="51"/>
-      <c r="N205" s="51"/>
-      <c r="O205" s="51"/>
-      <c r="P205" s="51"/>
-      <c r="Q205" s="51"/>
-      <c r="R205" s="51"/>
-      <c r="S205" s="51"/>
-      <c r="T205" s="51"/>
-      <c r="U205" s="51"/>
-      <c r="V205" s="52"/>
+        <v>681</v>
+      </c>
+      <c r="F205" s="53"/>
+      <c r="G205" s="54"/>
+      <c r="H205" s="54"/>
+      <c r="I205" s="54"/>
+      <c r="J205" s="54"/>
+      <c r="K205" s="54"/>
+      <c r="L205" s="54"/>
+      <c r="M205" s="54"/>
+      <c r="N205" s="54"/>
+      <c r="O205" s="54"/>
+      <c r="P205" s="54"/>
+      <c r="Q205" s="54"/>
+      <c r="R205" s="54"/>
+      <c r="S205" s="54"/>
+      <c r="T205" s="54"/>
+      <c r="U205" s="54"/>
+      <c r="V205" s="55"/>
       <c r="W205" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="206" ht="21.0" customHeight="1">
-      <c r="A206" s="47">
+      <c r="A206" s="50">
         <v>428.0</v>
       </c>
-      <c r="B206" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C206" s="48" t="s">
-        <v>663</v>
+      <c r="B206" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C206" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D206" s="27" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E206" s="28" t="s">
-        <v>681</v>
-      </c>
-      <c r="F206" s="50"/>
-      <c r="G206" s="51"/>
-      <c r="H206" s="51"/>
-      <c r="I206" s="51"/>
-      <c r="J206" s="51"/>
-      <c r="K206" s="51"/>
-      <c r="L206" s="51"/>
-      <c r="M206" s="51"/>
-      <c r="N206" s="51"/>
-      <c r="O206" s="51"/>
-      <c r="P206" s="51"/>
-      <c r="Q206" s="51"/>
-      <c r="R206" s="51"/>
-      <c r="S206" s="51"/>
-      <c r="T206" s="51"/>
-      <c r="U206" s="51"/>
-      <c r="V206" s="52"/>
+        <v>683</v>
+      </c>
+      <c r="F206" s="53"/>
+      <c r="G206" s="54"/>
+      <c r="H206" s="54"/>
+      <c r="I206" s="54"/>
+      <c r="J206" s="54"/>
+      <c r="K206" s="54"/>
+      <c r="L206" s="54"/>
+      <c r="M206" s="54"/>
+      <c r="N206" s="54"/>
+      <c r="O206" s="54"/>
+      <c r="P206" s="54"/>
+      <c r="Q206" s="54"/>
+      <c r="R206" s="54"/>
+      <c r="S206" s="54"/>
+      <c r="T206" s="54"/>
+      <c r="U206" s="54"/>
+      <c r="V206" s="55"/>
       <c r="W206" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="207" ht="21.0" customHeight="1">
-      <c r="A207" s="47">
+      <c r="A207" s="50">
         <v>429.0</v>
       </c>
-      <c r="B207" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C207" s="48" t="s">
-        <v>663</v>
+      <c r="B207" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C207" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D207" s="27" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E207" s="28" t="s">
-        <v>683</v>
-      </c>
-      <c r="F207" s="50"/>
-      <c r="G207" s="51"/>
-      <c r="H207" s="51"/>
-      <c r="I207" s="51"/>
-      <c r="J207" s="51"/>
-      <c r="K207" s="51"/>
-      <c r="L207" s="51"/>
-      <c r="M207" s="51"/>
-      <c r="N207" s="51"/>
-      <c r="O207" s="51"/>
-      <c r="P207" s="51"/>
-      <c r="Q207" s="51"/>
-      <c r="R207" s="51"/>
-      <c r="S207" s="51"/>
-      <c r="T207" s="51"/>
-      <c r="U207" s="51"/>
-      <c r="V207" s="52"/>
+        <v>685</v>
+      </c>
+      <c r="F207" s="53"/>
+      <c r="G207" s="54"/>
+      <c r="H207" s="54"/>
+      <c r="I207" s="54"/>
+      <c r="J207" s="54"/>
+      <c r="K207" s="54"/>
+      <c r="L207" s="54"/>
+      <c r="M207" s="54"/>
+      <c r="N207" s="54"/>
+      <c r="O207" s="54"/>
+      <c r="P207" s="54"/>
+      <c r="Q207" s="54"/>
+      <c r="R207" s="54"/>
+      <c r="S207" s="54"/>
+      <c r="T207" s="54"/>
+      <c r="U207" s="54"/>
+      <c r="V207" s="55"/>
       <c r="W207" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="208" ht="21.0" customHeight="1">
-      <c r="A208" s="47">
+      <c r="A208" s="50">
         <v>430.0</v>
       </c>
-      <c r="B208" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C208" s="48" t="s">
-        <v>663</v>
+      <c r="B208" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C208" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D208" s="27" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E208" s="28" t="s">
-        <v>685</v>
-      </c>
-      <c r="F208" s="50"/>
-      <c r="G208" s="51"/>
-      <c r="H208" s="51"/>
-      <c r="I208" s="51"/>
-      <c r="J208" s="51"/>
-      <c r="K208" s="51"/>
-      <c r="L208" s="51"/>
-      <c r="M208" s="51"/>
-      <c r="N208" s="51"/>
-      <c r="O208" s="51"/>
-      <c r="P208" s="51"/>
-      <c r="Q208" s="51"/>
-      <c r="R208" s="51"/>
-      <c r="S208" s="51"/>
-      <c r="T208" s="51"/>
-      <c r="U208" s="51"/>
-      <c r="V208" s="52"/>
+        <v>687</v>
+      </c>
+      <c r="F208" s="53"/>
+      <c r="G208" s="54"/>
+      <c r="H208" s="54"/>
+      <c r="I208" s="54"/>
+      <c r="J208" s="54"/>
+      <c r="K208" s="54"/>
+      <c r="L208" s="54"/>
+      <c r="M208" s="54"/>
+      <c r="N208" s="54"/>
+      <c r="O208" s="54"/>
+      <c r="P208" s="54"/>
+      <c r="Q208" s="54"/>
+      <c r="R208" s="54"/>
+      <c r="S208" s="54"/>
+      <c r="T208" s="54"/>
+      <c r="U208" s="54"/>
+      <c r="V208" s="55"/>
       <c r="W208" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="209" ht="21.0" customHeight="1">
-      <c r="A209" s="47">
+      <c r="A209" s="50">
         <v>431.0</v>
       </c>
-      <c r="B209" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C209" s="48" t="s">
-        <v>663</v>
+      <c r="B209" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C209" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E209" s="28" t="s">
-        <v>687</v>
-      </c>
-      <c r="F209" s="50"/>
-      <c r="G209" s="51"/>
-      <c r="H209" s="51"/>
-      <c r="I209" s="51"/>
-      <c r="J209" s="51"/>
-      <c r="K209" s="51"/>
-      <c r="L209" s="51"/>
-      <c r="M209" s="51"/>
-      <c r="N209" s="51"/>
-      <c r="O209" s="51"/>
-      <c r="P209" s="51"/>
-      <c r="Q209" s="51"/>
-      <c r="R209" s="51"/>
-      <c r="S209" s="51"/>
-      <c r="T209" s="51"/>
-      <c r="U209" s="51"/>
-      <c r="V209" s="52"/>
+        <v>689</v>
+      </c>
+      <c r="F209" s="53"/>
+      <c r="G209" s="54"/>
+      <c r="H209" s="54"/>
+      <c r="I209" s="54"/>
+      <c r="J209" s="54"/>
+      <c r="K209" s="54"/>
+      <c r="L209" s="54"/>
+      <c r="M209" s="54"/>
+      <c r="N209" s="54"/>
+      <c r="O209" s="54"/>
+      <c r="P209" s="54"/>
+      <c r="Q209" s="54"/>
+      <c r="R209" s="54"/>
+      <c r="S209" s="54"/>
+      <c r="T209" s="54"/>
+      <c r="U209" s="54"/>
+      <c r="V209" s="55"/>
       <c r="W209" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="210" ht="21.0" customHeight="1">
-      <c r="A210" s="47">
+      <c r="A210" s="50">
         <v>432.0</v>
       </c>
-      <c r="B210" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C210" s="48" t="s">
-        <v>663</v>
+      <c r="B210" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C210" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D210" s="27" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E210" s="28" t="s">
-        <v>689</v>
-      </c>
-      <c r="F210" s="50"/>
-      <c r="G210" s="51"/>
-      <c r="H210" s="51"/>
-      <c r="I210" s="51"/>
-      <c r="J210" s="51"/>
-      <c r="K210" s="51"/>
-      <c r="L210" s="51"/>
-      <c r="M210" s="51"/>
-      <c r="N210" s="51"/>
-      <c r="O210" s="51"/>
-      <c r="P210" s="51"/>
-      <c r="Q210" s="51"/>
-      <c r="R210" s="51"/>
-      <c r="S210" s="51"/>
-      <c r="T210" s="51"/>
-      <c r="U210" s="51"/>
-      <c r="V210" s="52"/>
+        <v>691</v>
+      </c>
+      <c r="F210" s="53"/>
+      <c r="G210" s="54"/>
+      <c r="H210" s="54"/>
+      <c r="I210" s="54"/>
+      <c r="J210" s="54"/>
+      <c r="K210" s="54"/>
+      <c r="L210" s="54"/>
+      <c r="M210" s="54"/>
+      <c r="N210" s="54"/>
+      <c r="O210" s="54"/>
+      <c r="P210" s="54"/>
+      <c r="Q210" s="54"/>
+      <c r="R210" s="54"/>
+      <c r="S210" s="54"/>
+      <c r="T210" s="54"/>
+      <c r="U210" s="54"/>
+      <c r="V210" s="55"/>
       <c r="W210" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="211" ht="21.0" customHeight="1">
-      <c r="A211" s="47">
+      <c r="A211" s="50">
         <v>433.0</v>
       </c>
-      <c r="B211" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C211" s="48" t="s">
-        <v>663</v>
+      <c r="B211" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C211" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D211" s="27" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E211" s="28" t="s">
-        <v>691</v>
-      </c>
-      <c r="F211" s="50"/>
-      <c r="G211" s="51"/>
-      <c r="H211" s="51"/>
-      <c r="I211" s="51"/>
-      <c r="J211" s="51"/>
-      <c r="K211" s="51"/>
-      <c r="L211" s="51"/>
-      <c r="M211" s="51"/>
-      <c r="N211" s="51"/>
-      <c r="O211" s="51"/>
-      <c r="P211" s="51"/>
-      <c r="Q211" s="51"/>
-      <c r="R211" s="51"/>
-      <c r="S211" s="51"/>
-      <c r="T211" s="51"/>
-      <c r="U211" s="51"/>
-      <c r="V211" s="52"/>
+        <v>693</v>
+      </c>
+      <c r="F211" s="53"/>
+      <c r="G211" s="54"/>
+      <c r="H211" s="54"/>
+      <c r="I211" s="54"/>
+      <c r="J211" s="54"/>
+      <c r="K211" s="54"/>
+      <c r="L211" s="54"/>
+      <c r="M211" s="54"/>
+      <c r="N211" s="54"/>
+      <c r="O211" s="54"/>
+      <c r="P211" s="54"/>
+      <c r="Q211" s="54"/>
+      <c r="R211" s="54"/>
+      <c r="S211" s="54"/>
+      <c r="T211" s="54"/>
+      <c r="U211" s="54"/>
+      <c r="V211" s="55"/>
       <c r="W211" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="212" ht="21.0" customHeight="1">
-      <c r="A212" s="47">
+      <c r="A212" s="50">
         <v>434.0</v>
       </c>
-      <c r="B212" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C212" s="48" t="s">
-        <v>663</v>
+      <c r="B212" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C212" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D212" s="27" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E212" s="28" t="s">
-        <v>693</v>
-      </c>
-      <c r="F212" s="50"/>
-      <c r="G212" s="51"/>
-      <c r="H212" s="51"/>
-      <c r="I212" s="51"/>
-      <c r="J212" s="51"/>
-      <c r="K212" s="51"/>
-      <c r="L212" s="51"/>
-      <c r="M212" s="51"/>
-      <c r="N212" s="51"/>
-      <c r="O212" s="51"/>
-      <c r="P212" s="51"/>
-      <c r="Q212" s="51"/>
-      <c r="R212" s="51"/>
-      <c r="S212" s="51"/>
-      <c r="T212" s="51"/>
-      <c r="U212" s="51"/>
-      <c r="V212" s="52"/>
+        <v>695</v>
+      </c>
+      <c r="F212" s="53"/>
+      <c r="G212" s="54"/>
+      <c r="H212" s="54"/>
+      <c r="I212" s="54"/>
+      <c r="J212" s="54"/>
+      <c r="K212" s="54"/>
+      <c r="L212" s="54"/>
+      <c r="M212" s="54"/>
+      <c r="N212" s="54"/>
+      <c r="O212" s="54"/>
+      <c r="P212" s="54"/>
+      <c r="Q212" s="54"/>
+      <c r="R212" s="54"/>
+      <c r="S212" s="54"/>
+      <c r="T212" s="54"/>
+      <c r="U212" s="54"/>
+      <c r="V212" s="55"/>
       <c r="W212" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="213" ht="21.0" customHeight="1">
-      <c r="A213" s="47">
+      <c r="A213" s="50">
         <v>435.0</v>
       </c>
-      <c r="B213" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C213" s="48" t="s">
-        <v>663</v>
+      <c r="B213" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C213" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D213" s="27" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E213" s="28" t="s">
-        <v>695</v>
-      </c>
-      <c r="F213" s="50"/>
-      <c r="G213" s="51"/>
-      <c r="H213" s="51"/>
-      <c r="I213" s="51"/>
-      <c r="J213" s="51"/>
-      <c r="K213" s="51"/>
-      <c r="L213" s="51"/>
-      <c r="M213" s="51"/>
-      <c r="N213" s="51"/>
-      <c r="O213" s="51"/>
-      <c r="P213" s="51"/>
-      <c r="Q213" s="51"/>
-      <c r="R213" s="51"/>
-      <c r="S213" s="51"/>
-      <c r="T213" s="51"/>
-      <c r="U213" s="51"/>
-      <c r="V213" s="52"/>
+        <v>697</v>
+      </c>
+      <c r="F213" s="53"/>
+      <c r="G213" s="54"/>
+      <c r="H213" s="54"/>
+      <c r="I213" s="54"/>
+      <c r="J213" s="54"/>
+      <c r="K213" s="54"/>
+      <c r="L213" s="54"/>
+      <c r="M213" s="54"/>
+      <c r="N213" s="54"/>
+      <c r="O213" s="54"/>
+      <c r="P213" s="54"/>
+      <c r="Q213" s="54"/>
+      <c r="R213" s="54"/>
+      <c r="S213" s="54"/>
+      <c r="T213" s="54"/>
+      <c r="U213" s="54"/>
+      <c r="V213" s="55"/>
       <c r="W213" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="214" ht="21.0" customHeight="1">
-      <c r="A214" s="47">
+      <c r="A214" s="50">
         <v>436.0</v>
       </c>
-      <c r="B214" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C214" s="48" t="s">
-        <v>663</v>
+      <c r="B214" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C214" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D214" s="27" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E214" s="28" t="s">
-        <v>697</v>
-      </c>
-      <c r="F214" s="50"/>
-      <c r="G214" s="51"/>
-      <c r="H214" s="51"/>
-      <c r="I214" s="51"/>
-      <c r="J214" s="51"/>
-      <c r="K214" s="51"/>
-      <c r="L214" s="51"/>
-      <c r="M214" s="51"/>
-      <c r="N214" s="51"/>
-      <c r="O214" s="51"/>
-      <c r="P214" s="51"/>
-      <c r="Q214" s="51"/>
-      <c r="R214" s="51"/>
-      <c r="S214" s="51"/>
-      <c r="T214" s="51"/>
-      <c r="U214" s="51"/>
-      <c r="V214" s="52"/>
+        <v>699</v>
+      </c>
+      <c r="F214" s="53"/>
+      <c r="G214" s="54"/>
+      <c r="H214" s="54"/>
+      <c r="I214" s="54"/>
+      <c r="J214" s="54"/>
+      <c r="K214" s="54"/>
+      <c r="L214" s="54"/>
+      <c r="M214" s="54"/>
+      <c r="N214" s="54"/>
+      <c r="O214" s="54"/>
+      <c r="P214" s="54"/>
+      <c r="Q214" s="54"/>
+      <c r="R214" s="54"/>
+      <c r="S214" s="54"/>
+      <c r="T214" s="54"/>
+      <c r="U214" s="54"/>
+      <c r="V214" s="55"/>
       <c r="W214" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="215" ht="21.0" customHeight="1">
-      <c r="A215" s="47">
+      <c r="A215" s="50">
         <v>437.0</v>
       </c>
-      <c r="B215" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C215" s="48" t="s">
-        <v>663</v>
+      <c r="B215" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C215" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D215" s="27" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E215" s="28" t="s">
-        <v>699</v>
-      </c>
-      <c r="F215" s="50"/>
-      <c r="G215" s="51"/>
-      <c r="H215" s="51"/>
-      <c r="I215" s="51"/>
-      <c r="J215" s="51"/>
-      <c r="K215" s="51"/>
-      <c r="L215" s="51"/>
-      <c r="M215" s="51"/>
-      <c r="N215" s="51"/>
-      <c r="O215" s="51"/>
-      <c r="P215" s="51"/>
-      <c r="Q215" s="51"/>
-      <c r="R215" s="51"/>
-      <c r="S215" s="51"/>
-      <c r="T215" s="51"/>
-      <c r="U215" s="51"/>
-      <c r="V215" s="52"/>
+        <v>701</v>
+      </c>
+      <c r="F215" s="53"/>
+      <c r="G215" s="54"/>
+      <c r="H215" s="54"/>
+      <c r="I215" s="54"/>
+      <c r="J215" s="54"/>
+      <c r="K215" s="54"/>
+      <c r="L215" s="54"/>
+      <c r="M215" s="54"/>
+      <c r="N215" s="54"/>
+      <c r="O215" s="54"/>
+      <c r="P215" s="54"/>
+      <c r="Q215" s="54"/>
+      <c r="R215" s="54"/>
+      <c r="S215" s="54"/>
+      <c r="T215" s="54"/>
+      <c r="U215" s="54"/>
+      <c r="V215" s="55"/>
       <c r="W215" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="216" ht="21.0" customHeight="1">
-      <c r="A216" s="47">
+      <c r="A216" s="50">
         <v>438.0</v>
       </c>
-      <c r="B216" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C216" s="48" t="s">
-        <v>663</v>
+      <c r="B216" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C216" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D216" s="27" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E216" s="28" t="s">
-        <v>701</v>
-      </c>
-      <c r="F216" s="50"/>
-      <c r="G216" s="51"/>
-      <c r="H216" s="51"/>
-      <c r="I216" s="51"/>
-      <c r="J216" s="51"/>
-      <c r="K216" s="51"/>
-      <c r="L216" s="51"/>
-      <c r="M216" s="51"/>
-      <c r="N216" s="51"/>
-      <c r="O216" s="51"/>
-      <c r="P216" s="51"/>
-      <c r="Q216" s="51"/>
-      <c r="R216" s="51"/>
-      <c r="S216" s="51"/>
-      <c r="T216" s="51"/>
-      <c r="U216" s="51"/>
-      <c r="V216" s="52"/>
+        <v>703</v>
+      </c>
+      <c r="F216" s="53"/>
+      <c r="G216" s="54"/>
+      <c r="H216" s="54"/>
+      <c r="I216" s="54"/>
+      <c r="J216" s="54"/>
+      <c r="K216" s="54"/>
+      <c r="L216" s="54"/>
+      <c r="M216" s="54"/>
+      <c r="N216" s="54"/>
+      <c r="O216" s="54"/>
+      <c r="P216" s="54"/>
+      <c r="Q216" s="54"/>
+      <c r="R216" s="54"/>
+      <c r="S216" s="54"/>
+      <c r="T216" s="54"/>
+      <c r="U216" s="54"/>
+      <c r="V216" s="55"/>
       <c r="W216" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="217" ht="21.0" customHeight="1">
-      <c r="A217" s="47">
+      <c r="A217" s="50">
         <v>439.0</v>
       </c>
-      <c r="B217" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C217" s="48" t="s">
-        <v>663</v>
+      <c r="B217" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C217" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D217" s="27" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E217" s="28" t="s">
-        <v>703</v>
-      </c>
-      <c r="F217" s="50"/>
-      <c r="G217" s="51"/>
-      <c r="H217" s="51"/>
-      <c r="I217" s="51"/>
-      <c r="J217" s="51"/>
-      <c r="K217" s="51"/>
-      <c r="L217" s="51"/>
-      <c r="M217" s="51"/>
-      <c r="N217" s="51"/>
-      <c r="O217" s="51"/>
-      <c r="P217" s="51"/>
-      <c r="Q217" s="51"/>
-      <c r="R217" s="51"/>
-      <c r="S217" s="51"/>
-      <c r="T217" s="51"/>
-      <c r="U217" s="51"/>
-      <c r="V217" s="52"/>
+        <v>705</v>
+      </c>
+      <c r="F217" s="53"/>
+      <c r="G217" s="54"/>
+      <c r="H217" s="54"/>
+      <c r="I217" s="54"/>
+      <c r="J217" s="54"/>
+      <c r="K217" s="54"/>
+      <c r="L217" s="54"/>
+      <c r="M217" s="54"/>
+      <c r="N217" s="54"/>
+      <c r="O217" s="54"/>
+      <c r="P217" s="54"/>
+      <c r="Q217" s="54"/>
+      <c r="R217" s="54"/>
+      <c r="S217" s="54"/>
+      <c r="T217" s="54"/>
+      <c r="U217" s="54"/>
+      <c r="V217" s="55"/>
       <c r="W217" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="218" ht="21.0" customHeight="1">
-      <c r="A218" s="47">
+      <c r="A218" s="50">
         <v>440.0</v>
       </c>
-      <c r="B218" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C218" s="48" t="s">
-        <v>663</v>
+      <c r="B218" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C218" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D218" s="27" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E218" s="28" t="s">
-        <v>705</v>
-      </c>
-      <c r="F218" s="50"/>
-      <c r="G218" s="51"/>
-      <c r="H218" s="51"/>
-      <c r="I218" s="51"/>
-      <c r="J218" s="51"/>
-      <c r="K218" s="51"/>
-      <c r="L218" s="51"/>
-      <c r="M218" s="51"/>
-      <c r="N218" s="51"/>
-      <c r="O218" s="51"/>
-      <c r="P218" s="51"/>
-      <c r="Q218" s="51"/>
-      <c r="R218" s="51"/>
-      <c r="S218" s="51"/>
-      <c r="T218" s="51"/>
-      <c r="U218" s="51"/>
-      <c r="V218" s="52"/>
+        <v>707</v>
+      </c>
+      <c r="F218" s="53"/>
+      <c r="G218" s="54"/>
+      <c r="H218" s="54"/>
+      <c r="I218" s="54"/>
+      <c r="J218" s="54"/>
+      <c r="K218" s="54"/>
+      <c r="L218" s="54"/>
+      <c r="M218" s="54"/>
+      <c r="N218" s="54"/>
+      <c r="O218" s="54"/>
+      <c r="P218" s="54"/>
+      <c r="Q218" s="54"/>
+      <c r="R218" s="54"/>
+      <c r="S218" s="54"/>
+      <c r="T218" s="54"/>
+      <c r="U218" s="54"/>
+      <c r="V218" s="55"/>
       <c r="W218" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="219" ht="21.0" customHeight="1">
-      <c r="A219" s="47">
+      <c r="A219" s="50">
         <v>441.0</v>
       </c>
-      <c r="B219" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C219" s="48" t="s">
-        <v>663</v>
+      <c r="B219" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C219" s="51" t="s">
+        <v>665</v>
       </c>
       <c r="D219" s="27" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E219" s="28" t="s">
-        <v>707</v>
-      </c>
-      <c r="F219" s="50"/>
-      <c r="G219" s="51"/>
-      <c r="H219" s="51"/>
-      <c r="I219" s="51"/>
-      <c r="J219" s="51"/>
-      <c r="K219" s="51"/>
-      <c r="L219" s="51"/>
-      <c r="M219" s="51"/>
-      <c r="N219" s="51"/>
-      <c r="O219" s="51"/>
-      <c r="P219" s="51"/>
-      <c r="Q219" s="51"/>
-      <c r="R219" s="51"/>
-      <c r="S219" s="51"/>
-      <c r="T219" s="51"/>
-      <c r="U219" s="51"/>
-      <c r="V219" s="52"/>
+        <v>709</v>
+      </c>
+      <c r="F219" s="53"/>
+      <c r="G219" s="54"/>
+      <c r="H219" s="54"/>
+      <c r="I219" s="54"/>
+      <c r="J219" s="54"/>
+      <c r="K219" s="54"/>
+      <c r="L219" s="54"/>
+      <c r="M219" s="54"/>
+      <c r="N219" s="54"/>
+      <c r="O219" s="54"/>
+      <c r="P219" s="54"/>
+      <c r="Q219" s="54"/>
+      <c r="R219" s="54"/>
+      <c r="S219" s="54"/>
+      <c r="T219" s="54"/>
+      <c r="U219" s="54"/>
+      <c r="V219" s="55"/>
       <c r="W219" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="220" ht="21.0" customHeight="1">
-      <c r="A220" s="40">
+      <c r="A220" s="42">
         <v>442.0</v>
       </c>
-      <c r="B220" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C220" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="D220" s="41" t="s">
-        <v>708</v>
-      </c>
-      <c r="E220" s="42" t="s">
-        <v>709</v>
-      </c>
-      <c r="F220" s="43"/>
-      <c r="G220" s="44"/>
-      <c r="H220" s="44"/>
-      <c r="I220" s="44"/>
-      <c r="J220" s="44"/>
-      <c r="K220" s="44"/>
-      <c r="L220" s="44"/>
-      <c r="M220" s="44"/>
-      <c r="N220" s="44"/>
-      <c r="O220" s="44"/>
-      <c r="P220" s="44"/>
-      <c r="Q220" s="44"/>
-      <c r="R220" s="44"/>
-      <c r="S220" s="44"/>
-      <c r="T220" s="44"/>
-      <c r="U220" s="44"/>
-      <c r="V220" s="53"/>
-      <c r="W220" s="39" t="s">
+      <c r="B220" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C220" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="D220" s="43" t="s">
+        <v>710</v>
+      </c>
+      <c r="E220" s="56" t="s">
+        <v>711</v>
+      </c>
+      <c r="F220" s="45"/>
+      <c r="G220" s="46"/>
+      <c r="H220" s="46"/>
+      <c r="I220" s="46"/>
+      <c r="J220" s="46"/>
+      <c r="K220" s="46"/>
+      <c r="L220" s="46"/>
+      <c r="M220" s="46"/>
+      <c r="N220" s="46"/>
+      <c r="O220" s="46"/>
+      <c r="P220" s="46"/>
+      <c r="Q220" s="46"/>
+      <c r="R220" s="46"/>
+      <c r="S220" s="46"/>
+      <c r="T220" s="46"/>
+      <c r="U220" s="46"/>
+      <c r="V220" s="57"/>
+      <c r="W220" s="41" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="221" ht="21.0" customHeight="1">
-      <c r="A221" s="47">
+      <c r="A221" s="50">
         <v>443.0</v>
       </c>
-      <c r="B221" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C221" s="48" t="s">
-        <v>663</v>
-      </c>
-      <c r="D221" s="48" t="s">
-        <v>710</v>
-      </c>
-      <c r="E221" s="49" t="s">
-        <v>711</v>
-      </c>
-      <c r="F221" s="50"/>
-      <c r="G221" s="51"/>
-      <c r="H221" s="51"/>
-      <c r="I221" s="51"/>
-      <c r="J221" s="51"/>
-      <c r="K221" s="51"/>
-      <c r="L221" s="51"/>
-      <c r="M221" s="51"/>
-      <c r="N221" s="51"/>
-      <c r="O221" s="51"/>
-      <c r="P221" s="51"/>
-      <c r="Q221" s="51"/>
-      <c r="R221" s="51"/>
-      <c r="S221" s="51"/>
-      <c r="T221" s="51"/>
-      <c r="U221" s="51"/>
-      <c r="V221" s="52"/>
+      <c r="B221" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C221" s="51" t="s">
+        <v>665</v>
+      </c>
+      <c r="D221" s="51" t="s">
+        <v>712</v>
+      </c>
+      <c r="E221" s="52" t="s">
+        <v>713</v>
+      </c>
+      <c r="F221" s="53"/>
+      <c r="G221" s="54"/>
+      <c r="H221" s="54"/>
+      <c r="I221" s="54"/>
+      <c r="J221" s="54"/>
+      <c r="K221" s="54"/>
+      <c r="L221" s="54"/>
+      <c r="M221" s="54"/>
+      <c r="N221" s="54"/>
+      <c r="O221" s="54"/>
+      <c r="P221" s="54"/>
+      <c r="Q221" s="54"/>
+      <c r="R221" s="54"/>
+      <c r="S221" s="54"/>
+      <c r="T221" s="54"/>
+      <c r="U221" s="54"/>
+      <c r="V221" s="55"/>
       <c r="W221" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="222" ht="21.0" customHeight="1">
-      <c r="A222" s="47">
+      <c r="A222" s="50">
         <v>444.0</v>
       </c>
-      <c r="B222" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C222" s="48" t="s">
+      <c r="B222" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="D222" s="48" t="s">
-        <v>712</v>
-      </c>
-      <c r="E222" s="49" t="s">
-        <v>713</v>
-      </c>
-      <c r="F222" s="50"/>
-      <c r="G222" s="51"/>
-      <c r="H222" s="51"/>
-      <c r="I222" s="51"/>
-      <c r="J222" s="51"/>
-      <c r="K222" s="51"/>
-      <c r="L222" s="51"/>
-      <c r="M222" s="51"/>
-      <c r="N222" s="51"/>
-      <c r="O222" s="51"/>
-      <c r="P222" s="51"/>
-      <c r="Q222" s="51"/>
-      <c r="R222" s="51"/>
-      <c r="S222" s="51"/>
-      <c r="T222" s="51"/>
-      <c r="U222" s="51"/>
-      <c r="V222" s="52"/>
+      <c r="D222" s="51" t="s">
+        <v>714</v>
+      </c>
+      <c r="E222" s="52" t="s">
+        <v>715</v>
+      </c>
+      <c r="F222" s="53"/>
+      <c r="G222" s="54"/>
+      <c r="H222" s="54"/>
+      <c r="I222" s="54"/>
+      <c r="J222" s="54"/>
+      <c r="K222" s="54"/>
+      <c r="L222" s="54"/>
+      <c r="M222" s="54"/>
+      <c r="N222" s="54"/>
+      <c r="O222" s="54"/>
+      <c r="P222" s="54"/>
+      <c r="Q222" s="54"/>
+      <c r="R222" s="54"/>
+      <c r="S222" s="54"/>
+      <c r="T222" s="54"/>
+      <c r="U222" s="54"/>
+      <c r="V222" s="55"/>
       <c r="W222" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="223" ht="21.0" customHeight="1">
-      <c r="A223" s="47">
+      <c r="A223" s="50">
         <v>445.0</v>
       </c>
-      <c r="B223" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C223" s="48" t="s">
+      <c r="B223" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C223" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="D223" s="48" t="s">
-        <v>714</v>
-      </c>
-      <c r="E223" s="49" t="s">
-        <v>715</v>
-      </c>
-      <c r="F223" s="50"/>
-      <c r="G223" s="51"/>
-      <c r="H223" s="51"/>
-      <c r="I223" s="51"/>
-      <c r="J223" s="51"/>
-      <c r="K223" s="51"/>
-      <c r="L223" s="51"/>
-      <c r="M223" s="51"/>
-      <c r="N223" s="51"/>
-      <c r="O223" s="51"/>
-      <c r="P223" s="51"/>
-      <c r="Q223" s="51"/>
-      <c r="R223" s="51"/>
-      <c r="S223" s="51"/>
-      <c r="T223" s="51"/>
-      <c r="U223" s="51"/>
-      <c r="V223" s="52"/>
+      <c r="D223" s="51" t="s">
+        <v>716</v>
+      </c>
+      <c r="E223" s="52" t="s">
+        <v>717</v>
+      </c>
+      <c r="F223" s="53"/>
+      <c r="G223" s="54"/>
+      <c r="H223" s="54"/>
+      <c r="I223" s="54"/>
+      <c r="J223" s="54"/>
+      <c r="K223" s="54"/>
+      <c r="L223" s="54"/>
+      <c r="M223" s="54"/>
+      <c r="N223" s="54"/>
+      <c r="O223" s="54"/>
+      <c r="P223" s="54"/>
+      <c r="Q223" s="54"/>
+      <c r="R223" s="54"/>
+      <c r="S223" s="54"/>
+      <c r="T223" s="54"/>
+      <c r="U223" s="54"/>
+      <c r="V223" s="55"/>
       <c r="W223" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="224" ht="21.0" customHeight="1">
-      <c r="A224" s="40">
+      <c r="A224" s="42">
         <v>446.0</v>
       </c>
-      <c r="B224" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C224" s="41" t="s">
+      <c r="B224" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C224" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="D224" s="41" t="s">
-        <v>716</v>
-      </c>
-      <c r="E224" s="42" t="s">
-        <v>717</v>
-      </c>
-      <c r="F224" s="54">
+      <c r="D224" s="43" t="s">
+        <v>718</v>
+      </c>
+      <c r="E224" s="56" t="s">
+        <v>719</v>
+      </c>
+      <c r="F224" s="58">
         <v>45556.0</v>
       </c>
-      <c r="G224" s="55" t="s">
-        <v>718</v>
-      </c>
-      <c r="H224" s="55" t="s">
-        <v>719</v>
-      </c>
-      <c r="I224" s="55" t="s">
+      <c r="G224" s="59" t="s">
         <v>720</v>
       </c>
-      <c r="J224" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="K224" s="44"/>
-      <c r="L224" s="44"/>
-      <c r="M224" s="44"/>
-      <c r="N224" s="44"/>
-      <c r="O224" s="44"/>
-      <c r="P224" s="44"/>
-      <c r="Q224" s="44"/>
-      <c r="R224" s="44"/>
-      <c r="S224" s="44"/>
-      <c r="T224" s="55" t="s">
+      <c r="H224" s="59" t="s">
+        <v>721</v>
+      </c>
+      <c r="I224" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="J224" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="K224" s="46"/>
+      <c r="L224" s="46"/>
+      <c r="M224" s="46"/>
+      <c r="N224" s="46"/>
+      <c r="O224" s="46"/>
+      <c r="P224" s="46"/>
+      <c r="Q224" s="46"/>
+      <c r="R224" s="46"/>
+      <c r="S224" s="46"/>
+      <c r="T224" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="U224" s="44"/>
-      <c r="V224" s="53"/>
-      <c r="W224" s="39" t="s">
+      <c r="U224" s="46"/>
+      <c r="V224" s="57"/>
+      <c r="W224" s="41" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="225" ht="21.0" customHeight="1">
-      <c r="A225" s="47">
+      <c r="A225" s="50">
         <v>447.0</v>
       </c>
-      <c r="B225" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C225" s="48" t="s">
+      <c r="B225" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C225" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="D225" s="48" t="s">
-        <v>721</v>
-      </c>
-      <c r="E225" s="49" t="s">
-        <v>722</v>
-      </c>
-      <c r="F225" s="56">
+      <c r="D225" s="51" t="s">
+        <v>723</v>
+      </c>
+      <c r="E225" s="52" t="s">
+        <v>724</v>
+      </c>
+      <c r="F225" s="60">
         <v>45558.0</v>
       </c>
-      <c r="G225" s="57" t="s">
-        <v>723</v>
-      </c>
-      <c r="H225" s="57" t="s">
-        <v>724</v>
-      </c>
-      <c r="I225" s="57" t="s">
+      <c r="G225" s="61" t="s">
         <v>725</v>
       </c>
-      <c r="J225" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="K225" s="51"/>
-      <c r="L225" s="51"/>
-      <c r="M225" s="51"/>
-      <c r="N225" s="51"/>
-      <c r="O225" s="51"/>
-      <c r="P225" s="51"/>
-      <c r="Q225" s="51"/>
-      <c r="R225" s="51"/>
-      <c r="S225" s="51"/>
-      <c r="T225" s="57" t="s">
+      <c r="H225" s="61" t="s">
+        <v>726</v>
+      </c>
+      <c r="I225" s="61" t="s">
+        <v>727</v>
+      </c>
+      <c r="J225" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="K225" s="54"/>
+      <c r="L225" s="54"/>
+      <c r="M225" s="54"/>
+      <c r="N225" s="54"/>
+      <c r="O225" s="54"/>
+      <c r="P225" s="54"/>
+      <c r="Q225" s="54"/>
+      <c r="R225" s="54"/>
+      <c r="S225" s="54"/>
+      <c r="T225" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="U225" s="51"/>
-      <c r="V225" s="52"/>
+      <c r="U225" s="54"/>
+      <c r="V225" s="55"/>
       <c r="W225" s="34" t="s">
         <v>56</v>
       </c>
@@ -14952,581 +17020,581 @@
     <row r="423" ht="21.0" customHeight="1"/>
     <row r="424" ht="21.0" customHeight="1"/>
     <row r="425" ht="21.0" customHeight="1"/>
-    <row r="426" ht="21.0" customHeight="1"/>
-    <row r="427" ht="21.0" customHeight="1"/>
-    <row r="428" ht="21.0" customHeight="1"/>
-    <row r="429" ht="21.0" customHeight="1"/>
-    <row r="430" ht="21.0" customHeight="1"/>
-    <row r="431" ht="21.0" customHeight="1"/>
-    <row r="432" ht="21.0" customHeight="1"/>
-    <row r="433" ht="21.0" customHeight="1"/>
-    <row r="434" ht="21.0" customHeight="1"/>
-    <row r="435" ht="21.0" customHeight="1"/>
-    <row r="436" ht="21.0" customHeight="1"/>
-    <row r="437" ht="21.0" customHeight="1"/>
-    <row r="438" ht="21.0" customHeight="1"/>
-    <row r="439" ht="21.0" customHeight="1"/>
-    <row r="440" ht="21.0" customHeight="1"/>
-    <row r="441" ht="21.0" customHeight="1"/>
-    <row r="442" ht="21.0" customHeight="1"/>
-    <row r="443" ht="21.0" customHeight="1"/>
-    <row r="444" ht="21.0" customHeight="1"/>
-    <row r="445" ht="21.0" customHeight="1"/>
-    <row r="446" ht="21.0" customHeight="1"/>
-    <row r="447" ht="21.0" customHeight="1"/>
-    <row r="448" ht="21.0" customHeight="1"/>
-    <row r="449" ht="21.0" customHeight="1"/>
-    <row r="450" ht="21.0" customHeight="1"/>
-    <row r="451" ht="21.0" customHeight="1"/>
-    <row r="452" ht="21.0" customHeight="1"/>
-    <row r="453" ht="21.0" customHeight="1"/>
-    <row r="454" ht="21.0" customHeight="1"/>
-    <row r="455" ht="21.0" customHeight="1"/>
-    <row r="456" ht="21.0" customHeight="1"/>
-    <row r="457" ht="21.0" customHeight="1"/>
-    <row r="458" ht="21.0" customHeight="1"/>
-    <row r="459" ht="21.0" customHeight="1"/>
-    <row r="460" ht="21.0" customHeight="1"/>
-    <row r="461" ht="21.0" customHeight="1"/>
-    <row r="462" ht="21.0" customHeight="1"/>
-    <row r="463" ht="21.0" customHeight="1"/>
-    <row r="464" ht="21.0" customHeight="1"/>
-    <row r="465" ht="21.0" customHeight="1"/>
-    <row r="466" ht="21.0" customHeight="1"/>
-    <row r="467" ht="21.0" customHeight="1"/>
-    <row r="468" ht="21.0" customHeight="1"/>
-    <row r="469" ht="21.0" customHeight="1"/>
-    <row r="470" ht="21.0" customHeight="1"/>
-    <row r="471" ht="21.0" customHeight="1"/>
-    <row r="472" ht="21.0" customHeight="1"/>
-    <row r="473" ht="21.0" customHeight="1"/>
-    <row r="474" ht="21.0" customHeight="1"/>
-    <row r="475" ht="21.0" customHeight="1"/>
-    <row r="476" ht="21.0" customHeight="1"/>
-    <row r="477" ht="21.0" customHeight="1"/>
-    <row r="478" ht="21.0" customHeight="1"/>
-    <row r="479" ht="21.0" customHeight="1"/>
-    <row r="480" ht="21.0" customHeight="1"/>
-    <row r="481" ht="21.0" customHeight="1"/>
-    <row r="482" ht="21.0" customHeight="1"/>
-    <row r="483" ht="21.0" customHeight="1"/>
-    <row r="484" ht="21.0" customHeight="1"/>
-    <row r="485" ht="21.0" customHeight="1"/>
-    <row r="486" ht="21.0" customHeight="1"/>
-    <row r="487" ht="21.0" customHeight="1"/>
-    <row r="488" ht="21.0" customHeight="1"/>
-    <row r="489" ht="21.0" customHeight="1"/>
-    <row r="490" ht="21.0" customHeight="1"/>
-    <row r="491" ht="21.0" customHeight="1"/>
-    <row r="492" ht="21.0" customHeight="1"/>
-    <row r="493" ht="21.0" customHeight="1"/>
-    <row r="494" ht="21.0" customHeight="1"/>
-    <row r="495" ht="21.0" customHeight="1"/>
-    <row r="496" ht="21.0" customHeight="1"/>
-    <row r="497" ht="21.0" customHeight="1"/>
-    <row r="498" ht="21.0" customHeight="1"/>
-    <row r="499" ht="21.0" customHeight="1"/>
-    <row r="500" ht="21.0" customHeight="1"/>
-    <row r="501" ht="21.0" customHeight="1"/>
-    <row r="502" ht="21.0" customHeight="1"/>
-    <row r="503" ht="21.0" customHeight="1"/>
-    <row r="504" ht="21.0" customHeight="1"/>
-    <row r="505" ht="21.0" customHeight="1"/>
-    <row r="506" ht="21.0" customHeight="1"/>
-    <row r="507" ht="21.0" customHeight="1"/>
-    <row r="508" ht="21.0" customHeight="1"/>
-    <row r="509" ht="21.0" customHeight="1"/>
-    <row r="510" ht="21.0" customHeight="1"/>
-    <row r="511" ht="21.0" customHeight="1"/>
-    <row r="512" ht="21.0" customHeight="1"/>
-    <row r="513" ht="21.0" customHeight="1"/>
-    <row r="514" ht="21.0" customHeight="1"/>
-    <row r="515" ht="21.0" customHeight="1"/>
-    <row r="516" ht="21.0" customHeight="1"/>
-    <row r="517" ht="21.0" customHeight="1"/>
-    <row r="518" ht="21.0" customHeight="1"/>
-    <row r="519" ht="21.0" customHeight="1"/>
-    <row r="520" ht="21.0" customHeight="1"/>
-    <row r="521" ht="21.0" customHeight="1"/>
-    <row r="522" ht="21.0" customHeight="1"/>
-    <row r="523" ht="21.0" customHeight="1"/>
-    <row r="524" ht="21.0" customHeight="1"/>
-    <row r="525" ht="21.0" customHeight="1"/>
-    <row r="526" ht="21.0" customHeight="1"/>
-    <row r="527" ht="21.0" customHeight="1"/>
-    <row r="528" ht="21.0" customHeight="1"/>
-    <row r="529" ht="21.0" customHeight="1"/>
-    <row r="530" ht="21.0" customHeight="1"/>
-    <row r="531" ht="21.0" customHeight="1"/>
-    <row r="532" ht="21.0" customHeight="1"/>
-    <row r="533" ht="21.0" customHeight="1"/>
-    <row r="534" ht="21.0" customHeight="1"/>
-    <row r="535" ht="21.0" customHeight="1"/>
-    <row r="536" ht="21.0" customHeight="1"/>
-    <row r="537" ht="21.0" customHeight="1"/>
-    <row r="538" ht="21.0" customHeight="1"/>
-    <row r="539" ht="21.0" customHeight="1"/>
-    <row r="540" ht="21.0" customHeight="1"/>
-    <row r="541" ht="21.0" customHeight="1"/>
-    <row r="542" ht="21.0" customHeight="1"/>
-    <row r="543" ht="21.0" customHeight="1"/>
-    <row r="544" ht="21.0" customHeight="1"/>
-    <row r="545" ht="21.0" customHeight="1"/>
-    <row r="546" ht="21.0" customHeight="1"/>
-    <row r="547" ht="21.0" customHeight="1"/>
-    <row r="548" ht="21.0" customHeight="1"/>
-    <row r="549" ht="21.0" customHeight="1"/>
-    <row r="550" ht="21.0" customHeight="1"/>
-    <row r="551" ht="21.0" customHeight="1"/>
-    <row r="552" ht="21.0" customHeight="1"/>
-    <row r="553" ht="21.0" customHeight="1"/>
-    <row r="554" ht="21.0" customHeight="1"/>
-    <row r="555" ht="21.0" customHeight="1"/>
-    <row r="556" ht="21.0" customHeight="1"/>
-    <row r="557" ht="21.0" customHeight="1"/>
-    <row r="558" ht="21.0" customHeight="1"/>
-    <row r="559" ht="21.0" customHeight="1"/>
-    <row r="560" ht="21.0" customHeight="1"/>
-    <row r="561" ht="21.0" customHeight="1"/>
-    <row r="562" ht="21.0" customHeight="1"/>
-    <row r="563" ht="21.0" customHeight="1"/>
-    <row r="564" ht="21.0" customHeight="1"/>
-    <row r="565" ht="21.0" customHeight="1"/>
-    <row r="566" ht="21.0" customHeight="1"/>
-    <row r="567" ht="21.0" customHeight="1"/>
-    <row r="568" ht="21.0" customHeight="1"/>
-    <row r="569" ht="21.0" customHeight="1"/>
-    <row r="570" ht="21.0" customHeight="1"/>
-    <row r="571" ht="21.0" customHeight="1"/>
-    <row r="572" ht="21.0" customHeight="1"/>
-    <row r="573" ht="21.0" customHeight="1"/>
-    <row r="574" ht="21.0" customHeight="1"/>
-    <row r="575" ht="21.0" customHeight="1"/>
-    <row r="576" ht="21.0" customHeight="1"/>
-    <row r="577" ht="21.0" customHeight="1"/>
-    <row r="578" ht="21.0" customHeight="1"/>
-    <row r="579" ht="21.0" customHeight="1"/>
-    <row r="580" ht="21.0" customHeight="1"/>
-    <row r="581" ht="21.0" customHeight="1"/>
-    <row r="582" ht="21.0" customHeight="1"/>
-    <row r="583" ht="21.0" customHeight="1"/>
-    <row r="584" ht="21.0" customHeight="1"/>
-    <row r="585" ht="21.0" customHeight="1"/>
-    <row r="586" ht="21.0" customHeight="1"/>
-    <row r="587" ht="21.0" customHeight="1"/>
-    <row r="588" ht="21.0" customHeight="1"/>
-    <row r="589" ht="21.0" customHeight="1"/>
-    <row r="590" ht="21.0" customHeight="1"/>
-    <row r="591" ht="21.0" customHeight="1"/>
-    <row r="592" ht="21.0" customHeight="1"/>
-    <row r="593" ht="21.0" customHeight="1"/>
-    <row r="594" ht="21.0" customHeight="1"/>
-    <row r="595" ht="21.0" customHeight="1"/>
-    <row r="596" ht="21.0" customHeight="1"/>
-    <row r="597" ht="21.0" customHeight="1"/>
-    <row r="598" ht="21.0" customHeight="1"/>
-    <row r="599" ht="21.0" customHeight="1"/>
-    <row r="600" ht="21.0" customHeight="1"/>
-    <row r="601" ht="21.0" customHeight="1"/>
-    <row r="602" ht="21.0" customHeight="1"/>
-    <row r="603" ht="21.0" customHeight="1"/>
-    <row r="604" ht="21.0" customHeight="1"/>
-    <row r="605" ht="21.0" customHeight="1"/>
-    <row r="606" ht="21.0" customHeight="1"/>
-    <row r="607" ht="21.0" customHeight="1"/>
-    <row r="608" ht="21.0" customHeight="1"/>
-    <row r="609" ht="21.0" customHeight="1"/>
-    <row r="610" ht="21.0" customHeight="1"/>
-    <row r="611" ht="21.0" customHeight="1"/>
-    <row r="612" ht="21.0" customHeight="1"/>
-    <row r="613" ht="21.0" customHeight="1"/>
-    <row r="614" ht="21.0" customHeight="1"/>
-    <row r="615" ht="21.0" customHeight="1"/>
-    <row r="616" ht="21.0" customHeight="1"/>
-    <row r="617" ht="21.0" customHeight="1"/>
-    <row r="618" ht="21.0" customHeight="1"/>
-    <row r="619" ht="21.0" customHeight="1"/>
-    <row r="620" ht="21.0" customHeight="1"/>
-    <row r="621" ht="21.0" customHeight="1"/>
-    <row r="622" ht="21.0" customHeight="1"/>
-    <row r="623" ht="21.0" customHeight="1"/>
-    <row r="624" ht="21.0" customHeight="1"/>
-    <row r="625" ht="21.0" customHeight="1"/>
-    <row r="626" ht="21.0" customHeight="1"/>
-    <row r="627" ht="21.0" customHeight="1"/>
-    <row r="628" ht="21.0" customHeight="1"/>
-    <row r="629" ht="21.0" customHeight="1"/>
-    <row r="630" ht="21.0" customHeight="1"/>
-    <row r="631" ht="21.0" customHeight="1"/>
-    <row r="632" ht="21.0" customHeight="1"/>
-    <row r="633" ht="21.0" customHeight="1"/>
-    <row r="634" ht="21.0" customHeight="1"/>
-    <row r="635" ht="21.0" customHeight="1"/>
-    <row r="636" ht="21.0" customHeight="1"/>
-    <row r="637" ht="21.0" customHeight="1"/>
-    <row r="638" ht="21.0" customHeight="1"/>
-    <row r="639" ht="21.0" customHeight="1"/>
-    <row r="640" ht="21.0" customHeight="1"/>
-    <row r="641" ht="21.0" customHeight="1"/>
-    <row r="642" ht="21.0" customHeight="1"/>
-    <row r="643" ht="21.0" customHeight="1"/>
-    <row r="644" ht="21.0" customHeight="1"/>
-    <row r="645" ht="21.0" customHeight="1"/>
-    <row r="646" ht="21.0" customHeight="1"/>
-    <row r="647" ht="21.0" customHeight="1"/>
-    <row r="648" ht="21.0" customHeight="1"/>
-    <row r="649" ht="21.0" customHeight="1"/>
-    <row r="650" ht="21.0" customHeight="1"/>
-    <row r="651" ht="21.0" customHeight="1"/>
-    <row r="652" ht="21.0" customHeight="1"/>
-    <row r="653" ht="21.0" customHeight="1"/>
-    <row r="654" ht="21.0" customHeight="1"/>
-    <row r="655" ht="21.0" customHeight="1"/>
-    <row r="656" ht="21.0" customHeight="1"/>
-    <row r="657" ht="21.0" customHeight="1"/>
-    <row r="658" ht="21.0" customHeight="1"/>
-    <row r="659" ht="21.0" customHeight="1"/>
-    <row r="660" ht="21.0" customHeight="1"/>
-    <row r="661" ht="21.0" customHeight="1"/>
-    <row r="662" ht="21.0" customHeight="1"/>
-    <row r="663" ht="21.0" customHeight="1"/>
-    <row r="664" ht="21.0" customHeight="1"/>
-    <row r="665" ht="21.0" customHeight="1"/>
-    <row r="666" ht="21.0" customHeight="1"/>
-    <row r="667" ht="21.0" customHeight="1"/>
-    <row r="668" ht="21.0" customHeight="1"/>
-    <row r="669" ht="21.0" customHeight="1"/>
-    <row r="670" ht="21.0" customHeight="1"/>
-    <row r="671" ht="21.0" customHeight="1"/>
-    <row r="672" ht="21.0" customHeight="1"/>
-    <row r="673" ht="21.0" customHeight="1"/>
-    <row r="674" ht="21.0" customHeight="1"/>
-    <row r="675" ht="21.0" customHeight="1"/>
-    <row r="676" ht="21.0" customHeight="1"/>
-    <row r="677" ht="21.0" customHeight="1"/>
-    <row r="678" ht="21.0" customHeight="1"/>
-    <row r="679" ht="21.0" customHeight="1"/>
-    <row r="680" ht="21.0" customHeight="1"/>
-    <row r="681" ht="21.0" customHeight="1"/>
-    <row r="682" ht="21.0" customHeight="1"/>
-    <row r="683" ht="21.0" customHeight="1"/>
-    <row r="684" ht="21.0" customHeight="1"/>
-    <row r="685" ht="21.0" customHeight="1"/>
-    <row r="686" ht="21.0" customHeight="1"/>
-    <row r="687" ht="21.0" customHeight="1"/>
-    <row r="688" ht="21.0" customHeight="1"/>
-    <row r="689" ht="21.0" customHeight="1"/>
-    <row r="690" ht="21.0" customHeight="1"/>
-    <row r="691" ht="21.0" customHeight="1"/>
-    <row r="692" ht="21.0" customHeight="1"/>
-    <row r="693" ht="21.0" customHeight="1"/>
-    <row r="694" ht="21.0" customHeight="1"/>
-    <row r="695" ht="21.0" customHeight="1"/>
-    <row r="696" ht="21.0" customHeight="1"/>
-    <row r="697" ht="21.0" customHeight="1"/>
-    <row r="698" ht="21.0" customHeight="1"/>
-    <row r="699" ht="21.0" customHeight="1"/>
-    <row r="700" ht="21.0" customHeight="1"/>
-    <row r="701" ht="21.0" customHeight="1"/>
-    <row r="702" ht="21.0" customHeight="1"/>
-    <row r="703" ht="21.0" customHeight="1"/>
-    <row r="704" ht="21.0" customHeight="1"/>
-    <row r="705" ht="21.0" customHeight="1"/>
-    <row r="706" ht="21.0" customHeight="1"/>
-    <row r="707" ht="21.0" customHeight="1"/>
-    <row r="708" ht="21.0" customHeight="1"/>
-    <row r="709" ht="21.0" customHeight="1"/>
-    <row r="710" ht="21.0" customHeight="1"/>
-    <row r="711" ht="21.0" customHeight="1"/>
-    <row r="712" ht="21.0" customHeight="1"/>
-    <row r="713" ht="21.0" customHeight="1"/>
-    <row r="714" ht="21.0" customHeight="1"/>
-    <row r="715" ht="21.0" customHeight="1"/>
-    <row r="716" ht="21.0" customHeight="1"/>
-    <row r="717" ht="21.0" customHeight="1"/>
-    <row r="718" ht="21.0" customHeight="1"/>
-    <row r="719" ht="21.0" customHeight="1"/>
-    <row r="720" ht="21.0" customHeight="1"/>
-    <row r="721" ht="21.0" customHeight="1"/>
-    <row r="722" ht="21.0" customHeight="1"/>
-    <row r="723" ht="21.0" customHeight="1"/>
-    <row r="724" ht="21.0" customHeight="1"/>
-    <row r="725" ht="21.0" customHeight="1"/>
-    <row r="726" ht="21.0" customHeight="1"/>
-    <row r="727" ht="21.0" customHeight="1"/>
-    <row r="728" ht="21.0" customHeight="1"/>
-    <row r="729" ht="21.0" customHeight="1"/>
-    <row r="730" ht="21.0" customHeight="1"/>
-    <row r="731" ht="21.0" customHeight="1"/>
-    <row r="732" ht="21.0" customHeight="1"/>
-    <row r="733" ht="21.0" customHeight="1"/>
-    <row r="734" ht="21.0" customHeight="1"/>
-    <row r="735" ht="21.0" customHeight="1"/>
-    <row r="736" ht="21.0" customHeight="1"/>
-    <row r="737" ht="21.0" customHeight="1"/>
-    <row r="738" ht="21.0" customHeight="1"/>
-    <row r="739" ht="21.0" customHeight="1"/>
-    <row r="740" ht="21.0" customHeight="1"/>
-    <row r="741" ht="21.0" customHeight="1"/>
-    <row r="742" ht="21.0" customHeight="1"/>
-    <row r="743" ht="21.0" customHeight="1"/>
-    <row r="744" ht="21.0" customHeight="1"/>
-    <row r="745" ht="21.0" customHeight="1"/>
-    <row r="746" ht="21.0" customHeight="1"/>
-    <row r="747" ht="21.0" customHeight="1"/>
-    <row r="748" ht="21.0" customHeight="1"/>
-    <row r="749" ht="21.0" customHeight="1"/>
-    <row r="750" ht="21.0" customHeight="1"/>
-    <row r="751" ht="21.0" customHeight="1"/>
-    <row r="752" ht="21.0" customHeight="1"/>
-    <row r="753" ht="21.0" customHeight="1"/>
-    <row r="754" ht="21.0" customHeight="1"/>
-    <row r="755" ht="21.0" customHeight="1"/>
-    <row r="756" ht="21.0" customHeight="1"/>
-    <row r="757" ht="21.0" customHeight="1"/>
-    <row r="758" ht="21.0" customHeight="1"/>
-    <row r="759" ht="21.0" customHeight="1"/>
-    <row r="760" ht="21.0" customHeight="1"/>
-    <row r="761" ht="21.0" customHeight="1"/>
-    <row r="762" ht="21.0" customHeight="1"/>
-    <row r="763" ht="21.0" customHeight="1"/>
-    <row r="764" ht="21.0" customHeight="1"/>
-    <row r="765" ht="21.0" customHeight="1"/>
-    <row r="766" ht="21.0" customHeight="1"/>
-    <row r="767" ht="21.0" customHeight="1"/>
-    <row r="768" ht="21.0" customHeight="1"/>
-    <row r="769" ht="21.0" customHeight="1"/>
-    <row r="770" ht="21.0" customHeight="1"/>
-    <row r="771" ht="21.0" customHeight="1"/>
-    <row r="772" ht="21.0" customHeight="1"/>
-    <row r="773" ht="21.0" customHeight="1"/>
-    <row r="774" ht="21.0" customHeight="1"/>
-    <row r="775" ht="21.0" customHeight="1"/>
-    <row r="776" ht="21.0" customHeight="1"/>
-    <row r="777" ht="21.0" customHeight="1"/>
-    <row r="778" ht="21.0" customHeight="1"/>
-    <row r="779" ht="21.0" customHeight="1"/>
-    <row r="780" ht="21.0" customHeight="1"/>
-    <row r="781" ht="21.0" customHeight="1"/>
-    <row r="782" ht="21.0" customHeight="1"/>
-    <row r="783" ht="21.0" customHeight="1"/>
-    <row r="784" ht="21.0" customHeight="1"/>
-    <row r="785" ht="21.0" customHeight="1"/>
-    <row r="786" ht="21.0" customHeight="1"/>
-    <row r="787" ht="21.0" customHeight="1"/>
-    <row r="788" ht="21.0" customHeight="1"/>
-    <row r="789" ht="21.0" customHeight="1"/>
-    <row r="790" ht="21.0" customHeight="1"/>
-    <row r="791" ht="21.0" customHeight="1"/>
-    <row r="792" ht="21.0" customHeight="1"/>
-    <row r="793" ht="21.0" customHeight="1"/>
-    <row r="794" ht="21.0" customHeight="1"/>
-    <row r="795" ht="21.0" customHeight="1"/>
-    <row r="796" ht="21.0" customHeight="1"/>
-    <row r="797" ht="21.0" customHeight="1"/>
-    <row r="798" ht="21.0" customHeight="1"/>
-    <row r="799" ht="21.0" customHeight="1"/>
-    <row r="800" ht="21.0" customHeight="1"/>
-    <row r="801" ht="21.0" customHeight="1"/>
-    <row r="802" ht="21.0" customHeight="1"/>
-    <row r="803" ht="21.0" customHeight="1"/>
-    <row r="804" ht="21.0" customHeight="1"/>
-    <row r="805" ht="21.0" customHeight="1"/>
-    <row r="806" ht="21.0" customHeight="1"/>
-    <row r="807" ht="21.0" customHeight="1"/>
-    <row r="808" ht="21.0" customHeight="1"/>
-    <row r="809" ht="21.0" customHeight="1"/>
-    <row r="810" ht="21.0" customHeight="1"/>
-    <row r="811" ht="21.0" customHeight="1"/>
-    <row r="812" ht="21.0" customHeight="1"/>
-    <row r="813" ht="21.0" customHeight="1"/>
-    <row r="814" ht="21.0" customHeight="1"/>
-    <row r="815" ht="21.0" customHeight="1"/>
-    <row r="816" ht="21.0" customHeight="1"/>
-    <row r="817" ht="21.0" customHeight="1"/>
-    <row r="818" ht="21.0" customHeight="1"/>
-    <row r="819" ht="21.0" customHeight="1"/>
-    <row r="820" ht="21.0" customHeight="1"/>
-    <row r="821" ht="21.0" customHeight="1"/>
-    <row r="822" ht="21.0" customHeight="1"/>
-    <row r="823" ht="21.0" customHeight="1"/>
-    <row r="824" ht="21.0" customHeight="1"/>
-    <row r="825" ht="21.0" customHeight="1"/>
-    <row r="826" ht="21.0" customHeight="1"/>
-    <row r="827" ht="21.0" customHeight="1"/>
-    <row r="828" ht="21.0" customHeight="1"/>
-    <row r="829" ht="21.0" customHeight="1"/>
-    <row r="830" ht="21.0" customHeight="1"/>
-    <row r="831" ht="21.0" customHeight="1"/>
-    <row r="832" ht="21.0" customHeight="1"/>
-    <row r="833" ht="21.0" customHeight="1"/>
-    <row r="834" ht="21.0" customHeight="1"/>
-    <row r="835" ht="21.0" customHeight="1"/>
-    <row r="836" ht="21.0" customHeight="1"/>
-    <row r="837" ht="21.0" customHeight="1"/>
-    <row r="838" ht="21.0" customHeight="1"/>
-    <row r="839" ht="21.0" customHeight="1"/>
-    <row r="840" ht="21.0" customHeight="1"/>
-    <row r="841" ht="21.0" customHeight="1"/>
-    <row r="842" ht="21.0" customHeight="1"/>
-    <row r="843" ht="21.0" customHeight="1"/>
-    <row r="844" ht="21.0" customHeight="1"/>
-    <row r="845" ht="21.0" customHeight="1"/>
-    <row r="846" ht="21.0" customHeight="1"/>
-    <row r="847" ht="21.0" customHeight="1"/>
-    <row r="848" ht="21.0" customHeight="1"/>
-    <row r="849" ht="21.0" customHeight="1"/>
-    <row r="850" ht="21.0" customHeight="1"/>
-    <row r="851" ht="21.0" customHeight="1"/>
-    <row r="852" ht="21.0" customHeight="1"/>
-    <row r="853" ht="21.0" customHeight="1"/>
-    <row r="854" ht="21.0" customHeight="1"/>
-    <row r="855" ht="21.0" customHeight="1"/>
-    <row r="856" ht="21.0" customHeight="1"/>
-    <row r="857" ht="21.0" customHeight="1"/>
-    <row r="858" ht="21.0" customHeight="1"/>
-    <row r="859" ht="21.0" customHeight="1"/>
-    <row r="860" ht="21.0" customHeight="1"/>
-    <row r="861" ht="21.0" customHeight="1"/>
-    <row r="862" ht="21.0" customHeight="1"/>
-    <row r="863" ht="21.0" customHeight="1"/>
-    <row r="864" ht="21.0" customHeight="1"/>
-    <row r="865" ht="21.0" customHeight="1"/>
-    <row r="866" ht="21.0" customHeight="1"/>
-    <row r="867" ht="21.0" customHeight="1"/>
-    <row r="868" ht="21.0" customHeight="1"/>
-    <row r="869" ht="21.0" customHeight="1"/>
-    <row r="870" ht="21.0" customHeight="1"/>
-    <row r="871" ht="21.0" customHeight="1"/>
-    <row r="872" ht="21.0" customHeight="1"/>
-    <row r="873" ht="21.0" customHeight="1"/>
-    <row r="874" ht="21.0" customHeight="1"/>
-    <row r="875" ht="21.0" customHeight="1"/>
-    <row r="876" ht="21.0" customHeight="1"/>
-    <row r="877" ht="21.0" customHeight="1"/>
-    <row r="878" ht="21.0" customHeight="1"/>
-    <row r="879" ht="21.0" customHeight="1"/>
-    <row r="880" ht="21.0" customHeight="1"/>
-    <row r="881" ht="21.0" customHeight="1"/>
-    <row r="882" ht="21.0" customHeight="1"/>
-    <row r="883" ht="21.0" customHeight="1"/>
-    <row r="884" ht="21.0" customHeight="1"/>
-    <row r="885" ht="21.0" customHeight="1"/>
-    <row r="886" ht="21.0" customHeight="1"/>
-    <row r="887" ht="21.0" customHeight="1"/>
-    <row r="888" ht="21.0" customHeight="1"/>
-    <row r="889" ht="21.0" customHeight="1"/>
-    <row r="890" ht="21.0" customHeight="1"/>
-    <row r="891" ht="21.0" customHeight="1"/>
-    <row r="892" ht="21.0" customHeight="1"/>
-    <row r="893" ht="21.0" customHeight="1"/>
-    <row r="894" ht="21.0" customHeight="1"/>
-    <row r="895" ht="21.0" customHeight="1"/>
-    <row r="896" ht="21.0" customHeight="1"/>
-    <row r="897" ht="21.0" customHeight="1"/>
-    <row r="898" ht="21.0" customHeight="1"/>
-    <row r="899" ht="21.0" customHeight="1"/>
-    <row r="900" ht="21.0" customHeight="1"/>
-    <row r="901" ht="21.0" customHeight="1"/>
-    <row r="902" ht="21.0" customHeight="1"/>
-    <row r="903" ht="21.0" customHeight="1"/>
-    <row r="904" ht="21.0" customHeight="1"/>
-    <row r="905" ht="21.0" customHeight="1"/>
-    <row r="906" ht="21.0" customHeight="1"/>
-    <row r="907" ht="21.0" customHeight="1"/>
-    <row r="908" ht="21.0" customHeight="1"/>
-    <row r="909" ht="21.0" customHeight="1"/>
-    <row r="910" ht="21.0" customHeight="1"/>
-    <row r="911" ht="21.0" customHeight="1"/>
-    <row r="912" ht="21.0" customHeight="1"/>
-    <row r="913" ht="21.0" customHeight="1"/>
-    <row r="914" ht="21.0" customHeight="1"/>
-    <row r="915" ht="21.0" customHeight="1"/>
-    <row r="916" ht="21.0" customHeight="1"/>
-    <row r="917" ht="21.0" customHeight="1"/>
-    <row r="918" ht="21.0" customHeight="1"/>
-    <row r="919" ht="21.0" customHeight="1"/>
-    <row r="920" ht="21.0" customHeight="1"/>
-    <row r="921" ht="21.0" customHeight="1"/>
-    <row r="922" ht="21.0" customHeight="1"/>
-    <row r="923" ht="21.0" customHeight="1"/>
-    <row r="924" ht="21.0" customHeight="1"/>
-    <row r="925" ht="21.0" customHeight="1"/>
-    <row r="926" ht="21.0" customHeight="1"/>
-    <row r="927" ht="21.0" customHeight="1"/>
-    <row r="928" ht="21.0" customHeight="1"/>
-    <row r="929" ht="21.0" customHeight="1"/>
-    <row r="930" ht="21.0" customHeight="1"/>
-    <row r="931" ht="21.0" customHeight="1"/>
-    <row r="932" ht="21.0" customHeight="1"/>
-    <row r="933" ht="21.0" customHeight="1"/>
-    <row r="934" ht="21.0" customHeight="1"/>
-    <row r="935" ht="21.0" customHeight="1"/>
-    <row r="936" ht="21.0" customHeight="1"/>
-    <row r="937" ht="21.0" customHeight="1"/>
-    <row r="938" ht="21.0" customHeight="1"/>
-    <row r="939" ht="21.0" customHeight="1"/>
-    <row r="940" ht="21.0" customHeight="1"/>
-    <row r="941" ht="21.0" customHeight="1"/>
-    <row r="942" ht="21.0" customHeight="1"/>
-    <row r="943" ht="21.0" customHeight="1"/>
-    <row r="944" ht="21.0" customHeight="1"/>
-    <row r="945" ht="21.0" customHeight="1"/>
-    <row r="946" ht="21.0" customHeight="1"/>
-    <row r="947" ht="21.0" customHeight="1"/>
-    <row r="948" ht="21.0" customHeight="1"/>
-    <row r="949" ht="21.0" customHeight="1"/>
-    <row r="950" ht="21.0" customHeight="1"/>
-    <row r="951" ht="21.0" customHeight="1"/>
-    <row r="952" ht="21.0" customHeight="1"/>
-    <row r="953" ht="21.0" customHeight="1"/>
-    <row r="954" ht="21.0" customHeight="1"/>
-    <row r="955" ht="21.0" customHeight="1"/>
-    <row r="956" ht="21.0" customHeight="1"/>
-    <row r="957" ht="21.0" customHeight="1"/>
-    <row r="958" ht="21.0" customHeight="1"/>
-    <row r="959" ht="21.0" customHeight="1"/>
-    <row r="960" ht="21.0" customHeight="1"/>
-    <row r="961" ht="21.0" customHeight="1"/>
-    <row r="962" ht="21.0" customHeight="1"/>
-    <row r="963" ht="21.0" customHeight="1"/>
-    <row r="964" ht="21.0" customHeight="1"/>
-    <row r="965" ht="21.0" customHeight="1"/>
-    <row r="966" ht="21.0" customHeight="1"/>
-    <row r="967" ht="21.0" customHeight="1"/>
-    <row r="968" ht="21.0" customHeight="1"/>
-    <row r="969" ht="21.0" customHeight="1"/>
-    <row r="970" ht="21.0" customHeight="1"/>
-    <row r="971" ht="21.0" customHeight="1"/>
-    <row r="972" ht="21.0" customHeight="1"/>
-    <row r="973" ht="21.0" customHeight="1"/>
-    <row r="974" ht="21.0" customHeight="1"/>
-    <row r="975" ht="21.0" customHeight="1"/>
-    <row r="976" ht="21.0" customHeight="1"/>
-    <row r="977" ht="21.0" customHeight="1"/>
-    <row r="978" ht="21.0" customHeight="1"/>
-    <row r="979" ht="21.0" customHeight="1"/>
-    <row r="980" ht="21.0" customHeight="1"/>
-    <row r="981" ht="21.0" customHeight="1"/>
-    <row r="982" ht="21.0" customHeight="1"/>
-    <row r="983" ht="21.0" customHeight="1"/>
-    <row r="984" ht="21.0" customHeight="1"/>
-    <row r="985" ht="21.0" customHeight="1"/>
-    <row r="986" ht="21.0" customHeight="1"/>
-    <row r="987" ht="21.0" customHeight="1"/>
-    <row r="988" ht="21.0" customHeight="1"/>
-    <row r="989" ht="21.0" customHeight="1"/>
-    <row r="990" ht="21.0" customHeight="1"/>
-    <row r="991" ht="21.0" customHeight="1"/>
-    <row r="992" ht="21.0" customHeight="1"/>
-    <row r="993" ht="21.0" customHeight="1"/>
-    <row r="994" ht="21.0" customHeight="1"/>
-    <row r="995" ht="21.0" customHeight="1"/>
-    <row r="996" ht="21.0" customHeight="1"/>
-    <row r="997" ht="21.0" customHeight="1"/>
-    <row r="998" ht="21.0" customHeight="1"/>
-    <row r="999" ht="21.0" customHeight="1"/>
-    <row r="1000" ht="21.0" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="$A$9:$W$225"/>
   <mergeCells count="7">
@@ -15538,7 +17606,11 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E190"/>
+    <hyperlink r:id="rId2" ref="E197"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -15550,199 +17622,1191 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="58" t="s">
-        <v>726</v>
-      </c>
-      <c r="B1" s="58" t="s">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="62" t="s">
+        <v>728</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="58" t="s">
-        <v>727</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>728</v>
+      <c r="C1" s="62" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>730</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="59" t="s">
-        <v>729</v>
-      </c>
-      <c r="G1" s="60">
+      <c r="F1" s="63" t="s">
+        <v>731</v>
+      </c>
+      <c r="G1" s="64">
         <v>0.3347337962962963</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="61" t="s">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>730</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>731</v>
-      </c>
-      <c r="D2" s="62" t="s">
+      <c r="B2" s="65" t="s">
         <v>732</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>734</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3">
-      <c r="A3" s="61" t="s">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="61" t="s">
-        <v>730</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>733</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>734</v>
+      <c r="B3" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>735</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>736</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4">
-      <c r="A4" s="61" t="s">
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="61" t="s">
-        <v>730</v>
-      </c>
-      <c r="C4" s="62">
+      <c r="B4" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="C4" s="66">
         <v>446.447</v>
       </c>
-      <c r="D4" s="62" t="s">
-        <v>735</v>
+      <c r="D4" s="66" t="s">
+        <v>737</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5">
-      <c r="A5" s="61" t="s">
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="61" t="s">
-        <v>730</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>736</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>737</v>
+      <c r="B5" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>738</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>739</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6">
-      <c r="A6" s="61" t="s">
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="61" t="s">
-        <v>730</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>738</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>739</v>
+      <c r="B6" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>740</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>741</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7">
-      <c r="A7" s="61" t="s">
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>730</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>740</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>741</v>
+      <c r="B7" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>742</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>743</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8">
-      <c r="A8" s="61" t="s">
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="61" t="s">
-        <v>730</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>742</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>743</v>
+      <c r="B8" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>744</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>745</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9">
-      <c r="A9" s="61" t="s">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="61" t="s">
-        <v>730</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>744</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>745</v>
+      <c r="B9" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>746</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>747</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10">
-      <c r="A10" s="61" t="s">
-        <v>746</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>730</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>747</v>
-      </c>
-      <c r="D10" s="62" t="s">
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="65" t="s">
         <v>748</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>749</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>750</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11">
-      <c r="A11" s="61" t="s">
-        <v>663</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>730</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>749</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>750</v>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="65" t="s">
+        <v>665</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>751</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>752</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="$A$1:$D$11"/>
   <drawing r:id="rId1"/>

--- a/GATEWAY/A1#111INFORDATADHS/INFORDATA_DIGITAL_HEALTH_SOLUTIONS/Astrolabio/11.252.694/report_checklist.xlsx
+++ b/GATEWAY/A1#111INFORDATADHS/INFORDATA_DIGITAL_HEALTH_SOLUTIONS/Astrolabio/11.252.694/report_checklist.xlsx
@@ -13,16 +13,11 @@
     <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">Summary!$A$1:$D$11</definedName>
   </definedNames>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="PxI5f0nSoOwfNxVEgqlwtsHPMyNGOTAFyYCRELQ+txM="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="753">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1928,13 +1923,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>26 Sep 2024 13:47:46 GMT</t>
-  </si>
-  <si>
-    <t>c579c83f1cb549b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.9f9f986441ccf79b18dafb62cd2c70a8a597ad7f98562f637a4e041161338e88.a40f07305e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>15 Gen 2025 08:52:11 GMT</t>
+  </si>
+  <si>
+    <t>960e0256c05503bb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.5b9d452c0a3efab3500fec39203e00f5fb29a0279651fa337e29b51b7912d9d7.bc863eb019^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico.","detail":"[ERRORE-b7| Sezione Dicom Object Catalog: La sezione deve avere l'elemento 'entry' di tipo 'act'.]","status":422,"instance":"/validation/error</t>
@@ -2835,13 +2830,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>14 Nov 2024 10:19:28 GMT</t>
-  </si>
-  <si>
-    <t>10b5c699e4597ae7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.5e6e0d15f3b77c04bff59993253973435eca6a713122f9d79bd20fe404da6e5a.16471629bf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>14 Jan 2025 13:32:56 GMT</t>
+  </si>
+  <si>
+    <t>5b1645c927984504</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.0257fe876386a84cd41789e91d8da41a841537d379f94c6b8cdaf46928b8bb10.7b94f4de7b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT2</t>
@@ -2861,13 +2856,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>26 Nov 2024 09:37:38 GMT</t>
-  </si>
-  <si>
-    <t>abededa87ba53e95</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.0a32651803db5fad1f55549a7a8bf79100ff3576dd9da76f8400787bccf8c6ea.1d3624a019^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>17 Jan 2025 09:24:25 GMT</t>
+  </si>
+  <si>
+    <t>a564f3c3767df234</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.c33ccbe1805eebea440726b9761abb08bf2f8c41c5ef7c7991a0d23d2e6c4597.9489b9b053^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT3</t>
@@ -2887,13 +2882,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>26 Nov 2024 13:42:06 GMT</t>
-  </si>
-  <si>
-    <t>7205f3e2d199420c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.24ae5833756603b16c458d5f1cb5901d87b6d0b49f0a828eab77d29ea2f00eee.5a63895597^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>17 Jan 2025 10:08:22 GMT</t>
+  </si>
+  <si>
+    <t>2fe381cfa520d447</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.5f2d477b31bc8662f1e88c9e89aefefe214d818b0b14a38613db51dd71e63bde.71975a1dd0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT4</t>
@@ -2911,13 +2906,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>26 Nov 2024 14:15:41 GMT</t>
-  </si>
-  <si>
-    <t>4c72abc36bb9fbef</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.78ef0d9778ca116ba5dbb4d635fac46cf53084245810704cc8ea641e2a0ceafd.b4d7075623^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>17 Jan 2025 09:51:35 GMT</t>
+  </si>
+  <si>
+    <t>74c48d7d249838f2"</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.5d5a7730df49ef5a77dfab6562fc69057b51748969bb43df6a1a5cf5e7fc0f16.8152021f80^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT5_KO</t>
@@ -3875,13 +3870,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>21 Sep 2024 12:08:53 GMT</t>
+    <t>14 Jan 2025 13:23:27 GMT</t>
   </si>
   <si>
     <t>bc973ababc5fbfe2</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.354304769c6d2c73c2c9304c38da6fb4603dbd9e084bb302a171d8ba10bbf85a.548417e177^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.3da83a40479d26ed11aa381d5654d5d2263095b29c52ca205d4fef94fb992f5f.6f6a85e67f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT2</t>
@@ -3891,13 +3886,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>23 Sep 2024 12:06:55 GMT</t>
-  </si>
-  <si>
-    <t>64643a4413670325</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b7602de5d66e6013425fc8b21742b306ba8d8d5efb94961f08512b6d76453043.10bbe7ed0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>14 Jan 2025 12:00:28 GMT</t>
+  </si>
+  <si>
+    <t>b3ac3c3ea5f09e5c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8aae9fdd006e8961ed4f6b988835ab4314e42e57c66acce8fe39925a0ed57f13.587f5886df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>TIPO DOCUMENTO</t>
@@ -4440,7 +4435,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4540,8 +4535,14 @@
     <xf borderId="20" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
@@ -4604,13 +4605,19 @@
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="28" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -6991,7 +6998,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col customWidth="1" min="1" max="3" width="12.63"/>
+    <col customWidth="1" min="4" max="4" width="39.5"/>
+    <col customWidth="1" min="5" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
@@ -10340,17 +10349,17 @@
       <c r="E78" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="F78" s="31" t="s">
+      <c r="F78" s="29">
+        <v>45559.0</v>
+      </c>
+      <c r="G78" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="G78" s="31" t="s">
+      <c r="H78" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="H78" s="31" t="s">
+      <c r="I78" s="31" t="s">
         <v>262</v>
-      </c>
-      <c r="I78" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J78" s="31" t="s">
         <v>54</v>
@@ -10401,17 +10410,17 @@
       <c r="E79" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="F79" s="31" t="s">
+      <c r="F79" s="29">
+        <v>45559.0</v>
+      </c>
+      <c r="G79" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="G79" s="31" t="s">
+      <c r="H79" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="H79" s="31" t="s">
+      <c r="I79" s="31" t="s">
         <v>267</v>
-      </c>
-      <c r="I79" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J79" s="31" t="s">
         <v>54</v>
@@ -10462,17 +10471,17 @@
       <c r="E80" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="F80" s="31" t="s">
+      <c r="F80" s="29">
+        <v>45559.0</v>
+      </c>
+      <c r="G80" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="G80" s="31" t="s">
+      <c r="H80" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="H80" s="31" t="s">
+      <c r="I80" s="31" t="s">
         <v>273</v>
-      </c>
-      <c r="I80" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J80" s="31" t="s">
         <v>54</v>
@@ -10523,17 +10532,17 @@
       <c r="E81" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="F81" s="29">
+        <v>45566.0</v>
+      </c>
+      <c r="G81" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="G81" s="31" t="s">
+      <c r="H81" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H81" s="31" t="s">
+      <c r="I81" s="31" t="s">
         <v>278</v>
-      </c>
-      <c r="I81" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J81" s="31" t="s">
         <v>54</v>
@@ -10584,17 +10593,17 @@
       <c r="E82" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="F82" s="31" t="s">
+      <c r="F82" s="29">
+        <v>45566.0</v>
+      </c>
+      <c r="G82" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="G82" s="31" t="s">
+      <c r="H82" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="H82" s="31" t="s">
+      <c r="I82" s="31" t="s">
         <v>284</v>
-      </c>
-      <c r="I82" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J82" s="31" t="s">
         <v>54</v>
@@ -10645,17 +10654,17 @@
       <c r="E83" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="F83" s="31" t="s">
+      <c r="F83" s="29">
+        <v>45560.0</v>
+      </c>
+      <c r="G83" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="G83" s="31" t="s">
+      <c r="H83" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="H83" s="31" t="s">
+      <c r="I83" s="31" t="s">
         <v>290</v>
-      </c>
-      <c r="I83" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J83" s="31" t="s">
         <v>54</v>
@@ -10706,17 +10715,17 @@
       <c r="E84" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="F84" s="31" t="s">
+      <c r="F84" s="29">
+        <v>45561.0</v>
+      </c>
+      <c r="G84" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="G84" s="31" t="s">
+      <c r="H84" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="H84" s="31" t="s">
+      <c r="I84" s="31" t="s">
         <v>296</v>
-      </c>
-      <c r="I84" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J84" s="31" t="s">
         <v>54</v>
@@ -10767,17 +10776,17 @@
       <c r="E85" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="F85" s="31" t="s">
+      <c r="F85" s="29">
+        <v>45561.0</v>
+      </c>
+      <c r="G85" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="G85" s="31" t="s">
+      <c r="H85" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="H85" s="31" t="s">
+      <c r="I85" s="31" t="s">
         <v>302</v>
-      </c>
-      <c r="I85" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J85" s="31" t="s">
         <v>54</v>
@@ -10828,17 +10837,17 @@
       <c r="E86" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="F86" s="31" t="s">
+      <c r="F86" s="29">
+        <v>45561.0</v>
+      </c>
+      <c r="G86" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="G86" s="31" t="s">
+      <c r="H86" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="H86" s="31" t="s">
+      <c r="I86" s="31" t="s">
         <v>308</v>
-      </c>
-      <c r="I86" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J86" s="31" t="s">
         <v>54</v>
@@ -10889,17 +10898,17 @@
       <c r="E87" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="F87" s="31" t="s">
+      <c r="F87" s="29">
+        <v>45561.0</v>
+      </c>
+      <c r="G87" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="G87" s="31" t="s">
+      <c r="H87" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="H87" s="31" t="s">
+      <c r="I87" s="31" t="s">
         <v>314</v>
-      </c>
-      <c r="I87" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J87" s="31" t="s">
         <v>54</v>
@@ -10950,17 +10959,17 @@
       <c r="E88" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="F88" s="31" t="s">
+      <c r="F88" s="29">
+        <v>45561.0</v>
+      </c>
+      <c r="G88" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="G88" s="31" t="s">
+      <c r="H88" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="H88" s="31" t="s">
+      <c r="I88" s="31" t="s">
         <v>320</v>
-      </c>
-      <c r="I88" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J88" s="31" t="s">
         <v>54</v>
@@ -11011,17 +11020,17 @@
       <c r="E89" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="F89" s="31" t="s">
+      <c r="F89" s="29">
+        <v>45561.0</v>
+      </c>
+      <c r="G89" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G89" s="31" t="s">
+      <c r="H89" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="H89" s="31" t="s">
+      <c r="I89" s="31" t="s">
         <v>326</v>
-      </c>
-      <c r="I89" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J89" s="31" t="s">
         <v>54</v>
@@ -11072,17 +11081,17 @@
       <c r="E90" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="F90" s="31" t="s">
+      <c r="F90" s="29">
+        <v>45672.0</v>
+      </c>
+      <c r="G90" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="G90" s="31" t="s">
+      <c r="H90" s="37" t="s">
         <v>331</v>
       </c>
-      <c r="H90" s="31" t="s">
+      <c r="I90" s="37" t="s">
         <v>332</v>
-      </c>
-      <c r="I90" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J90" s="31" t="s">
         <v>54</v>
@@ -11095,7 +11104,7 @@
       <c r="N90" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="O90" s="31" t="s">
+      <c r="O90" s="37" t="s">
         <v>333</v>
       </c>
       <c r="P90" s="31" t="s">
@@ -11133,17 +11142,17 @@
       <c r="E91" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="F91" s="31" t="s">
+      <c r="F91" s="29">
+        <v>45562.0</v>
+      </c>
+      <c r="G91" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="G91" s="31" t="s">
+      <c r="H91" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="H91" s="31" t="s">
+      <c r="I91" s="31" t="s">
         <v>338</v>
-      </c>
-      <c r="I91" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J91" s="31" t="s">
         <v>54</v>
@@ -11194,17 +11203,17 @@
       <c r="E92" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="F92" s="31" t="s">
+      <c r="F92" s="29">
+        <v>45562.0</v>
+      </c>
+      <c r="G92" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G92" s="31" t="s">
+      <c r="H92" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="H92" s="31" t="s">
+      <c r="I92" s="31" t="s">
         <v>344</v>
-      </c>
-      <c r="I92" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J92" s="31" t="s">
         <v>54</v>
@@ -11255,17 +11264,17 @@
       <c r="E93" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="F93" s="31" t="s">
+      <c r="F93" s="29">
+        <v>45562.0</v>
+      </c>
+      <c r="G93" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="G93" s="31" t="s">
+      <c r="H93" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="H93" s="31" t="s">
+      <c r="I93" s="31" t="s">
         <v>350</v>
-      </c>
-      <c r="I93" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J93" s="31" t="s">
         <v>54</v>
@@ -11316,17 +11325,17 @@
       <c r="E94" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="F94" s="31" t="s">
+      <c r="F94" s="29">
+        <v>45562.0</v>
+      </c>
+      <c r="G94" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="G94" s="31" t="s">
+      <c r="H94" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="H94" s="31" t="s">
+      <c r="I94" s="31" t="s">
         <v>356</v>
-      </c>
-      <c r="I94" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J94" s="31" t="s">
         <v>54</v>
@@ -11374,20 +11383,20 @@
       <c r="D95" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="E95" s="37" t="s">
+      <c r="E95" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="F95" s="31" t="s">
+      <c r="F95" s="29">
+        <v>45562.0</v>
+      </c>
+      <c r="G95" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="G95" s="31" t="s">
+      <c r="H95" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="H95" s="31" t="s">
+      <c r="I95" s="31" t="s">
         <v>362</v>
-      </c>
-      <c r="I95" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J95" s="31" t="s">
         <v>54</v>
@@ -11438,17 +11447,17 @@
       <c r="E96" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="F96" s="31" t="s">
+      <c r="F96" s="29">
+        <v>45562.0</v>
+      </c>
+      <c r="G96" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="G96" s="31" t="s">
+      <c r="H96" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="H96" s="31" t="s">
+      <c r="I96" s="31" t="s">
         <v>368</v>
-      </c>
-      <c r="I96" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="J96" s="31" t="s">
         <v>54</v>
@@ -13460,16 +13469,16 @@
       <c r="E150" s="28" t="s">
         <v>477</v>
       </c>
-      <c r="F150" s="29">
-        <v>45610.0</v>
-      </c>
-      <c r="G150" s="31" t="s">
+      <c r="F150" s="39">
+        <v>45671.0</v>
+      </c>
+      <c r="G150" s="37" t="s">
         <v>478</v>
       </c>
-      <c r="H150" s="31" t="s">
+      <c r="H150" s="37" t="s">
         <v>479</v>
       </c>
-      <c r="I150" s="31" t="s">
+      <c r="I150" s="37" t="s">
         <v>480</v>
       </c>
       <c r="J150" s="31" t="s">
@@ -13509,16 +13518,16 @@
       <c r="E151" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="F151" s="29">
-        <v>45622.0</v>
-      </c>
-      <c r="G151" s="31" t="s">
+      <c r="F151" s="39">
+        <v>45674.0</v>
+      </c>
+      <c r="G151" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="H151" s="31" t="s">
+      <c r="H151" s="37" t="s">
         <v>484</v>
       </c>
-      <c r="I151" s="31" t="s">
+      <c r="I151" s="37" t="s">
         <v>485</v>
       </c>
       <c r="J151" s="31" t="s">
@@ -13558,16 +13567,16 @@
       <c r="E152" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="F152" s="29">
-        <v>45622.0</v>
-      </c>
-      <c r="G152" s="31" t="s">
+      <c r="F152" s="39">
+        <v>45674.0</v>
+      </c>
+      <c r="G152" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="H152" s="31" t="s">
+      <c r="H152" s="37" t="s">
         <v>489</v>
       </c>
-      <c r="I152" s="31" t="s">
+      <c r="I152" s="37" t="s">
         <v>490</v>
       </c>
       <c r="J152" s="31" t="s">
@@ -13607,16 +13616,16 @@
       <c r="E153" s="28" t="s">
         <v>492</v>
       </c>
-      <c r="F153" s="29">
-        <v>45622.0</v>
-      </c>
-      <c r="G153" s="31" t="s">
+      <c r="F153" s="39">
+        <v>45674.0</v>
+      </c>
+      <c r="G153" s="37" t="s">
         <v>493</v>
       </c>
-      <c r="H153" s="31" t="s">
+      <c r="H153" s="37" t="s">
         <v>494</v>
       </c>
-      <c r="I153" s="31" t="s">
+      <c r="I153" s="37" t="s">
         <v>495</v>
       </c>
       <c r="J153" s="31" t="s">
@@ -15441,20 +15450,20 @@
       <c r="D190" s="27" t="s">
         <v>641</v>
       </c>
-      <c r="E190" s="38" t="s">
+      <c r="E190" s="40" t="s">
         <v>642</v>
       </c>
       <c r="F190" s="35"/>
       <c r="G190" s="32"/>
       <c r="H190" s="32"/>
       <c r="I190" s="32"/>
-      <c r="J190" s="39" t="s">
+      <c r="J190" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="K190" s="39" t="s">
+      <c r="K190" s="41" t="s">
         <v>643</v>
       </c>
-      <c r="L190" s="39" t="s">
+      <c r="L190" s="41" t="s">
         <v>644</v>
       </c>
       <c r="M190" s="32"/>
@@ -15664,7 +15673,7 @@
       <c r="T195" s="32"/>
       <c r="U195" s="32"/>
       <c r="V195" s="33"/>
-      <c r="W195" s="40" t="s">
+      <c r="W195" s="42" t="s">
         <v>56</v>
       </c>
     </row>
@@ -15713,98 +15722,98 @@
       </c>
       <c r="U196" s="32"/>
       <c r="V196" s="33"/>
-      <c r="W196" s="41" t="s">
+      <c r="W196" s="43" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="197" ht="21.0" customHeight="1">
-      <c r="A197" s="42">
+      <c r="A197" s="44">
         <v>376.0</v>
       </c>
-      <c r="B197" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C197" s="43" t="s">
+      <c r="B197" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C197" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D197" s="43" t="s">
+      <c r="D197" s="45" t="s">
         <v>663</v>
       </c>
-      <c r="E197" s="44" t="s">
+      <c r="E197" s="46" t="s">
         <v>664</v>
       </c>
-      <c r="F197" s="45"/>
-      <c r="G197" s="46"/>
-      <c r="H197" s="46"/>
-      <c r="I197" s="46"/>
-      <c r="J197" s="47" t="s">
+      <c r="F197" s="47"/>
+      <c r="G197" s="48"/>
+      <c r="H197" s="48"/>
+      <c r="I197" s="48"/>
+      <c r="J197" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="K197" s="39" t="s">
+      <c r="K197" s="41" t="s">
         <v>643</v>
       </c>
-      <c r="L197" s="39" t="s">
+      <c r="L197" s="41" t="s">
         <v>644</v>
       </c>
-      <c r="M197" s="46"/>
-      <c r="N197" s="46"/>
-      <c r="O197" s="46"/>
-      <c r="P197" s="46"/>
-      <c r="Q197" s="46"/>
-      <c r="R197" s="46"/>
-      <c r="S197" s="46"/>
-      <c r="T197" s="46"/>
-      <c r="U197" s="46"/>
-      <c r="V197" s="48"/>
-      <c r="W197" s="49" t="s">
+      <c r="M197" s="48"/>
+      <c r="N197" s="48"/>
+      <c r="O197" s="48"/>
+      <c r="P197" s="48"/>
+      <c r="Q197" s="48"/>
+      <c r="R197" s="48"/>
+      <c r="S197" s="48"/>
+      <c r="T197" s="48"/>
+      <c r="U197" s="48"/>
+      <c r="V197" s="50"/>
+      <c r="W197" s="51" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="198" ht="21.0" customHeight="1">
-      <c r="A198" s="50">
+      <c r="A198" s="52">
         <v>417.0</v>
       </c>
-      <c r="B198" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C198" s="51" t="s">
+      <c r="B198" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C198" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D198" s="27" t="s">
         <v>666</v>
       </c>
-      <c r="E198" s="52" t="s">
+      <c r="E198" s="54" t="s">
         <v>667</v>
       </c>
-      <c r="F198" s="53"/>
-      <c r="G198" s="54"/>
-      <c r="H198" s="54"/>
-      <c r="I198" s="54"/>
-      <c r="J198" s="54"/>
-      <c r="K198" s="54"/>
-      <c r="L198" s="54"/>
-      <c r="M198" s="54"/>
-      <c r="N198" s="54"/>
-      <c r="O198" s="54"/>
-      <c r="P198" s="54"/>
-      <c r="Q198" s="54"/>
-      <c r="R198" s="54"/>
-      <c r="S198" s="54"/>
-      <c r="T198" s="54"/>
-      <c r="U198" s="54"/>
-      <c r="V198" s="55"/>
+      <c r="F198" s="55"/>
+      <c r="G198" s="56"/>
+      <c r="H198" s="56"/>
+      <c r="I198" s="56"/>
+      <c r="J198" s="56"/>
+      <c r="K198" s="56"/>
+      <c r="L198" s="56"/>
+      <c r="M198" s="56"/>
+      <c r="N198" s="56"/>
+      <c r="O198" s="56"/>
+      <c r="P198" s="56"/>
+      <c r="Q198" s="56"/>
+      <c r="R198" s="56"/>
+      <c r="S198" s="56"/>
+      <c r="T198" s="56"/>
+      <c r="U198" s="56"/>
+      <c r="V198" s="57"/>
       <c r="W198" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="199" ht="21.0" customHeight="1">
-      <c r="A199" s="50">
+      <c r="A199" s="52">
         <v>418.0</v>
       </c>
-      <c r="B199" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C199" s="51" t="s">
+      <c r="B199" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C199" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D199" s="27" t="s">
@@ -15813,35 +15822,35 @@
       <c r="E199" s="28" t="s">
         <v>669</v>
       </c>
-      <c r="F199" s="53"/>
-      <c r="G199" s="54"/>
-      <c r="H199" s="54"/>
-      <c r="I199" s="54"/>
-      <c r="J199" s="54"/>
-      <c r="K199" s="54"/>
-      <c r="L199" s="54"/>
-      <c r="M199" s="54"/>
-      <c r="N199" s="54"/>
-      <c r="O199" s="54"/>
-      <c r="P199" s="54"/>
-      <c r="Q199" s="54"/>
-      <c r="R199" s="54"/>
-      <c r="S199" s="54"/>
-      <c r="T199" s="54"/>
-      <c r="U199" s="54"/>
-      <c r="V199" s="55"/>
+      <c r="F199" s="55"/>
+      <c r="G199" s="56"/>
+      <c r="H199" s="56"/>
+      <c r="I199" s="56"/>
+      <c r="J199" s="56"/>
+      <c r="K199" s="56"/>
+      <c r="L199" s="56"/>
+      <c r="M199" s="56"/>
+      <c r="N199" s="56"/>
+      <c r="O199" s="56"/>
+      <c r="P199" s="56"/>
+      <c r="Q199" s="56"/>
+      <c r="R199" s="56"/>
+      <c r="S199" s="56"/>
+      <c r="T199" s="56"/>
+      <c r="U199" s="56"/>
+      <c r="V199" s="57"/>
       <c r="W199" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="200" ht="21.0" customHeight="1">
-      <c r="A200" s="50">
+      <c r="A200" s="52">
         <v>419.0</v>
       </c>
-      <c r="B200" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C200" s="51" t="s">
+      <c r="B200" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C200" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D200" s="27" t="s">
@@ -15850,35 +15859,35 @@
       <c r="E200" s="28" t="s">
         <v>671</v>
       </c>
-      <c r="F200" s="53"/>
-      <c r="G200" s="54"/>
-      <c r="H200" s="54"/>
-      <c r="I200" s="54"/>
-      <c r="J200" s="54"/>
-      <c r="K200" s="54"/>
-      <c r="L200" s="54"/>
-      <c r="M200" s="54"/>
-      <c r="N200" s="54"/>
-      <c r="O200" s="54"/>
-      <c r="P200" s="54"/>
-      <c r="Q200" s="54"/>
-      <c r="R200" s="54"/>
-      <c r="S200" s="54"/>
-      <c r="T200" s="54"/>
-      <c r="U200" s="54"/>
-      <c r="V200" s="55"/>
+      <c r="F200" s="55"/>
+      <c r="G200" s="56"/>
+      <c r="H200" s="56"/>
+      <c r="I200" s="56"/>
+      <c r="J200" s="56"/>
+      <c r="K200" s="56"/>
+      <c r="L200" s="56"/>
+      <c r="M200" s="56"/>
+      <c r="N200" s="56"/>
+      <c r="O200" s="56"/>
+      <c r="P200" s="56"/>
+      <c r="Q200" s="56"/>
+      <c r="R200" s="56"/>
+      <c r="S200" s="56"/>
+      <c r="T200" s="56"/>
+      <c r="U200" s="56"/>
+      <c r="V200" s="57"/>
       <c r="W200" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="201" ht="21.0" customHeight="1">
-      <c r="A201" s="50">
+      <c r="A201" s="52">
         <v>423.0</v>
       </c>
-      <c r="B201" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C201" s="51" t="s">
+      <c r="B201" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C201" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D201" s="27" t="s">
@@ -15887,35 +15896,35 @@
       <c r="E201" s="36" t="s">
         <v>673</v>
       </c>
-      <c r="F201" s="53"/>
-      <c r="G201" s="54"/>
-      <c r="H201" s="54"/>
-      <c r="I201" s="54"/>
-      <c r="J201" s="54"/>
-      <c r="K201" s="54"/>
-      <c r="L201" s="54"/>
-      <c r="M201" s="54"/>
-      <c r="N201" s="54"/>
-      <c r="O201" s="54"/>
-      <c r="P201" s="54"/>
-      <c r="Q201" s="54"/>
-      <c r="R201" s="54"/>
-      <c r="S201" s="54"/>
-      <c r="T201" s="54"/>
-      <c r="U201" s="54"/>
-      <c r="V201" s="55"/>
+      <c r="F201" s="55"/>
+      <c r="G201" s="56"/>
+      <c r="H201" s="56"/>
+      <c r="I201" s="56"/>
+      <c r="J201" s="56"/>
+      <c r="K201" s="56"/>
+      <c r="L201" s="56"/>
+      <c r="M201" s="56"/>
+      <c r="N201" s="56"/>
+      <c r="O201" s="56"/>
+      <c r="P201" s="56"/>
+      <c r="Q201" s="56"/>
+      <c r="R201" s="56"/>
+      <c r="S201" s="56"/>
+      <c r="T201" s="56"/>
+      <c r="U201" s="56"/>
+      <c r="V201" s="57"/>
       <c r="W201" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="202" ht="21.0" customHeight="1">
-      <c r="A202" s="50">
+      <c r="A202" s="52">
         <v>424.0</v>
       </c>
-      <c r="B202" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C202" s="51" t="s">
+      <c r="B202" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C202" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D202" s="27" t="s">
@@ -15924,35 +15933,35 @@
       <c r="E202" s="36" t="s">
         <v>675</v>
       </c>
-      <c r="F202" s="53"/>
-      <c r="G202" s="54"/>
-      <c r="H202" s="54"/>
-      <c r="I202" s="54"/>
-      <c r="J202" s="54"/>
-      <c r="K202" s="54"/>
-      <c r="L202" s="54"/>
-      <c r="M202" s="54"/>
-      <c r="N202" s="54"/>
-      <c r="O202" s="54"/>
-      <c r="P202" s="54"/>
-      <c r="Q202" s="54"/>
-      <c r="R202" s="54"/>
-      <c r="S202" s="54"/>
-      <c r="T202" s="54"/>
-      <c r="U202" s="54"/>
-      <c r="V202" s="55"/>
+      <c r="F202" s="55"/>
+      <c r="G202" s="56"/>
+      <c r="H202" s="56"/>
+      <c r="I202" s="56"/>
+      <c r="J202" s="56"/>
+      <c r="K202" s="56"/>
+      <c r="L202" s="56"/>
+      <c r="M202" s="56"/>
+      <c r="N202" s="56"/>
+      <c r="O202" s="56"/>
+      <c r="P202" s="56"/>
+      <c r="Q202" s="56"/>
+      <c r="R202" s="56"/>
+      <c r="S202" s="56"/>
+      <c r="T202" s="56"/>
+      <c r="U202" s="56"/>
+      <c r="V202" s="57"/>
       <c r="W202" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="203" ht="21.0" customHeight="1">
-      <c r="A203" s="50">
+      <c r="A203" s="52">
         <v>425.0</v>
       </c>
-      <c r="B203" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C203" s="51" t="s">
+      <c r="B203" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C203" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D203" s="27" t="s">
@@ -15961,35 +15970,35 @@
       <c r="E203" s="28" t="s">
         <v>677</v>
       </c>
-      <c r="F203" s="53"/>
-      <c r="G203" s="54"/>
-      <c r="H203" s="54"/>
-      <c r="I203" s="54"/>
-      <c r="J203" s="54"/>
-      <c r="K203" s="54"/>
-      <c r="L203" s="54"/>
-      <c r="M203" s="54"/>
-      <c r="N203" s="54"/>
-      <c r="O203" s="54"/>
-      <c r="P203" s="54"/>
-      <c r="Q203" s="54"/>
-      <c r="R203" s="54"/>
-      <c r="S203" s="54"/>
-      <c r="T203" s="54"/>
-      <c r="U203" s="54"/>
-      <c r="V203" s="55"/>
+      <c r="F203" s="55"/>
+      <c r="G203" s="56"/>
+      <c r="H203" s="56"/>
+      <c r="I203" s="56"/>
+      <c r="J203" s="56"/>
+      <c r="K203" s="56"/>
+      <c r="L203" s="56"/>
+      <c r="M203" s="56"/>
+      <c r="N203" s="56"/>
+      <c r="O203" s="56"/>
+      <c r="P203" s="56"/>
+      <c r="Q203" s="56"/>
+      <c r="R203" s="56"/>
+      <c r="S203" s="56"/>
+      <c r="T203" s="56"/>
+      <c r="U203" s="56"/>
+      <c r="V203" s="57"/>
       <c r="W203" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="204" ht="21.0" customHeight="1">
-      <c r="A204" s="50">
+      <c r="A204" s="52">
         <v>426.0</v>
       </c>
-      <c r="B204" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C204" s="51" t="s">
+      <c r="B204" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C204" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D204" s="27" t="s">
@@ -15998,35 +16007,35 @@
       <c r="E204" s="28" t="s">
         <v>679</v>
       </c>
-      <c r="F204" s="53"/>
-      <c r="G204" s="54"/>
-      <c r="H204" s="54"/>
-      <c r="I204" s="54"/>
-      <c r="J204" s="54"/>
-      <c r="K204" s="54"/>
-      <c r="L204" s="54"/>
-      <c r="M204" s="54"/>
-      <c r="N204" s="54"/>
-      <c r="O204" s="54"/>
-      <c r="P204" s="54"/>
-      <c r="Q204" s="54"/>
-      <c r="R204" s="54"/>
-      <c r="S204" s="54"/>
-      <c r="T204" s="54"/>
-      <c r="U204" s="54"/>
-      <c r="V204" s="55"/>
+      <c r="F204" s="55"/>
+      <c r="G204" s="56"/>
+      <c r="H204" s="56"/>
+      <c r="I204" s="56"/>
+      <c r="J204" s="56"/>
+      <c r="K204" s="56"/>
+      <c r="L204" s="56"/>
+      <c r="M204" s="56"/>
+      <c r="N204" s="56"/>
+      <c r="O204" s="56"/>
+      <c r="P204" s="56"/>
+      <c r="Q204" s="56"/>
+      <c r="R204" s="56"/>
+      <c r="S204" s="56"/>
+      <c r="T204" s="56"/>
+      <c r="U204" s="56"/>
+      <c r="V204" s="57"/>
       <c r="W204" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="205" ht="21.0" customHeight="1">
-      <c r="A205" s="50">
+      <c r="A205" s="52">
         <v>427.0</v>
       </c>
-      <c r="B205" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C205" s="51" t="s">
+      <c r="B205" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C205" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D205" s="27" t="s">
@@ -16035,35 +16044,35 @@
       <c r="E205" s="28" t="s">
         <v>681</v>
       </c>
-      <c r="F205" s="53"/>
-      <c r="G205" s="54"/>
-      <c r="H205" s="54"/>
-      <c r="I205" s="54"/>
-      <c r="J205" s="54"/>
-      <c r="K205" s="54"/>
-      <c r="L205" s="54"/>
-      <c r="M205" s="54"/>
-      <c r="N205" s="54"/>
-      <c r="O205" s="54"/>
-      <c r="P205" s="54"/>
-      <c r="Q205" s="54"/>
-      <c r="R205" s="54"/>
-      <c r="S205" s="54"/>
-      <c r="T205" s="54"/>
-      <c r="U205" s="54"/>
-      <c r="V205" s="55"/>
+      <c r="F205" s="55"/>
+      <c r="G205" s="56"/>
+      <c r="H205" s="56"/>
+      <c r="I205" s="56"/>
+      <c r="J205" s="56"/>
+      <c r="K205" s="56"/>
+      <c r="L205" s="56"/>
+      <c r="M205" s="56"/>
+      <c r="N205" s="56"/>
+      <c r="O205" s="56"/>
+      <c r="P205" s="56"/>
+      <c r="Q205" s="56"/>
+      <c r="R205" s="56"/>
+      <c r="S205" s="56"/>
+      <c r="T205" s="56"/>
+      <c r="U205" s="56"/>
+      <c r="V205" s="57"/>
       <c r="W205" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="206" ht="21.0" customHeight="1">
-      <c r="A206" s="50">
+      <c r="A206" s="52">
         <v>428.0</v>
       </c>
-      <c r="B206" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C206" s="51" t="s">
+      <c r="B206" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C206" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D206" s="27" t="s">
@@ -16072,35 +16081,35 @@
       <c r="E206" s="28" t="s">
         <v>683</v>
       </c>
-      <c r="F206" s="53"/>
-      <c r="G206" s="54"/>
-      <c r="H206" s="54"/>
-      <c r="I206" s="54"/>
-      <c r="J206" s="54"/>
-      <c r="K206" s="54"/>
-      <c r="L206" s="54"/>
-      <c r="M206" s="54"/>
-      <c r="N206" s="54"/>
-      <c r="O206" s="54"/>
-      <c r="P206" s="54"/>
-      <c r="Q206" s="54"/>
-      <c r="R206" s="54"/>
-      <c r="S206" s="54"/>
-      <c r="T206" s="54"/>
-      <c r="U206" s="54"/>
-      <c r="V206" s="55"/>
+      <c r="F206" s="55"/>
+      <c r="G206" s="56"/>
+      <c r="H206" s="56"/>
+      <c r="I206" s="56"/>
+      <c r="J206" s="56"/>
+      <c r="K206" s="56"/>
+      <c r="L206" s="56"/>
+      <c r="M206" s="56"/>
+      <c r="N206" s="56"/>
+      <c r="O206" s="56"/>
+      <c r="P206" s="56"/>
+      <c r="Q206" s="56"/>
+      <c r="R206" s="56"/>
+      <c r="S206" s="56"/>
+      <c r="T206" s="56"/>
+      <c r="U206" s="56"/>
+      <c r="V206" s="57"/>
       <c r="W206" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="207" ht="21.0" customHeight="1">
-      <c r="A207" s="50">
+      <c r="A207" s="52">
         <v>429.0</v>
       </c>
-      <c r="B207" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C207" s="51" t="s">
+      <c r="B207" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C207" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D207" s="27" t="s">
@@ -16109,35 +16118,35 @@
       <c r="E207" s="28" t="s">
         <v>685</v>
       </c>
-      <c r="F207" s="53"/>
-      <c r="G207" s="54"/>
-      <c r="H207" s="54"/>
-      <c r="I207" s="54"/>
-      <c r="J207" s="54"/>
-      <c r="K207" s="54"/>
-      <c r="L207" s="54"/>
-      <c r="M207" s="54"/>
-      <c r="N207" s="54"/>
-      <c r="O207" s="54"/>
-      <c r="P207" s="54"/>
-      <c r="Q207" s="54"/>
-      <c r="R207" s="54"/>
-      <c r="S207" s="54"/>
-      <c r="T207" s="54"/>
-      <c r="U207" s="54"/>
-      <c r="V207" s="55"/>
+      <c r="F207" s="55"/>
+      <c r="G207" s="56"/>
+      <c r="H207" s="56"/>
+      <c r="I207" s="56"/>
+      <c r="J207" s="56"/>
+      <c r="K207" s="56"/>
+      <c r="L207" s="56"/>
+      <c r="M207" s="56"/>
+      <c r="N207" s="56"/>
+      <c r="O207" s="56"/>
+      <c r="P207" s="56"/>
+      <c r="Q207" s="56"/>
+      <c r="R207" s="56"/>
+      <c r="S207" s="56"/>
+      <c r="T207" s="56"/>
+      <c r="U207" s="56"/>
+      <c r="V207" s="57"/>
       <c r="W207" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="208" ht="21.0" customHeight="1">
-      <c r="A208" s="50">
+      <c r="A208" s="52">
         <v>430.0</v>
       </c>
-      <c r="B208" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C208" s="51" t="s">
+      <c r="B208" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C208" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D208" s="27" t="s">
@@ -16146,35 +16155,35 @@
       <c r="E208" s="28" t="s">
         <v>687</v>
       </c>
-      <c r="F208" s="53"/>
-      <c r="G208" s="54"/>
-      <c r="H208" s="54"/>
-      <c r="I208" s="54"/>
-      <c r="J208" s="54"/>
-      <c r="K208" s="54"/>
-      <c r="L208" s="54"/>
-      <c r="M208" s="54"/>
-      <c r="N208" s="54"/>
-      <c r="O208" s="54"/>
-      <c r="P208" s="54"/>
-      <c r="Q208" s="54"/>
-      <c r="R208" s="54"/>
-      <c r="S208" s="54"/>
-      <c r="T208" s="54"/>
-      <c r="U208" s="54"/>
-      <c r="V208" s="55"/>
+      <c r="F208" s="55"/>
+      <c r="G208" s="56"/>
+      <c r="H208" s="56"/>
+      <c r="I208" s="56"/>
+      <c r="J208" s="56"/>
+      <c r="K208" s="56"/>
+      <c r="L208" s="56"/>
+      <c r="M208" s="56"/>
+      <c r="N208" s="56"/>
+      <c r="O208" s="56"/>
+      <c r="P208" s="56"/>
+      <c r="Q208" s="56"/>
+      <c r="R208" s="56"/>
+      <c r="S208" s="56"/>
+      <c r="T208" s="56"/>
+      <c r="U208" s="56"/>
+      <c r="V208" s="57"/>
       <c r="W208" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="209" ht="21.0" customHeight="1">
-      <c r="A209" s="50">
+      <c r="A209" s="52">
         <v>431.0</v>
       </c>
-      <c r="B209" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C209" s="51" t="s">
+      <c r="B209" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C209" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D209" s="27" t="s">
@@ -16183,35 +16192,35 @@
       <c r="E209" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="F209" s="53"/>
-      <c r="G209" s="54"/>
-      <c r="H209" s="54"/>
-      <c r="I209" s="54"/>
-      <c r="J209" s="54"/>
-      <c r="K209" s="54"/>
-      <c r="L209" s="54"/>
-      <c r="M209" s="54"/>
-      <c r="N209" s="54"/>
-      <c r="O209" s="54"/>
-      <c r="P209" s="54"/>
-      <c r="Q209" s="54"/>
-      <c r="R209" s="54"/>
-      <c r="S209" s="54"/>
-      <c r="T209" s="54"/>
-      <c r="U209" s="54"/>
-      <c r="V209" s="55"/>
+      <c r="F209" s="55"/>
+      <c r="G209" s="56"/>
+      <c r="H209" s="56"/>
+      <c r="I209" s="56"/>
+      <c r="J209" s="56"/>
+      <c r="K209" s="56"/>
+      <c r="L209" s="56"/>
+      <c r="M209" s="56"/>
+      <c r="N209" s="56"/>
+      <c r="O209" s="56"/>
+      <c r="P209" s="56"/>
+      <c r="Q209" s="56"/>
+      <c r="R209" s="56"/>
+      <c r="S209" s="56"/>
+      <c r="T209" s="56"/>
+      <c r="U209" s="56"/>
+      <c r="V209" s="57"/>
       <c r="W209" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="210" ht="21.0" customHeight="1">
-      <c r="A210" s="50">
+      <c r="A210" s="52">
         <v>432.0</v>
       </c>
-      <c r="B210" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C210" s="51" t="s">
+      <c r="B210" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C210" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D210" s="27" t="s">
@@ -16220,35 +16229,35 @@
       <c r="E210" s="28" t="s">
         <v>691</v>
       </c>
-      <c r="F210" s="53"/>
-      <c r="G210" s="54"/>
-      <c r="H210" s="54"/>
-      <c r="I210" s="54"/>
-      <c r="J210" s="54"/>
-      <c r="K210" s="54"/>
-      <c r="L210" s="54"/>
-      <c r="M210" s="54"/>
-      <c r="N210" s="54"/>
-      <c r="O210" s="54"/>
-      <c r="P210" s="54"/>
-      <c r="Q210" s="54"/>
-      <c r="R210" s="54"/>
-      <c r="S210" s="54"/>
-      <c r="T210" s="54"/>
-      <c r="U210" s="54"/>
-      <c r="V210" s="55"/>
+      <c r="F210" s="55"/>
+      <c r="G210" s="56"/>
+      <c r="H210" s="56"/>
+      <c r="I210" s="56"/>
+      <c r="J210" s="56"/>
+      <c r="K210" s="56"/>
+      <c r="L210" s="56"/>
+      <c r="M210" s="56"/>
+      <c r="N210" s="56"/>
+      <c r="O210" s="56"/>
+      <c r="P210" s="56"/>
+      <c r="Q210" s="56"/>
+      <c r="R210" s="56"/>
+      <c r="S210" s="56"/>
+      <c r="T210" s="56"/>
+      <c r="U210" s="56"/>
+      <c r="V210" s="57"/>
       <c r="W210" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="211" ht="21.0" customHeight="1">
-      <c r="A211" s="50">
+      <c r="A211" s="52">
         <v>433.0</v>
       </c>
-      <c r="B211" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C211" s="51" t="s">
+      <c r="B211" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C211" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D211" s="27" t="s">
@@ -16257,35 +16266,35 @@
       <c r="E211" s="28" t="s">
         <v>693</v>
       </c>
-      <c r="F211" s="53"/>
-      <c r="G211" s="54"/>
-      <c r="H211" s="54"/>
-      <c r="I211" s="54"/>
-      <c r="J211" s="54"/>
-      <c r="K211" s="54"/>
-      <c r="L211" s="54"/>
-      <c r="M211" s="54"/>
-      <c r="N211" s="54"/>
-      <c r="O211" s="54"/>
-      <c r="P211" s="54"/>
-      <c r="Q211" s="54"/>
-      <c r="R211" s="54"/>
-      <c r="S211" s="54"/>
-      <c r="T211" s="54"/>
-      <c r="U211" s="54"/>
-      <c r="V211" s="55"/>
+      <c r="F211" s="55"/>
+      <c r="G211" s="56"/>
+      <c r="H211" s="56"/>
+      <c r="I211" s="56"/>
+      <c r="J211" s="56"/>
+      <c r="K211" s="56"/>
+      <c r="L211" s="56"/>
+      <c r="M211" s="56"/>
+      <c r="N211" s="56"/>
+      <c r="O211" s="56"/>
+      <c r="P211" s="56"/>
+      <c r="Q211" s="56"/>
+      <c r="R211" s="56"/>
+      <c r="S211" s="56"/>
+      <c r="T211" s="56"/>
+      <c r="U211" s="56"/>
+      <c r="V211" s="57"/>
       <c r="W211" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="212" ht="21.0" customHeight="1">
-      <c r="A212" s="50">
+      <c r="A212" s="52">
         <v>434.0</v>
       </c>
-      <c r="B212" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C212" s="51" t="s">
+      <c r="B212" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C212" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D212" s="27" t="s">
@@ -16294,35 +16303,35 @@
       <c r="E212" s="28" t="s">
         <v>695</v>
       </c>
-      <c r="F212" s="53"/>
-      <c r="G212" s="54"/>
-      <c r="H212" s="54"/>
-      <c r="I212" s="54"/>
-      <c r="J212" s="54"/>
-      <c r="K212" s="54"/>
-      <c r="L212" s="54"/>
-      <c r="M212" s="54"/>
-      <c r="N212" s="54"/>
-      <c r="O212" s="54"/>
-      <c r="P212" s="54"/>
-      <c r="Q212" s="54"/>
-      <c r="R212" s="54"/>
-      <c r="S212" s="54"/>
-      <c r="T212" s="54"/>
-      <c r="U212" s="54"/>
-      <c r="V212" s="55"/>
+      <c r="F212" s="55"/>
+      <c r="G212" s="56"/>
+      <c r="H212" s="56"/>
+      <c r="I212" s="56"/>
+      <c r="J212" s="56"/>
+      <c r="K212" s="56"/>
+      <c r="L212" s="56"/>
+      <c r="M212" s="56"/>
+      <c r="N212" s="56"/>
+      <c r="O212" s="56"/>
+      <c r="P212" s="56"/>
+      <c r="Q212" s="56"/>
+      <c r="R212" s="56"/>
+      <c r="S212" s="56"/>
+      <c r="T212" s="56"/>
+      <c r="U212" s="56"/>
+      <c r="V212" s="57"/>
       <c r="W212" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="213" ht="21.0" customHeight="1">
-      <c r="A213" s="50">
+      <c r="A213" s="52">
         <v>435.0</v>
       </c>
-      <c r="B213" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C213" s="51" t="s">
+      <c r="B213" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C213" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D213" s="27" t="s">
@@ -16331,35 +16340,35 @@
       <c r="E213" s="28" t="s">
         <v>697</v>
       </c>
-      <c r="F213" s="53"/>
-      <c r="G213" s="54"/>
-      <c r="H213" s="54"/>
-      <c r="I213" s="54"/>
-      <c r="J213" s="54"/>
-      <c r="K213" s="54"/>
-      <c r="L213" s="54"/>
-      <c r="M213" s="54"/>
-      <c r="N213" s="54"/>
-      <c r="O213" s="54"/>
-      <c r="P213" s="54"/>
-      <c r="Q213" s="54"/>
-      <c r="R213" s="54"/>
-      <c r="S213" s="54"/>
-      <c r="T213" s="54"/>
-      <c r="U213" s="54"/>
-      <c r="V213" s="55"/>
+      <c r="F213" s="55"/>
+      <c r="G213" s="56"/>
+      <c r="H213" s="56"/>
+      <c r="I213" s="56"/>
+      <c r="J213" s="56"/>
+      <c r="K213" s="56"/>
+      <c r="L213" s="56"/>
+      <c r="M213" s="56"/>
+      <c r="N213" s="56"/>
+      <c r="O213" s="56"/>
+      <c r="P213" s="56"/>
+      <c r="Q213" s="56"/>
+      <c r="R213" s="56"/>
+      <c r="S213" s="56"/>
+      <c r="T213" s="56"/>
+      <c r="U213" s="56"/>
+      <c r="V213" s="57"/>
       <c r="W213" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="214" ht="21.0" customHeight="1">
-      <c r="A214" s="50">
+      <c r="A214" s="52">
         <v>436.0</v>
       </c>
-      <c r="B214" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C214" s="51" t="s">
+      <c r="B214" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C214" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D214" s="27" t="s">
@@ -16368,35 +16377,35 @@
       <c r="E214" s="28" t="s">
         <v>699</v>
       </c>
-      <c r="F214" s="53"/>
-      <c r="G214" s="54"/>
-      <c r="H214" s="54"/>
-      <c r="I214" s="54"/>
-      <c r="J214" s="54"/>
-      <c r="K214" s="54"/>
-      <c r="L214" s="54"/>
-      <c r="M214" s="54"/>
-      <c r="N214" s="54"/>
-      <c r="O214" s="54"/>
-      <c r="P214" s="54"/>
-      <c r="Q214" s="54"/>
-      <c r="R214" s="54"/>
-      <c r="S214" s="54"/>
-      <c r="T214" s="54"/>
-      <c r="U214" s="54"/>
-      <c r="V214" s="55"/>
+      <c r="F214" s="55"/>
+      <c r="G214" s="56"/>
+      <c r="H214" s="56"/>
+      <c r="I214" s="56"/>
+      <c r="J214" s="56"/>
+      <c r="K214" s="56"/>
+      <c r="L214" s="56"/>
+      <c r="M214" s="56"/>
+      <c r="N214" s="56"/>
+      <c r="O214" s="56"/>
+      <c r="P214" s="56"/>
+      <c r="Q214" s="56"/>
+      <c r="R214" s="56"/>
+      <c r="S214" s="56"/>
+      <c r="T214" s="56"/>
+      <c r="U214" s="56"/>
+      <c r="V214" s="57"/>
       <c r="W214" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="215" ht="21.0" customHeight="1">
-      <c r="A215" s="50">
+      <c r="A215" s="52">
         <v>437.0</v>
       </c>
-      <c r="B215" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C215" s="51" t="s">
+      <c r="B215" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C215" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D215" s="27" t="s">
@@ -16405,35 +16414,35 @@
       <c r="E215" s="28" t="s">
         <v>701</v>
       </c>
-      <c r="F215" s="53"/>
-      <c r="G215" s="54"/>
-      <c r="H215" s="54"/>
-      <c r="I215" s="54"/>
-      <c r="J215" s="54"/>
-      <c r="K215" s="54"/>
-      <c r="L215" s="54"/>
-      <c r="M215" s="54"/>
-      <c r="N215" s="54"/>
-      <c r="O215" s="54"/>
-      <c r="P215" s="54"/>
-      <c r="Q215" s="54"/>
-      <c r="R215" s="54"/>
-      <c r="S215" s="54"/>
-      <c r="T215" s="54"/>
-      <c r="U215" s="54"/>
-      <c r="V215" s="55"/>
+      <c r="F215" s="55"/>
+      <c r="G215" s="56"/>
+      <c r="H215" s="56"/>
+      <c r="I215" s="56"/>
+      <c r="J215" s="56"/>
+      <c r="K215" s="56"/>
+      <c r="L215" s="56"/>
+      <c r="M215" s="56"/>
+      <c r="N215" s="56"/>
+      <c r="O215" s="56"/>
+      <c r="P215" s="56"/>
+      <c r="Q215" s="56"/>
+      <c r="R215" s="56"/>
+      <c r="S215" s="56"/>
+      <c r="T215" s="56"/>
+      <c r="U215" s="56"/>
+      <c r="V215" s="57"/>
       <c r="W215" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="216" ht="21.0" customHeight="1">
-      <c r="A216" s="50">
+      <c r="A216" s="52">
         <v>438.0</v>
       </c>
-      <c r="B216" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C216" s="51" t="s">
+      <c r="B216" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C216" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D216" s="27" t="s">
@@ -16442,35 +16451,35 @@
       <c r="E216" s="28" t="s">
         <v>703</v>
       </c>
-      <c r="F216" s="53"/>
-      <c r="G216" s="54"/>
-      <c r="H216" s="54"/>
-      <c r="I216" s="54"/>
-      <c r="J216" s="54"/>
-      <c r="K216" s="54"/>
-      <c r="L216" s="54"/>
-      <c r="M216" s="54"/>
-      <c r="N216" s="54"/>
-      <c r="O216" s="54"/>
-      <c r="P216" s="54"/>
-      <c r="Q216" s="54"/>
-      <c r="R216" s="54"/>
-      <c r="S216" s="54"/>
-      <c r="T216" s="54"/>
-      <c r="U216" s="54"/>
-      <c r="V216" s="55"/>
+      <c r="F216" s="55"/>
+      <c r="G216" s="56"/>
+      <c r="H216" s="56"/>
+      <c r="I216" s="56"/>
+      <c r="J216" s="56"/>
+      <c r="K216" s="56"/>
+      <c r="L216" s="56"/>
+      <c r="M216" s="56"/>
+      <c r="N216" s="56"/>
+      <c r="O216" s="56"/>
+      <c r="P216" s="56"/>
+      <c r="Q216" s="56"/>
+      <c r="R216" s="56"/>
+      <c r="S216" s="56"/>
+      <c r="T216" s="56"/>
+      <c r="U216" s="56"/>
+      <c r="V216" s="57"/>
       <c r="W216" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="217" ht="21.0" customHeight="1">
-      <c r="A217" s="50">
+      <c r="A217" s="52">
         <v>439.0</v>
       </c>
-      <c r="B217" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C217" s="51" t="s">
+      <c r="B217" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C217" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D217" s="27" t="s">
@@ -16479,35 +16488,35 @@
       <c r="E217" s="28" t="s">
         <v>705</v>
       </c>
-      <c r="F217" s="53"/>
-      <c r="G217" s="54"/>
-      <c r="H217" s="54"/>
-      <c r="I217" s="54"/>
-      <c r="J217" s="54"/>
-      <c r="K217" s="54"/>
-      <c r="L217" s="54"/>
-      <c r="M217" s="54"/>
-      <c r="N217" s="54"/>
-      <c r="O217" s="54"/>
-      <c r="P217" s="54"/>
-      <c r="Q217" s="54"/>
-      <c r="R217" s="54"/>
-      <c r="S217" s="54"/>
-      <c r="T217" s="54"/>
-      <c r="U217" s="54"/>
-      <c r="V217" s="55"/>
+      <c r="F217" s="55"/>
+      <c r="G217" s="56"/>
+      <c r="H217" s="56"/>
+      <c r="I217" s="56"/>
+      <c r="J217" s="56"/>
+      <c r="K217" s="56"/>
+      <c r="L217" s="56"/>
+      <c r="M217" s="56"/>
+      <c r="N217" s="56"/>
+      <c r="O217" s="56"/>
+      <c r="P217" s="56"/>
+      <c r="Q217" s="56"/>
+      <c r="R217" s="56"/>
+      <c r="S217" s="56"/>
+      <c r="T217" s="56"/>
+      <c r="U217" s="56"/>
+      <c r="V217" s="57"/>
       <c r="W217" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="218" ht="21.0" customHeight="1">
-      <c r="A218" s="50">
+      <c r="A218" s="52">
         <v>440.0</v>
       </c>
-      <c r="B218" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C218" s="51" t="s">
+      <c r="B218" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C218" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D218" s="27" t="s">
@@ -16516,35 +16525,35 @@
       <c r="E218" s="28" t="s">
         <v>707</v>
       </c>
-      <c r="F218" s="53"/>
-      <c r="G218" s="54"/>
-      <c r="H218" s="54"/>
-      <c r="I218" s="54"/>
-      <c r="J218" s="54"/>
-      <c r="K218" s="54"/>
-      <c r="L218" s="54"/>
-      <c r="M218" s="54"/>
-      <c r="N218" s="54"/>
-      <c r="O218" s="54"/>
-      <c r="P218" s="54"/>
-      <c r="Q218" s="54"/>
-      <c r="R218" s="54"/>
-      <c r="S218" s="54"/>
-      <c r="T218" s="54"/>
-      <c r="U218" s="54"/>
-      <c r="V218" s="55"/>
+      <c r="F218" s="55"/>
+      <c r="G218" s="56"/>
+      <c r="H218" s="56"/>
+      <c r="I218" s="56"/>
+      <c r="J218" s="56"/>
+      <c r="K218" s="56"/>
+      <c r="L218" s="56"/>
+      <c r="M218" s="56"/>
+      <c r="N218" s="56"/>
+      <c r="O218" s="56"/>
+      <c r="P218" s="56"/>
+      <c r="Q218" s="56"/>
+      <c r="R218" s="56"/>
+      <c r="S218" s="56"/>
+      <c r="T218" s="56"/>
+      <c r="U218" s="56"/>
+      <c r="V218" s="57"/>
       <c r="W218" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="219" ht="21.0" customHeight="1">
-      <c r="A219" s="50">
+      <c r="A219" s="52">
         <v>441.0</v>
       </c>
-      <c r="B219" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C219" s="51" t="s">
+      <c r="B219" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C219" s="53" t="s">
         <v>665</v>
       </c>
       <c r="D219" s="27" t="s">
@@ -16553,269 +16562,269 @@
       <c r="E219" s="28" t="s">
         <v>709</v>
       </c>
-      <c r="F219" s="53"/>
-      <c r="G219" s="54"/>
-      <c r="H219" s="54"/>
-      <c r="I219" s="54"/>
-      <c r="J219" s="54"/>
-      <c r="K219" s="54"/>
-      <c r="L219" s="54"/>
-      <c r="M219" s="54"/>
-      <c r="N219" s="54"/>
-      <c r="O219" s="54"/>
-      <c r="P219" s="54"/>
-      <c r="Q219" s="54"/>
-      <c r="R219" s="54"/>
-      <c r="S219" s="54"/>
-      <c r="T219" s="54"/>
-      <c r="U219" s="54"/>
-      <c r="V219" s="55"/>
+      <c r="F219" s="55"/>
+      <c r="G219" s="56"/>
+      <c r="H219" s="56"/>
+      <c r="I219" s="56"/>
+      <c r="J219" s="56"/>
+      <c r="K219" s="56"/>
+      <c r="L219" s="56"/>
+      <c r="M219" s="56"/>
+      <c r="N219" s="56"/>
+      <c r="O219" s="56"/>
+      <c r="P219" s="56"/>
+      <c r="Q219" s="56"/>
+      <c r="R219" s="56"/>
+      <c r="S219" s="56"/>
+      <c r="T219" s="56"/>
+      <c r="U219" s="56"/>
+      <c r="V219" s="57"/>
       <c r="W219" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="220" ht="21.0" customHeight="1">
-      <c r="A220" s="42">
+      <c r="A220" s="44">
         <v>442.0</v>
       </c>
-      <c r="B220" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C220" s="43" t="s">
+      <c r="B220" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C220" s="45" t="s">
         <v>665</v>
       </c>
-      <c r="D220" s="43" t="s">
+      <c r="D220" s="45" t="s">
         <v>710</v>
       </c>
-      <c r="E220" s="56" t="s">
+      <c r="E220" s="58" t="s">
         <v>711</v>
       </c>
-      <c r="F220" s="45"/>
-      <c r="G220" s="46"/>
-      <c r="H220" s="46"/>
-      <c r="I220" s="46"/>
-      <c r="J220" s="46"/>
-      <c r="K220" s="46"/>
-      <c r="L220" s="46"/>
-      <c r="M220" s="46"/>
-      <c r="N220" s="46"/>
-      <c r="O220" s="46"/>
-      <c r="P220" s="46"/>
-      <c r="Q220" s="46"/>
-      <c r="R220" s="46"/>
-      <c r="S220" s="46"/>
-      <c r="T220" s="46"/>
-      <c r="U220" s="46"/>
-      <c r="V220" s="57"/>
-      <c r="W220" s="41" t="s">
+      <c r="F220" s="47"/>
+      <c r="G220" s="48"/>
+      <c r="H220" s="48"/>
+      <c r="I220" s="48"/>
+      <c r="J220" s="48"/>
+      <c r="K220" s="48"/>
+      <c r="L220" s="48"/>
+      <c r="M220" s="48"/>
+      <c r="N220" s="48"/>
+      <c r="O220" s="48"/>
+      <c r="P220" s="48"/>
+      <c r="Q220" s="48"/>
+      <c r="R220" s="48"/>
+      <c r="S220" s="48"/>
+      <c r="T220" s="48"/>
+      <c r="U220" s="48"/>
+      <c r="V220" s="59"/>
+      <c r="W220" s="43" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="221" ht="21.0" customHeight="1">
-      <c r="A221" s="50">
+      <c r="A221" s="52">
         <v>443.0</v>
       </c>
-      <c r="B221" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C221" s="51" t="s">
+      <c r="B221" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C221" s="53" t="s">
         <v>665</v>
       </c>
-      <c r="D221" s="51" t="s">
+      <c r="D221" s="53" t="s">
         <v>712</v>
       </c>
-      <c r="E221" s="52" t="s">
+      <c r="E221" s="54" t="s">
         <v>713</v>
       </c>
-      <c r="F221" s="53"/>
-      <c r="G221" s="54"/>
-      <c r="H221" s="54"/>
-      <c r="I221" s="54"/>
-      <c r="J221" s="54"/>
-      <c r="K221" s="54"/>
-      <c r="L221" s="54"/>
-      <c r="M221" s="54"/>
-      <c r="N221" s="54"/>
-      <c r="O221" s="54"/>
-      <c r="P221" s="54"/>
-      <c r="Q221" s="54"/>
-      <c r="R221" s="54"/>
-      <c r="S221" s="54"/>
-      <c r="T221" s="54"/>
-      <c r="U221" s="54"/>
-      <c r="V221" s="55"/>
+      <c r="F221" s="55"/>
+      <c r="G221" s="56"/>
+      <c r="H221" s="56"/>
+      <c r="I221" s="56"/>
+      <c r="J221" s="56"/>
+      <c r="K221" s="56"/>
+      <c r="L221" s="56"/>
+      <c r="M221" s="56"/>
+      <c r="N221" s="56"/>
+      <c r="O221" s="56"/>
+      <c r="P221" s="56"/>
+      <c r="Q221" s="56"/>
+      <c r="R221" s="56"/>
+      <c r="S221" s="56"/>
+      <c r="T221" s="56"/>
+      <c r="U221" s="56"/>
+      <c r="V221" s="57"/>
       <c r="W221" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="222" ht="21.0" customHeight="1">
-      <c r="A222" s="50">
+      <c r="A222" s="52">
         <v>444.0</v>
       </c>
-      <c r="B222" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C222" s="51" t="s">
+      <c r="B222" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="D222" s="51" t="s">
+      <c r="D222" s="53" t="s">
         <v>714</v>
       </c>
-      <c r="E222" s="52" t="s">
+      <c r="E222" s="54" t="s">
         <v>715</v>
       </c>
-      <c r="F222" s="53"/>
-      <c r="G222" s="54"/>
-      <c r="H222" s="54"/>
-      <c r="I222" s="54"/>
-      <c r="J222" s="54"/>
-      <c r="K222" s="54"/>
-      <c r="L222" s="54"/>
-      <c r="M222" s="54"/>
-      <c r="N222" s="54"/>
-      <c r="O222" s="54"/>
-      <c r="P222" s="54"/>
-      <c r="Q222" s="54"/>
-      <c r="R222" s="54"/>
-      <c r="S222" s="54"/>
-      <c r="T222" s="54"/>
-      <c r="U222" s="54"/>
-      <c r="V222" s="55"/>
+      <c r="F222" s="55"/>
+      <c r="G222" s="56"/>
+      <c r="H222" s="56"/>
+      <c r="I222" s="56"/>
+      <c r="J222" s="56"/>
+      <c r="K222" s="56"/>
+      <c r="L222" s="56"/>
+      <c r="M222" s="56"/>
+      <c r="N222" s="56"/>
+      <c r="O222" s="56"/>
+      <c r="P222" s="56"/>
+      <c r="Q222" s="56"/>
+      <c r="R222" s="56"/>
+      <c r="S222" s="56"/>
+      <c r="T222" s="56"/>
+      <c r="U222" s="56"/>
+      <c r="V222" s="57"/>
       <c r="W222" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="223" ht="21.0" customHeight="1">
-      <c r="A223" s="50">
+      <c r="A223" s="52">
         <v>445.0</v>
       </c>
-      <c r="B223" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C223" s="51" t="s">
+      <c r="B223" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C223" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="D223" s="51" t="s">
+      <c r="D223" s="53" t="s">
         <v>716</v>
       </c>
-      <c r="E223" s="52" t="s">
+      <c r="E223" s="54" t="s">
         <v>717</v>
       </c>
-      <c r="F223" s="53"/>
-      <c r="G223" s="54"/>
-      <c r="H223" s="54"/>
-      <c r="I223" s="54"/>
-      <c r="J223" s="54"/>
-      <c r="K223" s="54"/>
-      <c r="L223" s="54"/>
-      <c r="M223" s="54"/>
-      <c r="N223" s="54"/>
-      <c r="O223" s="54"/>
-      <c r="P223" s="54"/>
-      <c r="Q223" s="54"/>
-      <c r="R223" s="54"/>
-      <c r="S223" s="54"/>
-      <c r="T223" s="54"/>
-      <c r="U223" s="54"/>
-      <c r="V223" s="55"/>
+      <c r="F223" s="55"/>
+      <c r="G223" s="56"/>
+      <c r="H223" s="56"/>
+      <c r="I223" s="56"/>
+      <c r="J223" s="56"/>
+      <c r="K223" s="56"/>
+      <c r="L223" s="56"/>
+      <c r="M223" s="56"/>
+      <c r="N223" s="56"/>
+      <c r="O223" s="56"/>
+      <c r="P223" s="56"/>
+      <c r="Q223" s="56"/>
+      <c r="R223" s="56"/>
+      <c r="S223" s="56"/>
+      <c r="T223" s="56"/>
+      <c r="U223" s="56"/>
+      <c r="V223" s="57"/>
       <c r="W223" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="224" ht="21.0" customHeight="1">
-      <c r="A224" s="42">
+      <c r="A224" s="44">
         <v>446.0</v>
       </c>
-      <c r="B224" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C224" s="43" t="s">
+      <c r="B224" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C224" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="D224" s="43" t="s">
+      <c r="D224" s="45" t="s">
         <v>718</v>
       </c>
-      <c r="E224" s="56" t="s">
+      <c r="E224" s="58" t="s">
         <v>719</v>
       </c>
-      <c r="F224" s="58">
-        <v>45556.0</v>
-      </c>
-      <c r="G224" s="59" t="s">
+      <c r="F224" s="60">
+        <v>45671.0</v>
+      </c>
+      <c r="G224" s="61" t="s">
         <v>720</v>
       </c>
-      <c r="H224" s="59" t="s">
+      <c r="H224" s="62" t="s">
         <v>721</v>
       </c>
-      <c r="I224" s="59" t="s">
+      <c r="I224" s="61" t="s">
         <v>722</v>
       </c>
-      <c r="J224" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="K224" s="46"/>
-      <c r="L224" s="46"/>
-      <c r="M224" s="46"/>
-      <c r="N224" s="46"/>
-      <c r="O224" s="46"/>
-      <c r="P224" s="46"/>
-      <c r="Q224" s="46"/>
-      <c r="R224" s="46"/>
-      <c r="S224" s="46"/>
-      <c r="T224" s="59" t="s">
+      <c r="J224" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="K224" s="48"/>
+      <c r="L224" s="48"/>
+      <c r="M224" s="48"/>
+      <c r="N224" s="48"/>
+      <c r="O224" s="48"/>
+      <c r="P224" s="48"/>
+      <c r="Q224" s="48"/>
+      <c r="R224" s="48"/>
+      <c r="S224" s="48"/>
+      <c r="T224" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="U224" s="46"/>
-      <c r="V224" s="57"/>
-      <c r="W224" s="41" t="s">
+      <c r="U224" s="48"/>
+      <c r="V224" s="59"/>
+      <c r="W224" s="43" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="225" ht="21.0" customHeight="1">
-      <c r="A225" s="50">
+      <c r="A225" s="52">
         <v>447.0</v>
       </c>
-      <c r="B225" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C225" s="51" t="s">
+      <c r="B225" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C225" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="D225" s="51" t="s">
+      <c r="D225" s="53" t="s">
         <v>723</v>
       </c>
-      <c r="E225" s="52" t="s">
+      <c r="E225" s="54" t="s">
         <v>724</v>
       </c>
-      <c r="F225" s="60">
-        <v>45558.0</v>
-      </c>
-      <c r="G225" s="61" t="s">
+      <c r="F225" s="63">
+        <v>45671.0</v>
+      </c>
+      <c r="G225" s="64" t="s">
         <v>725</v>
       </c>
-      <c r="H225" s="61" t="s">
+      <c r="H225" s="64" t="s">
         <v>726</v>
       </c>
-      <c r="I225" s="61" t="s">
+      <c r="I225" s="64" t="s">
         <v>727</v>
       </c>
-      <c r="J225" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="K225" s="54"/>
-      <c r="L225" s="54"/>
-      <c r="M225" s="54"/>
-      <c r="N225" s="54"/>
-      <c r="O225" s="54"/>
-      <c r="P225" s="54"/>
-      <c r="Q225" s="54"/>
-      <c r="R225" s="54"/>
-      <c r="S225" s="54"/>
-      <c r="T225" s="61" t="s">
+      <c r="J225" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="K225" s="56"/>
+      <c r="L225" s="56"/>
+      <c r="M225" s="56"/>
+      <c r="N225" s="56"/>
+      <c r="O225" s="56"/>
+      <c r="P225" s="56"/>
+      <c r="Q225" s="56"/>
+      <c r="R225" s="56"/>
+      <c r="S225" s="56"/>
+      <c r="T225" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="U225" s="54"/>
-      <c r="V225" s="55"/>
+      <c r="U225" s="56"/>
+      <c r="V225" s="57"/>
       <c r="W225" s="34" t="s">
         <v>56</v>
       </c>
@@ -17628,37 +17637,37 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>728</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="66" t="s">
         <v>729</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="66" t="s">
         <v>730</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="67" t="s">
         <v>731</v>
       </c>
-      <c r="G1" s="64">
+      <c r="G1" s="68">
         <v>0.3347337962962963</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="69" t="s">
         <v>732</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="70" t="s">
         <v>733</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="70" t="s">
         <v>734</v>
       </c>
       <c r="E2" s="4"/>
@@ -17666,16 +17675,16 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="69" t="s">
         <v>732</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="70" t="s">
         <v>735</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="70" t="s">
         <v>736</v>
       </c>
       <c r="E3" s="4"/>
@@ -17683,16 +17692,16 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="69" t="s">
         <v>732</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="70">
         <v>446.447</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="70" t="s">
         <v>737</v>
       </c>
       <c r="E4" s="4"/>
@@ -17700,16 +17709,16 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="69" t="s">
         <v>732</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="70" t="s">
         <v>738</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="70" t="s">
         <v>739</v>
       </c>
       <c r="E5" s="4"/>
@@ -17717,16 +17726,16 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="69" t="s">
         <v>732</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="70" t="s">
         <v>740</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="70" t="s">
         <v>741</v>
       </c>
       <c r="E6" s="4"/>
@@ -17734,16 +17743,16 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="69" t="s">
         <v>732</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="70" t="s">
         <v>742</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="70" t="s">
         <v>743</v>
       </c>
       <c r="E7" s="4"/>
@@ -17751,16 +17760,16 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="69" t="s">
         <v>732</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="70" t="s">
         <v>744</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="70" t="s">
         <v>745</v>
       </c>
       <c r="E8" s="4"/>
@@ -17768,16 +17777,16 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="69" t="s">
         <v>732</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="70" t="s">
         <v>746</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="70" t="s">
         <v>747</v>
       </c>
       <c r="E9" s="4"/>
@@ -17785,16 +17794,16 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="69" t="s">
         <v>748</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="69" t="s">
         <v>732</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="70" t="s">
         <v>749</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="70" t="s">
         <v>750</v>
       </c>
       <c r="E10" s="4"/>
@@ -17802,16 +17811,16 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="69" t="s">
         <v>665</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="69" t="s">
         <v>732</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="70" t="s">
         <v>751</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="70" t="s">
         <v>752</v>
       </c>
       <c r="E11" s="4"/>

--- a/GATEWAY/A1#111INFORDATADHS/INFORDATA_DIGITAL_HEALTH_SOLUTIONS/Astrolabio/11.252.694/report_checklist.xlsx
+++ b/GATEWAY/A1#111INFORDATADHS/INFORDATA_DIGITAL_HEALTH_SOLUTIONS/Astrolabio/11.252.694/report_checklist.xlsx
@@ -2329,13 +2329,13 @@
 </t>
   </si>
   <si>
-    <t>14 Jan 2025 13:32:56 GMT</t>
-  </si>
-  <si>
-    <t>5b1645c927984504</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.0257fe876386a84cd41789e91d8da41a841537d379f94c6b8cdaf46928b8bb10.7b94f4de7b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>28 Jan 2025 11:05:01 GMT</t>
+  </si>
+  <si>
+    <t>c0d6a260d77ae046</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.1d42b4c7b2915ca88c698fbeda52119318391dc8bfb871d827f68794a5a922cc.c4ef2e5b38^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT2</t>
@@ -2346,13 +2346,13 @@
 </t>
   </si>
   <si>
-    <t>17 Jan 2025 09:24:25 GMT</t>
-  </si>
-  <si>
-    <t>a564f3c3767df234</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.c33ccbe1805eebea440726b9761abb08bf2f8c41c5ef7c7991a0d23d2e6c4597.9489b9b053^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>28 Jan 2025 11:14:27 GMT</t>
+  </si>
+  <si>
+    <t>b67535f004b8863f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.4db7281409a261000bff82b94f9af4c71012029c57b8e562a25254d7c136d90e.a5bb02d496^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT3</t>
@@ -2363,13 +2363,13 @@
 </t>
   </si>
   <si>
-    <t>17 Jan 2025 10:08:22 GMT</t>
-  </si>
-  <si>
-    <t>2fe381cfa520d447</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.5f2d477b31bc8662f1e88c9e89aefefe214d818b0b14a38613db51dd71e63bde.71975a1dd0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>28 Jan 2025 11:29:38 GMT</t>
+  </si>
+  <si>
+    <t>4746037643b91b20</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.cecea5c2ef2f1fe6475663d2f8a7f1244ef781089aa29e95dd26d1f19d4f32e7.41cf0e5096^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT4</t>
@@ -2380,13 +2380,13 @@
 </t>
   </si>
   <si>
-    <t>17 Jan 2025 09:51:35 GMT</t>
-  </si>
-  <si>
-    <t>74c48d7d249838f2"</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.5d5a7730df49ef5a77dfab6562fc69057b51748969bb43df6a1a5cf5e7fc0f16.8152021f80^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>28 Jan 2025 11:33:27 GMT</t>
+  </si>
+  <si>
+    <t>e75fbe78777722b1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.c63e7d3fab0d0c0093cb000c524e47b1e4a02a50e8ae23883db858745c6bbca7.c0f1d4caae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT5_KO</t>
@@ -3167,13 +3167,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>14 Jan 2025 13:23:27 GMT</t>
-  </si>
-  <si>
-    <t>bc973ababc5fbfe2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.3da83a40479d26ed11aa381d5654d5d2263095b29c52ca205d4fef94fb992f5f.6f6a85e67f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>28 Jan 2025 11:38:49 GMT</t>
+  </si>
+  <si>
+    <t>9b6101d6ecee6950</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.6fce0f8dc0bc2bc54debb9b37fb719c85201e23cdd230de3e71b613cabb7c1ba.2a8a716fa0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT2</t>
@@ -3183,13 +3183,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>14 Jan 2025 12:00:28 GMT</t>
-  </si>
-  <si>
-    <t>b3ac3c3ea5f09e5c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8aae9fdd006e8961ed4f6b988835ab4314e42e57c66acce8fe39925a0ed57f13.587f5886df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>28 Jan 2025 11:45:12 GMT</t>
+  </si>
+  <si>
+    <t>05817e86ca9ee7fe</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.21398def2f954c025bcc097fe145b039bf7741e26da21d24dcb18b26af76e891.87c6b1e3c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAP_CT24</t>
@@ -3875,7 +3875,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3988,6 +3988,9 @@
     <xf borderId="20" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="22" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -3996,6 +3999,9 @@
     </xf>
     <xf borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -4073,19 +4079,19 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="34" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="35" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="35" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="36" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="37" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="37" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -7698,7 +7704,7 @@
       <c r="G31" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="44" t="s">
         <v>116</v>
       </c>
       <c r="I31" s="41" t="s">
@@ -7727,7 +7733,7 @@
       <c r="R31" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="S31" s="44" t="s">
+      <c r="S31" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T31" s="37"/>
@@ -7839,30 +7845,30 @@
       <c r="I34" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="J34" s="45" t="s">
+      <c r="J34" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
-      <c r="M34" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N34" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O34" s="45" t="s">
+      <c r="M34" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N34" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O34" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="P34" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q34" s="45" t="s">
+      <c r="P34" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q34" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R34" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S34" s="44" t="s">
+      <c r="R34" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S34" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T34" s="37"/>
@@ -7900,30 +7906,30 @@
       <c r="I35" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="45" t="s">
+      <c r="J35" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
-      <c r="M35" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N35" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O35" s="45" t="s">
+      <c r="M35" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N35" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O35" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="P35" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q35" s="45" t="s">
+      <c r="P35" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q35" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R35" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S35" s="44" t="s">
+      <c r="R35" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S35" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T35" s="37"/>
@@ -8066,36 +8072,36 @@
       <c r="G39" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="H39" s="41" t="s">
+      <c r="H39" s="44" t="s">
         <v>148</v>
       </c>
       <c r="I39" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="J39" s="45" t="s">
+      <c r="J39" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
-      <c r="M39" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N39" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O39" s="45" t="s">
+      <c r="M39" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N39" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O39" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="P39" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q39" s="45" t="s">
+      <c r="P39" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q39" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R39" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S39" s="44" t="s">
+      <c r="R39" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S39" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T39" s="37"/>
@@ -8201,36 +8207,36 @@
       <c r="G42" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="H42" s="41" t="s">
+      <c r="H42" s="44" t="s">
         <v>157</v>
       </c>
       <c r="I42" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="J42" s="45" t="s">
+      <c r="J42" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K42" s="37"/>
       <c r="L42" s="37"/>
-      <c r="M42" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N42" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O42" s="45" t="s">
+      <c r="M42" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N42" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O42" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="P42" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q42" s="45" t="s">
+      <c r="P42" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q42" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R42" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S42" s="44" t="s">
+      <c r="R42" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S42" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T42" s="37"/>
@@ -8262,36 +8268,36 @@
       <c r="G43" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="44" t="s">
         <v>162</v>
       </c>
       <c r="I43" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="J43" s="45" t="s">
+      <c r="J43" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K43" s="37"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N43" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O43" s="45" t="s">
+      <c r="M43" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N43" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O43" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="P43" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q43" s="45" t="s">
+      <c r="P43" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q43" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R43" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S43" s="44" t="s">
+      <c r="R43" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S43" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T43" s="37"/>
@@ -8437,25 +8443,25 @@
       </c>
       <c r="K47" s="37"/>
       <c r="L47" s="37"/>
-      <c r="M47" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N47" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O47" s="45" t="s">
+      <c r="M47" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N47" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O47" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="P47" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q47" s="45" t="s">
+      <c r="P47" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q47" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R47" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S47" s="45" t="s">
+      <c r="R47" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S47" s="46" t="s">
         <v>173</v>
       </c>
       <c r="T47" s="37"/>
@@ -8570,25 +8576,25 @@
       </c>
       <c r="K50" s="37"/>
       <c r="L50" s="37"/>
-      <c r="M50" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N50" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O50" s="45" t="s">
+      <c r="M50" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N50" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O50" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="P50" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q50" s="45" t="s">
+      <c r="P50" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q50" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R50" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S50" s="45" t="s">
+      <c r="R50" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S50" s="46" t="s">
         <v>173</v>
       </c>
       <c r="T50" s="37"/>
@@ -8625,25 +8631,25 @@
       </c>
       <c r="K51" s="37"/>
       <c r="L51" s="37"/>
-      <c r="M51" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N51" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O51" s="45" t="s">
+      <c r="M51" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N51" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O51" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="P51" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q51" s="45" t="s">
+      <c r="P51" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q51" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R51" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S51" s="45" t="s">
+      <c r="R51" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S51" s="46" t="s">
         <v>173</v>
       </c>
       <c r="T51" s="37"/>
@@ -8800,30 +8806,30 @@
       <c r="I55" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="J55" s="45" t="s">
+      <c r="J55" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K55" s="37"/>
       <c r="L55" s="37"/>
-      <c r="M55" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N55" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O55" s="45" t="s">
+      <c r="M55" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N55" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O55" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="P55" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q55" s="45" t="s">
+      <c r="P55" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q55" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R55" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S55" s="44" t="s">
+      <c r="R55" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S55" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T55" s="37"/>
@@ -8861,30 +8867,30 @@
       <c r="I56" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="J56" s="45" t="s">
+      <c r="J56" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K56" s="37"/>
       <c r="L56" s="37"/>
-      <c r="M56" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N56" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O56" s="45" t="s">
+      <c r="M56" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N56" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O56" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="P56" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q56" s="45" t="s">
+      <c r="P56" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q56" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R56" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S56" s="44" t="s">
+      <c r="R56" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S56" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T56" s="37"/>
@@ -8922,30 +8928,30 @@
       <c r="I57" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="J57" s="45" t="s">
+      <c r="J57" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K57" s="37"/>
       <c r="L57" s="37"/>
-      <c r="M57" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N57" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O57" s="45" t="s">
+      <c r="M57" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N57" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O57" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="P57" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q57" s="45" t="s">
+      <c r="P57" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q57" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R57" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S57" s="44" t="s">
+      <c r="R57" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S57" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T57" s="37"/>
@@ -8983,30 +8989,30 @@
       <c r="I58" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="J58" s="45" t="s">
+      <c r="J58" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K58" s="37"/>
       <c r="L58" s="37"/>
-      <c r="M58" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N58" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O58" s="45" t="s">
+      <c r="M58" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N58" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O58" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="P58" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q58" s="45" t="s">
+      <c r="P58" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q58" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R58" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S58" s="44" t="s">
+      <c r="R58" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S58" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T58" s="37"/>
@@ -9044,30 +9050,30 @@
       <c r="I59" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="J59" s="45" t="s">
+      <c r="J59" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K59" s="37"/>
       <c r="L59" s="37"/>
-      <c r="M59" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N59" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O59" s="45" t="s">
+      <c r="M59" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N59" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O59" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="P59" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q59" s="45" t="s">
+      <c r="P59" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q59" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R59" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S59" s="44" t="s">
+      <c r="R59" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S59" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T59" s="37"/>
@@ -9105,30 +9111,30 @@
       <c r="I60" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="J60" s="45" t="s">
+      <c r="J60" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K60" s="37"/>
       <c r="L60" s="37"/>
-      <c r="M60" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N60" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O60" s="45" t="s">
+      <c r="M60" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N60" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O60" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="P60" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q60" s="45" t="s">
+      <c r="P60" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q60" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R60" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S60" s="44" t="s">
+      <c r="R60" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S60" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T60" s="37"/>
@@ -9166,30 +9172,30 @@
       <c r="I61" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="J61" s="45" t="s">
+      <c r="J61" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K61" s="37"/>
       <c r="L61" s="37"/>
-      <c r="M61" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N61" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O61" s="45" t="s">
+      <c r="M61" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N61" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O61" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="P61" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q61" s="45" t="s">
+      <c r="P61" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q61" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R61" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S61" s="44" t="s">
+      <c r="R61" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S61" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T61" s="37"/>
@@ -9227,30 +9233,30 @@
       <c r="I62" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="J62" s="45" t="s">
+      <c r="J62" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K62" s="37"/>
       <c r="L62" s="37"/>
-      <c r="M62" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N62" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O62" s="45" t="s">
+      <c r="M62" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N62" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O62" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="P62" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q62" s="45" t="s">
+      <c r="P62" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q62" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R62" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S62" s="44" t="s">
+      <c r="R62" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S62" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T62" s="37"/>
@@ -9288,30 +9294,30 @@
       <c r="I63" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="J63" s="45" t="s">
+      <c r="J63" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K63" s="37"/>
       <c r="L63" s="37"/>
-      <c r="M63" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N63" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O63" s="45" t="s">
+      <c r="M63" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N63" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O63" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="P63" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q63" s="45" t="s">
+      <c r="P63" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q63" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R63" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S63" s="44" t="s">
+      <c r="R63" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S63" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T63" s="37"/>
@@ -9349,30 +9355,30 @@
       <c r="I64" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="J64" s="45" t="s">
+      <c r="J64" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K64" s="37"/>
       <c r="L64" s="37"/>
-      <c r="M64" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N64" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O64" s="45" t="s">
+      <c r="M64" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N64" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O64" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="P64" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q64" s="45" t="s">
+      <c r="P64" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q64" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R64" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S64" s="44" t="s">
+      <c r="R64" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S64" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T64" s="37"/>
@@ -9410,30 +9416,30 @@
       <c r="I65" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="J65" s="45" t="s">
+      <c r="J65" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K65" s="37"/>
       <c r="L65" s="37"/>
-      <c r="M65" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N65" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O65" s="45" t="s">
+      <c r="M65" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N65" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O65" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="P65" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q65" s="45" t="s">
+      <c r="P65" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q65" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R65" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S65" s="44" t="s">
+      <c r="R65" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S65" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T65" s="37"/>
@@ -9915,30 +9921,30 @@
       <c r="I78" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="J78" s="45" t="s">
+      <c r="J78" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K78" s="37"/>
       <c r="L78" s="37"/>
-      <c r="M78" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N78" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O78" s="45" t="s">
+      <c r="M78" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N78" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O78" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="P78" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q78" s="45" t="s">
+      <c r="P78" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q78" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R78" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S78" s="44" t="s">
+      <c r="R78" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S78" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T78" s="37"/>
@@ -9976,30 +9982,30 @@
       <c r="I79" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="J79" s="45" t="s">
+      <c r="J79" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K79" s="37"/>
       <c r="L79" s="37"/>
-      <c r="M79" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N79" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O79" s="45" t="s">
+      <c r="M79" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N79" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O79" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="P79" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q79" s="45" t="s">
+      <c r="P79" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q79" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R79" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S79" s="44" t="s">
+      <c r="R79" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S79" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T79" s="37"/>
@@ -10037,30 +10043,30 @@
       <c r="I80" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="J80" s="45" t="s">
+      <c r="J80" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K80" s="37"/>
       <c r="L80" s="37"/>
-      <c r="M80" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N80" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O80" s="45" t="s">
+      <c r="M80" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N80" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O80" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="P80" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q80" s="45" t="s">
+      <c r="P80" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q80" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R80" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S80" s="44" t="s">
+      <c r="R80" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S80" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T80" s="37"/>
@@ -10098,30 +10104,30 @@
       <c r="I81" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="J81" s="45" t="s">
+      <c r="J81" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K81" s="37"/>
       <c r="L81" s="37"/>
-      <c r="M81" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N81" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O81" s="45" t="s">
+      <c r="M81" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N81" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O81" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="P81" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q81" s="45" t="s">
+      <c r="P81" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q81" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R81" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S81" s="44" t="s">
+      <c r="R81" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S81" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T81" s="37"/>
@@ -10159,30 +10165,30 @@
       <c r="I82" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="J82" s="45" t="s">
+      <c r="J82" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K82" s="37"/>
       <c r="L82" s="37"/>
-      <c r="M82" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N82" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O82" s="45" t="s">
+      <c r="M82" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N82" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O82" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="P82" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q82" s="45" t="s">
+      <c r="P82" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q82" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R82" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S82" s="44" t="s">
+      <c r="R82" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S82" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T82" s="37"/>
@@ -10220,30 +10226,30 @@
       <c r="I83" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="J83" s="45" t="s">
+      <c r="J83" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K83" s="37"/>
       <c r="L83" s="37"/>
-      <c r="M83" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N83" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O83" s="45" t="s">
+      <c r="M83" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N83" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O83" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="P83" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q83" s="45" t="s">
+      <c r="P83" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q83" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R83" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S83" s="44" t="s">
+      <c r="R83" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S83" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T83" s="37"/>
@@ -10281,30 +10287,30 @@
       <c r="I84" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="J84" s="45" t="s">
+      <c r="J84" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K84" s="37"/>
       <c r="L84" s="37"/>
-      <c r="M84" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N84" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O84" s="45" t="s">
+      <c r="M84" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N84" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O84" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="P84" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q84" s="45" t="s">
+      <c r="P84" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q84" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R84" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S84" s="44" t="s">
+      <c r="R84" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S84" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T84" s="37"/>
@@ -10342,30 +10348,30 @@
       <c r="I85" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="J85" s="45" t="s">
+      <c r="J85" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K85" s="37"/>
       <c r="L85" s="37"/>
-      <c r="M85" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N85" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O85" s="45" t="s">
+      <c r="M85" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N85" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O85" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="P85" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q85" s="45" t="s">
+      <c r="P85" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q85" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R85" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S85" s="44" t="s">
+      <c r="R85" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S85" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T85" s="37"/>
@@ -10403,30 +10409,30 @@
       <c r="I86" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="J86" s="45" t="s">
+      <c r="J86" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K86" s="37"/>
       <c r="L86" s="37"/>
-      <c r="M86" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N86" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O86" s="45" t="s">
+      <c r="M86" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N86" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O86" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="P86" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q86" s="45" t="s">
+      <c r="P86" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q86" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R86" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S86" s="44" t="s">
+      <c r="R86" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S86" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T86" s="37"/>
@@ -10464,30 +10470,30 @@
       <c r="I87" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="J87" s="45" t="s">
+      <c r="J87" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K87" s="37"/>
       <c r="L87" s="37"/>
-      <c r="M87" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N87" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O87" s="45" t="s">
+      <c r="M87" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N87" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O87" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="P87" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q87" s="45" t="s">
+      <c r="P87" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q87" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R87" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S87" s="44" t="s">
+      <c r="R87" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S87" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T87" s="37"/>
@@ -10525,30 +10531,30 @@
       <c r="I88" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="J88" s="45" t="s">
+      <c r="J88" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K88" s="37"/>
       <c r="L88" s="37"/>
-      <c r="M88" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N88" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O88" s="45" t="s">
+      <c r="M88" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N88" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O88" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="P88" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q88" s="45" t="s">
+      <c r="P88" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q88" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R88" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S88" s="44" t="s">
+      <c r="R88" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S88" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T88" s="37"/>
@@ -10586,30 +10592,30 @@
       <c r="I89" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="J89" s="45" t="s">
+      <c r="J89" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K89" s="37"/>
       <c r="L89" s="37"/>
-      <c r="M89" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N89" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O89" s="45" t="s">
+      <c r="M89" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N89" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O89" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="P89" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q89" s="45" t="s">
+      <c r="P89" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q89" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R89" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S89" s="44" t="s">
+      <c r="R89" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S89" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T89" s="37"/>
@@ -10647,30 +10653,30 @@
       <c r="I90" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="J90" s="45" t="s">
+      <c r="J90" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K90" s="37"/>
       <c r="L90" s="37"/>
-      <c r="M90" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N90" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O90" s="45" t="s">
+      <c r="M90" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N90" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O90" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="P90" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q90" s="45" t="s">
+      <c r="P90" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q90" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R90" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S90" s="44" t="s">
+      <c r="R90" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S90" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T90" s="37"/>
@@ -10708,30 +10714,30 @@
       <c r="I91" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="J91" s="45" t="s">
+      <c r="J91" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K91" s="37"/>
       <c r="L91" s="37"/>
-      <c r="M91" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N91" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O91" s="45" t="s">
+      <c r="M91" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N91" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O91" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="P91" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q91" s="45" t="s">
+      <c r="P91" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q91" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R91" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S91" s="44" t="s">
+      <c r="R91" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S91" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T91" s="37"/>
@@ -10769,30 +10775,30 @@
       <c r="I92" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="J92" s="45" t="s">
+      <c r="J92" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K92" s="37"/>
       <c r="L92" s="37"/>
-      <c r="M92" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N92" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O92" s="45" t="s">
+      <c r="M92" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N92" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O92" s="46" t="s">
         <v>358</v>
       </c>
-      <c r="P92" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q92" s="45" t="s">
+      <c r="P92" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q92" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R92" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S92" s="44" t="s">
+      <c r="R92" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S92" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T92" s="37"/>
@@ -10830,30 +10836,30 @@
       <c r="I93" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="J93" s="45" t="s">
+      <c r="J93" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K93" s="37"/>
       <c r="L93" s="37"/>
-      <c r="M93" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N93" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O93" s="45" t="s">
+      <c r="M93" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N93" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O93" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="P93" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q93" s="45" t="s">
+      <c r="P93" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q93" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R93" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S93" s="44" t="s">
+      <c r="R93" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S93" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T93" s="37"/>
@@ -10891,30 +10897,30 @@
       <c r="I94" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="J94" s="45" t="s">
+      <c r="J94" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K94" s="37"/>
       <c r="L94" s="37"/>
-      <c r="M94" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N94" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O94" s="45" t="s">
+      <c r="M94" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N94" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O94" s="46" t="s">
         <v>370</v>
       </c>
-      <c r="P94" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q94" s="45" t="s">
+      <c r="P94" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q94" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R94" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S94" s="44" t="s">
+      <c r="R94" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S94" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T94" s="37"/>
@@ -10952,30 +10958,30 @@
       <c r="I95" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="J95" s="45" t="s">
+      <c r="J95" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K95" s="37"/>
       <c r="L95" s="37"/>
-      <c r="M95" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N95" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O95" s="45" t="s">
+      <c r="M95" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N95" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O95" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="P95" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q95" s="45" t="s">
+      <c r="P95" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q95" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R95" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S95" s="44" t="s">
+      <c r="R95" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S95" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T95" s="37"/>
@@ -11013,30 +11019,30 @@
       <c r="I96" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="J96" s="45" t="s">
+      <c r="J96" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K96" s="37"/>
       <c r="L96" s="37"/>
-      <c r="M96" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N96" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O96" s="45" t="s">
+      <c r="M96" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N96" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O96" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="P96" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q96" s="45" t="s">
+      <c r="P96" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q96" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R96" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S96" s="44" t="s">
+      <c r="R96" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S96" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T96" s="37"/>
@@ -13023,19 +13029,19 @@
       <c r="E150" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="F150" s="34">
-        <v>45671.0</v>
-      </c>
-      <c r="G150" s="41" t="s">
+      <c r="F150" s="48">
+        <v>45685.0</v>
+      </c>
+      <c r="G150" s="44" t="s">
         <v>491</v>
       </c>
-      <c r="H150" s="41" t="s">
+      <c r="H150" s="44" t="s">
         <v>492</v>
       </c>
-      <c r="I150" s="41" t="s">
+      <c r="I150" s="44" t="s">
         <v>493</v>
       </c>
-      <c r="J150" s="45" t="s">
+      <c r="J150" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K150" s="37"/>
@@ -13072,19 +13078,19 @@
       <c r="E151" s="33" t="s">
         <v>495</v>
       </c>
-      <c r="F151" s="34">
-        <v>45674.0</v>
-      </c>
-      <c r="G151" s="41" t="s">
+      <c r="F151" s="48">
+        <v>45685.0</v>
+      </c>
+      <c r="G151" s="44" t="s">
         <v>496</v>
       </c>
-      <c r="H151" s="41" t="s">
+      <c r="H151" s="44" t="s">
         <v>497</v>
       </c>
-      <c r="I151" s="41" t="s">
+      <c r="I151" s="44" t="s">
         <v>498</v>
       </c>
-      <c r="J151" s="45" t="s">
+      <c r="J151" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K151" s="37"/>
@@ -13121,19 +13127,19 @@
       <c r="E152" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="F152" s="34">
-        <v>45674.0</v>
-      </c>
-      <c r="G152" s="41" t="s">
+      <c r="F152" s="48">
+        <v>45685.0</v>
+      </c>
+      <c r="G152" s="44" t="s">
         <v>501</v>
       </c>
-      <c r="H152" s="41" t="s">
+      <c r="H152" s="44" t="s">
         <v>502</v>
       </c>
-      <c r="I152" s="41" t="s">
+      <c r="I152" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="J152" s="45" t="s">
+      <c r="J152" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K152" s="37"/>
@@ -13170,19 +13176,19 @@
       <c r="E153" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="F153" s="34">
-        <v>45674.0</v>
-      </c>
-      <c r="G153" s="41" t="s">
+      <c r="F153" s="48">
+        <v>45685.0</v>
+      </c>
+      <c r="G153" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="H153" s="41" t="s">
+      <c r="H153" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="I153" s="41" t="s">
+      <c r="I153" s="44" t="s">
         <v>508</v>
       </c>
-      <c r="J153" s="45" t="s">
+      <c r="J153" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K153" s="37"/>
@@ -13231,30 +13237,30 @@
       <c r="I154" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="J154" s="45" t="s">
+      <c r="J154" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K154" s="37"/>
       <c r="L154" s="37"/>
-      <c r="M154" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N154" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O154" s="45" t="s">
+      <c r="M154" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N154" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O154" s="46" t="s">
         <v>514</v>
       </c>
-      <c r="P154" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q154" s="45" t="s">
+      <c r="P154" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q154" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R154" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S154" s="44" t="s">
+      <c r="R154" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S154" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T154" s="36"/>
@@ -13292,30 +13298,30 @@
       <c r="I155" s="41" t="s">
         <v>519</v>
       </c>
-      <c r="J155" s="45" t="s">
+      <c r="J155" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K155" s="37"/>
       <c r="L155" s="37"/>
-      <c r="M155" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N155" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O155" s="45" t="s">
+      <c r="M155" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N155" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O155" s="46" t="s">
         <v>520</v>
       </c>
-      <c r="P155" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q155" s="45" t="s">
+      <c r="P155" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q155" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R155" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S155" s="44" t="s">
+      <c r="R155" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S155" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T155" s="37"/>
@@ -13353,30 +13359,30 @@
       <c r="I156" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="J156" s="45" t="s">
+      <c r="J156" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K156" s="37"/>
       <c r="L156" s="37"/>
-      <c r="M156" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N156" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O156" s="45" t="s">
+      <c r="M156" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N156" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O156" s="46" t="s">
         <v>526</v>
       </c>
-      <c r="P156" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q156" s="45" t="s">
+      <c r="P156" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q156" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R156" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S156" s="44" t="s">
+      <c r="R156" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S156" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T156" s="37"/>
@@ -13414,30 +13420,30 @@
       <c r="I157" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="J157" s="45" t="s">
+      <c r="J157" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K157" s="37"/>
       <c r="L157" s="37"/>
-      <c r="M157" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N157" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O157" s="45" t="s">
+      <c r="M157" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N157" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O157" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="P157" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q157" s="45" t="s">
+      <c r="P157" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q157" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R157" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S157" s="44" t="s">
+      <c r="R157" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S157" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T157" s="37"/>
@@ -13475,30 +13481,30 @@
       <c r="I158" s="41" t="s">
         <v>537</v>
       </c>
-      <c r="J158" s="45" t="s">
+      <c r="J158" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K158" s="37"/>
       <c r="L158" s="37"/>
-      <c r="M158" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N158" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O158" s="45" t="s">
+      <c r="M158" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N158" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O158" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="P158" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q158" s="45" t="s">
+      <c r="P158" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q158" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R158" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S158" s="44" t="s">
+      <c r="R158" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S158" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T158" s="37"/>
@@ -13536,30 +13542,30 @@
       <c r="I159" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="J159" s="45" t="s">
+      <c r="J159" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K159" s="37"/>
       <c r="L159" s="37"/>
-      <c r="M159" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N159" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O159" s="45" t="s">
+      <c r="M159" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N159" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O159" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="P159" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q159" s="45" t="s">
+      <c r="P159" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q159" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R159" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S159" s="44" t="s">
+      <c r="R159" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S159" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T159" s="37"/>
@@ -13597,30 +13603,30 @@
       <c r="I160" s="41" t="s">
         <v>548</v>
       </c>
-      <c r="J160" s="45" t="s">
+      <c r="J160" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K160" s="37"/>
       <c r="L160" s="37"/>
-      <c r="M160" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N160" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O160" s="45" t="s">
+      <c r="M160" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N160" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O160" s="46" t="s">
         <v>549</v>
       </c>
-      <c r="P160" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q160" s="45" t="s">
+      <c r="P160" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q160" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R160" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S160" s="44" t="s">
+      <c r="R160" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S160" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T160" s="37"/>
@@ -13658,30 +13664,30 @@
       <c r="I161" s="41" t="s">
         <v>554</v>
       </c>
-      <c r="J161" s="45" t="s">
+      <c r="J161" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K161" s="37"/>
       <c r="L161" s="37"/>
-      <c r="M161" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N161" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O161" s="45" t="s">
+      <c r="M161" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N161" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O161" s="46" t="s">
         <v>555</v>
       </c>
-      <c r="P161" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q161" s="45" t="s">
+      <c r="P161" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q161" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R161" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S161" s="44" t="s">
+      <c r="R161" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S161" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T161" s="37"/>
@@ -13719,30 +13725,30 @@
       <c r="I162" s="41" t="s">
         <v>560</v>
       </c>
-      <c r="J162" s="45" t="s">
+      <c r="J162" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K162" s="37"/>
       <c r="L162" s="37"/>
-      <c r="M162" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N162" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O162" s="45" t="s">
+      <c r="M162" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N162" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O162" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="P162" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q162" s="45" t="s">
+      <c r="P162" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q162" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R162" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S162" s="44" t="s">
+      <c r="R162" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S162" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T162" s="37"/>
@@ -13780,30 +13786,30 @@
       <c r="I163" s="41" t="s">
         <v>565</v>
       </c>
-      <c r="J163" s="45" t="s">
+      <c r="J163" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K163" s="37"/>
       <c r="L163" s="37"/>
-      <c r="M163" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N163" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O163" s="45" t="s">
+      <c r="M163" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N163" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O163" s="46" t="s">
         <v>566</v>
       </c>
-      <c r="P163" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q163" s="45" t="s">
+      <c r="P163" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q163" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R163" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S163" s="44" t="s">
+      <c r="R163" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S163" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T163" s="37"/>
@@ -13841,30 +13847,30 @@
       <c r="I164" s="41" t="s">
         <v>571</v>
       </c>
-      <c r="J164" s="45" t="s">
+      <c r="J164" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K164" s="37"/>
       <c r="L164" s="37"/>
-      <c r="M164" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N164" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O164" s="45" t="s">
+      <c r="M164" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N164" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O164" s="46" t="s">
         <v>572</v>
       </c>
-      <c r="P164" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q164" s="45" t="s">
+      <c r="P164" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q164" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R164" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S164" s="44" t="s">
+      <c r="R164" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S164" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T164" s="37"/>
@@ -13902,30 +13908,30 @@
       <c r="I165" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="J165" s="45" t="s">
+      <c r="J165" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K165" s="37"/>
       <c r="L165" s="37"/>
-      <c r="M165" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N165" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O165" s="45" t="s">
+      <c r="M165" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N165" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O165" s="46" t="s">
         <v>578</v>
       </c>
-      <c r="P165" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q165" s="45" t="s">
+      <c r="P165" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q165" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R165" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S165" s="44" t="s">
+      <c r="R165" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S165" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T165" s="37"/>
@@ -13963,30 +13969,30 @@
       <c r="I166" s="41" t="s">
         <v>583</v>
       </c>
-      <c r="J166" s="45" t="s">
+      <c r="J166" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K166" s="37"/>
       <c r="L166" s="37"/>
-      <c r="M166" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N166" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O166" s="45" t="s">
+      <c r="M166" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N166" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O166" s="46" t="s">
         <v>584</v>
       </c>
-      <c r="P166" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q166" s="45" t="s">
+      <c r="P166" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q166" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R166" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S166" s="44" t="s">
+      <c r="R166" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S166" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T166" s="37"/>
@@ -14024,30 +14030,30 @@
       <c r="I167" s="41" t="s">
         <v>589</v>
       </c>
-      <c r="J167" s="45" t="s">
+      <c r="J167" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K167" s="37"/>
       <c r="L167" s="37"/>
-      <c r="M167" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N167" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O167" s="45" t="s">
+      <c r="M167" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N167" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O167" s="46" t="s">
         <v>590</v>
       </c>
-      <c r="P167" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q167" s="45" t="s">
+      <c r="P167" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q167" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R167" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S167" s="44" t="s">
+      <c r="R167" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S167" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T167" s="37"/>
@@ -14085,30 +14091,30 @@
       <c r="I168" s="41" t="s">
         <v>595</v>
       </c>
-      <c r="J168" s="45" t="s">
+      <c r="J168" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K168" s="37"/>
       <c r="L168" s="37"/>
-      <c r="M168" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N168" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O168" s="45" t="s">
+      <c r="M168" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N168" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O168" s="46" t="s">
         <v>596</v>
       </c>
-      <c r="P168" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q168" s="45" t="s">
+      <c r="P168" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q168" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R168" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S168" s="44" t="s">
+      <c r="R168" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S168" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T168" s="37"/>
@@ -14146,30 +14152,30 @@
       <c r="I169" s="41" t="s">
         <v>601</v>
       </c>
-      <c r="J169" s="45" t="s">
+      <c r="J169" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K169" s="37"/>
       <c r="L169" s="37"/>
-      <c r="M169" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N169" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O169" s="45" t="s">
+      <c r="M169" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N169" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O169" s="46" t="s">
         <v>602</v>
       </c>
-      <c r="P169" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q169" s="45" t="s">
+      <c r="P169" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q169" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R169" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S169" s="44" t="s">
+      <c r="R169" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S169" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T169" s="37"/>
@@ -14207,30 +14213,30 @@
       <c r="I170" s="41" t="s">
         <v>607</v>
       </c>
-      <c r="J170" s="45" t="s">
+      <c r="J170" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K170" s="37"/>
       <c r="L170" s="37"/>
-      <c r="M170" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N170" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O170" s="45" t="s">
+      <c r="M170" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N170" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O170" s="46" t="s">
         <v>608</v>
       </c>
-      <c r="P170" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q170" s="45" t="s">
+      <c r="P170" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q170" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R170" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S170" s="44" t="s">
+      <c r="R170" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S170" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T170" s="37"/>
@@ -14268,30 +14274,30 @@
       <c r="I171" s="41" t="s">
         <v>613</v>
       </c>
-      <c r="J171" s="45" t="s">
+      <c r="J171" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K171" s="37"/>
       <c r="L171" s="37"/>
-      <c r="M171" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N171" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O171" s="45" t="s">
+      <c r="M171" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N171" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O171" s="46" t="s">
         <v>549</v>
       </c>
-      <c r="P171" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q171" s="45" t="s">
+      <c r="P171" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q171" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R171" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S171" s="44" t="s">
+      <c r="R171" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S171" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T171" s="37"/>
@@ -14329,30 +14335,30 @@
       <c r="I172" s="41" t="s">
         <v>618</v>
       </c>
-      <c r="J172" s="45" t="s">
+      <c r="J172" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K172" s="37"/>
       <c r="L172" s="37"/>
-      <c r="M172" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="N172" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O172" s="45" t="s">
+      <c r="M172" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N172" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="O172" s="46" t="s">
         <v>619</v>
       </c>
-      <c r="P172" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q172" s="45" t="s">
+      <c r="P172" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q172" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="R172" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="S172" s="44" t="s">
+      <c r="R172" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S172" s="45" t="s">
         <v>120</v>
       </c>
       <c r="T172" s="37"/>
@@ -15062,7 +15068,7 @@
       <c r="I191" s="41" t="s">
         <v>662</v>
       </c>
-      <c r="J191" s="45" t="s">
+      <c r="J191" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K191" s="37"/>
@@ -15259,7 +15265,7 @@
       <c r="I196" s="41" t="s">
         <v>675</v>
       </c>
-      <c r="J196" s="45" t="s">
+      <c r="J196" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K196" s="37"/>
@@ -15276,888 +15282,888 @@
       </c>
       <c r="U196" s="38"/>
       <c r="V196" s="39"/>
-      <c r="W196" s="47" t="s">
+      <c r="W196" s="49" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="197" ht="15.0" customHeight="1">
-      <c r="A197" s="48">
+      <c r="A197" s="50">
         <v>376.0</v>
       </c>
-      <c r="B197" s="49" t="s">
+      <c r="B197" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C197" s="49" t="s">
+      <c r="C197" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D197" s="49" t="s">
+      <c r="D197" s="51" t="s">
         <v>676</v>
       </c>
-      <c r="E197" s="50" t="s">
+      <c r="E197" s="52" t="s">
         <v>677</v>
       </c>
-      <c r="F197" s="51"/>
-      <c r="G197" s="52"/>
-      <c r="H197" s="52"/>
-      <c r="I197" s="52"/>
-      <c r="J197" s="53" t="s">
+      <c r="F197" s="53"/>
+      <c r="G197" s="54"/>
+      <c r="H197" s="54"/>
+      <c r="I197" s="54"/>
+      <c r="J197" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="K197" s="53" t="s">
+      <c r="K197" s="55" t="s">
         <v>656</v>
       </c>
-      <c r="L197" s="54" t="s">
+      <c r="L197" s="56" t="s">
         <v>657</v>
       </c>
-      <c r="M197" s="55"/>
-      <c r="N197" s="55"/>
-      <c r="O197" s="55"/>
-      <c r="P197" s="55"/>
-      <c r="Q197" s="55"/>
-      <c r="R197" s="55"/>
-      <c r="S197" s="55"/>
-      <c r="T197" s="55"/>
-      <c r="U197" s="56"/>
-      <c r="V197" s="57"/>
-      <c r="W197" s="58" t="s">
+      <c r="M197" s="57"/>
+      <c r="N197" s="57"/>
+      <c r="O197" s="57"/>
+      <c r="P197" s="57"/>
+      <c r="Q197" s="57"/>
+      <c r="R197" s="57"/>
+      <c r="S197" s="57"/>
+      <c r="T197" s="57"/>
+      <c r="U197" s="58"/>
+      <c r="V197" s="59"/>
+      <c r="W197" s="60" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="198" ht="15.0" customHeight="1">
-      <c r="A198" s="59">
+      <c r="A198" s="61">
         <v>417.0</v>
       </c>
-      <c r="B198" s="49" t="s">
+      <c r="B198" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C198" s="60" t="s">
+      <c r="C198" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D198" s="61" t="s">
+      <c r="D198" s="63" t="s">
         <v>679</v>
       </c>
-      <c r="E198" s="62" t="s">
+      <c r="E198" s="64" t="s">
         <v>680</v>
       </c>
-      <c r="F198" s="63"/>
-      <c r="G198" s="64"/>
-      <c r="H198" s="64"/>
-      <c r="I198" s="64"/>
-      <c r="J198" s="65"/>
-      <c r="K198" s="65"/>
-      <c r="L198" s="65"/>
-      <c r="M198" s="65"/>
-      <c r="N198" s="65"/>
-      <c r="O198" s="65"/>
-      <c r="P198" s="65"/>
-      <c r="Q198" s="65"/>
-      <c r="R198" s="65"/>
-      <c r="S198" s="65"/>
-      <c r="T198" s="65"/>
-      <c r="U198" s="66"/>
-      <c r="V198" s="67"/>
-      <c r="W198" s="68" t="s">
+      <c r="F198" s="65"/>
+      <c r="G198" s="66"/>
+      <c r="H198" s="66"/>
+      <c r="I198" s="66"/>
+      <c r="J198" s="67"/>
+      <c r="K198" s="67"/>
+      <c r="L198" s="67"/>
+      <c r="M198" s="67"/>
+      <c r="N198" s="67"/>
+      <c r="O198" s="67"/>
+      <c r="P198" s="67"/>
+      <c r="Q198" s="67"/>
+      <c r="R198" s="67"/>
+      <c r="S198" s="67"/>
+      <c r="T198" s="67"/>
+      <c r="U198" s="68"/>
+      <c r="V198" s="69"/>
+      <c r="W198" s="70" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="199" ht="15.0" customHeight="1">
-      <c r="A199" s="59">
+      <c r="A199" s="61">
         <v>418.0</v>
       </c>
-      <c r="B199" s="49" t="s">
+      <c r="B199" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C199" s="60" t="s">
+      <c r="C199" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D199" s="61" t="s">
+      <c r="D199" s="63" t="s">
         <v>681</v>
       </c>
-      <c r="E199" s="69" t="s">
+      <c r="E199" s="71" t="s">
         <v>682</v>
       </c>
-      <c r="F199" s="63"/>
-      <c r="G199" s="64"/>
-      <c r="H199" s="64"/>
-      <c r="I199" s="64"/>
-      <c r="J199" s="65"/>
-      <c r="K199" s="65"/>
-      <c r="L199" s="65"/>
-      <c r="M199" s="65"/>
-      <c r="N199" s="65"/>
-      <c r="O199" s="65"/>
-      <c r="P199" s="65"/>
-      <c r="Q199" s="65"/>
-      <c r="R199" s="65"/>
-      <c r="S199" s="65"/>
-      <c r="T199" s="65"/>
-      <c r="U199" s="66"/>
-      <c r="V199" s="67"/>
-      <c r="W199" s="68" t="s">
+      <c r="F199" s="65"/>
+      <c r="G199" s="66"/>
+      <c r="H199" s="66"/>
+      <c r="I199" s="66"/>
+      <c r="J199" s="67"/>
+      <c r="K199" s="67"/>
+      <c r="L199" s="67"/>
+      <c r="M199" s="67"/>
+      <c r="N199" s="67"/>
+      <c r="O199" s="67"/>
+      <c r="P199" s="67"/>
+      <c r="Q199" s="67"/>
+      <c r="R199" s="67"/>
+      <c r="S199" s="67"/>
+      <c r="T199" s="67"/>
+      <c r="U199" s="68"/>
+      <c r="V199" s="69"/>
+      <c r="W199" s="70" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="200" ht="15.0" customHeight="1">
-      <c r="A200" s="59">
+      <c r="A200" s="61">
         <v>419.0</v>
       </c>
-      <c r="B200" s="49" t="s">
+      <c r="B200" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C200" s="60" t="s">
+      <c r="C200" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D200" s="61" t="s">
+      <c r="D200" s="63" t="s">
         <v>683</v>
       </c>
-      <c r="E200" s="69" t="s">
+      <c r="E200" s="71" t="s">
         <v>684</v>
       </c>
-      <c r="F200" s="63"/>
-      <c r="G200" s="64"/>
-      <c r="H200" s="64"/>
-      <c r="I200" s="64"/>
-      <c r="J200" s="65"/>
-      <c r="K200" s="65"/>
-      <c r="L200" s="65"/>
-      <c r="M200" s="65"/>
-      <c r="N200" s="65"/>
-      <c r="O200" s="65"/>
-      <c r="P200" s="65"/>
-      <c r="Q200" s="65"/>
-      <c r="R200" s="65"/>
-      <c r="S200" s="65"/>
-      <c r="T200" s="65"/>
-      <c r="U200" s="66"/>
-      <c r="V200" s="67"/>
-      <c r="W200" s="68" t="s">
+      <c r="F200" s="65"/>
+      <c r="G200" s="66"/>
+      <c r="H200" s="66"/>
+      <c r="I200" s="66"/>
+      <c r="J200" s="67"/>
+      <c r="K200" s="67"/>
+      <c r="L200" s="67"/>
+      <c r="M200" s="67"/>
+      <c r="N200" s="67"/>
+      <c r="O200" s="67"/>
+      <c r="P200" s="67"/>
+      <c r="Q200" s="67"/>
+      <c r="R200" s="67"/>
+      <c r="S200" s="67"/>
+      <c r="T200" s="67"/>
+      <c r="U200" s="68"/>
+      <c r="V200" s="69"/>
+      <c r="W200" s="70" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="201" ht="15.0" customHeight="1">
-      <c r="A201" s="59">
+      <c r="A201" s="61">
         <v>423.0</v>
       </c>
-      <c r="B201" s="49" t="s">
+      <c r="B201" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C201" s="60" t="s">
+      <c r="C201" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D201" s="61" t="s">
+      <c r="D201" s="63" t="s">
         <v>685</v>
       </c>
-      <c r="E201" s="69" t="s">
+      <c r="E201" s="71" t="s">
         <v>686</v>
       </c>
-      <c r="F201" s="63"/>
-      <c r="G201" s="64"/>
-      <c r="H201" s="64"/>
-      <c r="I201" s="64"/>
-      <c r="J201" s="65"/>
-      <c r="K201" s="65"/>
-      <c r="L201" s="65"/>
-      <c r="M201" s="65"/>
-      <c r="N201" s="65"/>
-      <c r="O201" s="65"/>
-      <c r="P201" s="65"/>
-      <c r="Q201" s="65"/>
-      <c r="R201" s="65"/>
-      <c r="S201" s="65"/>
-      <c r="T201" s="65"/>
-      <c r="U201" s="66"/>
-      <c r="V201" s="67"/>
-      <c r="W201" s="68" t="s">
+      <c r="F201" s="65"/>
+      <c r="G201" s="66"/>
+      <c r="H201" s="66"/>
+      <c r="I201" s="66"/>
+      <c r="J201" s="67"/>
+      <c r="K201" s="67"/>
+      <c r="L201" s="67"/>
+      <c r="M201" s="67"/>
+      <c r="N201" s="67"/>
+      <c r="O201" s="67"/>
+      <c r="P201" s="67"/>
+      <c r="Q201" s="67"/>
+      <c r="R201" s="67"/>
+      <c r="S201" s="67"/>
+      <c r="T201" s="67"/>
+      <c r="U201" s="68"/>
+      <c r="V201" s="69"/>
+      <c r="W201" s="70" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="202" ht="15.0" customHeight="1">
-      <c r="A202" s="59">
+      <c r="A202" s="61">
         <v>424.0</v>
       </c>
-      <c r="B202" s="49" t="s">
+      <c r="B202" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C202" s="60" t="s">
+      <c r="C202" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D202" s="61" t="s">
+      <c r="D202" s="63" t="s">
         <v>687</v>
       </c>
-      <c r="E202" s="69" t="s">
+      <c r="E202" s="71" t="s">
         <v>688</v>
       </c>
-      <c r="F202" s="63"/>
-      <c r="G202" s="64"/>
-      <c r="H202" s="64"/>
-      <c r="I202" s="64"/>
-      <c r="J202" s="65"/>
-      <c r="K202" s="65"/>
-      <c r="L202" s="65"/>
-      <c r="M202" s="65"/>
-      <c r="N202" s="65"/>
-      <c r="O202" s="65"/>
-      <c r="P202" s="65"/>
-      <c r="Q202" s="65"/>
-      <c r="R202" s="65"/>
-      <c r="S202" s="65"/>
-      <c r="T202" s="65"/>
-      <c r="U202" s="66"/>
-      <c r="V202" s="67"/>
-      <c r="W202" s="68" t="s">
+      <c r="F202" s="65"/>
+      <c r="G202" s="66"/>
+      <c r="H202" s="66"/>
+      <c r="I202" s="66"/>
+      <c r="J202" s="67"/>
+      <c r="K202" s="67"/>
+      <c r="L202" s="67"/>
+      <c r="M202" s="67"/>
+      <c r="N202" s="67"/>
+      <c r="O202" s="67"/>
+      <c r="P202" s="67"/>
+      <c r="Q202" s="67"/>
+      <c r="R202" s="67"/>
+      <c r="S202" s="67"/>
+      <c r="T202" s="67"/>
+      <c r="U202" s="68"/>
+      <c r="V202" s="69"/>
+      <c r="W202" s="70" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="203" ht="15.0" customHeight="1">
-      <c r="A203" s="59">
+      <c r="A203" s="61">
         <v>425.0</v>
       </c>
-      <c r="B203" s="49" t="s">
+      <c r="B203" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C203" s="60" t="s">
+      <c r="C203" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D203" s="61" t="s">
+      <c r="D203" s="63" t="s">
         <v>689</v>
       </c>
-      <c r="E203" s="69" t="s">
+      <c r="E203" s="71" t="s">
         <v>690</v>
       </c>
-      <c r="F203" s="63"/>
-      <c r="G203" s="64"/>
-      <c r="H203" s="64"/>
-      <c r="I203" s="64"/>
-      <c r="J203" s="65"/>
-      <c r="K203" s="65"/>
-      <c r="L203" s="65"/>
-      <c r="M203" s="65"/>
-      <c r="N203" s="65"/>
-      <c r="O203" s="65"/>
-      <c r="P203" s="65"/>
-      <c r="Q203" s="65"/>
-      <c r="R203" s="65"/>
-      <c r="S203" s="65"/>
-      <c r="T203" s="65"/>
-      <c r="U203" s="66"/>
-      <c r="V203" s="67"/>
-      <c r="W203" s="68" t="s">
+      <c r="F203" s="65"/>
+      <c r="G203" s="66"/>
+      <c r="H203" s="66"/>
+      <c r="I203" s="66"/>
+      <c r="J203" s="67"/>
+      <c r="K203" s="67"/>
+      <c r="L203" s="67"/>
+      <c r="M203" s="67"/>
+      <c r="N203" s="67"/>
+      <c r="O203" s="67"/>
+      <c r="P203" s="67"/>
+      <c r="Q203" s="67"/>
+      <c r="R203" s="67"/>
+      <c r="S203" s="67"/>
+      <c r="T203" s="67"/>
+      <c r="U203" s="68"/>
+      <c r="V203" s="69"/>
+      <c r="W203" s="70" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="204" ht="15.0" customHeight="1">
-      <c r="A204" s="59">
+      <c r="A204" s="61">
         <v>426.0</v>
       </c>
-      <c r="B204" s="49" t="s">
+      <c r="B204" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C204" s="60" t="s">
+      <c r="C204" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D204" s="61" t="s">
+      <c r="D204" s="63" t="s">
         <v>691</v>
       </c>
-      <c r="E204" s="69" t="s">
+      <c r="E204" s="71" t="s">
         <v>692</v>
       </c>
-      <c r="F204" s="63"/>
-      <c r="G204" s="64"/>
-      <c r="H204" s="64"/>
-      <c r="I204" s="64"/>
-      <c r="J204" s="65"/>
-      <c r="K204" s="65"/>
-      <c r="L204" s="65"/>
-      <c r="M204" s="65"/>
-      <c r="N204" s="65"/>
-      <c r="O204" s="65"/>
-      <c r="P204" s="65"/>
-      <c r="Q204" s="65"/>
-      <c r="R204" s="65"/>
-      <c r="S204" s="65"/>
-      <c r="T204" s="65"/>
-      <c r="U204" s="66"/>
-      <c r="V204" s="67"/>
-      <c r="W204" s="68" t="s">
+      <c r="F204" s="65"/>
+      <c r="G204" s="66"/>
+      <c r="H204" s="66"/>
+      <c r="I204" s="66"/>
+      <c r="J204" s="67"/>
+      <c r="K204" s="67"/>
+      <c r="L204" s="67"/>
+      <c r="M204" s="67"/>
+      <c r="N204" s="67"/>
+      <c r="O204" s="67"/>
+      <c r="P204" s="67"/>
+      <c r="Q204" s="67"/>
+      <c r="R204" s="67"/>
+      <c r="S204" s="67"/>
+      <c r="T204" s="67"/>
+      <c r="U204" s="68"/>
+      <c r="V204" s="69"/>
+      <c r="W204" s="70" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="205" ht="15.0" customHeight="1">
-      <c r="A205" s="59">
+      <c r="A205" s="61">
         <v>432.0</v>
       </c>
-      <c r="B205" s="49" t="s">
+      <c r="B205" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C205" s="60" t="s">
+      <c r="C205" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D205" s="61" t="s">
+      <c r="D205" s="63" t="s">
         <v>693</v>
       </c>
-      <c r="E205" s="69" t="s">
+      <c r="E205" s="71" t="s">
         <v>694</v>
       </c>
-      <c r="F205" s="63"/>
-      <c r="G205" s="64"/>
-      <c r="H205" s="64"/>
-      <c r="I205" s="64"/>
-      <c r="J205" s="65"/>
-      <c r="K205" s="65"/>
-      <c r="L205" s="65"/>
-      <c r="M205" s="65"/>
-      <c r="N205" s="65"/>
-      <c r="O205" s="65"/>
-      <c r="P205" s="65"/>
-      <c r="Q205" s="65"/>
-      <c r="R205" s="65"/>
-      <c r="S205" s="65"/>
-      <c r="T205" s="65"/>
-      <c r="U205" s="66"/>
-      <c r="V205" s="67"/>
-      <c r="W205" s="68" t="s">
+      <c r="F205" s="65"/>
+      <c r="G205" s="66"/>
+      <c r="H205" s="66"/>
+      <c r="I205" s="66"/>
+      <c r="J205" s="67"/>
+      <c r="K205" s="67"/>
+      <c r="L205" s="67"/>
+      <c r="M205" s="67"/>
+      <c r="N205" s="67"/>
+      <c r="O205" s="67"/>
+      <c r="P205" s="67"/>
+      <c r="Q205" s="67"/>
+      <c r="R205" s="67"/>
+      <c r="S205" s="67"/>
+      <c r="T205" s="67"/>
+      <c r="U205" s="68"/>
+      <c r="V205" s="69"/>
+      <c r="W205" s="70" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="206" ht="15.0" customHeight="1">
-      <c r="A206" s="59">
+      <c r="A206" s="61">
         <v>433.0</v>
       </c>
-      <c r="B206" s="49" t="s">
+      <c r="B206" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C206" s="60" t="s">
+      <c r="C206" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D206" s="61" t="s">
+      <c r="D206" s="63" t="s">
         <v>695</v>
       </c>
-      <c r="E206" s="69" t="s">
+      <c r="E206" s="71" t="s">
         <v>696</v>
       </c>
-      <c r="F206" s="63"/>
-      <c r="G206" s="64"/>
-      <c r="H206" s="64"/>
-      <c r="I206" s="64"/>
-      <c r="J206" s="65"/>
-      <c r="K206" s="65"/>
-      <c r="L206" s="65"/>
-      <c r="M206" s="65"/>
-      <c r="N206" s="65"/>
-      <c r="O206" s="65"/>
-      <c r="P206" s="65"/>
-      <c r="Q206" s="65"/>
-      <c r="R206" s="65"/>
-      <c r="S206" s="65"/>
-      <c r="T206" s="65"/>
-      <c r="U206" s="66"/>
-      <c r="V206" s="67"/>
-      <c r="W206" s="68" t="s">
+      <c r="F206" s="65"/>
+      <c r="G206" s="66"/>
+      <c r="H206" s="66"/>
+      <c r="I206" s="66"/>
+      <c r="J206" s="67"/>
+      <c r="K206" s="67"/>
+      <c r="L206" s="67"/>
+      <c r="M206" s="67"/>
+      <c r="N206" s="67"/>
+      <c r="O206" s="67"/>
+      <c r="P206" s="67"/>
+      <c r="Q206" s="67"/>
+      <c r="R206" s="67"/>
+      <c r="S206" s="67"/>
+      <c r="T206" s="67"/>
+      <c r="U206" s="68"/>
+      <c r="V206" s="69"/>
+      <c r="W206" s="70" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="207" ht="15.0" customHeight="1">
-      <c r="A207" s="59">
+      <c r="A207" s="61">
         <v>434.0</v>
       </c>
-      <c r="B207" s="49" t="s">
+      <c r="B207" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C207" s="60" t="s">
+      <c r="C207" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D207" s="61" t="s">
+      <c r="D207" s="63" t="s">
         <v>697</v>
       </c>
-      <c r="E207" s="69" t="s">
+      <c r="E207" s="71" t="s">
         <v>698</v>
       </c>
-      <c r="F207" s="63"/>
-      <c r="G207" s="64"/>
-      <c r="H207" s="64"/>
-      <c r="I207" s="64"/>
-      <c r="J207" s="65"/>
-      <c r="K207" s="65"/>
-      <c r="L207" s="65"/>
-      <c r="M207" s="65"/>
-      <c r="N207" s="65"/>
-      <c r="O207" s="65"/>
-      <c r="P207" s="65"/>
-      <c r="Q207" s="65"/>
-      <c r="R207" s="65"/>
-      <c r="S207" s="65"/>
-      <c r="T207" s="65"/>
-      <c r="U207" s="66"/>
-      <c r="V207" s="67"/>
-      <c r="W207" s="68" t="s">
+      <c r="F207" s="65"/>
+      <c r="G207" s="66"/>
+      <c r="H207" s="66"/>
+      <c r="I207" s="66"/>
+      <c r="J207" s="67"/>
+      <c r="K207" s="67"/>
+      <c r="L207" s="67"/>
+      <c r="M207" s="67"/>
+      <c r="N207" s="67"/>
+      <c r="O207" s="67"/>
+      <c r="P207" s="67"/>
+      <c r="Q207" s="67"/>
+      <c r="R207" s="67"/>
+      <c r="S207" s="67"/>
+      <c r="T207" s="67"/>
+      <c r="U207" s="68"/>
+      <c r="V207" s="69"/>
+      <c r="W207" s="70" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="208" ht="15.0" customHeight="1">
-      <c r="A208" s="59">
+      <c r="A208" s="61">
         <v>435.0</v>
       </c>
-      <c r="B208" s="49" t="s">
+      <c r="B208" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C208" s="60" t="s">
+      <c r="C208" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D208" s="61" t="s">
+      <c r="D208" s="63" t="s">
         <v>699</v>
       </c>
-      <c r="E208" s="69" t="s">
+      <c r="E208" s="71" t="s">
         <v>700</v>
       </c>
-      <c r="F208" s="63"/>
-      <c r="G208" s="64"/>
-      <c r="H208" s="64"/>
-      <c r="I208" s="64"/>
-      <c r="J208" s="65"/>
-      <c r="K208" s="65"/>
-      <c r="L208" s="65"/>
-      <c r="M208" s="65"/>
-      <c r="N208" s="65"/>
-      <c r="O208" s="65"/>
-      <c r="P208" s="65"/>
-      <c r="Q208" s="65"/>
-      <c r="R208" s="65"/>
-      <c r="S208" s="65"/>
-      <c r="T208" s="65"/>
-      <c r="U208" s="66"/>
-      <c r="V208" s="67"/>
-      <c r="W208" s="68" t="s">
+      <c r="F208" s="65"/>
+      <c r="G208" s="66"/>
+      <c r="H208" s="66"/>
+      <c r="I208" s="66"/>
+      <c r="J208" s="67"/>
+      <c r="K208" s="67"/>
+      <c r="L208" s="67"/>
+      <c r="M208" s="67"/>
+      <c r="N208" s="67"/>
+      <c r="O208" s="67"/>
+      <c r="P208" s="67"/>
+      <c r="Q208" s="67"/>
+      <c r="R208" s="67"/>
+      <c r="S208" s="67"/>
+      <c r="T208" s="67"/>
+      <c r="U208" s="68"/>
+      <c r="V208" s="69"/>
+      <c r="W208" s="70" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="209" ht="15.0" customHeight="1">
-      <c r="A209" s="59">
+      <c r="A209" s="61">
         <v>437.0</v>
       </c>
-      <c r="B209" s="49" t="s">
+      <c r="B209" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C209" s="60" t="s">
+      <c r="C209" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D209" s="61" t="s">
+      <c r="D209" s="63" t="s">
         <v>701</v>
       </c>
-      <c r="E209" s="69" t="s">
+      <c r="E209" s="71" t="s">
         <v>702</v>
       </c>
-      <c r="F209" s="63"/>
-      <c r="G209" s="64"/>
-      <c r="H209" s="64"/>
-      <c r="I209" s="64"/>
-      <c r="J209" s="65"/>
-      <c r="K209" s="65"/>
-      <c r="L209" s="65"/>
-      <c r="M209" s="65"/>
-      <c r="N209" s="65"/>
-      <c r="O209" s="65"/>
-      <c r="P209" s="65"/>
-      <c r="Q209" s="65"/>
-      <c r="R209" s="65"/>
-      <c r="S209" s="65"/>
-      <c r="T209" s="65"/>
-      <c r="U209" s="66"/>
-      <c r="V209" s="67"/>
-      <c r="W209" s="68" t="s">
+      <c r="F209" s="65"/>
+      <c r="G209" s="66"/>
+      <c r="H209" s="66"/>
+      <c r="I209" s="66"/>
+      <c r="J209" s="67"/>
+      <c r="K209" s="67"/>
+      <c r="L209" s="67"/>
+      <c r="M209" s="67"/>
+      <c r="N209" s="67"/>
+      <c r="O209" s="67"/>
+      <c r="P209" s="67"/>
+      <c r="Q209" s="67"/>
+      <c r="R209" s="67"/>
+      <c r="S209" s="67"/>
+      <c r="T209" s="67"/>
+      <c r="U209" s="68"/>
+      <c r="V209" s="69"/>
+      <c r="W209" s="70" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="210" ht="15.0" customHeight="1">
-      <c r="A210" s="59">
+      <c r="A210" s="61">
         <v>438.0</v>
       </c>
-      <c r="B210" s="49" t="s">
+      <c r="B210" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C210" s="60" t="s">
+      <c r="C210" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D210" s="61" t="s">
+      <c r="D210" s="63" t="s">
         <v>703</v>
       </c>
-      <c r="E210" s="69" t="s">
+      <c r="E210" s="71" t="s">
         <v>704</v>
       </c>
-      <c r="F210" s="63"/>
-      <c r="G210" s="64"/>
-      <c r="H210" s="64"/>
-      <c r="I210" s="64"/>
-      <c r="J210" s="65"/>
-      <c r="K210" s="65"/>
-      <c r="L210" s="65"/>
-      <c r="M210" s="65"/>
-      <c r="N210" s="65"/>
-      <c r="O210" s="65"/>
-      <c r="P210" s="65"/>
-      <c r="Q210" s="65"/>
-      <c r="R210" s="65"/>
-      <c r="S210" s="65"/>
-      <c r="T210" s="65"/>
-      <c r="U210" s="66"/>
-      <c r="V210" s="67"/>
-      <c r="W210" s="68" t="s">
+      <c r="F210" s="65"/>
+      <c r="G210" s="66"/>
+      <c r="H210" s="66"/>
+      <c r="I210" s="66"/>
+      <c r="J210" s="67"/>
+      <c r="K210" s="67"/>
+      <c r="L210" s="67"/>
+      <c r="M210" s="67"/>
+      <c r="N210" s="67"/>
+      <c r="O210" s="67"/>
+      <c r="P210" s="67"/>
+      <c r="Q210" s="67"/>
+      <c r="R210" s="67"/>
+      <c r="S210" s="67"/>
+      <c r="T210" s="67"/>
+      <c r="U210" s="68"/>
+      <c r="V210" s="69"/>
+      <c r="W210" s="70" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="211" ht="15.0" customHeight="1">
-      <c r="A211" s="59">
+      <c r="A211" s="61">
         <v>440.0</v>
       </c>
-      <c r="B211" s="49" t="s">
+      <c r="B211" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C211" s="60" t="s">
+      <c r="C211" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D211" s="61" t="s">
+      <c r="D211" s="63" t="s">
         <v>705</v>
       </c>
-      <c r="E211" s="69" t="s">
+      <c r="E211" s="71" t="s">
         <v>706</v>
       </c>
-      <c r="F211" s="63"/>
-      <c r="G211" s="64"/>
-      <c r="H211" s="64"/>
-      <c r="I211" s="64"/>
-      <c r="J211" s="65"/>
-      <c r="K211" s="65"/>
-      <c r="L211" s="65"/>
-      <c r="M211" s="65"/>
-      <c r="N211" s="65"/>
-      <c r="O211" s="65"/>
-      <c r="P211" s="65"/>
-      <c r="Q211" s="65"/>
-      <c r="R211" s="65"/>
-      <c r="S211" s="65"/>
-      <c r="T211" s="65"/>
-      <c r="U211" s="66"/>
-      <c r="V211" s="67"/>
-      <c r="W211" s="68" t="s">
+      <c r="F211" s="65"/>
+      <c r="G211" s="66"/>
+      <c r="H211" s="66"/>
+      <c r="I211" s="66"/>
+      <c r="J211" s="67"/>
+      <c r="K211" s="67"/>
+      <c r="L211" s="67"/>
+      <c r="M211" s="67"/>
+      <c r="N211" s="67"/>
+      <c r="O211" s="67"/>
+      <c r="P211" s="67"/>
+      <c r="Q211" s="67"/>
+      <c r="R211" s="67"/>
+      <c r="S211" s="67"/>
+      <c r="T211" s="67"/>
+      <c r="U211" s="68"/>
+      <c r="V211" s="69"/>
+      <c r="W211" s="70" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="212" ht="15.0" customHeight="1">
-      <c r="A212" s="59">
+      <c r="A212" s="61">
         <v>441.0</v>
       </c>
-      <c r="B212" s="49" t="s">
+      <c r="B212" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C212" s="60" t="s">
+      <c r="C212" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D212" s="61" t="s">
+      <c r="D212" s="63" t="s">
         <v>707</v>
       </c>
-      <c r="E212" s="69" t="s">
+      <c r="E212" s="71" t="s">
         <v>708</v>
       </c>
-      <c r="F212" s="63"/>
-      <c r="G212" s="64"/>
-      <c r="H212" s="64"/>
-      <c r="I212" s="64"/>
-      <c r="J212" s="65"/>
-      <c r="K212" s="65"/>
-      <c r="L212" s="65"/>
-      <c r="M212" s="65"/>
-      <c r="N212" s="65"/>
-      <c r="O212" s="65"/>
-      <c r="P212" s="65"/>
-      <c r="Q212" s="65"/>
-      <c r="R212" s="65"/>
-      <c r="S212" s="65"/>
-      <c r="T212" s="65"/>
-      <c r="U212" s="66"/>
-      <c r="V212" s="67"/>
-      <c r="W212" s="68" t="s">
+      <c r="F212" s="65"/>
+      <c r="G212" s="66"/>
+      <c r="H212" s="66"/>
+      <c r="I212" s="66"/>
+      <c r="J212" s="67"/>
+      <c r="K212" s="67"/>
+      <c r="L212" s="67"/>
+      <c r="M212" s="67"/>
+      <c r="N212" s="67"/>
+      <c r="O212" s="67"/>
+      <c r="P212" s="67"/>
+      <c r="Q212" s="67"/>
+      <c r="R212" s="67"/>
+      <c r="S212" s="67"/>
+      <c r="T212" s="67"/>
+      <c r="U212" s="68"/>
+      <c r="V212" s="69"/>
+      <c r="W212" s="70" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="213" ht="15.0" customHeight="1">
-      <c r="A213" s="48">
+      <c r="A213" s="50">
         <v>442.0</v>
       </c>
-      <c r="B213" s="49" t="s">
+      <c r="B213" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C213" s="49" t="s">
+      <c r="C213" s="51" t="s">
         <v>678</v>
       </c>
-      <c r="D213" s="49" t="s">
+      <c r="D213" s="51" t="s">
         <v>709</v>
       </c>
-      <c r="E213" s="50" t="s">
+      <c r="E213" s="52" t="s">
         <v>710</v>
       </c>
-      <c r="F213" s="51"/>
-      <c r="G213" s="52"/>
-      <c r="H213" s="52"/>
-      <c r="I213" s="52"/>
-      <c r="J213" s="55"/>
-      <c r="K213" s="55"/>
-      <c r="L213" s="55"/>
-      <c r="M213" s="55"/>
-      <c r="N213" s="55"/>
-      <c r="O213" s="55"/>
-      <c r="P213" s="55"/>
-      <c r="Q213" s="55"/>
-      <c r="R213" s="55"/>
-      <c r="S213" s="55"/>
-      <c r="T213" s="55"/>
-      <c r="U213" s="56"/>
-      <c r="V213" s="70"/>
-      <c r="W213" s="71" t="s">
+      <c r="F213" s="53"/>
+      <c r="G213" s="54"/>
+      <c r="H213" s="54"/>
+      <c r="I213" s="54"/>
+      <c r="J213" s="57"/>
+      <c r="K213" s="57"/>
+      <c r="L213" s="57"/>
+      <c r="M213" s="57"/>
+      <c r="N213" s="57"/>
+      <c r="O213" s="57"/>
+      <c r="P213" s="57"/>
+      <c r="Q213" s="57"/>
+      <c r="R213" s="57"/>
+      <c r="S213" s="57"/>
+      <c r="T213" s="57"/>
+      <c r="U213" s="58"/>
+      <c r="V213" s="72"/>
+      <c r="W213" s="73" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="214" ht="15.0" customHeight="1">
-      <c r="A214" s="59">
+      <c r="A214" s="61">
         <v>443.0</v>
       </c>
-      <c r="B214" s="60" t="s">
+      <c r="B214" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C214" s="60" t="s">
+      <c r="C214" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D214" s="60" t="s">
+      <c r="D214" s="62" t="s">
         <v>711</v>
       </c>
-      <c r="E214" s="62" t="s">
+      <c r="E214" s="64" t="s">
         <v>712</v>
       </c>
-      <c r="F214" s="63"/>
-      <c r="G214" s="64"/>
-      <c r="H214" s="64"/>
-      <c r="I214" s="64"/>
-      <c r="J214" s="65"/>
-      <c r="K214" s="65"/>
-      <c r="L214" s="65"/>
-      <c r="M214" s="65"/>
-      <c r="N214" s="65"/>
-      <c r="O214" s="65"/>
-      <c r="P214" s="65"/>
-      <c r="Q214" s="65"/>
-      <c r="R214" s="65"/>
-      <c r="S214" s="65"/>
-      <c r="T214" s="65"/>
-      <c r="U214" s="66"/>
-      <c r="V214" s="67"/>
-      <c r="W214" s="68" t="s">
+      <c r="F214" s="65"/>
+      <c r="G214" s="66"/>
+      <c r="H214" s="66"/>
+      <c r="I214" s="66"/>
+      <c r="J214" s="67"/>
+      <c r="K214" s="67"/>
+      <c r="L214" s="67"/>
+      <c r="M214" s="67"/>
+      <c r="N214" s="67"/>
+      <c r="O214" s="67"/>
+      <c r="P214" s="67"/>
+      <c r="Q214" s="67"/>
+      <c r="R214" s="67"/>
+      <c r="S214" s="67"/>
+      <c r="T214" s="67"/>
+      <c r="U214" s="68"/>
+      <c r="V214" s="69"/>
+      <c r="W214" s="70" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="215" ht="15.0" customHeight="1">
-      <c r="A215" s="59">
+      <c r="A215" s="61">
         <v>444.0</v>
       </c>
-      <c r="B215" s="60" t="s">
+      <c r="B215" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C215" s="60" t="s">
+      <c r="C215" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="D215" s="60" t="s">
+      <c r="D215" s="62" t="s">
         <v>713</v>
       </c>
-      <c r="E215" s="62" t="s">
+      <c r="E215" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="F215" s="63"/>
-      <c r="G215" s="64"/>
-      <c r="H215" s="64"/>
-      <c r="I215" s="64"/>
-      <c r="J215" s="65"/>
-      <c r="K215" s="65"/>
-      <c r="L215" s="65"/>
-      <c r="M215" s="65"/>
-      <c r="N215" s="65"/>
-      <c r="O215" s="65"/>
-      <c r="P215" s="65"/>
-      <c r="Q215" s="65"/>
-      <c r="R215" s="65"/>
-      <c r="S215" s="65"/>
-      <c r="T215" s="65"/>
-      <c r="U215" s="66"/>
-      <c r="V215" s="67"/>
-      <c r="W215" s="68" t="s">
+      <c r="F215" s="65"/>
+      <c r="G215" s="66"/>
+      <c r="H215" s="66"/>
+      <c r="I215" s="66"/>
+      <c r="J215" s="67"/>
+      <c r="K215" s="67"/>
+      <c r="L215" s="67"/>
+      <c r="M215" s="67"/>
+      <c r="N215" s="67"/>
+      <c r="O215" s="67"/>
+      <c r="P215" s="67"/>
+      <c r="Q215" s="67"/>
+      <c r="R215" s="67"/>
+      <c r="S215" s="67"/>
+      <c r="T215" s="67"/>
+      <c r="U215" s="68"/>
+      <c r="V215" s="69"/>
+      <c r="W215" s="70" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="216" ht="15.0" customHeight="1">
-      <c r="A216" s="59">
+      <c r="A216" s="61">
         <v>445.0</v>
       </c>
-      <c r="B216" s="60" t="s">
+      <c r="B216" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C216" s="60" t="s">
+      <c r="C216" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="D216" s="60" t="s">
+      <c r="D216" s="62" t="s">
         <v>715</v>
       </c>
-      <c r="E216" s="62" t="s">
+      <c r="E216" s="64" t="s">
         <v>716</v>
       </c>
-      <c r="F216" s="63"/>
-      <c r="G216" s="64"/>
-      <c r="H216" s="64"/>
-      <c r="I216" s="64"/>
-      <c r="J216" s="65"/>
-      <c r="K216" s="65"/>
-      <c r="L216" s="65"/>
-      <c r="M216" s="65"/>
-      <c r="N216" s="65"/>
-      <c r="O216" s="65"/>
-      <c r="P216" s="65"/>
-      <c r="Q216" s="65"/>
-      <c r="R216" s="65"/>
-      <c r="S216" s="65"/>
-      <c r="T216" s="65"/>
-      <c r="U216" s="66"/>
-      <c r="V216" s="67"/>
-      <c r="W216" s="68" t="s">
+      <c r="F216" s="65"/>
+      <c r="G216" s="66"/>
+      <c r="H216" s="66"/>
+      <c r="I216" s="66"/>
+      <c r="J216" s="67"/>
+      <c r="K216" s="67"/>
+      <c r="L216" s="67"/>
+      <c r="M216" s="67"/>
+      <c r="N216" s="67"/>
+      <c r="O216" s="67"/>
+      <c r="P216" s="67"/>
+      <c r="Q216" s="67"/>
+      <c r="R216" s="67"/>
+      <c r="S216" s="67"/>
+      <c r="T216" s="67"/>
+      <c r="U216" s="68"/>
+      <c r="V216" s="69"/>
+      <c r="W216" s="70" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="217" ht="15.0" customHeight="1">
-      <c r="A217" s="48">
+      <c r="A217" s="50">
         <v>446.0</v>
       </c>
-      <c r="B217" s="49" t="s">
+      <c r="B217" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C217" s="49" t="s">
+      <c r="C217" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="D217" s="49" t="s">
+      <c r="D217" s="51" t="s">
         <v>717</v>
       </c>
-      <c r="E217" s="50" t="s">
+      <c r="E217" s="52" t="s">
         <v>718</v>
       </c>
-      <c r="F217" s="72">
-        <v>45671.0</v>
-      </c>
-      <c r="G217" s="73" t="s">
+      <c r="F217" s="74">
+        <v>45685.0</v>
+      </c>
+      <c r="G217" s="75" t="s">
         <v>719</v>
       </c>
-      <c r="H217" s="73" t="s">
+      <c r="H217" s="75" t="s">
         <v>720</v>
       </c>
-      <c r="I217" s="73" t="s">
+      <c r="I217" s="75" t="s">
         <v>721</v>
       </c>
-      <c r="J217" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="K217" s="55"/>
-      <c r="L217" s="55"/>
-      <c r="M217" s="55"/>
-      <c r="N217" s="55"/>
-      <c r="O217" s="55"/>
-      <c r="P217" s="55"/>
-      <c r="Q217" s="55"/>
-      <c r="R217" s="55"/>
-      <c r="S217" s="55"/>
-      <c r="T217" s="53" t="s">
+      <c r="J217" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="K217" s="57"/>
+      <c r="L217" s="57"/>
+      <c r="M217" s="57"/>
+      <c r="N217" s="57"/>
+      <c r="O217" s="57"/>
+      <c r="P217" s="57"/>
+      <c r="Q217" s="57"/>
+      <c r="R217" s="57"/>
+      <c r="S217" s="57"/>
+      <c r="T217" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="U217" s="56"/>
-      <c r="V217" s="70"/>
-      <c r="W217" s="71" t="s">
+      <c r="U217" s="58"/>
+      <c r="V217" s="72"/>
+      <c r="W217" s="73" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="218" ht="15.0" customHeight="1">
-      <c r="A218" s="59">
+      <c r="A218" s="61">
         <v>447.0</v>
       </c>
-      <c r="B218" s="60" t="s">
+      <c r="B218" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C218" s="60" t="s">
+      <c r="C218" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="D218" s="60" t="s">
+      <c r="D218" s="62" t="s">
         <v>722</v>
       </c>
-      <c r="E218" s="62" t="s">
+      <c r="E218" s="64" t="s">
         <v>723</v>
       </c>
-      <c r="F218" s="75">
-        <v>45671.0</v>
-      </c>
-      <c r="G218" s="76" t="s">
+      <c r="F218" s="77">
+        <v>45685.0</v>
+      </c>
+      <c r="G218" s="78" t="s">
         <v>724</v>
       </c>
-      <c r="H218" s="76" t="s">
+      <c r="H218" s="78" t="s">
         <v>725</v>
       </c>
-      <c r="I218" s="76" t="s">
+      <c r="I218" s="78" t="s">
         <v>726</v>
       </c>
-      <c r="J218" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="K218" s="65"/>
-      <c r="L218" s="65"/>
-      <c r="M218" s="65"/>
-      <c r="N218" s="65"/>
-      <c r="O218" s="65"/>
-      <c r="P218" s="65"/>
-      <c r="Q218" s="65"/>
-      <c r="R218" s="65"/>
-      <c r="S218" s="65"/>
-      <c r="T218" s="78" t="s">
+      <c r="J218" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="K218" s="67"/>
+      <c r="L218" s="67"/>
+      <c r="M218" s="67"/>
+      <c r="N218" s="67"/>
+      <c r="O218" s="67"/>
+      <c r="P218" s="67"/>
+      <c r="Q218" s="67"/>
+      <c r="R218" s="67"/>
+      <c r="S218" s="67"/>
+      <c r="T218" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="U218" s="66"/>
-      <c r="V218" s="67"/>
-      <c r="W218" s="68" t="s">
+      <c r="U218" s="68"/>
+      <c r="V218" s="69"/>
+      <c r="W218" s="70" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="219" ht="15.0" customHeight="1">
-      <c r="A219" s="59">
+      <c r="A219" s="61">
         <v>460.0</v>
       </c>
-      <c r="B219" s="60" t="s">
+      <c r="B219" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C219" s="60" t="s">
+      <c r="C219" s="62" t="s">
         <v>678</v>
       </c>
-      <c r="D219" s="60" t="s">
+      <c r="D219" s="62" t="s">
         <v>727</v>
       </c>
-      <c r="E219" s="62" t="s">
+      <c r="E219" s="64" t="s">
         <v>728</v>
       </c>
-      <c r="F219" s="63"/>
-      <c r="G219" s="64"/>
-      <c r="H219" s="64"/>
-      <c r="I219" s="64"/>
-      <c r="J219" s="65"/>
-      <c r="K219" s="65"/>
-      <c r="L219" s="65"/>
-      <c r="M219" s="65"/>
-      <c r="N219" s="65"/>
-      <c r="O219" s="65"/>
-      <c r="P219" s="65"/>
-      <c r="Q219" s="65"/>
-      <c r="R219" s="65"/>
-      <c r="S219" s="65"/>
-      <c r="T219" s="65"/>
-      <c r="U219" s="66"/>
-      <c r="V219" s="67"/>
-      <c r="W219" s="68" t="s">
+      <c r="F219" s="65"/>
+      <c r="G219" s="66"/>
+      <c r="H219" s="66"/>
+      <c r="I219" s="66"/>
+      <c r="J219" s="67"/>
+      <c r="K219" s="67"/>
+      <c r="L219" s="67"/>
+      <c r="M219" s="67"/>
+      <c r="N219" s="67"/>
+      <c r="O219" s="67"/>
+      <c r="P219" s="67"/>
+      <c r="Q219" s="67"/>
+      <c r="R219" s="67"/>
+      <c r="S219" s="67"/>
+      <c r="T219" s="67"/>
+      <c r="U219" s="68"/>
+      <c r="V219" s="69"/>
+      <c r="W219" s="70" t="s">
         <v>56</v>
       </c>
     </row>
@@ -19777,12 +19783,12 @@
   <autoFilter ref="$A$9:$W$219"/>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A3:B5"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T10:T32 T34 T36:T40 T42 T44:T48 T50:T219">
@@ -19817,42 +19823,42 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="81" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="81" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="81" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="81" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="81" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="81" t="s">
         <v>656</v>
       </c>
     </row>
@@ -20879,162 +20885,162 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>736</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="83" t="s">
         <v>737</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="83" t="s">
         <v>738</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="84" t="s">
         <v>739</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="85" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="86" t="s">
         <v>741</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="87" t="s">
         <v>742</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="87" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="86" t="s">
         <v>741</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="87" t="s">
         <v>744</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="87" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="86" t="s">
         <v>741</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="87">
         <v>446.447</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="88" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="86" t="s">
         <v>741</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="87" t="s">
         <v>747</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="87" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="86" t="s">
         <v>741</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="87" t="s">
         <v>749</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="88" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="86" t="s">
         <v>741</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="87" t="s">
         <v>751</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="88" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="86" t="s">
         <v>741</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="87" t="s">
         <v>753</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="88" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="86" t="s">
         <v>741</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="87" t="s">
         <v>755</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="88" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="86" t="s">
         <v>757</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="86" t="s">
         <v>741</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="88" t="s">
         <v>758</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="87" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="86" t="s">
         <v>678</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="86" t="s">
         <v>741</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="87" t="s">
         <v>760</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="88" t="s">
         <v>761</v>
       </c>
     </row>
@@ -24030,26 +24036,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="89" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="89" t="s">
         <v>762</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="89" t="s">
         <v>119</v>
       </c>
     </row>

--- a/GATEWAY/A1#111INFORDATADHS/INFORDATA_DIGITAL_HEALTH_SOLUTIONS/Astrolabio/11.252.694/report_checklist.xlsx
+++ b/GATEWAY/A1#111INFORDATADHS/INFORDATA_DIGITAL_HEALTH_SOLUTIONS/Astrolabio/11.252.694/report_checklist.xlsx
@@ -517,10 +517,10 @@
     </r>
   </si>
   <si>
-    <t>03 Aug 2024 07:10:27 GMT</t>
-  </si>
-  <si>
-    <t>a0092abb8d9b00d1</t>
+    <t>04 Feb 2025 09:52:27 GMT</t>
+  </si>
+  <si>
+    <t>b8b562ce8da96dd7</t>
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
@@ -679,10 +679,10 @@
     </r>
   </si>
   <si>
-    <t>27 Sep 2024 13:35:21 GMT</t>
-  </si>
-  <si>
-    <t>f1fdd874a27cd867</t>
+    <t>04 Feb 2025 10:00:24 GMT</t>
+  </si>
+  <si>
+    <t>bcbb21fb0d6c0ed7</t>
   </si>
   <si>
     <t>Campo token JWT non valido.","detail":"Il campo purpose_of_use non è valorizzato","status":403</t>
@@ -736,10 +736,10 @@
     </r>
   </si>
   <si>
-    <t>29 Nov 2024 10:10:14 GMT</t>
-  </si>
-  <si>
-    <t>9b69bc173167cad2</t>
+    <t>04 Feb 2025 09:58:30 GMT</t>
+  </si>
+  <si>
+    <t>0b835b534720e094</t>
   </si>
   <si>
     <t>Campo token JWT non valido.","detail":"Il campo purpose_of_use non è valorizzato</t>
@@ -925,10 +925,10 @@
     </r>
   </si>
   <si>
-    <t>03 Aug 2024 07:40:44 GMT</t>
-  </si>
-  <si>
-    <t>f835c4fd9e5a6b92</t>
+    <t>29 Jan 2025 14:16:17 GMT</t>
+  </si>
+  <si>
+    <t>13ae389b48178026</t>
   </si>
   <si>
     <t>Campo token JWT non valido.","detail":"Il campo action_id non è corretto","status":403,"instance":"/jwt-mandatory-field-malformed</t>
@@ -1069,10 +1069,10 @@
     </r>
   </si>
   <si>
-    <t>27 Sep 2024 13:58:38 GMT</t>
-  </si>
-  <si>
-    <t>266ce14173fbafbb</t>
+    <t>29 Jan 2025 14:34:54 GMT</t>
+  </si>
+  <si>
+    <t>5769ae89c51bcd07</t>
   </si>
   <si>
     <t>Campo token JWT non valido.","detail":"Il campo action_id non è corretto","status":403</t>
@@ -1123,10 +1123,10 @@
     </r>
   </si>
   <si>
-    <t>29 Nov 2024 13:06:09 GMT</t>
-  </si>
-  <si>
-    <t>777d7b0bdb6e6cd2</t>
+    <t>29 Jan 2025 14:35:30 GMT</t>
+  </si>
+  <si>
+    <t>c9a58ff63cd205ca</t>
   </si>
   <si>
     <t>Campo token JWT non valido.","detail":"Il campo action_id non è corretto</t>
@@ -2346,13 +2346,13 @@
 </t>
   </si>
   <si>
-    <t>28 Jan 2025 11:14:27 GMT</t>
-  </si>
-  <si>
-    <t>b67535f004b8863f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.4db7281409a261000bff82b94f9af4c71012029c57b8e562a25254d7c136d90e.a5bb02d496^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>29 Jan 2025 13:35:32 GMT</t>
+  </si>
+  <si>
+    <t>de6f4c77a68db5b3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.523a8519f383234ca77581069a8533f6bdead73270a633fbe28b16c7f649e7a4.4d01353df8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT3</t>
@@ -2380,13 +2380,13 @@
 </t>
   </si>
   <si>
-    <t>28 Jan 2025 11:33:27 GMT</t>
-  </si>
-  <si>
-    <t>e75fbe78777722b1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.c63e7d3fab0d0c0093cb000c524e47b1e4a02a50e8ae23883db858745c6bbca7.c0f1d4caae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>29 Jan 2025 13:44:14 GMT</t>
+  </si>
+  <si>
+    <t>71ae3a84fe480f4e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.0e7af02b55e17811a3332140970db80bc27b8e36db66de478199c366a9cb0ae4.2f65970147^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT5_KO</t>
@@ -3183,13 +3183,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>28 Jan 2025 11:45:12 GMT</t>
-  </si>
-  <si>
-    <t>05817e86ca9ee7fe</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.21398def2f954c025bcc097fe145b039bf7741e26da21d24dcb18b26af76e891.87c6b1e3c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>29 Jan 2025 13:38:07 GMT</t>
+  </si>
+  <si>
+    <t>c61bf649379891a4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.49b1e23204f07fd62b3cd319fe72fd5c5b0b6f468c08e0aba48e35df7655be7f.9995a569a0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAP_CT24</t>
@@ -3988,6 +3988,9 @@
     <xf borderId="20" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="21" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -3999,9 +4002,6 @@
     </xf>
     <xf borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -7698,13 +7698,13 @@
       <c r="E31" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="34">
-        <v>45507.0</v>
-      </c>
-      <c r="G31" s="41" t="s">
+      <c r="F31" s="44">
+        <v>45692.0</v>
+      </c>
+      <c r="G31" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="H31" s="44" t="s">
+      <c r="H31" s="45" t="s">
         <v>116</v>
       </c>
       <c r="I31" s="41" t="s">
@@ -7733,7 +7733,7 @@
       <c r="R31" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="S31" s="45" t="s">
+      <c r="S31" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T31" s="37"/>
@@ -7833,42 +7833,42 @@
       <c r="E34" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="34">
-        <v>45562.0</v>
-      </c>
-      <c r="G34" s="41" t="s">
+      <c r="F34" s="44">
+        <v>45692.0</v>
+      </c>
+      <c r="G34" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="45" t="s">
         <v>131</v>
       </c>
       <c r="I34" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="J34" s="46" t="s">
+      <c r="J34" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
-      <c r="M34" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="N34" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="O34" s="46" t="s">
+      <c r="M34" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="N34" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="O34" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="P34" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q34" s="46" t="s">
+      <c r="P34" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q34" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R34" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S34" s="45" t="s">
+      <c r="R34" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S34" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T34" s="37"/>
@@ -7894,42 +7894,42 @@
       <c r="E35" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="34">
-        <v>45625.0</v>
-      </c>
-      <c r="G35" s="41" t="s">
+      <c r="F35" s="44">
+        <v>45692.0</v>
+      </c>
+      <c r="G35" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="45" t="s">
         <v>137</v>
       </c>
       <c r="I35" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="46" t="s">
+      <c r="J35" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
-      <c r="M35" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="N35" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="O35" s="46" t="s">
+      <c r="M35" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="N35" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="O35" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="P35" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q35" s="46" t="s">
+      <c r="P35" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q35" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R35" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S35" s="45" t="s">
+      <c r="R35" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S35" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T35" s="37"/>
@@ -8066,42 +8066,42 @@
       <c r="E39" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="F39" s="34">
-        <v>45507.0</v>
-      </c>
-      <c r="G39" s="41" t="s">
+      <c r="F39" s="44">
+        <v>45686.0</v>
+      </c>
+      <c r="G39" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="H39" s="44" t="s">
+      <c r="H39" s="45" t="s">
         <v>148</v>
       </c>
       <c r="I39" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="J39" s="46" t="s">
+      <c r="J39" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
-      <c r="M39" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N39" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O39" s="46" t="s">
+      <c r="M39" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N39" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O39" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="P39" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q39" s="46" t="s">
+      <c r="P39" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q39" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R39" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S39" s="45" t="s">
+      <c r="R39" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S39" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T39" s="37"/>
@@ -8201,42 +8201,42 @@
       <c r="E42" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="34">
-        <v>45562.0</v>
-      </c>
-      <c r="G42" s="41" t="s">
+      <c r="F42" s="44">
+        <v>45686.0</v>
+      </c>
+      <c r="G42" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="H42" s="44" t="s">
+      <c r="H42" s="45" t="s">
         <v>157</v>
       </c>
       <c r="I42" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="J42" s="46" t="s">
+      <c r="J42" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K42" s="37"/>
       <c r="L42" s="37"/>
-      <c r="M42" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N42" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O42" s="46" t="s">
+      <c r="M42" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N42" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O42" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="P42" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q42" s="46" t="s">
+      <c r="P42" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q42" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R42" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S42" s="45" t="s">
+      <c r="R42" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S42" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T42" s="37"/>
@@ -8262,42 +8262,42 @@
       <c r="E43" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="F43" s="34">
-        <v>45625.0</v>
-      </c>
-      <c r="G43" s="41" t="s">
+      <c r="F43" s="44">
+        <v>45686.0</v>
+      </c>
+      <c r="G43" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="H43" s="44" t="s">
+      <c r="H43" s="45" t="s">
         <v>162</v>
       </c>
       <c r="I43" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="J43" s="46" t="s">
+      <c r="J43" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K43" s="37"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N43" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O43" s="46" t="s">
+      <c r="M43" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N43" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O43" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="P43" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q43" s="46" t="s">
+      <c r="P43" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q43" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R43" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S43" s="45" t="s">
+      <c r="R43" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S43" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T43" s="37"/>
@@ -8443,25 +8443,25 @@
       </c>
       <c r="K47" s="37"/>
       <c r="L47" s="37"/>
-      <c r="M47" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N47" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O47" s="46" t="s">
+      <c r="M47" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N47" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O47" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="P47" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q47" s="46" t="s">
+      <c r="P47" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q47" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R47" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S47" s="46" t="s">
+      <c r="R47" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S47" s="47" t="s">
         <v>173</v>
       </c>
       <c r="T47" s="37"/>
@@ -8576,25 +8576,25 @@
       </c>
       <c r="K50" s="37"/>
       <c r="L50" s="37"/>
-      <c r="M50" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N50" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O50" s="46" t="s">
+      <c r="M50" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N50" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O50" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="P50" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q50" s="46" t="s">
+      <c r="P50" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q50" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R50" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S50" s="46" t="s">
+      <c r="R50" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S50" s="47" t="s">
         <v>173</v>
       </c>
       <c r="T50" s="37"/>
@@ -8631,25 +8631,25 @@
       </c>
       <c r="K51" s="37"/>
       <c r="L51" s="37"/>
-      <c r="M51" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N51" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O51" s="46" t="s">
+      <c r="M51" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N51" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O51" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="P51" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q51" s="46" t="s">
+      <c r="P51" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q51" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R51" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S51" s="46" t="s">
+      <c r="R51" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S51" s="47" t="s">
         <v>173</v>
       </c>
       <c r="T51" s="37"/>
@@ -8806,30 +8806,30 @@
       <c r="I55" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="J55" s="46" t="s">
+      <c r="J55" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K55" s="37"/>
       <c r="L55" s="37"/>
-      <c r="M55" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N55" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O55" s="46" t="s">
+      <c r="M55" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N55" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O55" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="P55" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q55" s="46" t="s">
+      <c r="P55" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q55" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R55" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S55" s="45" t="s">
+      <c r="R55" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S55" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T55" s="37"/>
@@ -8867,30 +8867,30 @@
       <c r="I56" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="J56" s="46" t="s">
+      <c r="J56" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K56" s="37"/>
       <c r="L56" s="37"/>
-      <c r="M56" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N56" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O56" s="46" t="s">
+      <c r="M56" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N56" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O56" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="P56" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q56" s="46" t="s">
+      <c r="P56" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q56" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R56" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S56" s="45" t="s">
+      <c r="R56" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S56" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T56" s="37"/>
@@ -8928,30 +8928,30 @@
       <c r="I57" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="J57" s="46" t="s">
+      <c r="J57" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K57" s="37"/>
       <c r="L57" s="37"/>
-      <c r="M57" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N57" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O57" s="46" t="s">
+      <c r="M57" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N57" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O57" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="P57" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q57" s="46" t="s">
+      <c r="P57" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q57" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R57" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S57" s="45" t="s">
+      <c r="R57" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S57" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T57" s="37"/>
@@ -8989,30 +8989,30 @@
       <c r="I58" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="J58" s="46" t="s">
+      <c r="J58" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K58" s="37"/>
       <c r="L58" s="37"/>
-      <c r="M58" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N58" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O58" s="46" t="s">
+      <c r="M58" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N58" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O58" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="P58" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q58" s="46" t="s">
+      <c r="P58" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q58" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R58" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S58" s="45" t="s">
+      <c r="R58" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S58" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T58" s="37"/>
@@ -9050,30 +9050,30 @@
       <c r="I59" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="J59" s="46" t="s">
+      <c r="J59" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K59" s="37"/>
       <c r="L59" s="37"/>
-      <c r="M59" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N59" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O59" s="46" t="s">
+      <c r="M59" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N59" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O59" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="P59" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q59" s="46" t="s">
+      <c r="P59" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q59" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R59" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S59" s="45" t="s">
+      <c r="R59" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S59" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T59" s="37"/>
@@ -9111,30 +9111,30 @@
       <c r="I60" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="J60" s="46" t="s">
+      <c r="J60" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K60" s="37"/>
       <c r="L60" s="37"/>
-      <c r="M60" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N60" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O60" s="46" t="s">
+      <c r="M60" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N60" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O60" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="P60" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q60" s="46" t="s">
+      <c r="P60" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q60" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R60" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S60" s="45" t="s">
+      <c r="R60" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S60" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T60" s="37"/>
@@ -9172,30 +9172,30 @@
       <c r="I61" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="J61" s="46" t="s">
+      <c r="J61" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K61" s="37"/>
       <c r="L61" s="37"/>
-      <c r="M61" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N61" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O61" s="46" t="s">
+      <c r="M61" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N61" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O61" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="P61" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q61" s="46" t="s">
+      <c r="P61" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q61" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R61" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S61" s="45" t="s">
+      <c r="R61" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S61" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T61" s="37"/>
@@ -9233,30 +9233,30 @@
       <c r="I62" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="J62" s="46" t="s">
+      <c r="J62" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K62" s="37"/>
       <c r="L62" s="37"/>
-      <c r="M62" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N62" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O62" s="46" t="s">
+      <c r="M62" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N62" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O62" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="P62" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q62" s="46" t="s">
+      <c r="P62" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q62" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R62" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S62" s="45" t="s">
+      <c r="R62" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S62" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T62" s="37"/>
@@ -9294,30 +9294,30 @@
       <c r="I63" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="J63" s="46" t="s">
+      <c r="J63" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K63" s="37"/>
       <c r="L63" s="37"/>
-      <c r="M63" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N63" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O63" s="46" t="s">
+      <c r="M63" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N63" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O63" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="P63" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q63" s="46" t="s">
+      <c r="P63" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q63" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R63" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S63" s="45" t="s">
+      <c r="R63" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S63" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T63" s="37"/>
@@ -9355,30 +9355,30 @@
       <c r="I64" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="J64" s="46" t="s">
+      <c r="J64" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K64" s="37"/>
       <c r="L64" s="37"/>
-      <c r="M64" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N64" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O64" s="46" t="s">
+      <c r="M64" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N64" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O64" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="P64" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q64" s="46" t="s">
+      <c r="P64" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q64" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R64" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S64" s="45" t="s">
+      <c r="R64" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S64" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T64" s="37"/>
@@ -9416,30 +9416,30 @@
       <c r="I65" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="J65" s="46" t="s">
+      <c r="J65" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K65" s="37"/>
       <c r="L65" s="37"/>
-      <c r="M65" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N65" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O65" s="46" t="s">
+      <c r="M65" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N65" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O65" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="P65" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q65" s="46" t="s">
+      <c r="P65" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q65" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R65" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S65" s="45" t="s">
+      <c r="R65" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S65" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T65" s="37"/>
@@ -9921,30 +9921,30 @@
       <c r="I78" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="J78" s="46" t="s">
+      <c r="J78" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K78" s="37"/>
       <c r="L78" s="37"/>
-      <c r="M78" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N78" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O78" s="46" t="s">
+      <c r="M78" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N78" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O78" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="P78" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q78" s="46" t="s">
+      <c r="P78" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q78" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R78" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S78" s="45" t="s">
+      <c r="R78" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S78" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T78" s="37"/>
@@ -9982,30 +9982,30 @@
       <c r="I79" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="J79" s="46" t="s">
+      <c r="J79" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K79" s="37"/>
       <c r="L79" s="37"/>
-      <c r="M79" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N79" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O79" s="46" t="s">
+      <c r="M79" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N79" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O79" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="P79" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q79" s="46" t="s">
+      <c r="P79" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q79" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R79" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S79" s="45" t="s">
+      <c r="R79" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S79" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T79" s="37"/>
@@ -10043,30 +10043,30 @@
       <c r="I80" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="J80" s="46" t="s">
+      <c r="J80" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K80" s="37"/>
       <c r="L80" s="37"/>
-      <c r="M80" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N80" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O80" s="46" t="s">
+      <c r="M80" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N80" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O80" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="P80" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q80" s="46" t="s">
+      <c r="P80" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q80" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R80" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S80" s="45" t="s">
+      <c r="R80" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S80" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T80" s="37"/>
@@ -10104,30 +10104,30 @@
       <c r="I81" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="J81" s="46" t="s">
+      <c r="J81" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K81" s="37"/>
       <c r="L81" s="37"/>
-      <c r="M81" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N81" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O81" s="46" t="s">
+      <c r="M81" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N81" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O81" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="P81" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q81" s="46" t="s">
+      <c r="P81" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q81" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R81" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S81" s="45" t="s">
+      <c r="R81" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S81" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T81" s="37"/>
@@ -10165,30 +10165,30 @@
       <c r="I82" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="J82" s="46" t="s">
+      <c r="J82" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K82" s="37"/>
       <c r="L82" s="37"/>
-      <c r="M82" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N82" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O82" s="46" t="s">
+      <c r="M82" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N82" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O82" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="P82" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q82" s="46" t="s">
+      <c r="P82" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q82" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R82" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S82" s="45" t="s">
+      <c r="R82" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S82" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T82" s="37"/>
@@ -10226,30 +10226,30 @@
       <c r="I83" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="J83" s="46" t="s">
+      <c r="J83" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K83" s="37"/>
       <c r="L83" s="37"/>
-      <c r="M83" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N83" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O83" s="46" t="s">
+      <c r="M83" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N83" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O83" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="P83" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q83" s="46" t="s">
+      <c r="P83" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q83" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R83" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S83" s="45" t="s">
+      <c r="R83" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S83" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T83" s="37"/>
@@ -10287,30 +10287,30 @@
       <c r="I84" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="J84" s="46" t="s">
+      <c r="J84" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K84" s="37"/>
       <c r="L84" s="37"/>
-      <c r="M84" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N84" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O84" s="46" t="s">
+      <c r="M84" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N84" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O84" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="P84" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q84" s="46" t="s">
+      <c r="P84" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q84" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R84" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S84" s="45" t="s">
+      <c r="R84" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S84" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T84" s="37"/>
@@ -10348,30 +10348,30 @@
       <c r="I85" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="J85" s="46" t="s">
+      <c r="J85" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K85" s="37"/>
       <c r="L85" s="37"/>
-      <c r="M85" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N85" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O85" s="46" t="s">
+      <c r="M85" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N85" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O85" s="47" t="s">
         <v>316</v>
       </c>
-      <c r="P85" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q85" s="46" t="s">
+      <c r="P85" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q85" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R85" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S85" s="45" t="s">
+      <c r="R85" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S85" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T85" s="37"/>
@@ -10409,30 +10409,30 @@
       <c r="I86" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="J86" s="46" t="s">
+      <c r="J86" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K86" s="37"/>
       <c r="L86" s="37"/>
-      <c r="M86" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N86" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O86" s="46" t="s">
+      <c r="M86" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N86" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O86" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="P86" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q86" s="46" t="s">
+      <c r="P86" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q86" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R86" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S86" s="45" t="s">
+      <c r="R86" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S86" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T86" s="37"/>
@@ -10470,30 +10470,30 @@
       <c r="I87" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="J87" s="46" t="s">
+      <c r="J87" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K87" s="37"/>
       <c r="L87" s="37"/>
-      <c r="M87" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N87" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O87" s="46" t="s">
+      <c r="M87" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N87" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O87" s="47" t="s">
         <v>328</v>
       </c>
-      <c r="P87" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q87" s="46" t="s">
+      <c r="P87" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q87" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R87" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S87" s="45" t="s">
+      <c r="R87" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S87" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T87" s="37"/>
@@ -10531,30 +10531,30 @@
       <c r="I88" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="J88" s="46" t="s">
+      <c r="J88" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K88" s="37"/>
       <c r="L88" s="37"/>
-      <c r="M88" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N88" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O88" s="46" t="s">
+      <c r="M88" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N88" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O88" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="P88" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q88" s="46" t="s">
+      <c r="P88" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q88" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R88" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S88" s="45" t="s">
+      <c r="R88" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S88" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T88" s="37"/>
@@ -10592,30 +10592,30 @@
       <c r="I89" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="J89" s="46" t="s">
+      <c r="J89" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K89" s="37"/>
       <c r="L89" s="37"/>
-      <c r="M89" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N89" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O89" s="46" t="s">
+      <c r="M89" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N89" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O89" s="47" t="s">
         <v>340</v>
       </c>
-      <c r="P89" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q89" s="46" t="s">
+      <c r="P89" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q89" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R89" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S89" s="45" t="s">
+      <c r="R89" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S89" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T89" s="37"/>
@@ -10653,30 +10653,30 @@
       <c r="I90" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="J90" s="46" t="s">
+      <c r="J90" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K90" s="37"/>
       <c r="L90" s="37"/>
-      <c r="M90" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N90" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O90" s="46" t="s">
+      <c r="M90" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N90" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O90" s="47" t="s">
         <v>346</v>
       </c>
-      <c r="P90" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q90" s="46" t="s">
+      <c r="P90" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q90" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R90" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S90" s="45" t="s">
+      <c r="R90" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S90" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T90" s="37"/>
@@ -10714,30 +10714,30 @@
       <c r="I91" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="J91" s="46" t="s">
+      <c r="J91" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K91" s="37"/>
       <c r="L91" s="37"/>
-      <c r="M91" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N91" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O91" s="46" t="s">
+      <c r="M91" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N91" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O91" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="P91" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q91" s="46" t="s">
+      <c r="P91" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q91" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R91" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S91" s="45" t="s">
+      <c r="R91" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S91" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T91" s="37"/>
@@ -10775,30 +10775,30 @@
       <c r="I92" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="J92" s="46" t="s">
+      <c r="J92" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K92" s="37"/>
       <c r="L92" s="37"/>
-      <c r="M92" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N92" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O92" s="46" t="s">
+      <c r="M92" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N92" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O92" s="47" t="s">
         <v>358</v>
       </c>
-      <c r="P92" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q92" s="46" t="s">
+      <c r="P92" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q92" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R92" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S92" s="45" t="s">
+      <c r="R92" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S92" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T92" s="37"/>
@@ -10836,30 +10836,30 @@
       <c r="I93" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="J93" s="46" t="s">
+      <c r="J93" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K93" s="37"/>
       <c r="L93" s="37"/>
-      <c r="M93" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N93" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O93" s="46" t="s">
+      <c r="M93" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N93" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O93" s="47" t="s">
         <v>364</v>
       </c>
-      <c r="P93" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q93" s="46" t="s">
+      <c r="P93" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q93" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R93" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S93" s="45" t="s">
+      <c r="R93" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S93" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T93" s="37"/>
@@ -10897,30 +10897,30 @@
       <c r="I94" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="J94" s="46" t="s">
+      <c r="J94" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K94" s="37"/>
       <c r="L94" s="37"/>
-      <c r="M94" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N94" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O94" s="46" t="s">
+      <c r="M94" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N94" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O94" s="47" t="s">
         <v>370</v>
       </c>
-      <c r="P94" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q94" s="46" t="s">
+      <c r="P94" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q94" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R94" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S94" s="45" t="s">
+      <c r="R94" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S94" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T94" s="37"/>
@@ -10958,30 +10958,30 @@
       <c r="I95" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="J95" s="46" t="s">
+      <c r="J95" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K95" s="37"/>
       <c r="L95" s="37"/>
-      <c r="M95" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N95" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O95" s="46" t="s">
+      <c r="M95" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N95" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O95" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="P95" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q95" s="46" t="s">
+      <c r="P95" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q95" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R95" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S95" s="45" t="s">
+      <c r="R95" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S95" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T95" s="37"/>
@@ -11019,30 +11019,30 @@
       <c r="I96" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="J96" s="46" t="s">
+      <c r="J96" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K96" s="37"/>
       <c r="L96" s="37"/>
-      <c r="M96" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N96" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O96" s="46" t="s">
+      <c r="M96" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N96" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O96" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="P96" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q96" s="46" t="s">
+      <c r="P96" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q96" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R96" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S96" s="45" t="s">
+      <c r="R96" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S96" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T96" s="37"/>
@@ -13029,19 +13029,19 @@
       <c r="E150" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="F150" s="48">
+      <c r="F150" s="44">
         <v>45685.0</v>
       </c>
-      <c r="G150" s="44" t="s">
+      <c r="G150" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="H150" s="44" t="s">
+      <c r="H150" s="45" t="s">
         <v>492</v>
       </c>
-      <c r="I150" s="44" t="s">
+      <c r="I150" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="J150" s="46" t="s">
+      <c r="J150" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K150" s="37"/>
@@ -13078,19 +13078,19 @@
       <c r="E151" s="33" t="s">
         <v>495</v>
       </c>
-      <c r="F151" s="48">
-        <v>45685.0</v>
-      </c>
-      <c r="G151" s="44" t="s">
+      <c r="F151" s="44">
+        <v>45686.0</v>
+      </c>
+      <c r="G151" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="H151" s="44" t="s">
+      <c r="H151" s="45" t="s">
         <v>497</v>
       </c>
-      <c r="I151" s="44" t="s">
+      <c r="I151" s="45" t="s">
         <v>498</v>
       </c>
-      <c r="J151" s="46" t="s">
+      <c r="J151" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K151" s="37"/>
@@ -13127,19 +13127,19 @@
       <c r="E152" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="F152" s="48">
+      <c r="F152" s="44">
         <v>45685.0</v>
       </c>
-      <c r="G152" s="44" t="s">
+      <c r="G152" s="45" t="s">
         <v>501</v>
       </c>
-      <c r="H152" s="44" t="s">
+      <c r="H152" s="45" t="s">
         <v>502</v>
       </c>
-      <c r="I152" s="44" t="s">
+      <c r="I152" s="45" t="s">
         <v>503</v>
       </c>
-      <c r="J152" s="46" t="s">
+      <c r="J152" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K152" s="37"/>
@@ -13176,19 +13176,19 @@
       <c r="E153" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="F153" s="48">
-        <v>45685.0</v>
-      </c>
-      <c r="G153" s="44" t="s">
+      <c r="F153" s="44">
+        <v>45686.0</v>
+      </c>
+      <c r="G153" s="45" t="s">
         <v>506</v>
       </c>
-      <c r="H153" s="44" t="s">
+      <c r="H153" s="45" t="s">
         <v>507</v>
       </c>
-      <c r="I153" s="44" t="s">
+      <c r="I153" s="45" t="s">
         <v>508</v>
       </c>
-      <c r="J153" s="46" t="s">
+      <c r="J153" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K153" s="37"/>
@@ -13237,30 +13237,30 @@
       <c r="I154" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="J154" s="46" t="s">
+      <c r="J154" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K154" s="37"/>
       <c r="L154" s="37"/>
-      <c r="M154" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N154" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O154" s="46" t="s">
+      <c r="M154" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N154" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O154" s="47" t="s">
         <v>514</v>
       </c>
-      <c r="P154" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q154" s="46" t="s">
+      <c r="P154" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q154" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R154" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S154" s="45" t="s">
+      <c r="R154" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S154" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T154" s="36"/>
@@ -13298,30 +13298,30 @@
       <c r="I155" s="41" t="s">
         <v>519</v>
       </c>
-      <c r="J155" s="46" t="s">
+      <c r="J155" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K155" s="37"/>
       <c r="L155" s="37"/>
-      <c r="M155" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N155" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O155" s="46" t="s">
+      <c r="M155" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N155" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O155" s="47" t="s">
         <v>520</v>
       </c>
-      <c r="P155" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q155" s="46" t="s">
+      <c r="P155" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q155" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R155" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S155" s="45" t="s">
+      <c r="R155" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S155" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T155" s="37"/>
@@ -13359,30 +13359,30 @@
       <c r="I156" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="J156" s="46" t="s">
+      <c r="J156" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K156" s="37"/>
       <c r="L156" s="37"/>
-      <c r="M156" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N156" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O156" s="46" t="s">
+      <c r="M156" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N156" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O156" s="47" t="s">
         <v>526</v>
       </c>
-      <c r="P156" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q156" s="46" t="s">
+      <c r="P156" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q156" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R156" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S156" s="45" t="s">
+      <c r="R156" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S156" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T156" s="37"/>
@@ -13420,30 +13420,30 @@
       <c r="I157" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="J157" s="46" t="s">
+      <c r="J157" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K157" s="37"/>
       <c r="L157" s="37"/>
-      <c r="M157" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N157" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O157" s="46" t="s">
+      <c r="M157" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N157" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O157" s="47" t="s">
         <v>532</v>
       </c>
-      <c r="P157" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q157" s="46" t="s">
+      <c r="P157" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q157" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R157" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S157" s="45" t="s">
+      <c r="R157" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S157" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T157" s="37"/>
@@ -13481,30 +13481,30 @@
       <c r="I158" s="41" t="s">
         <v>537</v>
       </c>
-      <c r="J158" s="46" t="s">
+      <c r="J158" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K158" s="37"/>
       <c r="L158" s="37"/>
-      <c r="M158" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N158" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O158" s="46" t="s">
+      <c r="M158" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N158" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O158" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="P158" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q158" s="46" t="s">
+      <c r="P158" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q158" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R158" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S158" s="45" t="s">
+      <c r="R158" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S158" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T158" s="37"/>
@@ -13542,30 +13542,30 @@
       <c r="I159" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="J159" s="46" t="s">
+      <c r="J159" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K159" s="37"/>
       <c r="L159" s="37"/>
-      <c r="M159" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N159" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O159" s="46" t="s">
+      <c r="M159" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N159" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O159" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="P159" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q159" s="46" t="s">
+      <c r="P159" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q159" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R159" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S159" s="45" t="s">
+      <c r="R159" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S159" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T159" s="37"/>
@@ -13603,30 +13603,30 @@
       <c r="I160" s="41" t="s">
         <v>548</v>
       </c>
-      <c r="J160" s="46" t="s">
+      <c r="J160" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K160" s="37"/>
       <c r="L160" s="37"/>
-      <c r="M160" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N160" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O160" s="46" t="s">
+      <c r="M160" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N160" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O160" s="47" t="s">
         <v>549</v>
       </c>
-      <c r="P160" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q160" s="46" t="s">
+      <c r="P160" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q160" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R160" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S160" s="45" t="s">
+      <c r="R160" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S160" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T160" s="37"/>
@@ -13664,30 +13664,30 @@
       <c r="I161" s="41" t="s">
         <v>554</v>
       </c>
-      <c r="J161" s="46" t="s">
+      <c r="J161" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K161" s="37"/>
       <c r="L161" s="37"/>
-      <c r="M161" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N161" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O161" s="46" t="s">
+      <c r="M161" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N161" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O161" s="47" t="s">
         <v>555</v>
       </c>
-      <c r="P161" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q161" s="46" t="s">
+      <c r="P161" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q161" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R161" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S161" s="45" t="s">
+      <c r="R161" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S161" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T161" s="37"/>
@@ -13725,30 +13725,30 @@
       <c r="I162" s="41" t="s">
         <v>560</v>
       </c>
-      <c r="J162" s="46" t="s">
+      <c r="J162" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K162" s="37"/>
       <c r="L162" s="37"/>
-      <c r="M162" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N162" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O162" s="46" t="s">
+      <c r="M162" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N162" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O162" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="P162" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q162" s="46" t="s">
+      <c r="P162" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q162" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R162" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S162" s="45" t="s">
+      <c r="R162" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S162" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T162" s="37"/>
@@ -13786,30 +13786,30 @@
       <c r="I163" s="41" t="s">
         <v>565</v>
       </c>
-      <c r="J163" s="46" t="s">
+      <c r="J163" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K163" s="37"/>
       <c r="L163" s="37"/>
-      <c r="M163" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N163" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O163" s="46" t="s">
+      <c r="M163" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N163" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O163" s="47" t="s">
         <v>566</v>
       </c>
-      <c r="P163" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q163" s="46" t="s">
+      <c r="P163" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q163" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R163" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S163" s="45" t="s">
+      <c r="R163" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S163" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T163" s="37"/>
@@ -13847,30 +13847,30 @@
       <c r="I164" s="41" t="s">
         <v>571</v>
       </c>
-      <c r="J164" s="46" t="s">
+      <c r="J164" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K164" s="37"/>
       <c r="L164" s="37"/>
-      <c r="M164" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N164" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O164" s="46" t="s">
+      <c r="M164" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N164" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O164" s="47" t="s">
         <v>572</v>
       </c>
-      <c r="P164" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q164" s="46" t="s">
+      <c r="P164" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q164" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R164" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S164" s="45" t="s">
+      <c r="R164" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S164" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T164" s="37"/>
@@ -13908,30 +13908,30 @@
       <c r="I165" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="J165" s="46" t="s">
+      <c r="J165" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K165" s="37"/>
       <c r="L165" s="37"/>
-      <c r="M165" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N165" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O165" s="46" t="s">
+      <c r="M165" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N165" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O165" s="47" t="s">
         <v>578</v>
       </c>
-      <c r="P165" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q165" s="46" t="s">
+      <c r="P165" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q165" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R165" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S165" s="45" t="s">
+      <c r="R165" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S165" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T165" s="37"/>
@@ -13969,30 +13969,30 @@
       <c r="I166" s="41" t="s">
         <v>583</v>
       </c>
-      <c r="J166" s="46" t="s">
+      <c r="J166" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K166" s="37"/>
       <c r="L166" s="37"/>
-      <c r="M166" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N166" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O166" s="46" t="s">
+      <c r="M166" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N166" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O166" s="47" t="s">
         <v>584</v>
       </c>
-      <c r="P166" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q166" s="46" t="s">
+      <c r="P166" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q166" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R166" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S166" s="45" t="s">
+      <c r="R166" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S166" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T166" s="37"/>
@@ -14030,30 +14030,30 @@
       <c r="I167" s="41" t="s">
         <v>589</v>
       </c>
-      <c r="J167" s="46" t="s">
+      <c r="J167" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K167" s="37"/>
       <c r="L167" s="37"/>
-      <c r="M167" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N167" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O167" s="46" t="s">
+      <c r="M167" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N167" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O167" s="47" t="s">
         <v>590</v>
       </c>
-      <c r="P167" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q167" s="46" t="s">
+      <c r="P167" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q167" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R167" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S167" s="45" t="s">
+      <c r="R167" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S167" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T167" s="37"/>
@@ -14091,30 +14091,30 @@
       <c r="I168" s="41" t="s">
         <v>595</v>
       </c>
-      <c r="J168" s="46" t="s">
+      <c r="J168" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K168" s="37"/>
       <c r="L168" s="37"/>
-      <c r="M168" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N168" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O168" s="46" t="s">
+      <c r="M168" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N168" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O168" s="47" t="s">
         <v>596</v>
       </c>
-      <c r="P168" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q168" s="46" t="s">
+      <c r="P168" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q168" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R168" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S168" s="45" t="s">
+      <c r="R168" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S168" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T168" s="37"/>
@@ -14152,30 +14152,30 @@
       <c r="I169" s="41" t="s">
         <v>601</v>
       </c>
-      <c r="J169" s="46" t="s">
+      <c r="J169" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K169" s="37"/>
       <c r="L169" s="37"/>
-      <c r="M169" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N169" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O169" s="46" t="s">
+      <c r="M169" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N169" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O169" s="47" t="s">
         <v>602</v>
       </c>
-      <c r="P169" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q169" s="46" t="s">
+      <c r="P169" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q169" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R169" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S169" s="45" t="s">
+      <c r="R169" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S169" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T169" s="37"/>
@@ -14213,30 +14213,30 @@
       <c r="I170" s="41" t="s">
         <v>607</v>
       </c>
-      <c r="J170" s="46" t="s">
+      <c r="J170" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K170" s="37"/>
       <c r="L170" s="37"/>
-      <c r="M170" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N170" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O170" s="46" t="s">
+      <c r="M170" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N170" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O170" s="47" t="s">
         <v>608</v>
       </c>
-      <c r="P170" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q170" s="46" t="s">
+      <c r="P170" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q170" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R170" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S170" s="45" t="s">
+      <c r="R170" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S170" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T170" s="37"/>
@@ -14274,30 +14274,30 @@
       <c r="I171" s="41" t="s">
         <v>613</v>
       </c>
-      <c r="J171" s="46" t="s">
+      <c r="J171" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K171" s="37"/>
       <c r="L171" s="37"/>
-      <c r="M171" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N171" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O171" s="46" t="s">
+      <c r="M171" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N171" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O171" s="47" t="s">
         <v>549</v>
       </c>
-      <c r="P171" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q171" s="46" t="s">
+      <c r="P171" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q171" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R171" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S171" s="45" t="s">
+      <c r="R171" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S171" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T171" s="37"/>
@@ -14335,30 +14335,30 @@
       <c r="I172" s="41" t="s">
         <v>618</v>
       </c>
-      <c r="J172" s="46" t="s">
+      <c r="J172" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K172" s="37"/>
       <c r="L172" s="37"/>
-      <c r="M172" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="N172" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O172" s="46" t="s">
+      <c r="M172" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N172" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O172" s="47" t="s">
         <v>619</v>
       </c>
-      <c r="P172" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q172" s="46" t="s">
+      <c r="P172" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q172" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="R172" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="S172" s="45" t="s">
+      <c r="R172" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="S172" s="46" t="s">
         <v>120</v>
       </c>
       <c r="T172" s="37"/>
@@ -15068,7 +15068,7 @@
       <c r="I191" s="41" t="s">
         <v>662</v>
       </c>
-      <c r="J191" s="46" t="s">
+      <c r="J191" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K191" s="37"/>
@@ -15265,7 +15265,7 @@
       <c r="I196" s="41" t="s">
         <v>675</v>
       </c>
-      <c r="J196" s="46" t="s">
+      <c r="J196" s="47" t="s">
         <v>54</v>
       </c>
       <c r="K196" s="37"/>
@@ -16098,7 +16098,7 @@
         <v>723</v>
       </c>
       <c r="F218" s="77">
-        <v>45685.0</v>
+        <v>45686.0</v>
       </c>
       <c r="G218" s="78" t="s">
         <v>724</v>
